--- a/hardware/library/Component_Library.xlsx
+++ b/hardware/library/Component_Library.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajat\OneDrive\Low Power\Project\github\ecen5833_s22_lpedt_project\hardware\library\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02599EE-11F5-4D81-90DA-1B5641A68538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="BQ25570" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="EFR32BG13" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="AS5147P" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BQ25570" sheetId="2" r:id="rId2"/>
+    <sheet name="EFR32BG13" sheetId="3" r:id="rId3"/>
+    <sheet name="AS5147P" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="199">
   <si>
     <t>Part Description</t>
   </si>
@@ -599,33 +608,64 @@
   </si>
   <si>
     <t>Incremental signal I (index) or PWM</t>
+  </si>
+  <si>
+    <t>https://datasheet.ciiva.com/29563/150060rs75000-29563040.pdf?src-supplier=Digi-Key</t>
+  </si>
+  <si>
+    <t>https://cdn-learn.adafruit.com/downloads/pdf/adafruit-sharp-memory-display-breakout.pdf?src-supplier=Digi-Key</t>
+  </si>
+  <si>
+    <t>Ultrasonic sensor</t>
+  </si>
+  <si>
+    <t>982 Adafruit Industries LLC | Sensors, Transducers | DigiKey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -633,72 +673,68 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -888,29 +924,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.86"/>
-    <col customWidth="1" min="2" max="2" width="28.29"/>
-    <col customWidth="1" min="3" max="3" width="27.57"/>
-    <col customWidth="1" min="4" max="4" width="30.29"/>
-    <col customWidth="1" min="5" max="5" width="21.71"/>
-    <col customWidth="1" min="6" max="6" width="20.0"/>
-    <col customWidth="1" min="7" max="7" width="26.71"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.27734375" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.27734375" customWidth="1"/>
+    <col min="5" max="5" width="21.71875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="26.71875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -933,7 +974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -953,7 +994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="73.8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,7 +1015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -993,7 +1034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1003,7 +1044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1023,7 +1064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1041,7 +1082,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1061,7 +1102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1079,7 +1120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -1095,14 +1136,16 @@
       <c r="E10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11">
+      <c r="F10" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="73.8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="8">
-        <v>3502.0</v>
+        <v>3502</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>53</v>
@@ -1111,5943 +1154,5953 @@
         <v>54</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12">
+      <c r="F11" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12">
+        <v>982</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="9"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13">
+      <c r="F12" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C13" s="5"/>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C14" s="5"/>
       <c r="D14" s="9"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C15" s="5"/>
       <c r="D15" s="9"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C16" s="5"/>
       <c r="D16" s="9"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C17" s="5"/>
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C18" s="5"/>
       <c r="D18" s="9"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C19" s="5"/>
       <c r="D19" s="9"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C20" s="5"/>
       <c r="D20" s="9"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C21" s="5"/>
       <c r="D21" s="9"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C22" s="5"/>
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C23" s="5"/>
       <c r="D23" s="9"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C24" s="5"/>
       <c r="D24" s="9"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C25" s="5"/>
       <c r="D25" s="9"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C26" s="5"/>
       <c r="D26" s="9"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C27" s="5"/>
       <c r="D27" s="9"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C28" s="5"/>
       <c r="D28" s="9"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C29" s="5"/>
       <c r="D29" s="9"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
       <c r="D30" s="9"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C31" s="5"/>
       <c r="D31" s="9"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C32" s="5"/>
       <c r="D32" s="9"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C33" s="5"/>
       <c r="D33" s="9"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C34" s="5"/>
       <c r="D34" s="9"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C35" s="5"/>
       <c r="D35" s="9"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C36" s="5"/>
       <c r="D36" s="9"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C37" s="5"/>
       <c r="D37" s="9"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C38" s="5"/>
       <c r="D38" s="9"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C39" s="5"/>
       <c r="D39" s="9"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C40" s="5"/>
       <c r="D40" s="9"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C41" s="5"/>
       <c r="D41" s="9"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C42" s="5"/>
       <c r="D42" s="9"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C43" s="5"/>
       <c r="D43" s="9"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44">
+    <row r="44" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C44" s="5"/>
       <c r="D44" s="9"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45">
+    <row r="45" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C45" s="5"/>
       <c r="D45" s="9"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46">
+    <row r="46" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C46" s="5"/>
       <c r="D46" s="9"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47">
+    <row r="47" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C47" s="5"/>
       <c r="D47" s="9"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48">
+    <row r="48" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C48" s="5"/>
       <c r="D48" s="9"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49">
+    <row r="49" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C49" s="5"/>
       <c r="D49" s="9"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C50" s="5"/>
       <c r="D50" s="9"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51">
+    <row r="51" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C51" s="5"/>
       <c r="D51" s="9"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52">
+    <row r="52" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C52" s="5"/>
       <c r="D52" s="9"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53">
+    <row r="53" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C53" s="5"/>
       <c r="D53" s="9"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54">
+    <row r="54" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C54" s="5"/>
       <c r="D54" s="9"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55">
+    <row r="55" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C55" s="5"/>
       <c r="D55" s="9"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56">
+    <row r="56" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C56" s="5"/>
       <c r="D56" s="9"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57">
+    <row r="57" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C57" s="5"/>
       <c r="D57" s="9"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58">
+    <row r="58" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C58" s="5"/>
       <c r="D58" s="9"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59">
+    <row r="59" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C59" s="5"/>
       <c r="D59" s="9"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60">
+    <row r="60" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C60" s="5"/>
       <c r="D60" s="9"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61">
+    <row r="61" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C61" s="5"/>
       <c r="D61" s="9"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62">
+    <row r="62" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C62" s="5"/>
       <c r="D62" s="9"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63">
+    <row r="63" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C63" s="5"/>
       <c r="D63" s="9"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64">
+    <row r="64" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C64" s="5"/>
       <c r="D64" s="9"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65">
+    <row r="65" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C65" s="5"/>
       <c r="D65" s="9"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66">
+    <row r="66" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C66" s="5"/>
       <c r="D66" s="9"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67">
+    <row r="67" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C67" s="5"/>
       <c r="D67" s="9"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68">
+    <row r="68" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C68" s="5"/>
       <c r="D68" s="9"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69">
+    <row r="69" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C69" s="5"/>
       <c r="D69" s="9"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70">
+    <row r="70" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C70" s="5"/>
       <c r="D70" s="9"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71">
+    <row r="71" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C71" s="5"/>
       <c r="D71" s="9"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72">
+    <row r="72" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C72" s="5"/>
       <c r="D72" s="9"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73">
+    <row r="73" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C73" s="5"/>
       <c r="D73" s="9"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74">
+    <row r="74" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C74" s="5"/>
       <c r="D74" s="9"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75">
+    <row r="75" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C75" s="5"/>
       <c r="D75" s="9"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76">
+    <row r="76" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C76" s="5"/>
       <c r="D76" s="9"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77">
+    <row r="77" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C77" s="5"/>
       <c r="D77" s="9"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78">
+    <row r="78" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C78" s="5"/>
       <c r="D78" s="9"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79">
+    <row r="79" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C79" s="5"/>
       <c r="D79" s="9"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80">
+    <row r="80" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C80" s="5"/>
       <c r="D80" s="9"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81">
+    <row r="81" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C81" s="5"/>
       <c r="D81" s="9"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
     </row>
-    <row r="82">
+    <row r="82" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C82" s="5"/>
       <c r="D82" s="9"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83">
+    <row r="83" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C83" s="5"/>
       <c r="D83" s="9"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84">
+    <row r="84" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C84" s="5"/>
       <c r="D84" s="9"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85">
+    <row r="85" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C85" s="5"/>
       <c r="D85" s="9"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="86">
+    <row r="86" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C86" s="5"/>
       <c r="D86" s="9"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87">
+    <row r="87" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C87" s="5"/>
       <c r="D87" s="9"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
-    <row r="88">
+    <row r="88" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C88" s="5"/>
       <c r="D88" s="9"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
-    <row r="89">
+    <row r="89" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C89" s="5"/>
       <c r="D89" s="9"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
-    <row r="90">
+    <row r="90" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C90" s="5"/>
       <c r="D90" s="9"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91">
+    <row r="91" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C91" s="5"/>
       <c r="D91" s="9"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
     </row>
-    <row r="92">
+    <row r="92" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C92" s="5"/>
       <c r="D92" s="9"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
     </row>
-    <row r="93">
+    <row r="93" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C93" s="5"/>
       <c r="D93" s="9"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94">
+    <row r="94" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C94" s="5"/>
       <c r="D94" s="9"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95">
+    <row r="95" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C95" s="5"/>
       <c r="D95" s="9"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96">
+    <row r="96" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C96" s="5"/>
       <c r="D96" s="9"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
-    <row r="97">
+    <row r="97" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C97" s="5"/>
       <c r="D97" s="9"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98">
+    <row r="98" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C98" s="5"/>
       <c r="D98" s="9"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
     </row>
-    <row r="99">
+    <row r="99" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C99" s="5"/>
       <c r="D99" s="9"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100">
+    <row r="100" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C100" s="5"/>
       <c r="D100" s="9"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101">
+    <row r="101" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C101" s="5"/>
       <c r="D101" s="9"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="102">
+    <row r="102" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C102" s="5"/>
       <c r="D102" s="9"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103">
+    <row r="103" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C103" s="5"/>
       <c r="D103" s="9"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
     </row>
-    <row r="104">
+    <row r="104" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C104" s="5"/>
       <c r="D104" s="9"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="105">
+    <row r="105" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C105" s="5"/>
       <c r="D105" s="9"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106">
+    <row r="106" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C106" s="5"/>
       <c r="D106" s="9"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="107">
+    <row r="107" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C107" s="5"/>
       <c r="D107" s="9"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
     </row>
-    <row r="108">
+    <row r="108" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C108" s="5"/>
       <c r="D108" s="9"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109">
+    <row r="109" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C109" s="5"/>
       <c r="D109" s="9"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
     </row>
-    <row r="110">
+    <row r="110" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C110" s="5"/>
       <c r="D110" s="9"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="111">
+    <row r="111" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C111" s="5"/>
       <c r="D111" s="9"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
     </row>
-    <row r="112">
+    <row r="112" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C112" s="5"/>
       <c r="D112" s="9"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
     </row>
-    <row r="113">
+    <row r="113" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C113" s="5"/>
       <c r="D113" s="9"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
     </row>
-    <row r="114">
+    <row r="114" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C114" s="5"/>
       <c r="D114" s="9"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
     </row>
-    <row r="115">
+    <row r="115" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C115" s="5"/>
       <c r="D115" s="9"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116">
+    <row r="116" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C116" s="5"/>
       <c r="D116" s="9"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
     </row>
-    <row r="117">
+    <row r="117" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C117" s="5"/>
       <c r="D117" s="9"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
     </row>
-    <row r="118">
+    <row r="118" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C118" s="5"/>
       <c r="D118" s="9"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
     </row>
-    <row r="119">
+    <row r="119" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C119" s="5"/>
       <c r="D119" s="9"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
     </row>
-    <row r="120">
+    <row r="120" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C120" s="5"/>
       <c r="D120" s="9"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121">
+    <row r="121" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C121" s="5"/>
       <c r="D121" s="9"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
     </row>
-    <row r="122">
+    <row r="122" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C122" s="5"/>
       <c r="D122" s="9"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
     </row>
-    <row r="123">
+    <row r="123" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C123" s="5"/>
       <c r="D123" s="9"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
     </row>
-    <row r="124">
+    <row r="124" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C124" s="5"/>
       <c r="D124" s="9"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
     </row>
-    <row r="125">
+    <row r="125" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C125" s="5"/>
       <c r="D125" s="9"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
     </row>
-    <row r="126">
+    <row r="126" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C126" s="5"/>
       <c r="D126" s="9"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
     </row>
-    <row r="127">
+    <row r="127" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C127" s="5"/>
       <c r="D127" s="9"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
     </row>
-    <row r="128">
+    <row r="128" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C128" s="5"/>
       <c r="D128" s="9"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
     </row>
-    <row r="129">
+    <row r="129" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C129" s="5"/>
       <c r="D129" s="9"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
     </row>
-    <row r="130">
+    <row r="130" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C130" s="5"/>
       <c r="D130" s="9"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
     </row>
-    <row r="131">
+    <row r="131" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C131" s="5"/>
       <c r="D131" s="9"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
     </row>
-    <row r="132">
+    <row r="132" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C132" s="5"/>
       <c r="D132" s="9"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
     </row>
-    <row r="133">
+    <row r="133" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C133" s="5"/>
       <c r="D133" s="9"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134">
+    <row r="134" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C134" s="5"/>
       <c r="D134" s="9"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135">
+    <row r="135" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C135" s="5"/>
       <c r="D135" s="9"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="136">
+    <row r="136" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C136" s="5"/>
       <c r="D136" s="9"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
     </row>
-    <row r="137">
+    <row r="137" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C137" s="5"/>
       <c r="D137" s="9"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
     </row>
-    <row r="138">
+    <row r="138" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C138" s="5"/>
       <c r="D138" s="9"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
     </row>
-    <row r="139">
+    <row r="139" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C139" s="5"/>
       <c r="D139" s="9"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
     </row>
-    <row r="140">
+    <row r="140" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C140" s="5"/>
       <c r="D140" s="9"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
     </row>
-    <row r="141">
+    <row r="141" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C141" s="5"/>
       <c r="D141" s="9"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142">
+    <row r="142" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C142" s="5"/>
       <c r="D142" s="9"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
     </row>
-    <row r="143">
+    <row r="143" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C143" s="5"/>
       <c r="D143" s="9"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
     </row>
-    <row r="144">
+    <row r="144" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C144" s="5"/>
       <c r="D144" s="9"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145">
+    <row r="145" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C145" s="5"/>
       <c r="D145" s="9"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146">
+    <row r="146" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C146" s="5"/>
       <c r="D146" s="9"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
     </row>
-    <row r="147">
+    <row r="147" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C147" s="5"/>
       <c r="D147" s="9"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148">
+    <row r="148" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C148" s="5"/>
       <c r="D148" s="9"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
     </row>
-    <row r="149">
+    <row r="149" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C149" s="5"/>
       <c r="D149" s="9"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
     </row>
-    <row r="150">
+    <row r="150" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C150" s="5"/>
       <c r="D150" s="9"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
     </row>
-    <row r="151">
+    <row r="151" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C151" s="5"/>
       <c r="D151" s="9"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
     </row>
-    <row r="152">
+    <row r="152" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C152" s="5"/>
       <c r="D152" s="9"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
     </row>
-    <row r="153">
+    <row r="153" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C153" s="5"/>
       <c r="D153" s="9"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
     </row>
-    <row r="154">
+    <row r="154" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C154" s="5"/>
       <c r="D154" s="9"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
     </row>
-    <row r="155">
+    <row r="155" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C155" s="5"/>
       <c r="D155" s="9"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156">
+    <row r="156" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C156" s="5"/>
       <c r="D156" s="9"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
     </row>
-    <row r="157">
+    <row r="157" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C157" s="5"/>
       <c r="D157" s="9"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
     </row>
-    <row r="158">
+    <row r="158" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C158" s="5"/>
       <c r="D158" s="9"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
     </row>
-    <row r="159">
+    <row r="159" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C159" s="5"/>
       <c r="D159" s="9"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160">
+    <row r="160" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C160" s="5"/>
       <c r="D160" s="9"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161">
+    <row r="161" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C161" s="5"/>
       <c r="D161" s="9"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162">
+    <row r="162" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C162" s="5"/>
       <c r="D162" s="9"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163">
+    <row r="163" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C163" s="5"/>
       <c r="D163" s="9"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164">
+    <row r="164" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C164" s="5"/>
       <c r="D164" s="9"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165">
+    <row r="165" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C165" s="5"/>
       <c r="D165" s="9"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
     </row>
-    <row r="166">
+    <row r="166" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C166" s="5"/>
       <c r="D166" s="9"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
     </row>
-    <row r="167">
+    <row r="167" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C167" s="5"/>
       <c r="D167" s="9"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
     </row>
-    <row r="168">
+    <row r="168" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C168" s="5"/>
       <c r="D168" s="9"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
     </row>
-    <row r="169">
+    <row r="169" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C169" s="5"/>
       <c r="D169" s="9"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
     </row>
-    <row r="170">
+    <row r="170" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C170" s="5"/>
       <c r="D170" s="9"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
     </row>
-    <row r="171">
+    <row r="171" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C171" s="5"/>
       <c r="D171" s="9"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
     </row>
-    <row r="172">
+    <row r="172" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C172" s="5"/>
       <c r="D172" s="9"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
     </row>
-    <row r="173">
+    <row r="173" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C173" s="5"/>
       <c r="D173" s="9"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
     </row>
-    <row r="174">
+    <row r="174" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C174" s="5"/>
       <c r="D174" s="9"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
     </row>
-    <row r="175">
+    <row r="175" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C175" s="5"/>
       <c r="D175" s="9"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
     </row>
-    <row r="176">
+    <row r="176" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C176" s="5"/>
       <c r="D176" s="9"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
     </row>
-    <row r="177">
+    <row r="177" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C177" s="5"/>
       <c r="D177" s="9"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
     </row>
-    <row r="178">
+    <row r="178" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C178" s="5"/>
       <c r="D178" s="9"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
     </row>
-    <row r="179">
+    <row r="179" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C179" s="5"/>
       <c r="D179" s="9"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
     </row>
-    <row r="180">
+    <row r="180" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C180" s="5"/>
       <c r="D180" s="9"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
     </row>
-    <row r="181">
+    <row r="181" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C181" s="5"/>
       <c r="D181" s="9"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
     </row>
-    <row r="182">
+    <row r="182" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C182" s="5"/>
       <c r="D182" s="9"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
     </row>
-    <row r="183">
+    <row r="183" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C183" s="5"/>
       <c r="D183" s="9"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
     </row>
-    <row r="184">
+    <row r="184" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C184" s="5"/>
       <c r="D184" s="9"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
     </row>
-    <row r="185">
+    <row r="185" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C185" s="5"/>
       <c r="D185" s="9"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
     </row>
-    <row r="186">
+    <row r="186" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C186" s="5"/>
       <c r="D186" s="9"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
     </row>
-    <row r="187">
+    <row r="187" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C187" s="5"/>
       <c r="D187" s="9"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
     </row>
-    <row r="188">
+    <row r="188" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C188" s="5"/>
       <c r="D188" s="9"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
     </row>
-    <row r="189">
+    <row r="189" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C189" s="5"/>
       <c r="D189" s="9"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
     </row>
-    <row r="190">
+    <row r="190" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C190" s="5"/>
       <c r="D190" s="9"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
     </row>
-    <row r="191">
+    <row r="191" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C191" s="5"/>
       <c r="D191" s="9"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
     </row>
-    <row r="192">
+    <row r="192" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C192" s="5"/>
       <c r="D192" s="9"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
     </row>
-    <row r="193">
+    <row r="193" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C193" s="5"/>
       <c r="D193" s="9"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
     </row>
-    <row r="194">
+    <row r="194" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C194" s="5"/>
       <c r="D194" s="9"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
     </row>
-    <row r="195">
+    <row r="195" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C195" s="5"/>
       <c r="D195" s="9"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
     </row>
-    <row r="196">
+    <row r="196" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C196" s="5"/>
       <c r="D196" s="9"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
     </row>
-    <row r="197">
+    <row r="197" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C197" s="5"/>
       <c r="D197" s="9"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
     </row>
-    <row r="198">
+    <row r="198" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C198" s="5"/>
       <c r="D198" s="9"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
     </row>
-    <row r="199">
+    <row r="199" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C199" s="5"/>
       <c r="D199" s="9"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
     </row>
-    <row r="200">
+    <row r="200" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C200" s="5"/>
       <c r="D200" s="9"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
     </row>
-    <row r="201">
+    <row r="201" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C201" s="5"/>
       <c r="D201" s="9"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
     </row>
-    <row r="202">
+    <row r="202" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C202" s="5"/>
       <c r="D202" s="9"/>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
     </row>
-    <row r="203">
+    <row r="203" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C203" s="5"/>
       <c r="D203" s="9"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
     </row>
-    <row r="204">
+    <row r="204" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C204" s="5"/>
       <c r="D204" s="9"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
     </row>
-    <row r="205">
+    <row r="205" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C205" s="5"/>
       <c r="D205" s="9"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
     </row>
-    <row r="206">
+    <row r="206" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C206" s="5"/>
       <c r="D206" s="9"/>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
     </row>
-    <row r="207">
+    <row r="207" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C207" s="5"/>
       <c r="D207" s="9"/>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
     </row>
-    <row r="208">
+    <row r="208" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C208" s="5"/>
       <c r="D208" s="9"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
     </row>
-    <row r="209">
+    <row r="209" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C209" s="5"/>
       <c r="D209" s="9"/>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
     </row>
-    <row r="210">
+    <row r="210" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C210" s="5"/>
       <c r="D210" s="9"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
     </row>
-    <row r="211">
+    <row r="211" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C211" s="5"/>
       <c r="D211" s="9"/>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
     </row>
-    <row r="212">
+    <row r="212" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C212" s="5"/>
       <c r="D212" s="9"/>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
     </row>
-    <row r="213">
+    <row r="213" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C213" s="5"/>
       <c r="D213" s="9"/>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
     </row>
-    <row r="214">
+    <row r="214" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C214" s="5"/>
       <c r="D214" s="9"/>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
     </row>
-    <row r="215">
+    <row r="215" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C215" s="5"/>
       <c r="D215" s="9"/>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
     </row>
-    <row r="216">
+    <row r="216" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C216" s="5"/>
       <c r="D216" s="9"/>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
     </row>
-    <row r="217">
+    <row r="217" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C217" s="5"/>
       <c r="D217" s="9"/>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
     </row>
-    <row r="218">
+    <row r="218" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C218" s="5"/>
       <c r="D218" s="9"/>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
     </row>
-    <row r="219">
+    <row r="219" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C219" s="5"/>
       <c r="D219" s="9"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
     </row>
-    <row r="220">
+    <row r="220" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C220" s="5"/>
       <c r="D220" s="9"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
     </row>
-    <row r="221">
+    <row r="221" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C221" s="5"/>
       <c r="D221" s="9"/>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
     </row>
-    <row r="222">
+    <row r="222" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C222" s="5"/>
       <c r="D222" s="9"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
     </row>
-    <row r="223">
+    <row r="223" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C223" s="5"/>
       <c r="D223" s="9"/>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
     </row>
-    <row r="224">
+    <row r="224" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C224" s="5"/>
       <c r="D224" s="9"/>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
     </row>
-    <row r="225">
+    <row r="225" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C225" s="5"/>
       <c r="D225" s="9"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
     </row>
-    <row r="226">
+    <row r="226" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C226" s="5"/>
       <c r="D226" s="9"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
     </row>
-    <row r="227">
+    <row r="227" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C227" s="5"/>
       <c r="D227" s="9"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
     </row>
-    <row r="228">
+    <row r="228" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C228" s="5"/>
       <c r="D228" s="9"/>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
     </row>
-    <row r="229">
+    <row r="229" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C229" s="5"/>
       <c r="D229" s="9"/>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
     </row>
-    <row r="230">
+    <row r="230" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C230" s="5"/>
       <c r="D230" s="9"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
     </row>
-    <row r="231">
+    <row r="231" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C231" s="5"/>
       <c r="D231" s="9"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
     </row>
-    <row r="232">
+    <row r="232" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C232" s="5"/>
       <c r="D232" s="9"/>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
     </row>
-    <row r="233">
+    <row r="233" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C233" s="5"/>
       <c r="D233" s="9"/>
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
     </row>
-    <row r="234">
+    <row r="234" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C234" s="5"/>
       <c r="D234" s="9"/>
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
     </row>
-    <row r="235">
+    <row r="235" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C235" s="5"/>
       <c r="D235" s="9"/>
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
     </row>
-    <row r="236">
+    <row r="236" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C236" s="5"/>
       <c r="D236" s="9"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
     </row>
-    <row r="237">
+    <row r="237" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C237" s="5"/>
       <c r="D237" s="9"/>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
     </row>
-    <row r="238">
+    <row r="238" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C238" s="5"/>
       <c r="D238" s="9"/>
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
     </row>
-    <row r="239">
+    <row r="239" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C239" s="5"/>
       <c r="D239" s="9"/>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
     </row>
-    <row r="240">
+    <row r="240" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C240" s="5"/>
       <c r="D240" s="9"/>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
     </row>
-    <row r="241">
+    <row r="241" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C241" s="5"/>
       <c r="D241" s="9"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
     </row>
-    <row r="242">
+    <row r="242" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C242" s="5"/>
       <c r="D242" s="9"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
     </row>
-    <row r="243">
+    <row r="243" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C243" s="5"/>
       <c r="D243" s="9"/>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
     </row>
-    <row r="244">
+    <row r="244" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C244" s="5"/>
       <c r="D244" s="9"/>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
     </row>
-    <row r="245">
+    <row r="245" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C245" s="5"/>
       <c r="D245" s="9"/>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
     </row>
-    <row r="246">
+    <row r="246" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C246" s="5"/>
       <c r="D246" s="9"/>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
     </row>
-    <row r="247">
+    <row r="247" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C247" s="5"/>
       <c r="D247" s="9"/>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
     </row>
-    <row r="248">
+    <row r="248" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C248" s="5"/>
       <c r="D248" s="9"/>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
     </row>
-    <row r="249">
+    <row r="249" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C249" s="5"/>
       <c r="D249" s="9"/>
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
     </row>
-    <row r="250">
+    <row r="250" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C250" s="5"/>
       <c r="D250" s="9"/>
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
     </row>
-    <row r="251">
+    <row r="251" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C251" s="5"/>
       <c r="D251" s="9"/>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
     </row>
-    <row r="252">
+    <row r="252" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C252" s="5"/>
       <c r="D252" s="9"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
     </row>
-    <row r="253">
+    <row r="253" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C253" s="5"/>
       <c r="D253" s="9"/>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
     </row>
-    <row r="254">
+    <row r="254" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C254" s="5"/>
       <c r="D254" s="9"/>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
     </row>
-    <row r="255">
+    <row r="255" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C255" s="5"/>
       <c r="D255" s="9"/>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
     </row>
-    <row r="256">
+    <row r="256" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C256" s="5"/>
       <c r="D256" s="9"/>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
     </row>
-    <row r="257">
+    <row r="257" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C257" s="5"/>
       <c r="D257" s="9"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
     </row>
-    <row r="258">
+    <row r="258" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C258" s="5"/>
       <c r="D258" s="9"/>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
     </row>
-    <row r="259">
+    <row r="259" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C259" s="5"/>
       <c r="D259" s="9"/>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
     </row>
-    <row r="260">
+    <row r="260" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C260" s="5"/>
       <c r="D260" s="9"/>
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
     </row>
-    <row r="261">
+    <row r="261" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C261" s="5"/>
       <c r="D261" s="9"/>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
     </row>
-    <row r="262">
+    <row r="262" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C262" s="5"/>
       <c r="D262" s="9"/>
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
     </row>
-    <row r="263">
+    <row r="263" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C263" s="5"/>
       <c r="D263" s="9"/>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
     </row>
-    <row r="264">
+    <row r="264" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C264" s="5"/>
       <c r="D264" s="9"/>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
     </row>
-    <row r="265">
+    <row r="265" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C265" s="5"/>
       <c r="D265" s="9"/>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
     </row>
-    <row r="266">
+    <row r="266" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C266" s="5"/>
       <c r="D266" s="9"/>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
     </row>
-    <row r="267">
+    <row r="267" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C267" s="5"/>
       <c r="D267" s="9"/>
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
     </row>
-    <row r="268">
+    <row r="268" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C268" s="5"/>
       <c r="D268" s="9"/>
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
     </row>
-    <row r="269">
+    <row r="269" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C269" s="5"/>
       <c r="D269" s="9"/>
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
     </row>
-    <row r="270">
+    <row r="270" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C270" s="5"/>
       <c r="D270" s="9"/>
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
     </row>
-    <row r="271">
+    <row r="271" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C271" s="5"/>
       <c r="D271" s="9"/>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
     </row>
-    <row r="272">
+    <row r="272" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C272" s="5"/>
       <c r="D272" s="9"/>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
     </row>
-    <row r="273">
+    <row r="273" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C273" s="5"/>
       <c r="D273" s="9"/>
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
     </row>
-    <row r="274">
+    <row r="274" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C274" s="5"/>
       <c r="D274" s="9"/>
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
     </row>
-    <row r="275">
+    <row r="275" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C275" s="5"/>
       <c r="D275" s="9"/>
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
     </row>
-    <row r="276">
+    <row r="276" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C276" s="5"/>
       <c r="D276" s="9"/>
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
     </row>
-    <row r="277">
+    <row r="277" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C277" s="5"/>
       <c r="D277" s="9"/>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
     </row>
-    <row r="278">
+    <row r="278" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C278" s="5"/>
       <c r="D278" s="9"/>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
     </row>
-    <row r="279">
+    <row r="279" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C279" s="5"/>
       <c r="D279" s="9"/>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
     </row>
-    <row r="280">
+    <row r="280" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C280" s="5"/>
       <c r="D280" s="9"/>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
     </row>
-    <row r="281">
+    <row r="281" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C281" s="5"/>
       <c r="D281" s="9"/>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
     </row>
-    <row r="282">
+    <row r="282" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C282" s="5"/>
       <c r="D282" s="9"/>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
     </row>
-    <row r="283">
+    <row r="283" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C283" s="5"/>
       <c r="D283" s="9"/>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
     </row>
-    <row r="284">
+    <row r="284" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C284" s="5"/>
       <c r="D284" s="9"/>
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
     </row>
-    <row r="285">
+    <row r="285" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C285" s="5"/>
       <c r="D285" s="9"/>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
     </row>
-    <row r="286">
+    <row r="286" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C286" s="5"/>
       <c r="D286" s="9"/>
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
     </row>
-    <row r="287">
+    <row r="287" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C287" s="5"/>
       <c r="D287" s="9"/>
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
     </row>
-    <row r="288">
+    <row r="288" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C288" s="5"/>
       <c r="D288" s="9"/>
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
     </row>
-    <row r="289">
+    <row r="289" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C289" s="5"/>
       <c r="D289" s="9"/>
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
     </row>
-    <row r="290">
+    <row r="290" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C290" s="5"/>
       <c r="D290" s="9"/>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
     </row>
-    <row r="291">
+    <row r="291" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C291" s="5"/>
       <c r="D291" s="9"/>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
     </row>
-    <row r="292">
+    <row r="292" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C292" s="5"/>
       <c r="D292" s="9"/>
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
     </row>
-    <row r="293">
+    <row r="293" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C293" s="5"/>
       <c r="D293" s="9"/>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
     </row>
-    <row r="294">
+    <row r="294" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C294" s="5"/>
       <c r="D294" s="9"/>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
     </row>
-    <row r="295">
+    <row r="295" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C295" s="5"/>
       <c r="D295" s="9"/>
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
     </row>
-    <row r="296">
+    <row r="296" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C296" s="5"/>
       <c r="D296" s="9"/>
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
     </row>
-    <row r="297">
+    <row r="297" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C297" s="5"/>
       <c r="D297" s="9"/>
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
     </row>
-    <row r="298">
+    <row r="298" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C298" s="5"/>
       <c r="D298" s="9"/>
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
     </row>
-    <row r="299">
+    <row r="299" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C299" s="5"/>
       <c r="D299" s="9"/>
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
     </row>
-    <row r="300">
+    <row r="300" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C300" s="5"/>
       <c r="D300" s="9"/>
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
     </row>
-    <row r="301">
+    <row r="301" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C301" s="5"/>
       <c r="D301" s="9"/>
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
     </row>
-    <row r="302">
+    <row r="302" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C302" s="5"/>
       <c r="D302" s="9"/>
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
     </row>
-    <row r="303">
+    <row r="303" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C303" s="5"/>
       <c r="D303" s="9"/>
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
     </row>
-    <row r="304">
+    <row r="304" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C304" s="5"/>
       <c r="D304" s="9"/>
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
     </row>
-    <row r="305">
+    <row r="305" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C305" s="5"/>
       <c r="D305" s="9"/>
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
     </row>
-    <row r="306">
+    <row r="306" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C306" s="5"/>
       <c r="D306" s="9"/>
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
     </row>
-    <row r="307">
+    <row r="307" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C307" s="5"/>
       <c r="D307" s="9"/>
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
     </row>
-    <row r="308">
+    <row r="308" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C308" s="5"/>
       <c r="D308" s="9"/>
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
     </row>
-    <row r="309">
+    <row r="309" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C309" s="5"/>
       <c r="D309" s="9"/>
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
     </row>
-    <row r="310">
+    <row r="310" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C310" s="5"/>
       <c r="D310" s="9"/>
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
     </row>
-    <row r="311">
+    <row r="311" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C311" s="5"/>
       <c r="D311" s="9"/>
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
     </row>
-    <row r="312">
+    <row r="312" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C312" s="5"/>
       <c r="D312" s="9"/>
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
     </row>
-    <row r="313">
+    <row r="313" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C313" s="5"/>
       <c r="D313" s="9"/>
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
     </row>
-    <row r="314">
+    <row r="314" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C314" s="5"/>
       <c r="D314" s="9"/>
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
     </row>
-    <row r="315">
+    <row r="315" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C315" s="5"/>
       <c r="D315" s="9"/>
       <c r="E315" s="5"/>
       <c r="F315" s="5"/>
     </row>
-    <row r="316">
+    <row r="316" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C316" s="5"/>
       <c r="D316" s="9"/>
       <c r="E316" s="5"/>
       <c r="F316" s="5"/>
     </row>
-    <row r="317">
+    <row r="317" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C317" s="5"/>
       <c r="D317" s="9"/>
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
     </row>
-    <row r="318">
+    <row r="318" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C318" s="5"/>
       <c r="D318" s="9"/>
       <c r="E318" s="5"/>
       <c r="F318" s="5"/>
     </row>
-    <row r="319">
+    <row r="319" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C319" s="5"/>
       <c r="D319" s="9"/>
       <c r="E319" s="5"/>
       <c r="F319" s="5"/>
     </row>
-    <row r="320">
+    <row r="320" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C320" s="5"/>
       <c r="D320" s="9"/>
       <c r="E320" s="5"/>
       <c r="F320" s="5"/>
     </row>
-    <row r="321">
+    <row r="321" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C321" s="5"/>
       <c r="D321" s="9"/>
       <c r="E321" s="5"/>
       <c r="F321" s="5"/>
     </row>
-    <row r="322">
+    <row r="322" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C322" s="5"/>
       <c r="D322" s="9"/>
       <c r="E322" s="5"/>
       <c r="F322" s="5"/>
     </row>
-    <row r="323">
+    <row r="323" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C323" s="5"/>
       <c r="D323" s="9"/>
       <c r="E323" s="5"/>
       <c r="F323" s="5"/>
     </row>
-    <row r="324">
+    <row r="324" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C324" s="5"/>
       <c r="D324" s="9"/>
       <c r="E324" s="5"/>
       <c r="F324" s="5"/>
     </row>
-    <row r="325">
+    <row r="325" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C325" s="5"/>
       <c r="D325" s="9"/>
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
     </row>
-    <row r="326">
+    <row r="326" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C326" s="5"/>
       <c r="D326" s="9"/>
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
     </row>
-    <row r="327">
+    <row r="327" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C327" s="5"/>
       <c r="D327" s="9"/>
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
     </row>
-    <row r="328">
+    <row r="328" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C328" s="5"/>
       <c r="D328" s="9"/>
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
     </row>
-    <row r="329">
+    <row r="329" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C329" s="5"/>
       <c r="D329" s="9"/>
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
     </row>
-    <row r="330">
+    <row r="330" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C330" s="5"/>
       <c r="D330" s="9"/>
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
     </row>
-    <row r="331">
+    <row r="331" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C331" s="5"/>
       <c r="D331" s="9"/>
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
     </row>
-    <row r="332">
+    <row r="332" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C332" s="5"/>
       <c r="D332" s="9"/>
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
     </row>
-    <row r="333">
+    <row r="333" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C333" s="5"/>
       <c r="D333" s="9"/>
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
     </row>
-    <row r="334">
+    <row r="334" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C334" s="5"/>
       <c r="D334" s="9"/>
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
     </row>
-    <row r="335">
+    <row r="335" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C335" s="5"/>
       <c r="D335" s="9"/>
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
     </row>
-    <row r="336">
+    <row r="336" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C336" s="5"/>
       <c r="D336" s="9"/>
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
     </row>
-    <row r="337">
+    <row r="337" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C337" s="5"/>
       <c r="D337" s="9"/>
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
     </row>
-    <row r="338">
+    <row r="338" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C338" s="5"/>
       <c r="D338" s="9"/>
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
     </row>
-    <row r="339">
+    <row r="339" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C339" s="5"/>
       <c r="D339" s="9"/>
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
     </row>
-    <row r="340">
+    <row r="340" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C340" s="5"/>
       <c r="D340" s="9"/>
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
     </row>
-    <row r="341">
+    <row r="341" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C341" s="5"/>
       <c r="D341" s="9"/>
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
     </row>
-    <row r="342">
+    <row r="342" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C342" s="5"/>
       <c r="D342" s="9"/>
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
     </row>
-    <row r="343">
+    <row r="343" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C343" s="5"/>
       <c r="D343" s="9"/>
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
     </row>
-    <row r="344">
+    <row r="344" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C344" s="5"/>
       <c r="D344" s="9"/>
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
     </row>
-    <row r="345">
+    <row r="345" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C345" s="5"/>
       <c r="D345" s="9"/>
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
     </row>
-    <row r="346">
+    <row r="346" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C346" s="5"/>
       <c r="D346" s="9"/>
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
     </row>
-    <row r="347">
+    <row r="347" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C347" s="5"/>
       <c r="D347" s="9"/>
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
     </row>
-    <row r="348">
+    <row r="348" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C348" s="5"/>
       <c r="D348" s="9"/>
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
     </row>
-    <row r="349">
+    <row r="349" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C349" s="5"/>
       <c r="D349" s="9"/>
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
     </row>
-    <row r="350">
+    <row r="350" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C350" s="5"/>
       <c r="D350" s="9"/>
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
     </row>
-    <row r="351">
+    <row r="351" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C351" s="5"/>
       <c r="D351" s="9"/>
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
     </row>
-    <row r="352">
+    <row r="352" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C352" s="5"/>
       <c r="D352" s="9"/>
       <c r="E352" s="5"/>
       <c r="F352" s="5"/>
     </row>
-    <row r="353">
+    <row r="353" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C353" s="5"/>
       <c r="D353" s="9"/>
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
     </row>
-    <row r="354">
+    <row r="354" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C354" s="5"/>
       <c r="D354" s="9"/>
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
     </row>
-    <row r="355">
+    <row r="355" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C355" s="5"/>
       <c r="D355" s="9"/>
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
     </row>
-    <row r="356">
+    <row r="356" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C356" s="5"/>
       <c r="D356" s="9"/>
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
     </row>
-    <row r="357">
+    <row r="357" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C357" s="5"/>
       <c r="D357" s="9"/>
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
     </row>
-    <row r="358">
+    <row r="358" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C358" s="5"/>
       <c r="D358" s="9"/>
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
     </row>
-    <row r="359">
+    <row r="359" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C359" s="5"/>
       <c r="D359" s="9"/>
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
     </row>
-    <row r="360">
+    <row r="360" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C360" s="5"/>
       <c r="D360" s="9"/>
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
     </row>
-    <row r="361">
+    <row r="361" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C361" s="5"/>
       <c r="D361" s="9"/>
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
     </row>
-    <row r="362">
+    <row r="362" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C362" s="5"/>
       <c r="D362" s="9"/>
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
     </row>
-    <row r="363">
+    <row r="363" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C363" s="5"/>
       <c r="D363" s="9"/>
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
     </row>
-    <row r="364">
+    <row r="364" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C364" s="5"/>
       <c r="D364" s="9"/>
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
     </row>
-    <row r="365">
+    <row r="365" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C365" s="5"/>
       <c r="D365" s="9"/>
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
     </row>
-    <row r="366">
+    <row r="366" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C366" s="5"/>
       <c r="D366" s="9"/>
       <c r="E366" s="5"/>
       <c r="F366" s="5"/>
     </row>
-    <row r="367">
+    <row r="367" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C367" s="5"/>
       <c r="D367" s="9"/>
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
     </row>
-    <row r="368">
+    <row r="368" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C368" s="5"/>
       <c r="D368" s="9"/>
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
     </row>
-    <row r="369">
+    <row r="369" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C369" s="5"/>
       <c r="D369" s="9"/>
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
     </row>
-    <row r="370">
+    <row r="370" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C370" s="5"/>
       <c r="D370" s="9"/>
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
     </row>
-    <row r="371">
+    <row r="371" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C371" s="5"/>
       <c r="D371" s="9"/>
       <c r="E371" s="5"/>
       <c r="F371" s="5"/>
     </row>
-    <row r="372">
+    <row r="372" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C372" s="5"/>
       <c r="D372" s="9"/>
       <c r="E372" s="5"/>
       <c r="F372" s="5"/>
     </row>
-    <row r="373">
+    <row r="373" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C373" s="5"/>
       <c r="D373" s="9"/>
       <c r="E373" s="5"/>
       <c r="F373" s="5"/>
     </row>
-    <row r="374">
+    <row r="374" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C374" s="5"/>
       <c r="D374" s="9"/>
       <c r="E374" s="5"/>
       <c r="F374" s="5"/>
     </row>
-    <row r="375">
+    <row r="375" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C375" s="5"/>
       <c r="D375" s="9"/>
       <c r="E375" s="5"/>
       <c r="F375" s="5"/>
     </row>
-    <row r="376">
+    <row r="376" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C376" s="5"/>
       <c r="D376" s="9"/>
       <c r="E376" s="5"/>
       <c r="F376" s="5"/>
     </row>
-    <row r="377">
+    <row r="377" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C377" s="5"/>
       <c r="D377" s="9"/>
       <c r="E377" s="5"/>
       <c r="F377" s="5"/>
     </row>
-    <row r="378">
+    <row r="378" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C378" s="5"/>
       <c r="D378" s="9"/>
       <c r="E378" s="5"/>
       <c r="F378" s="5"/>
     </row>
-    <row r="379">
+    <row r="379" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C379" s="5"/>
       <c r="D379" s="9"/>
       <c r="E379" s="5"/>
       <c r="F379" s="5"/>
     </row>
-    <row r="380">
+    <row r="380" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C380" s="5"/>
       <c r="D380" s="9"/>
       <c r="E380" s="5"/>
       <c r="F380" s="5"/>
     </row>
-    <row r="381">
+    <row r="381" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C381" s="5"/>
       <c r="D381" s="9"/>
       <c r="E381" s="5"/>
       <c r="F381" s="5"/>
     </row>
-    <row r="382">
+    <row r="382" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C382" s="5"/>
       <c r="D382" s="9"/>
       <c r="E382" s="5"/>
       <c r="F382" s="5"/>
     </row>
-    <row r="383">
+    <row r="383" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C383" s="5"/>
       <c r="D383" s="9"/>
       <c r="E383" s="5"/>
       <c r="F383" s="5"/>
     </row>
-    <row r="384">
+    <row r="384" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C384" s="5"/>
       <c r="D384" s="9"/>
       <c r="E384" s="5"/>
       <c r="F384" s="5"/>
     </row>
-    <row r="385">
+    <row r="385" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C385" s="5"/>
       <c r="D385" s="9"/>
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
     </row>
-    <row r="386">
+    <row r="386" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C386" s="5"/>
       <c r="D386" s="9"/>
       <c r="E386" s="5"/>
       <c r="F386" s="5"/>
     </row>
-    <row r="387">
+    <row r="387" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C387" s="5"/>
       <c r="D387" s="9"/>
       <c r="E387" s="5"/>
       <c r="F387" s="5"/>
     </row>
-    <row r="388">
+    <row r="388" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C388" s="5"/>
       <c r="D388" s="9"/>
       <c r="E388" s="5"/>
       <c r="F388" s="5"/>
     </row>
-    <row r="389">
+    <row r="389" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C389" s="5"/>
       <c r="D389" s="9"/>
       <c r="E389" s="5"/>
       <c r="F389" s="5"/>
     </row>
-    <row r="390">
+    <row r="390" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C390" s="5"/>
       <c r="D390" s="9"/>
       <c r="E390" s="5"/>
       <c r="F390" s="5"/>
     </row>
-    <row r="391">
+    <row r="391" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C391" s="5"/>
       <c r="D391" s="9"/>
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
     </row>
-    <row r="392">
+    <row r="392" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C392" s="5"/>
       <c r="D392" s="9"/>
       <c r="E392" s="5"/>
       <c r="F392" s="5"/>
     </row>
-    <row r="393">
+    <row r="393" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C393" s="5"/>
       <c r="D393" s="9"/>
       <c r="E393" s="5"/>
       <c r="F393" s="5"/>
     </row>
-    <row r="394">
+    <row r="394" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C394" s="5"/>
       <c r="D394" s="9"/>
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
     </row>
-    <row r="395">
+    <row r="395" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C395" s="5"/>
       <c r="D395" s="9"/>
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
     </row>
-    <row r="396">
+    <row r="396" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C396" s="5"/>
       <c r="D396" s="9"/>
       <c r="E396" s="5"/>
       <c r="F396" s="5"/>
     </row>
-    <row r="397">
+    <row r="397" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C397" s="5"/>
       <c r="D397" s="9"/>
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
     </row>
-    <row r="398">
+    <row r="398" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C398" s="5"/>
       <c r="D398" s="9"/>
       <c r="E398" s="5"/>
       <c r="F398" s="5"/>
     </row>
-    <row r="399">
+    <row r="399" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C399" s="5"/>
       <c r="D399" s="9"/>
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
     </row>
-    <row r="400">
+    <row r="400" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C400" s="5"/>
       <c r="D400" s="9"/>
       <c r="E400" s="5"/>
       <c r="F400" s="5"/>
     </row>
-    <row r="401">
+    <row r="401" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C401" s="5"/>
       <c r="D401" s="9"/>
       <c r="E401" s="5"/>
       <c r="F401" s="5"/>
     </row>
-    <row r="402">
+    <row r="402" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C402" s="5"/>
       <c r="D402" s="9"/>
       <c r="E402" s="5"/>
       <c r="F402" s="5"/>
     </row>
-    <row r="403">
+    <row r="403" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C403" s="5"/>
       <c r="D403" s="9"/>
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
     </row>
-    <row r="404">
+    <row r="404" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C404" s="5"/>
       <c r="D404" s="9"/>
       <c r="E404" s="5"/>
       <c r="F404" s="5"/>
     </row>
-    <row r="405">
+    <row r="405" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C405" s="5"/>
       <c r="D405" s="9"/>
       <c r="E405" s="5"/>
       <c r="F405" s="5"/>
     </row>
-    <row r="406">
+    <row r="406" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C406" s="5"/>
       <c r="D406" s="9"/>
       <c r="E406" s="5"/>
       <c r="F406" s="5"/>
     </row>
-    <row r="407">
+    <row r="407" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C407" s="5"/>
       <c r="D407" s="9"/>
       <c r="E407" s="5"/>
       <c r="F407" s="5"/>
     </row>
-    <row r="408">
+    <row r="408" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C408" s="5"/>
       <c r="D408" s="9"/>
       <c r="E408" s="5"/>
       <c r="F408" s="5"/>
     </row>
-    <row r="409">
+    <row r="409" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C409" s="5"/>
       <c r="D409" s="9"/>
       <c r="E409" s="5"/>
       <c r="F409" s="5"/>
     </row>
-    <row r="410">
+    <row r="410" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C410" s="5"/>
       <c r="D410" s="9"/>
       <c r="E410" s="5"/>
       <c r="F410" s="5"/>
     </row>
-    <row r="411">
+    <row r="411" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C411" s="5"/>
       <c r="D411" s="9"/>
       <c r="E411" s="5"/>
       <c r="F411" s="5"/>
     </row>
-    <row r="412">
+    <row r="412" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C412" s="5"/>
       <c r="D412" s="9"/>
       <c r="E412" s="5"/>
       <c r="F412" s="5"/>
     </row>
-    <row r="413">
+    <row r="413" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C413" s="5"/>
       <c r="D413" s="9"/>
       <c r="E413" s="5"/>
       <c r="F413" s="5"/>
     </row>
-    <row r="414">
+    <row r="414" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C414" s="5"/>
       <c r="D414" s="9"/>
       <c r="E414" s="5"/>
       <c r="F414" s="5"/>
     </row>
-    <row r="415">
+    <row r="415" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C415" s="5"/>
       <c r="D415" s="9"/>
       <c r="E415" s="5"/>
       <c r="F415" s="5"/>
     </row>
-    <row r="416">
+    <row r="416" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C416" s="5"/>
       <c r="D416" s="9"/>
       <c r="E416" s="5"/>
       <c r="F416" s="5"/>
     </row>
-    <row r="417">
+    <row r="417" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C417" s="5"/>
       <c r="D417" s="9"/>
       <c r="E417" s="5"/>
       <c r="F417" s="5"/>
     </row>
-    <row r="418">
+    <row r="418" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C418" s="5"/>
       <c r="D418" s="9"/>
       <c r="E418" s="5"/>
       <c r="F418" s="5"/>
     </row>
-    <row r="419">
+    <row r="419" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C419" s="5"/>
       <c r="D419" s="9"/>
       <c r="E419" s="5"/>
       <c r="F419" s="5"/>
     </row>
-    <row r="420">
+    <row r="420" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C420" s="5"/>
       <c r="D420" s="9"/>
       <c r="E420" s="5"/>
       <c r="F420" s="5"/>
     </row>
-    <row r="421">
+    <row r="421" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C421" s="5"/>
       <c r="D421" s="9"/>
       <c r="E421" s="5"/>
       <c r="F421" s="5"/>
     </row>
-    <row r="422">
+    <row r="422" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C422" s="5"/>
       <c r="D422" s="9"/>
       <c r="E422" s="5"/>
       <c r="F422" s="5"/>
     </row>
-    <row r="423">
+    <row r="423" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C423" s="5"/>
       <c r="D423" s="9"/>
       <c r="E423" s="5"/>
       <c r="F423" s="5"/>
     </row>
-    <row r="424">
+    <row r="424" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C424" s="5"/>
       <c r="D424" s="9"/>
       <c r="E424" s="5"/>
       <c r="F424" s="5"/>
     </row>
-    <row r="425">
+    <row r="425" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C425" s="5"/>
       <c r="D425" s="9"/>
       <c r="E425" s="5"/>
       <c r="F425" s="5"/>
     </row>
-    <row r="426">
+    <row r="426" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C426" s="5"/>
       <c r="D426" s="9"/>
       <c r="E426" s="5"/>
       <c r="F426" s="5"/>
     </row>
-    <row r="427">
+    <row r="427" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C427" s="5"/>
       <c r="D427" s="9"/>
       <c r="E427" s="5"/>
       <c r="F427" s="5"/>
     </row>
-    <row r="428">
+    <row r="428" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C428" s="5"/>
       <c r="D428" s="9"/>
       <c r="E428" s="5"/>
       <c r="F428" s="5"/>
     </row>
-    <row r="429">
+    <row r="429" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C429" s="5"/>
       <c r="D429" s="9"/>
       <c r="E429" s="5"/>
       <c r="F429" s="5"/>
     </row>
-    <row r="430">
+    <row r="430" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C430" s="5"/>
       <c r="D430" s="9"/>
       <c r="E430" s="5"/>
       <c r="F430" s="5"/>
     </row>
-    <row r="431">
+    <row r="431" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C431" s="5"/>
       <c r="D431" s="9"/>
       <c r="E431" s="5"/>
       <c r="F431" s="5"/>
     </row>
-    <row r="432">
+    <row r="432" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C432" s="5"/>
       <c r="D432" s="9"/>
       <c r="E432" s="5"/>
       <c r="F432" s="5"/>
     </row>
-    <row r="433">
+    <row r="433" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C433" s="5"/>
       <c r="D433" s="9"/>
       <c r="E433" s="5"/>
       <c r="F433" s="5"/>
     </row>
-    <row r="434">
+    <row r="434" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C434" s="5"/>
       <c r="D434" s="9"/>
       <c r="E434" s="5"/>
       <c r="F434" s="5"/>
     </row>
-    <row r="435">
+    <row r="435" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C435" s="5"/>
       <c r="D435" s="9"/>
       <c r="E435" s="5"/>
       <c r="F435" s="5"/>
     </row>
-    <row r="436">
+    <row r="436" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C436" s="5"/>
       <c r="D436" s="9"/>
       <c r="E436" s="5"/>
       <c r="F436" s="5"/>
     </row>
-    <row r="437">
+    <row r="437" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C437" s="5"/>
       <c r="D437" s="9"/>
       <c r="E437" s="5"/>
       <c r="F437" s="5"/>
     </row>
-    <row r="438">
+    <row r="438" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C438" s="5"/>
       <c r="D438" s="9"/>
       <c r="E438" s="5"/>
       <c r="F438" s="5"/>
     </row>
-    <row r="439">
+    <row r="439" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C439" s="5"/>
       <c r="D439" s="9"/>
       <c r="E439" s="5"/>
       <c r="F439" s="5"/>
     </row>
-    <row r="440">
+    <row r="440" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C440" s="5"/>
       <c r="D440" s="9"/>
       <c r="E440" s="5"/>
       <c r="F440" s="5"/>
     </row>
-    <row r="441">
+    <row r="441" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C441" s="5"/>
       <c r="D441" s="9"/>
       <c r="E441" s="5"/>
       <c r="F441" s="5"/>
     </row>
-    <row r="442">
+    <row r="442" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C442" s="5"/>
       <c r="D442" s="9"/>
       <c r="E442" s="5"/>
       <c r="F442" s="5"/>
     </row>
-    <row r="443">
+    <row r="443" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C443" s="5"/>
       <c r="D443" s="9"/>
       <c r="E443" s="5"/>
       <c r="F443" s="5"/>
     </row>
-    <row r="444">
+    <row r="444" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C444" s="5"/>
       <c r="D444" s="9"/>
       <c r="E444" s="5"/>
       <c r="F444" s="5"/>
     </row>
-    <row r="445">
+    <row r="445" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C445" s="5"/>
       <c r="D445" s="9"/>
       <c r="E445" s="5"/>
       <c r="F445" s="5"/>
     </row>
-    <row r="446">
+    <row r="446" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C446" s="5"/>
       <c r="D446" s="9"/>
       <c r="E446" s="5"/>
       <c r="F446" s="5"/>
     </row>
-    <row r="447">
+    <row r="447" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C447" s="5"/>
       <c r="D447" s="9"/>
       <c r="E447" s="5"/>
       <c r="F447" s="5"/>
     </row>
-    <row r="448">
+    <row r="448" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C448" s="5"/>
       <c r="D448" s="9"/>
       <c r="E448" s="5"/>
       <c r="F448" s="5"/>
     </row>
-    <row r="449">
+    <row r="449" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C449" s="5"/>
       <c r="D449" s="9"/>
       <c r="E449" s="5"/>
       <c r="F449" s="5"/>
     </row>
-    <row r="450">
+    <row r="450" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C450" s="5"/>
       <c r="D450" s="9"/>
       <c r="E450" s="5"/>
       <c r="F450" s="5"/>
     </row>
-    <row r="451">
+    <row r="451" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C451" s="5"/>
       <c r="D451" s="9"/>
       <c r="E451" s="5"/>
       <c r="F451" s="5"/>
     </row>
-    <row r="452">
+    <row r="452" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C452" s="5"/>
       <c r="D452" s="9"/>
       <c r="E452" s="5"/>
       <c r="F452" s="5"/>
     </row>
-    <row r="453">
+    <row r="453" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C453" s="5"/>
       <c r="D453" s="9"/>
       <c r="E453" s="5"/>
       <c r="F453" s="5"/>
     </row>
-    <row r="454">
+    <row r="454" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C454" s="5"/>
       <c r="D454" s="9"/>
       <c r="E454" s="5"/>
       <c r="F454" s="5"/>
     </row>
-    <row r="455">
+    <row r="455" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C455" s="5"/>
       <c r="D455" s="9"/>
       <c r="E455" s="5"/>
       <c r="F455" s="5"/>
     </row>
-    <row r="456">
+    <row r="456" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C456" s="5"/>
       <c r="D456" s="9"/>
       <c r="E456" s="5"/>
       <c r="F456" s="5"/>
     </row>
-    <row r="457">
+    <row r="457" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C457" s="5"/>
       <c r="D457" s="9"/>
       <c r="E457" s="5"/>
       <c r="F457" s="5"/>
     </row>
-    <row r="458">
+    <row r="458" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C458" s="5"/>
       <c r="D458" s="9"/>
       <c r="E458" s="5"/>
       <c r="F458" s="5"/>
     </row>
-    <row r="459">
+    <row r="459" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C459" s="5"/>
       <c r="D459" s="9"/>
       <c r="E459" s="5"/>
       <c r="F459" s="5"/>
     </row>
-    <row r="460">
+    <row r="460" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C460" s="5"/>
       <c r="D460" s="9"/>
       <c r="E460" s="5"/>
       <c r="F460" s="5"/>
     </row>
-    <row r="461">
+    <row r="461" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C461" s="5"/>
       <c r="D461" s="9"/>
       <c r="E461" s="5"/>
       <c r="F461" s="5"/>
     </row>
-    <row r="462">
+    <row r="462" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C462" s="5"/>
       <c r="D462" s="9"/>
       <c r="E462" s="5"/>
       <c r="F462" s="5"/>
     </row>
-    <row r="463">
+    <row r="463" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C463" s="5"/>
       <c r="D463" s="9"/>
       <c r="E463" s="5"/>
       <c r="F463" s="5"/>
     </row>
-    <row r="464">
+    <row r="464" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C464" s="5"/>
       <c r="D464" s="9"/>
       <c r="E464" s="5"/>
       <c r="F464" s="5"/>
     </row>
-    <row r="465">
+    <row r="465" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C465" s="5"/>
       <c r="D465" s="9"/>
       <c r="E465" s="5"/>
       <c r="F465" s="5"/>
     </row>
-    <row r="466">
+    <row r="466" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C466" s="5"/>
       <c r="D466" s="9"/>
       <c r="E466" s="5"/>
       <c r="F466" s="5"/>
     </row>
-    <row r="467">
+    <row r="467" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C467" s="5"/>
       <c r="D467" s="9"/>
       <c r="E467" s="5"/>
       <c r="F467" s="5"/>
     </row>
-    <row r="468">
+    <row r="468" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C468" s="5"/>
       <c r="D468" s="9"/>
       <c r="E468" s="5"/>
       <c r="F468" s="5"/>
     </row>
-    <row r="469">
+    <row r="469" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C469" s="5"/>
       <c r="D469" s="9"/>
       <c r="E469" s="5"/>
       <c r="F469" s="5"/>
     </row>
-    <row r="470">
+    <row r="470" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C470" s="5"/>
       <c r="D470" s="9"/>
       <c r="E470" s="5"/>
       <c r="F470" s="5"/>
     </row>
-    <row r="471">
+    <row r="471" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C471" s="5"/>
       <c r="D471" s="9"/>
       <c r="E471" s="5"/>
       <c r="F471" s="5"/>
     </row>
-    <row r="472">
+    <row r="472" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C472" s="5"/>
       <c r="D472" s="9"/>
       <c r="E472" s="5"/>
       <c r="F472" s="5"/>
     </row>
-    <row r="473">
+    <row r="473" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C473" s="5"/>
       <c r="D473" s="9"/>
       <c r="E473" s="5"/>
       <c r="F473" s="5"/>
     </row>
-    <row r="474">
+    <row r="474" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C474" s="5"/>
       <c r="D474" s="9"/>
       <c r="E474" s="5"/>
       <c r="F474" s="5"/>
     </row>
-    <row r="475">
+    <row r="475" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C475" s="5"/>
       <c r="D475" s="9"/>
       <c r="E475" s="5"/>
       <c r="F475" s="5"/>
     </row>
-    <row r="476">
+    <row r="476" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C476" s="5"/>
       <c r="D476" s="9"/>
       <c r="E476" s="5"/>
       <c r="F476" s="5"/>
     </row>
-    <row r="477">
+    <row r="477" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C477" s="5"/>
       <c r="D477" s="9"/>
       <c r="E477" s="5"/>
       <c r="F477" s="5"/>
     </row>
-    <row r="478">
+    <row r="478" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C478" s="5"/>
       <c r="D478" s="9"/>
       <c r="E478" s="5"/>
       <c r="F478" s="5"/>
     </row>
-    <row r="479">
+    <row r="479" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C479" s="5"/>
       <c r="D479" s="9"/>
       <c r="E479" s="5"/>
       <c r="F479" s="5"/>
     </row>
-    <row r="480">
+    <row r="480" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C480" s="5"/>
       <c r="D480" s="9"/>
       <c r="E480" s="5"/>
       <c r="F480" s="5"/>
     </row>
-    <row r="481">
+    <row r="481" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C481" s="5"/>
       <c r="D481" s="9"/>
       <c r="E481" s="5"/>
       <c r="F481" s="5"/>
     </row>
-    <row r="482">
+    <row r="482" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C482" s="5"/>
       <c r="D482" s="9"/>
       <c r="E482" s="5"/>
       <c r="F482" s="5"/>
     </row>
-    <row r="483">
+    <row r="483" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C483" s="5"/>
       <c r="D483" s="9"/>
       <c r="E483" s="5"/>
       <c r="F483" s="5"/>
     </row>
-    <row r="484">
+    <row r="484" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C484" s="5"/>
       <c r="D484" s="9"/>
       <c r="E484" s="5"/>
       <c r="F484" s="5"/>
     </row>
-    <row r="485">
+    <row r="485" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C485" s="5"/>
       <c r="D485" s="9"/>
       <c r="E485" s="5"/>
       <c r="F485" s="5"/>
     </row>
-    <row r="486">
+    <row r="486" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C486" s="5"/>
       <c r="D486" s="9"/>
       <c r="E486" s="5"/>
       <c r="F486" s="5"/>
     </row>
-    <row r="487">
+    <row r="487" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C487" s="5"/>
       <c r="D487" s="9"/>
       <c r="E487" s="5"/>
       <c r="F487" s="5"/>
     </row>
-    <row r="488">
+    <row r="488" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C488" s="5"/>
       <c r="D488" s="9"/>
       <c r="E488" s="5"/>
       <c r="F488" s="5"/>
     </row>
-    <row r="489">
+    <row r="489" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C489" s="5"/>
       <c r="D489" s="9"/>
       <c r="E489" s="5"/>
       <c r="F489" s="5"/>
     </row>
-    <row r="490">
+    <row r="490" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C490" s="5"/>
       <c r="D490" s="9"/>
       <c r="E490" s="5"/>
       <c r="F490" s="5"/>
     </row>
-    <row r="491">
+    <row r="491" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C491" s="5"/>
       <c r="D491" s="9"/>
       <c r="E491" s="5"/>
       <c r="F491" s="5"/>
     </row>
-    <row r="492">
+    <row r="492" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C492" s="5"/>
       <c r="D492" s="9"/>
       <c r="E492" s="5"/>
       <c r="F492" s="5"/>
     </row>
-    <row r="493">
+    <row r="493" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C493" s="5"/>
       <c r="D493" s="9"/>
       <c r="E493" s="5"/>
       <c r="F493" s="5"/>
     </row>
-    <row r="494">
+    <row r="494" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C494" s="5"/>
       <c r="D494" s="9"/>
       <c r="E494" s="5"/>
       <c r="F494" s="5"/>
     </row>
-    <row r="495">
+    <row r="495" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C495" s="5"/>
       <c r="D495" s="9"/>
       <c r="E495" s="5"/>
       <c r="F495" s="5"/>
     </row>
-    <row r="496">
+    <row r="496" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C496" s="5"/>
       <c r="D496" s="9"/>
       <c r="E496" s="5"/>
       <c r="F496" s="5"/>
     </row>
-    <row r="497">
+    <row r="497" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C497" s="5"/>
       <c r="D497" s="9"/>
       <c r="E497" s="5"/>
       <c r="F497" s="5"/>
     </row>
-    <row r="498">
+    <row r="498" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C498" s="5"/>
       <c r="D498" s="9"/>
       <c r="E498" s="5"/>
       <c r="F498" s="5"/>
     </row>
-    <row r="499">
+    <row r="499" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C499" s="5"/>
       <c r="D499" s="9"/>
       <c r="E499" s="5"/>
       <c r="F499" s="5"/>
     </row>
-    <row r="500">
+    <row r="500" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C500" s="5"/>
       <c r="D500" s="9"/>
       <c r="E500" s="5"/>
       <c r="F500" s="5"/>
     </row>
-    <row r="501">
+    <row r="501" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C501" s="5"/>
       <c r="D501" s="9"/>
       <c r="E501" s="5"/>
       <c r="F501" s="5"/>
     </row>
-    <row r="502">
+    <row r="502" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C502" s="5"/>
       <c r="D502" s="9"/>
       <c r="E502" s="5"/>
       <c r="F502" s="5"/>
     </row>
-    <row r="503">
+    <row r="503" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C503" s="5"/>
       <c r="D503" s="9"/>
       <c r="E503" s="5"/>
       <c r="F503" s="5"/>
     </row>
-    <row r="504">
+    <row r="504" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C504" s="5"/>
       <c r="D504" s="9"/>
       <c r="E504" s="5"/>
       <c r="F504" s="5"/>
     </row>
-    <row r="505">
+    <row r="505" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C505" s="5"/>
       <c r="D505" s="9"/>
       <c r="E505" s="5"/>
       <c r="F505" s="5"/>
     </row>
-    <row r="506">
+    <row r="506" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C506" s="5"/>
       <c r="D506" s="9"/>
       <c r="E506" s="5"/>
       <c r="F506" s="5"/>
     </row>
-    <row r="507">
+    <row r="507" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C507" s="5"/>
       <c r="D507" s="9"/>
       <c r="E507" s="5"/>
       <c r="F507" s="5"/>
     </row>
-    <row r="508">
+    <row r="508" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C508" s="5"/>
       <c r="D508" s="9"/>
       <c r="E508" s="5"/>
       <c r="F508" s="5"/>
     </row>
-    <row r="509">
+    <row r="509" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C509" s="5"/>
       <c r="D509" s="9"/>
       <c r="E509" s="5"/>
       <c r="F509" s="5"/>
     </row>
-    <row r="510">
+    <row r="510" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C510" s="5"/>
       <c r="D510" s="9"/>
       <c r="E510" s="5"/>
       <c r="F510" s="5"/>
     </row>
-    <row r="511">
+    <row r="511" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C511" s="5"/>
       <c r="D511" s="9"/>
       <c r="E511" s="5"/>
       <c r="F511" s="5"/>
     </row>
-    <row r="512">
+    <row r="512" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C512" s="5"/>
       <c r="D512" s="9"/>
       <c r="E512" s="5"/>
       <c r="F512" s="5"/>
     </row>
-    <row r="513">
+    <row r="513" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C513" s="5"/>
       <c r="D513" s="9"/>
       <c r="E513" s="5"/>
       <c r="F513" s="5"/>
     </row>
-    <row r="514">
+    <row r="514" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C514" s="5"/>
       <c r="D514" s="9"/>
       <c r="E514" s="5"/>
       <c r="F514" s="5"/>
     </row>
-    <row r="515">
+    <row r="515" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C515" s="5"/>
       <c r="D515" s="9"/>
       <c r="E515" s="5"/>
       <c r="F515" s="5"/>
     </row>
-    <row r="516">
+    <row r="516" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C516" s="5"/>
       <c r="D516" s="9"/>
       <c r="E516" s="5"/>
       <c r="F516" s="5"/>
     </row>
-    <row r="517">
+    <row r="517" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C517" s="5"/>
       <c r="D517" s="9"/>
       <c r="E517" s="5"/>
       <c r="F517" s="5"/>
     </row>
-    <row r="518">
+    <row r="518" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C518" s="5"/>
       <c r="D518" s="9"/>
       <c r="E518" s="5"/>
       <c r="F518" s="5"/>
     </row>
-    <row r="519">
+    <row r="519" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C519" s="5"/>
       <c r="D519" s="9"/>
       <c r="E519" s="5"/>
       <c r="F519" s="5"/>
     </row>
-    <row r="520">
+    <row r="520" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C520" s="5"/>
       <c r="D520" s="9"/>
       <c r="E520" s="5"/>
       <c r="F520" s="5"/>
     </row>
-    <row r="521">
+    <row r="521" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C521" s="5"/>
       <c r="D521" s="9"/>
       <c r="E521" s="5"/>
       <c r="F521" s="5"/>
     </row>
-    <row r="522">
+    <row r="522" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C522" s="5"/>
       <c r="D522" s="9"/>
       <c r="E522" s="5"/>
       <c r="F522" s="5"/>
     </row>
-    <row r="523">
+    <row r="523" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C523" s="5"/>
       <c r="D523" s="9"/>
       <c r="E523" s="5"/>
       <c r="F523" s="5"/>
     </row>
-    <row r="524">
+    <row r="524" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C524" s="5"/>
       <c r="D524" s="9"/>
       <c r="E524" s="5"/>
       <c r="F524" s="5"/>
     </row>
-    <row r="525">
+    <row r="525" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C525" s="5"/>
       <c r="D525" s="9"/>
       <c r="E525" s="5"/>
       <c r="F525" s="5"/>
     </row>
-    <row r="526">
+    <row r="526" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C526" s="5"/>
       <c r="D526" s="9"/>
       <c r="E526" s="5"/>
       <c r="F526" s="5"/>
     </row>
-    <row r="527">
+    <row r="527" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C527" s="5"/>
       <c r="D527" s="9"/>
       <c r="E527" s="5"/>
       <c r="F527" s="5"/>
     </row>
-    <row r="528">
+    <row r="528" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C528" s="5"/>
       <c r="D528" s="9"/>
       <c r="E528" s="5"/>
       <c r="F528" s="5"/>
     </row>
-    <row r="529">
+    <row r="529" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C529" s="5"/>
       <c r="D529" s="9"/>
       <c r="E529" s="5"/>
       <c r="F529" s="5"/>
     </row>
-    <row r="530">
+    <row r="530" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C530" s="5"/>
       <c r="D530" s="9"/>
       <c r="E530" s="5"/>
       <c r="F530" s="5"/>
     </row>
-    <row r="531">
+    <row r="531" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C531" s="5"/>
       <c r="D531" s="9"/>
       <c r="E531" s="5"/>
       <c r="F531" s="5"/>
     </row>
-    <row r="532">
+    <row r="532" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C532" s="5"/>
       <c r="D532" s="9"/>
       <c r="E532" s="5"/>
       <c r="F532" s="5"/>
     </row>
-    <row r="533">
+    <row r="533" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C533" s="5"/>
       <c r="D533" s="9"/>
       <c r="E533" s="5"/>
       <c r="F533" s="5"/>
     </row>
-    <row r="534">
+    <row r="534" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C534" s="5"/>
       <c r="D534" s="9"/>
       <c r="E534" s="5"/>
       <c r="F534" s="5"/>
     </row>
-    <row r="535">
+    <row r="535" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C535" s="5"/>
       <c r="D535" s="9"/>
       <c r="E535" s="5"/>
       <c r="F535" s="5"/>
     </row>
-    <row r="536">
+    <row r="536" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C536" s="5"/>
       <c r="D536" s="9"/>
       <c r="E536" s="5"/>
       <c r="F536" s="5"/>
     </row>
-    <row r="537">
+    <row r="537" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C537" s="5"/>
       <c r="D537" s="9"/>
       <c r="E537" s="5"/>
       <c r="F537" s="5"/>
     </row>
-    <row r="538">
+    <row r="538" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C538" s="5"/>
       <c r="D538" s="9"/>
       <c r="E538" s="5"/>
       <c r="F538" s="5"/>
     </row>
-    <row r="539">
+    <row r="539" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C539" s="5"/>
       <c r="D539" s="9"/>
       <c r="E539" s="5"/>
       <c r="F539" s="5"/>
     </row>
-    <row r="540">
+    <row r="540" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C540" s="5"/>
       <c r="D540" s="9"/>
       <c r="E540" s="5"/>
       <c r="F540" s="5"/>
     </row>
-    <row r="541">
+    <row r="541" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C541" s="5"/>
       <c r="D541" s="9"/>
       <c r="E541" s="5"/>
       <c r="F541" s="5"/>
     </row>
-    <row r="542">
+    <row r="542" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C542" s="5"/>
       <c r="D542" s="9"/>
       <c r="E542" s="5"/>
       <c r="F542" s="5"/>
     </row>
-    <row r="543">
+    <row r="543" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C543" s="5"/>
       <c r="D543" s="9"/>
       <c r="E543" s="5"/>
       <c r="F543" s="5"/>
     </row>
-    <row r="544">
+    <row r="544" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C544" s="5"/>
       <c r="D544" s="9"/>
       <c r="E544" s="5"/>
       <c r="F544" s="5"/>
     </row>
-    <row r="545">
+    <row r="545" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C545" s="5"/>
       <c r="D545" s="9"/>
       <c r="E545" s="5"/>
       <c r="F545" s="5"/>
     </row>
-    <row r="546">
+    <row r="546" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C546" s="5"/>
       <c r="D546" s="9"/>
       <c r="E546" s="5"/>
       <c r="F546" s="5"/>
     </row>
-    <row r="547">
+    <row r="547" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C547" s="5"/>
       <c r="D547" s="9"/>
       <c r="E547" s="5"/>
       <c r="F547" s="5"/>
     </row>
-    <row r="548">
+    <row r="548" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C548" s="5"/>
       <c r="D548" s="9"/>
       <c r="E548" s="5"/>
       <c r="F548" s="5"/>
     </row>
-    <row r="549">
+    <row r="549" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C549" s="5"/>
       <c r="D549" s="9"/>
       <c r="E549" s="5"/>
       <c r="F549" s="5"/>
     </row>
-    <row r="550">
+    <row r="550" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C550" s="5"/>
       <c r="D550" s="9"/>
       <c r="E550" s="5"/>
       <c r="F550" s="5"/>
     </row>
-    <row r="551">
+    <row r="551" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C551" s="5"/>
       <c r="D551" s="9"/>
       <c r="E551" s="5"/>
       <c r="F551" s="5"/>
     </row>
-    <row r="552">
+    <row r="552" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C552" s="5"/>
       <c r="D552" s="9"/>
       <c r="E552" s="5"/>
       <c r="F552" s="5"/>
     </row>
-    <row r="553">
+    <row r="553" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C553" s="5"/>
       <c r="D553" s="9"/>
       <c r="E553" s="5"/>
       <c r="F553" s="5"/>
     </row>
-    <row r="554">
+    <row r="554" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C554" s="5"/>
       <c r="D554" s="9"/>
       <c r="E554" s="5"/>
       <c r="F554" s="5"/>
     </row>
-    <row r="555">
+    <row r="555" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C555" s="5"/>
       <c r="D555" s="9"/>
       <c r="E555" s="5"/>
       <c r="F555" s="5"/>
     </row>
-    <row r="556">
+    <row r="556" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C556" s="5"/>
       <c r="D556" s="9"/>
       <c r="E556" s="5"/>
       <c r="F556" s="5"/>
     </row>
-    <row r="557">
+    <row r="557" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C557" s="5"/>
       <c r="D557" s="9"/>
       <c r="E557" s="5"/>
       <c r="F557" s="5"/>
     </row>
-    <row r="558">
+    <row r="558" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C558" s="5"/>
       <c r="D558" s="9"/>
       <c r="E558" s="5"/>
       <c r="F558" s="5"/>
     </row>
-    <row r="559">
+    <row r="559" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C559" s="5"/>
       <c r="D559" s="9"/>
       <c r="E559" s="5"/>
       <c r="F559" s="5"/>
     </row>
-    <row r="560">
+    <row r="560" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C560" s="5"/>
       <c r="D560" s="9"/>
       <c r="E560" s="5"/>
       <c r="F560" s="5"/>
     </row>
-    <row r="561">
+    <row r="561" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C561" s="5"/>
       <c r="D561" s="9"/>
       <c r="E561" s="5"/>
       <c r="F561" s="5"/>
     </row>
-    <row r="562">
+    <row r="562" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C562" s="5"/>
       <c r="D562" s="9"/>
       <c r="E562" s="5"/>
       <c r="F562" s="5"/>
     </row>
-    <row r="563">
+    <row r="563" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C563" s="5"/>
       <c r="D563" s="9"/>
       <c r="E563" s="5"/>
       <c r="F563" s="5"/>
     </row>
-    <row r="564">
+    <row r="564" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C564" s="5"/>
       <c r="D564" s="9"/>
       <c r="E564" s="5"/>
       <c r="F564" s="5"/>
     </row>
-    <row r="565">
+    <row r="565" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C565" s="5"/>
       <c r="D565" s="9"/>
       <c r="E565" s="5"/>
       <c r="F565" s="5"/>
     </row>
-    <row r="566">
+    <row r="566" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C566" s="5"/>
       <c r="D566" s="9"/>
       <c r="E566" s="5"/>
       <c r="F566" s="5"/>
     </row>
-    <row r="567">
+    <row r="567" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C567" s="5"/>
       <c r="D567" s="9"/>
       <c r="E567" s="5"/>
       <c r="F567" s="5"/>
     </row>
-    <row r="568">
+    <row r="568" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C568" s="5"/>
       <c r="D568" s="9"/>
       <c r="E568" s="5"/>
       <c r="F568" s="5"/>
     </row>
-    <row r="569">
+    <row r="569" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C569" s="5"/>
       <c r="D569" s="9"/>
       <c r="E569" s="5"/>
       <c r="F569" s="5"/>
     </row>
-    <row r="570">
+    <row r="570" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C570" s="5"/>
       <c r="D570" s="9"/>
       <c r="E570" s="5"/>
       <c r="F570" s="5"/>
     </row>
-    <row r="571">
+    <row r="571" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C571" s="5"/>
       <c r="D571" s="9"/>
       <c r="E571" s="5"/>
       <c r="F571" s="5"/>
     </row>
-    <row r="572">
+    <row r="572" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C572" s="5"/>
       <c r="D572" s="9"/>
       <c r="E572" s="5"/>
       <c r="F572" s="5"/>
     </row>
-    <row r="573">
+    <row r="573" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C573" s="5"/>
       <c r="D573" s="9"/>
       <c r="E573" s="5"/>
       <c r="F573" s="5"/>
     </row>
-    <row r="574">
+    <row r="574" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C574" s="5"/>
       <c r="D574" s="9"/>
       <c r="E574" s="5"/>
       <c r="F574" s="5"/>
     </row>
-    <row r="575">
+    <row r="575" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C575" s="5"/>
       <c r="D575" s="9"/>
       <c r="E575" s="5"/>
       <c r="F575" s="5"/>
     </row>
-    <row r="576">
+    <row r="576" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C576" s="5"/>
       <c r="D576" s="9"/>
       <c r="E576" s="5"/>
       <c r="F576" s="5"/>
     </row>
-    <row r="577">
+    <row r="577" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C577" s="5"/>
       <c r="D577" s="9"/>
       <c r="E577" s="5"/>
       <c r="F577" s="5"/>
     </row>
-    <row r="578">
+    <row r="578" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C578" s="5"/>
       <c r="D578" s="9"/>
       <c r="E578" s="5"/>
       <c r="F578" s="5"/>
     </row>
-    <row r="579">
+    <row r="579" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C579" s="5"/>
       <c r="D579" s="9"/>
       <c r="E579" s="5"/>
       <c r="F579" s="5"/>
     </row>
-    <row r="580">
+    <row r="580" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C580" s="5"/>
       <c r="D580" s="9"/>
       <c r="E580" s="5"/>
       <c r="F580" s="5"/>
     </row>
-    <row r="581">
+    <row r="581" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C581" s="5"/>
       <c r="D581" s="9"/>
       <c r="E581" s="5"/>
       <c r="F581" s="5"/>
     </row>
-    <row r="582">
+    <row r="582" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C582" s="5"/>
       <c r="D582" s="9"/>
       <c r="E582" s="5"/>
       <c r="F582" s="5"/>
     </row>
-    <row r="583">
+    <row r="583" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C583" s="5"/>
       <c r="D583" s="9"/>
       <c r="E583" s="5"/>
       <c r="F583" s="5"/>
     </row>
-    <row r="584">
+    <row r="584" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C584" s="5"/>
       <c r="D584" s="9"/>
       <c r="E584" s="5"/>
       <c r="F584" s="5"/>
     </row>
-    <row r="585">
+    <row r="585" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C585" s="5"/>
       <c r="D585" s="9"/>
       <c r="E585" s="5"/>
       <c r="F585" s="5"/>
     </row>
-    <row r="586">
+    <row r="586" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C586" s="5"/>
       <c r="D586" s="9"/>
       <c r="E586" s="5"/>
       <c r="F586" s="5"/>
     </row>
-    <row r="587">
+    <row r="587" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C587" s="5"/>
       <c r="D587" s="9"/>
       <c r="E587" s="5"/>
       <c r="F587" s="5"/>
     </row>
-    <row r="588">
+    <row r="588" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C588" s="5"/>
       <c r="D588" s="9"/>
       <c r="E588" s="5"/>
       <c r="F588" s="5"/>
     </row>
-    <row r="589">
+    <row r="589" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C589" s="5"/>
       <c r="D589" s="9"/>
       <c r="E589" s="5"/>
       <c r="F589" s="5"/>
     </row>
-    <row r="590">
+    <row r="590" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C590" s="5"/>
       <c r="D590" s="9"/>
       <c r="E590" s="5"/>
       <c r="F590" s="5"/>
     </row>
-    <row r="591">
+    <row r="591" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C591" s="5"/>
       <c r="D591" s="9"/>
       <c r="E591" s="5"/>
       <c r="F591" s="5"/>
     </row>
-    <row r="592">
+    <row r="592" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C592" s="5"/>
       <c r="D592" s="9"/>
       <c r="E592" s="5"/>
       <c r="F592" s="5"/>
     </row>
-    <row r="593">
+    <row r="593" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C593" s="5"/>
       <c r="D593" s="9"/>
       <c r="E593" s="5"/>
       <c r="F593" s="5"/>
     </row>
-    <row r="594">
+    <row r="594" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C594" s="5"/>
       <c r="D594" s="9"/>
       <c r="E594" s="5"/>
       <c r="F594" s="5"/>
     </row>
-    <row r="595">
+    <row r="595" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C595" s="5"/>
       <c r="D595" s="9"/>
       <c r="E595" s="5"/>
       <c r="F595" s="5"/>
     </row>
-    <row r="596">
+    <row r="596" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C596" s="5"/>
       <c r="D596" s="9"/>
       <c r="E596" s="5"/>
       <c r="F596" s="5"/>
     </row>
-    <row r="597">
+    <row r="597" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C597" s="5"/>
       <c r="D597" s="9"/>
       <c r="E597" s="5"/>
       <c r="F597" s="5"/>
     </row>
-    <row r="598">
+    <row r="598" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C598" s="5"/>
       <c r="D598" s="9"/>
       <c r="E598" s="5"/>
       <c r="F598" s="5"/>
     </row>
-    <row r="599">
+    <row r="599" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C599" s="5"/>
       <c r="D599" s="9"/>
       <c r="E599" s="5"/>
       <c r="F599" s="5"/>
     </row>
-    <row r="600">
+    <row r="600" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C600" s="5"/>
       <c r="D600" s="9"/>
       <c r="E600" s="5"/>
       <c r="F600" s="5"/>
     </row>
-    <row r="601">
+    <row r="601" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C601" s="5"/>
       <c r="D601" s="9"/>
       <c r="E601" s="5"/>
       <c r="F601" s="5"/>
     </row>
-    <row r="602">
+    <row r="602" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C602" s="5"/>
       <c r="D602" s="9"/>
       <c r="E602" s="5"/>
       <c r="F602" s="5"/>
     </row>
-    <row r="603">
+    <row r="603" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C603" s="5"/>
       <c r="D603" s="9"/>
       <c r="E603" s="5"/>
       <c r="F603" s="5"/>
     </row>
-    <row r="604">
+    <row r="604" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C604" s="5"/>
       <c r="D604" s="9"/>
       <c r="E604" s="5"/>
       <c r="F604" s="5"/>
     </row>
-    <row r="605">
+    <row r="605" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C605" s="5"/>
       <c r="D605" s="9"/>
       <c r="E605" s="5"/>
       <c r="F605" s="5"/>
     </row>
-    <row r="606">
+    <row r="606" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C606" s="5"/>
       <c r="D606" s="9"/>
       <c r="E606" s="5"/>
       <c r="F606" s="5"/>
     </row>
-    <row r="607">
+    <row r="607" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C607" s="5"/>
       <c r="D607" s="9"/>
       <c r="E607" s="5"/>
       <c r="F607" s="5"/>
     </row>
-    <row r="608">
+    <row r="608" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C608" s="5"/>
       <c r="D608" s="9"/>
       <c r="E608" s="5"/>
       <c r="F608" s="5"/>
     </row>
-    <row r="609">
+    <row r="609" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C609" s="5"/>
       <c r="D609" s="9"/>
       <c r="E609" s="5"/>
       <c r="F609" s="5"/>
     </row>
-    <row r="610">
+    <row r="610" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C610" s="5"/>
       <c r="D610" s="9"/>
       <c r="E610" s="5"/>
       <c r="F610" s="5"/>
     </row>
-    <row r="611">
+    <row r="611" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C611" s="5"/>
       <c r="D611" s="9"/>
       <c r="E611" s="5"/>
       <c r="F611" s="5"/>
     </row>
-    <row r="612">
+    <row r="612" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C612" s="5"/>
       <c r="D612" s="9"/>
       <c r="E612" s="5"/>
       <c r="F612" s="5"/>
     </row>
-    <row r="613">
+    <row r="613" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C613" s="5"/>
       <c r="D613" s="9"/>
       <c r="E613" s="5"/>
       <c r="F613" s="5"/>
     </row>
-    <row r="614">
+    <row r="614" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C614" s="5"/>
       <c r="D614" s="9"/>
       <c r="E614" s="5"/>
       <c r="F614" s="5"/>
     </row>
-    <row r="615">
+    <row r="615" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C615" s="5"/>
       <c r="D615" s="9"/>
       <c r="E615" s="5"/>
       <c r="F615" s="5"/>
     </row>
-    <row r="616">
+    <row r="616" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C616" s="5"/>
       <c r="D616" s="9"/>
       <c r="E616" s="5"/>
       <c r="F616" s="5"/>
     </row>
-    <row r="617">
+    <row r="617" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C617" s="5"/>
       <c r="D617" s="9"/>
       <c r="E617" s="5"/>
       <c r="F617" s="5"/>
     </row>
-    <row r="618">
+    <row r="618" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C618" s="5"/>
       <c r="D618" s="9"/>
       <c r="E618" s="5"/>
       <c r="F618" s="5"/>
     </row>
-    <row r="619">
+    <row r="619" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C619" s="5"/>
       <c r="D619" s="9"/>
       <c r="E619" s="5"/>
       <c r="F619" s="5"/>
     </row>
-    <row r="620">
+    <row r="620" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C620" s="5"/>
       <c r="D620" s="9"/>
       <c r="E620" s="5"/>
       <c r="F620" s="5"/>
     </row>
-    <row r="621">
+    <row r="621" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C621" s="5"/>
       <c r="D621" s="9"/>
       <c r="E621" s="5"/>
       <c r="F621" s="5"/>
     </row>
-    <row r="622">
+    <row r="622" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C622" s="5"/>
       <c r="D622" s="9"/>
       <c r="E622" s="5"/>
       <c r="F622" s="5"/>
     </row>
-    <row r="623">
+    <row r="623" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C623" s="5"/>
       <c r="D623" s="9"/>
       <c r="E623" s="5"/>
       <c r="F623" s="5"/>
     </row>
-    <row r="624">
+    <row r="624" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C624" s="5"/>
       <c r="D624" s="9"/>
       <c r="E624" s="5"/>
       <c r="F624" s="5"/>
     </row>
-    <row r="625">
+    <row r="625" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C625" s="5"/>
       <c r="D625" s="9"/>
       <c r="E625" s="5"/>
       <c r="F625" s="5"/>
     </row>
-    <row r="626">
+    <row r="626" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C626" s="5"/>
       <c r="D626" s="9"/>
       <c r="E626" s="5"/>
       <c r="F626" s="5"/>
     </row>
-    <row r="627">
+    <row r="627" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C627" s="5"/>
       <c r="D627" s="9"/>
       <c r="E627" s="5"/>
       <c r="F627" s="5"/>
     </row>
-    <row r="628">
+    <row r="628" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C628" s="5"/>
       <c r="D628" s="9"/>
       <c r="E628" s="5"/>
       <c r="F628" s="5"/>
     </row>
-    <row r="629">
+    <row r="629" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C629" s="5"/>
       <c r="D629" s="9"/>
       <c r="E629" s="5"/>
       <c r="F629" s="5"/>
     </row>
-    <row r="630">
+    <row r="630" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C630" s="5"/>
       <c r="D630" s="9"/>
       <c r="E630" s="5"/>
       <c r="F630" s="5"/>
     </row>
-    <row r="631">
+    <row r="631" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C631" s="5"/>
       <c r="D631" s="9"/>
       <c r="E631" s="5"/>
       <c r="F631" s="5"/>
     </row>
-    <row r="632">
+    <row r="632" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C632" s="5"/>
       <c r="D632" s="9"/>
       <c r="E632" s="5"/>
       <c r="F632" s="5"/>
     </row>
-    <row r="633">
+    <row r="633" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C633" s="5"/>
       <c r="D633" s="9"/>
       <c r="E633" s="5"/>
       <c r="F633" s="5"/>
     </row>
-    <row r="634">
+    <row r="634" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C634" s="5"/>
       <c r="D634" s="9"/>
       <c r="E634" s="5"/>
       <c r="F634" s="5"/>
     </row>
-    <row r="635">
+    <row r="635" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C635" s="5"/>
       <c r="D635" s="9"/>
       <c r="E635" s="5"/>
       <c r="F635" s="5"/>
     </row>
-    <row r="636">
+    <row r="636" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C636" s="5"/>
       <c r="D636" s="9"/>
       <c r="E636" s="5"/>
       <c r="F636" s="5"/>
     </row>
-    <row r="637">
+    <row r="637" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C637" s="5"/>
       <c r="D637" s="9"/>
       <c r="E637" s="5"/>
       <c r="F637" s="5"/>
     </row>
-    <row r="638">
+    <row r="638" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C638" s="5"/>
       <c r="D638" s="9"/>
       <c r="E638" s="5"/>
       <c r="F638" s="5"/>
     </row>
-    <row r="639">
+    <row r="639" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C639" s="5"/>
       <c r="D639" s="9"/>
       <c r="E639" s="5"/>
       <c r="F639" s="5"/>
     </row>
-    <row r="640">
+    <row r="640" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C640" s="5"/>
       <c r="D640" s="9"/>
       <c r="E640" s="5"/>
       <c r="F640" s="5"/>
     </row>
-    <row r="641">
+    <row r="641" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C641" s="5"/>
       <c r="D641" s="9"/>
       <c r="E641" s="5"/>
       <c r="F641" s="5"/>
     </row>
-    <row r="642">
+    <row r="642" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C642" s="5"/>
       <c r="D642" s="9"/>
       <c r="E642" s="5"/>
       <c r="F642" s="5"/>
     </row>
-    <row r="643">
+    <row r="643" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C643" s="5"/>
       <c r="D643" s="9"/>
       <c r="E643" s="5"/>
       <c r="F643" s="5"/>
     </row>
-    <row r="644">
+    <row r="644" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C644" s="5"/>
       <c r="D644" s="9"/>
       <c r="E644" s="5"/>
       <c r="F644" s="5"/>
     </row>
-    <row r="645">
+    <row r="645" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C645" s="5"/>
       <c r="D645" s="9"/>
       <c r="E645" s="5"/>
       <c r="F645" s="5"/>
     </row>
-    <row r="646">
+    <row r="646" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C646" s="5"/>
       <c r="D646" s="9"/>
       <c r="E646" s="5"/>
       <c r="F646" s="5"/>
     </row>
-    <row r="647">
+    <row r="647" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C647" s="5"/>
       <c r="D647" s="9"/>
       <c r="E647" s="5"/>
       <c r="F647" s="5"/>
     </row>
-    <row r="648">
+    <row r="648" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C648" s="5"/>
       <c r="D648" s="9"/>
       <c r="E648" s="5"/>
       <c r="F648" s="5"/>
     </row>
-    <row r="649">
+    <row r="649" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C649" s="5"/>
       <c r="D649" s="9"/>
       <c r="E649" s="5"/>
       <c r="F649" s="5"/>
     </row>
-    <row r="650">
+    <row r="650" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C650" s="5"/>
       <c r="D650" s="9"/>
       <c r="E650" s="5"/>
       <c r="F650" s="5"/>
     </row>
-    <row r="651">
+    <row r="651" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C651" s="5"/>
       <c r="D651" s="9"/>
       <c r="E651" s="5"/>
       <c r="F651" s="5"/>
     </row>
-    <row r="652">
+    <row r="652" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C652" s="5"/>
       <c r="D652" s="9"/>
       <c r="E652" s="5"/>
       <c r="F652" s="5"/>
     </row>
-    <row r="653">
+    <row r="653" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C653" s="5"/>
       <c r="D653" s="9"/>
       <c r="E653" s="5"/>
       <c r="F653" s="5"/>
     </row>
-    <row r="654">
+    <row r="654" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C654" s="5"/>
       <c r="D654" s="9"/>
       <c r="E654" s="5"/>
       <c r="F654" s="5"/>
     </row>
-    <row r="655">
+    <row r="655" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C655" s="5"/>
       <c r="D655" s="9"/>
       <c r="E655" s="5"/>
       <c r="F655" s="5"/>
     </row>
-    <row r="656">
+    <row r="656" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C656" s="5"/>
       <c r="D656" s="9"/>
       <c r="E656" s="5"/>
       <c r="F656" s="5"/>
     </row>
-    <row r="657">
+    <row r="657" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C657" s="5"/>
       <c r="D657" s="9"/>
       <c r="E657" s="5"/>
       <c r="F657" s="5"/>
     </row>
-    <row r="658">
+    <row r="658" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C658" s="5"/>
       <c r="D658" s="9"/>
       <c r="E658" s="5"/>
       <c r="F658" s="5"/>
     </row>
-    <row r="659">
+    <row r="659" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C659" s="5"/>
       <c r="D659" s="9"/>
       <c r="E659" s="5"/>
       <c r="F659" s="5"/>
     </row>
-    <row r="660">
+    <row r="660" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C660" s="5"/>
       <c r="D660" s="9"/>
       <c r="E660" s="5"/>
       <c r="F660" s="5"/>
     </row>
-    <row r="661">
+    <row r="661" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C661" s="5"/>
       <c r="D661" s="9"/>
       <c r="E661" s="5"/>
       <c r="F661" s="5"/>
     </row>
-    <row r="662">
+    <row r="662" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C662" s="5"/>
       <c r="D662" s="9"/>
       <c r="E662" s="5"/>
       <c r="F662" s="5"/>
     </row>
-    <row r="663">
+    <row r="663" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C663" s="5"/>
       <c r="D663" s="9"/>
       <c r="E663" s="5"/>
       <c r="F663" s="5"/>
     </row>
-    <row r="664">
+    <row r="664" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C664" s="5"/>
       <c r="D664" s="9"/>
       <c r="E664" s="5"/>
       <c r="F664" s="5"/>
     </row>
-    <row r="665">
+    <row r="665" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C665" s="5"/>
       <c r="D665" s="9"/>
       <c r="E665" s="5"/>
       <c r="F665" s="5"/>
     </row>
-    <row r="666">
+    <row r="666" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C666" s="5"/>
       <c r="D666" s="9"/>
       <c r="E666" s="5"/>
       <c r="F666" s="5"/>
     </row>
-    <row r="667">
+    <row r="667" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C667" s="5"/>
       <c r="D667" s="9"/>
       <c r="E667" s="5"/>
       <c r="F667" s="5"/>
     </row>
-    <row r="668">
+    <row r="668" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C668" s="5"/>
       <c r="D668" s="9"/>
       <c r="E668" s="5"/>
       <c r="F668" s="5"/>
     </row>
-    <row r="669">
+    <row r="669" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C669" s="5"/>
       <c r="D669" s="9"/>
       <c r="E669" s="5"/>
       <c r="F669" s="5"/>
     </row>
-    <row r="670">
+    <row r="670" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C670" s="5"/>
       <c r="D670" s="9"/>
       <c r="E670" s="5"/>
       <c r="F670" s="5"/>
     </row>
-    <row r="671">
+    <row r="671" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C671" s="5"/>
       <c r="D671" s="9"/>
       <c r="E671" s="5"/>
       <c r="F671" s="5"/>
     </row>
-    <row r="672">
+    <row r="672" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C672" s="5"/>
       <c r="D672" s="9"/>
       <c r="E672" s="5"/>
       <c r="F672" s="5"/>
     </row>
-    <row r="673">
+    <row r="673" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C673" s="5"/>
       <c r="D673" s="9"/>
       <c r="E673" s="5"/>
       <c r="F673" s="5"/>
     </row>
-    <row r="674">
+    <row r="674" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C674" s="5"/>
       <c r="D674" s="9"/>
       <c r="E674" s="5"/>
       <c r="F674" s="5"/>
     </row>
-    <row r="675">
+    <row r="675" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C675" s="5"/>
       <c r="D675" s="9"/>
       <c r="E675" s="5"/>
       <c r="F675" s="5"/>
     </row>
-    <row r="676">
+    <row r="676" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C676" s="5"/>
       <c r="D676" s="9"/>
       <c r="E676" s="5"/>
       <c r="F676" s="5"/>
     </row>
-    <row r="677">
+    <row r="677" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C677" s="5"/>
       <c r="D677" s="9"/>
       <c r="E677" s="5"/>
       <c r="F677" s="5"/>
     </row>
-    <row r="678">
+    <row r="678" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C678" s="5"/>
       <c r="D678" s="9"/>
       <c r="E678" s="5"/>
       <c r="F678" s="5"/>
     </row>
-    <row r="679">
+    <row r="679" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C679" s="5"/>
       <c r="D679" s="9"/>
       <c r="E679" s="5"/>
       <c r="F679" s="5"/>
     </row>
-    <row r="680">
+    <row r="680" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C680" s="5"/>
       <c r="D680" s="9"/>
       <c r="E680" s="5"/>
       <c r="F680" s="5"/>
     </row>
-    <row r="681">
+    <row r="681" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C681" s="5"/>
       <c r="D681" s="9"/>
       <c r="E681" s="5"/>
       <c r="F681" s="5"/>
     </row>
-    <row r="682">
+    <row r="682" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C682" s="5"/>
       <c r="D682" s="9"/>
       <c r="E682" s="5"/>
       <c r="F682" s="5"/>
     </row>
-    <row r="683">
+    <row r="683" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C683" s="5"/>
       <c r="D683" s="9"/>
       <c r="E683" s="5"/>
       <c r="F683" s="5"/>
     </row>
-    <row r="684">
+    <row r="684" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C684" s="5"/>
       <c r="D684" s="9"/>
       <c r="E684" s="5"/>
       <c r="F684" s="5"/>
     </row>
-    <row r="685">
+    <row r="685" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C685" s="5"/>
       <c r="D685" s="9"/>
       <c r="E685" s="5"/>
       <c r="F685" s="5"/>
     </row>
-    <row r="686">
+    <row r="686" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C686" s="5"/>
       <c r="D686" s="9"/>
       <c r="E686" s="5"/>
       <c r="F686" s="5"/>
     </row>
-    <row r="687">
+    <row r="687" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C687" s="5"/>
       <c r="D687" s="9"/>
       <c r="E687" s="5"/>
       <c r="F687" s="5"/>
     </row>
-    <row r="688">
+    <row r="688" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C688" s="5"/>
       <c r="D688" s="9"/>
       <c r="E688" s="5"/>
       <c r="F688" s="5"/>
     </row>
-    <row r="689">
+    <row r="689" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C689" s="5"/>
       <c r="D689" s="9"/>
       <c r="E689" s="5"/>
       <c r="F689" s="5"/>
     </row>
-    <row r="690">
+    <row r="690" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C690" s="5"/>
       <c r="D690" s="9"/>
       <c r="E690" s="5"/>
       <c r="F690" s="5"/>
     </row>
-    <row r="691">
+    <row r="691" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C691" s="5"/>
       <c r="D691" s="9"/>
       <c r="E691" s="5"/>
       <c r="F691" s="5"/>
     </row>
-    <row r="692">
+    <row r="692" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C692" s="5"/>
       <c r="D692" s="9"/>
       <c r="E692" s="5"/>
       <c r="F692" s="5"/>
     </row>
-    <row r="693">
+    <row r="693" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C693" s="5"/>
       <c r="D693" s="9"/>
       <c r="E693" s="5"/>
       <c r="F693" s="5"/>
     </row>
-    <row r="694">
+    <row r="694" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C694" s="5"/>
       <c r="D694" s="9"/>
       <c r="E694" s="5"/>
       <c r="F694" s="5"/>
     </row>
-    <row r="695">
+    <row r="695" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C695" s="5"/>
       <c r="D695" s="9"/>
       <c r="E695" s="5"/>
       <c r="F695" s="5"/>
     </row>
-    <row r="696">
+    <row r="696" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C696" s="5"/>
       <c r="D696" s="9"/>
       <c r="E696" s="5"/>
       <c r="F696" s="5"/>
     </row>
-    <row r="697">
+    <row r="697" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C697" s="5"/>
       <c r="D697" s="9"/>
       <c r="E697" s="5"/>
       <c r="F697" s="5"/>
     </row>
-    <row r="698">
+    <row r="698" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C698" s="5"/>
       <c r="D698" s="9"/>
       <c r="E698" s="5"/>
       <c r="F698" s="5"/>
     </row>
-    <row r="699">
+    <row r="699" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C699" s="5"/>
       <c r="D699" s="9"/>
       <c r="E699" s="5"/>
       <c r="F699" s="5"/>
     </row>
-    <row r="700">
+    <row r="700" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C700" s="5"/>
       <c r="D700" s="9"/>
       <c r="E700" s="5"/>
       <c r="F700" s="5"/>
     </row>
-    <row r="701">
+    <row r="701" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C701" s="5"/>
       <c r="D701" s="9"/>
       <c r="E701" s="5"/>
       <c r="F701" s="5"/>
     </row>
-    <row r="702">
+    <row r="702" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C702" s="5"/>
       <c r="D702" s="9"/>
       <c r="E702" s="5"/>
       <c r="F702" s="5"/>
     </row>
-    <row r="703">
+    <row r="703" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C703" s="5"/>
       <c r="D703" s="9"/>
       <c r="E703" s="5"/>
       <c r="F703" s="5"/>
     </row>
-    <row r="704">
+    <row r="704" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C704" s="5"/>
       <c r="D704" s="9"/>
       <c r="E704" s="5"/>
       <c r="F704" s="5"/>
     </row>
-    <row r="705">
+    <row r="705" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C705" s="5"/>
       <c r="D705" s="9"/>
       <c r="E705" s="5"/>
       <c r="F705" s="5"/>
     </row>
-    <row r="706">
+    <row r="706" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C706" s="5"/>
       <c r="D706" s="9"/>
       <c r="E706" s="5"/>
       <c r="F706" s="5"/>
     </row>
-    <row r="707">
+    <row r="707" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C707" s="5"/>
       <c r="D707" s="9"/>
       <c r="E707" s="5"/>
       <c r="F707" s="5"/>
     </row>
-    <row r="708">
+    <row r="708" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C708" s="5"/>
       <c r="D708" s="9"/>
       <c r="E708" s="5"/>
       <c r="F708" s="5"/>
     </row>
-    <row r="709">
+    <row r="709" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C709" s="5"/>
       <c r="D709" s="9"/>
       <c r="E709" s="5"/>
       <c r="F709" s="5"/>
     </row>
-    <row r="710">
+    <row r="710" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C710" s="5"/>
       <c r="D710" s="9"/>
       <c r="E710" s="5"/>
       <c r="F710" s="5"/>
     </row>
-    <row r="711">
+    <row r="711" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C711" s="5"/>
       <c r="D711" s="9"/>
       <c r="E711" s="5"/>
       <c r="F711" s="5"/>
     </row>
-    <row r="712">
+    <row r="712" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C712" s="5"/>
       <c r="D712" s="9"/>
       <c r="E712" s="5"/>
       <c r="F712" s="5"/>
     </row>
-    <row r="713">
+    <row r="713" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C713" s="5"/>
       <c r="D713" s="9"/>
       <c r="E713" s="5"/>
       <c r="F713" s="5"/>
     </row>
-    <row r="714">
+    <row r="714" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C714" s="5"/>
       <c r="D714" s="9"/>
       <c r="E714" s="5"/>
       <c r="F714" s="5"/>
     </row>
-    <row r="715">
+    <row r="715" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C715" s="5"/>
       <c r="D715" s="9"/>
       <c r="E715" s="5"/>
       <c r="F715" s="5"/>
     </row>
-    <row r="716">
+    <row r="716" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C716" s="5"/>
       <c r="D716" s="9"/>
       <c r="E716" s="5"/>
       <c r="F716" s="5"/>
     </row>
-    <row r="717">
+    <row r="717" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C717" s="5"/>
       <c r="D717" s="9"/>
       <c r="E717" s="5"/>
       <c r="F717" s="5"/>
     </row>
-    <row r="718">
+    <row r="718" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C718" s="5"/>
       <c r="D718" s="9"/>
       <c r="E718" s="5"/>
       <c r="F718" s="5"/>
     </row>
-    <row r="719">
+    <row r="719" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C719" s="5"/>
       <c r="D719" s="9"/>
       <c r="E719" s="5"/>
       <c r="F719" s="5"/>
     </row>
-    <row r="720">
+    <row r="720" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C720" s="5"/>
       <c r="D720" s="9"/>
       <c r="E720" s="5"/>
       <c r="F720" s="5"/>
     </row>
-    <row r="721">
+    <row r="721" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C721" s="5"/>
       <c r="D721" s="9"/>
       <c r="E721" s="5"/>
       <c r="F721" s="5"/>
     </row>
-    <row r="722">
+    <row r="722" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C722" s="5"/>
       <c r="D722" s="9"/>
       <c r="E722" s="5"/>
       <c r="F722" s="5"/>
     </row>
-    <row r="723">
+    <row r="723" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C723" s="5"/>
       <c r="D723" s="9"/>
       <c r="E723" s="5"/>
       <c r="F723" s="5"/>
     </row>
-    <row r="724">
+    <row r="724" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C724" s="5"/>
       <c r="D724" s="9"/>
       <c r="E724" s="5"/>
       <c r="F724" s="5"/>
     </row>
-    <row r="725">
+    <row r="725" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C725" s="5"/>
       <c r="D725" s="9"/>
       <c r="E725" s="5"/>
       <c r="F725" s="5"/>
     </row>
-    <row r="726">
+    <row r="726" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C726" s="5"/>
       <c r="D726" s="9"/>
       <c r="E726" s="5"/>
       <c r="F726" s="5"/>
     </row>
-    <row r="727">
+    <row r="727" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C727" s="5"/>
       <c r="D727" s="9"/>
       <c r="E727" s="5"/>
       <c r="F727" s="5"/>
     </row>
-    <row r="728">
+    <row r="728" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C728" s="5"/>
       <c r="D728" s="9"/>
       <c r="E728" s="5"/>
       <c r="F728" s="5"/>
     </row>
-    <row r="729">
+    <row r="729" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C729" s="5"/>
       <c r="D729" s="9"/>
       <c r="E729" s="5"/>
       <c r="F729" s="5"/>
     </row>
-    <row r="730">
+    <row r="730" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C730" s="5"/>
       <c r="D730" s="9"/>
       <c r="E730" s="5"/>
       <c r="F730" s="5"/>
     </row>
-    <row r="731">
+    <row r="731" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C731" s="5"/>
       <c r="D731" s="9"/>
       <c r="E731" s="5"/>
       <c r="F731" s="5"/>
     </row>
-    <row r="732">
+    <row r="732" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C732" s="5"/>
       <c r="D732" s="9"/>
       <c r="E732" s="5"/>
       <c r="F732" s="5"/>
     </row>
-    <row r="733">
+    <row r="733" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C733" s="5"/>
       <c r="D733" s="9"/>
       <c r="E733" s="5"/>
       <c r="F733" s="5"/>
     </row>
-    <row r="734">
+    <row r="734" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C734" s="5"/>
       <c r="D734" s="9"/>
       <c r="E734" s="5"/>
       <c r="F734" s="5"/>
     </row>
-    <row r="735">
+    <row r="735" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C735" s="5"/>
       <c r="D735" s="9"/>
       <c r="E735" s="5"/>
       <c r="F735" s="5"/>
     </row>
-    <row r="736">
+    <row r="736" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C736" s="5"/>
       <c r="D736" s="9"/>
       <c r="E736" s="5"/>
       <c r="F736" s="5"/>
     </row>
-    <row r="737">
+    <row r="737" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C737" s="5"/>
       <c r="D737" s="9"/>
       <c r="E737" s="5"/>
       <c r="F737" s="5"/>
     </row>
-    <row r="738">
+    <row r="738" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C738" s="5"/>
       <c r="D738" s="9"/>
       <c r="E738" s="5"/>
       <c r="F738" s="5"/>
     </row>
-    <row r="739">
+    <row r="739" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C739" s="5"/>
       <c r="D739" s="9"/>
       <c r="E739" s="5"/>
       <c r="F739" s="5"/>
     </row>
-    <row r="740">
+    <row r="740" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C740" s="5"/>
       <c r="D740" s="9"/>
       <c r="E740" s="5"/>
       <c r="F740" s="5"/>
     </row>
-    <row r="741">
+    <row r="741" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C741" s="5"/>
       <c r="D741" s="9"/>
       <c r="E741" s="5"/>
       <c r="F741" s="5"/>
     </row>
-    <row r="742">
+    <row r="742" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C742" s="5"/>
       <c r="D742" s="9"/>
       <c r="E742" s="5"/>
       <c r="F742" s="5"/>
     </row>
-    <row r="743">
+    <row r="743" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C743" s="5"/>
       <c r="D743" s="9"/>
       <c r="E743" s="5"/>
       <c r="F743" s="5"/>
     </row>
-    <row r="744">
+    <row r="744" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C744" s="5"/>
       <c r="D744" s="9"/>
       <c r="E744" s="5"/>
       <c r="F744" s="5"/>
     </row>
-    <row r="745">
+    <row r="745" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C745" s="5"/>
       <c r="D745" s="9"/>
       <c r="E745" s="5"/>
       <c r="F745" s="5"/>
     </row>
-    <row r="746">
+    <row r="746" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C746" s="5"/>
       <c r="D746" s="9"/>
       <c r="E746" s="5"/>
       <c r="F746" s="5"/>
     </row>
-    <row r="747">
+    <row r="747" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C747" s="5"/>
       <c r="D747" s="9"/>
       <c r="E747" s="5"/>
       <c r="F747" s="5"/>
     </row>
-    <row r="748">
+    <row r="748" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C748" s="5"/>
       <c r="D748" s="9"/>
       <c r="E748" s="5"/>
       <c r="F748" s="5"/>
     </row>
-    <row r="749">
+    <row r="749" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C749" s="5"/>
       <c r="D749" s="9"/>
       <c r="E749" s="5"/>
       <c r="F749" s="5"/>
     </row>
-    <row r="750">
+    <row r="750" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C750" s="5"/>
       <c r="D750" s="9"/>
       <c r="E750" s="5"/>
       <c r="F750" s="5"/>
     </row>
-    <row r="751">
+    <row r="751" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C751" s="5"/>
       <c r="D751" s="9"/>
       <c r="E751" s="5"/>
       <c r="F751" s="5"/>
     </row>
-    <row r="752">
+    <row r="752" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C752" s="5"/>
       <c r="D752" s="9"/>
       <c r="E752" s="5"/>
       <c r="F752" s="5"/>
     </row>
-    <row r="753">
+    <row r="753" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C753" s="5"/>
       <c r="D753" s="9"/>
       <c r="E753" s="5"/>
       <c r="F753" s="5"/>
     </row>
-    <row r="754">
+    <row r="754" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C754" s="5"/>
       <c r="D754" s="9"/>
       <c r="E754" s="5"/>
       <c r="F754" s="5"/>
     </row>
-    <row r="755">
+    <row r="755" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C755" s="5"/>
       <c r="D755" s="9"/>
       <c r="E755" s="5"/>
       <c r="F755" s="5"/>
     </row>
-    <row r="756">
+    <row r="756" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C756" s="5"/>
       <c r="D756" s="9"/>
       <c r="E756" s="5"/>
       <c r="F756" s="5"/>
     </row>
-    <row r="757">
+    <row r="757" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C757" s="5"/>
       <c r="D757" s="9"/>
       <c r="E757" s="5"/>
       <c r="F757" s="5"/>
     </row>
-    <row r="758">
+    <row r="758" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C758" s="5"/>
       <c r="D758" s="9"/>
       <c r="E758" s="5"/>
       <c r="F758" s="5"/>
     </row>
-    <row r="759">
+    <row r="759" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C759" s="5"/>
       <c r="D759" s="9"/>
       <c r="E759" s="5"/>
       <c r="F759" s="5"/>
     </row>
-    <row r="760">
+    <row r="760" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C760" s="5"/>
       <c r="D760" s="9"/>
       <c r="E760" s="5"/>
       <c r="F760" s="5"/>
     </row>
-    <row r="761">
+    <row r="761" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C761" s="5"/>
       <c r="D761" s="9"/>
       <c r="E761" s="5"/>
       <c r="F761" s="5"/>
     </row>
-    <row r="762">
+    <row r="762" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C762" s="5"/>
       <c r="D762" s="9"/>
       <c r="E762" s="5"/>
       <c r="F762" s="5"/>
     </row>
-    <row r="763">
+    <row r="763" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C763" s="5"/>
       <c r="D763" s="9"/>
       <c r="E763" s="5"/>
       <c r="F763" s="5"/>
     </row>
-    <row r="764">
+    <row r="764" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C764" s="5"/>
       <c r="D764" s="9"/>
       <c r="E764" s="5"/>
       <c r="F764" s="5"/>
     </row>
-    <row r="765">
+    <row r="765" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C765" s="5"/>
       <c r="D765" s="9"/>
       <c r="E765" s="5"/>
       <c r="F765" s="5"/>
     </row>
-    <row r="766">
+    <row r="766" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C766" s="5"/>
       <c r="D766" s="9"/>
       <c r="E766" s="5"/>
       <c r="F766" s="5"/>
     </row>
-    <row r="767">
+    <row r="767" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C767" s="5"/>
       <c r="D767" s="9"/>
       <c r="E767" s="5"/>
       <c r="F767" s="5"/>
     </row>
-    <row r="768">
+    <row r="768" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C768" s="5"/>
       <c r="D768" s="9"/>
       <c r="E768" s="5"/>
       <c r="F768" s="5"/>
     </row>
-    <row r="769">
+    <row r="769" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C769" s="5"/>
       <c r="D769" s="9"/>
       <c r="E769" s="5"/>
       <c r="F769" s="5"/>
     </row>
-    <row r="770">
+    <row r="770" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C770" s="5"/>
       <c r="D770" s="9"/>
       <c r="E770" s="5"/>
       <c r="F770" s="5"/>
     </row>
-    <row r="771">
+    <row r="771" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C771" s="5"/>
       <c r="D771" s="9"/>
       <c r="E771" s="5"/>
       <c r="F771" s="5"/>
     </row>
-    <row r="772">
+    <row r="772" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C772" s="5"/>
       <c r="D772" s="9"/>
       <c r="E772" s="5"/>
       <c r="F772" s="5"/>
     </row>
-    <row r="773">
+    <row r="773" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C773" s="5"/>
       <c r="D773" s="9"/>
       <c r="E773" s="5"/>
       <c r="F773" s="5"/>
     </row>
-    <row r="774">
+    <row r="774" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C774" s="5"/>
       <c r="D774" s="9"/>
       <c r="E774" s="5"/>
       <c r="F774" s="5"/>
     </row>
-    <row r="775">
+    <row r="775" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C775" s="5"/>
       <c r="D775" s="9"/>
       <c r="E775" s="5"/>
       <c r="F775" s="5"/>
     </row>
-    <row r="776">
+    <row r="776" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C776" s="5"/>
       <c r="D776" s="9"/>
       <c r="E776" s="5"/>
       <c r="F776" s="5"/>
     </row>
-    <row r="777">
+    <row r="777" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C777" s="5"/>
       <c r="D777" s="9"/>
       <c r="E777" s="5"/>
       <c r="F777" s="5"/>
     </row>
-    <row r="778">
+    <row r="778" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C778" s="5"/>
       <c r="D778" s="9"/>
       <c r="E778" s="5"/>
       <c r="F778" s="5"/>
     </row>
-    <row r="779">
+    <row r="779" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C779" s="5"/>
       <c r="D779" s="9"/>
       <c r="E779" s="5"/>
       <c r="F779" s="5"/>
     </row>
-    <row r="780">
+    <row r="780" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C780" s="5"/>
       <c r="D780" s="9"/>
       <c r="E780" s="5"/>
       <c r="F780" s="5"/>
     </row>
-    <row r="781">
+    <row r="781" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C781" s="5"/>
       <c r="D781" s="9"/>
       <c r="E781" s="5"/>
       <c r="F781" s="5"/>
     </row>
-    <row r="782">
+    <row r="782" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C782" s="5"/>
       <c r="D782" s="9"/>
       <c r="E782" s="5"/>
       <c r="F782" s="5"/>
     </row>
-    <row r="783">
+    <row r="783" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C783" s="5"/>
       <c r="D783" s="9"/>
       <c r="E783" s="5"/>
       <c r="F783" s="5"/>
     </row>
-    <row r="784">
+    <row r="784" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C784" s="5"/>
       <c r="D784" s="9"/>
       <c r="E784" s="5"/>
       <c r="F784" s="5"/>
     </row>
-    <row r="785">
+    <row r="785" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C785" s="5"/>
       <c r="D785" s="9"/>
       <c r="E785" s="5"/>
       <c r="F785" s="5"/>
     </row>
-    <row r="786">
+    <row r="786" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C786" s="5"/>
       <c r="D786" s="9"/>
       <c r="E786" s="5"/>
       <c r="F786" s="5"/>
     </row>
-    <row r="787">
+    <row r="787" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C787" s="5"/>
       <c r="D787" s="9"/>
       <c r="E787" s="5"/>
       <c r="F787" s="5"/>
     </row>
-    <row r="788">
+    <row r="788" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C788" s="5"/>
       <c r="D788" s="9"/>
       <c r="E788" s="5"/>
       <c r="F788" s="5"/>
     </row>
-    <row r="789">
+    <row r="789" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C789" s="5"/>
       <c r="D789" s="9"/>
       <c r="E789" s="5"/>
       <c r="F789" s="5"/>
     </row>
-    <row r="790">
+    <row r="790" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C790" s="5"/>
       <c r="D790" s="9"/>
       <c r="E790" s="5"/>
       <c r="F790" s="5"/>
     </row>
-    <row r="791">
+    <row r="791" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C791" s="5"/>
       <c r="D791" s="9"/>
       <c r="E791" s="5"/>
       <c r="F791" s="5"/>
     </row>
-    <row r="792">
+    <row r="792" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C792" s="5"/>
       <c r="D792" s="9"/>
       <c r="E792" s="5"/>
       <c r="F792" s="5"/>
     </row>
-    <row r="793">
+    <row r="793" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C793" s="5"/>
       <c r="D793" s="9"/>
       <c r="E793" s="5"/>
       <c r="F793" s="5"/>
     </row>
-    <row r="794">
+    <row r="794" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C794" s="5"/>
       <c r="D794" s="9"/>
       <c r="E794" s="5"/>
       <c r="F794" s="5"/>
     </row>
-    <row r="795">
+    <row r="795" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C795" s="5"/>
       <c r="D795" s="9"/>
       <c r="E795" s="5"/>
       <c r="F795" s="5"/>
     </row>
-    <row r="796">
+    <row r="796" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C796" s="5"/>
       <c r="D796" s="9"/>
       <c r="E796" s="5"/>
       <c r="F796" s="5"/>
     </row>
-    <row r="797">
+    <row r="797" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C797" s="5"/>
       <c r="D797" s="9"/>
       <c r="E797" s="5"/>
       <c r="F797" s="5"/>
     </row>
-    <row r="798">
+    <row r="798" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C798" s="5"/>
       <c r="D798" s="9"/>
       <c r="E798" s="5"/>
       <c r="F798" s="5"/>
     </row>
-    <row r="799">
+    <row r="799" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C799" s="5"/>
       <c r="D799" s="9"/>
       <c r="E799" s="5"/>
       <c r="F799" s="5"/>
     </row>
-    <row r="800">
+    <row r="800" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C800" s="5"/>
       <c r="D800" s="9"/>
       <c r="E800" s="5"/>
       <c r="F800" s="5"/>
     </row>
-    <row r="801">
+    <row r="801" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C801" s="5"/>
       <c r="D801" s="9"/>
       <c r="E801" s="5"/>
       <c r="F801" s="5"/>
     </row>
-    <row r="802">
+    <row r="802" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C802" s="5"/>
       <c r="D802" s="9"/>
       <c r="E802" s="5"/>
       <c r="F802" s="5"/>
     </row>
-    <row r="803">
+    <row r="803" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C803" s="5"/>
       <c r="D803" s="9"/>
       <c r="E803" s="5"/>
       <c r="F803" s="5"/>
     </row>
-    <row r="804">
+    <row r="804" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C804" s="5"/>
       <c r="D804" s="9"/>
       <c r="E804" s="5"/>
       <c r="F804" s="5"/>
     </row>
-    <row r="805">
+    <row r="805" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C805" s="5"/>
       <c r="D805" s="9"/>
       <c r="E805" s="5"/>
       <c r="F805" s="5"/>
     </row>
-    <row r="806">
+    <row r="806" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C806" s="5"/>
       <c r="D806" s="9"/>
       <c r="E806" s="5"/>
       <c r="F806" s="5"/>
     </row>
-    <row r="807">
+    <row r="807" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C807" s="5"/>
       <c r="D807" s="9"/>
       <c r="E807" s="5"/>
       <c r="F807" s="5"/>
     </row>
-    <row r="808">
+    <row r="808" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C808" s="5"/>
       <c r="D808" s="9"/>
       <c r="E808" s="5"/>
       <c r="F808" s="5"/>
     </row>
-    <row r="809">
+    <row r="809" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C809" s="5"/>
       <c r="D809" s="9"/>
       <c r="E809" s="5"/>
       <c r="F809" s="5"/>
     </row>
-    <row r="810">
+    <row r="810" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C810" s="5"/>
       <c r="D810" s="9"/>
       <c r="E810" s="5"/>
       <c r="F810" s="5"/>
     </row>
-    <row r="811">
+    <row r="811" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C811" s="5"/>
       <c r="D811" s="9"/>
       <c r="E811" s="5"/>
       <c r="F811" s="5"/>
     </row>
-    <row r="812">
+    <row r="812" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C812" s="5"/>
       <c r="D812" s="9"/>
       <c r="E812" s="5"/>
       <c r="F812" s="5"/>
     </row>
-    <row r="813">
+    <row r="813" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C813" s="5"/>
       <c r="D813" s="9"/>
       <c r="E813" s="5"/>
       <c r="F813" s="5"/>
     </row>
-    <row r="814">
+    <row r="814" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C814" s="5"/>
       <c r="D814" s="9"/>
       <c r="E814" s="5"/>
       <c r="F814" s="5"/>
     </row>
-    <row r="815">
+    <row r="815" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C815" s="5"/>
       <c r="D815" s="9"/>
       <c r="E815" s="5"/>
       <c r="F815" s="5"/>
     </row>
-    <row r="816">
+    <row r="816" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C816" s="5"/>
       <c r="D816" s="9"/>
       <c r="E816" s="5"/>
       <c r="F816" s="5"/>
     </row>
-    <row r="817">
+    <row r="817" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C817" s="5"/>
       <c r="D817" s="9"/>
       <c r="E817" s="5"/>
       <c r="F817" s="5"/>
     </row>
-    <row r="818">
+    <row r="818" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C818" s="5"/>
       <c r="D818" s="9"/>
       <c r="E818" s="5"/>
       <c r="F818" s="5"/>
     </row>
-    <row r="819">
+    <row r="819" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C819" s="5"/>
       <c r="D819" s="9"/>
       <c r="E819" s="5"/>
       <c r="F819" s="5"/>
     </row>
-    <row r="820">
+    <row r="820" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C820" s="5"/>
       <c r="D820" s="9"/>
       <c r="E820" s="5"/>
       <c r="F820" s="5"/>
     </row>
-    <row r="821">
+    <row r="821" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C821" s="5"/>
       <c r="D821" s="9"/>
       <c r="E821" s="5"/>
       <c r="F821" s="5"/>
     </row>
-    <row r="822">
+    <row r="822" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C822" s="5"/>
       <c r="D822" s="9"/>
       <c r="E822" s="5"/>
       <c r="F822" s="5"/>
     </row>
-    <row r="823">
+    <row r="823" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C823" s="5"/>
       <c r="D823" s="9"/>
       <c r="E823" s="5"/>
       <c r="F823" s="5"/>
     </row>
-    <row r="824">
+    <row r="824" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C824" s="5"/>
       <c r="D824" s="9"/>
       <c r="E824" s="5"/>
       <c r="F824" s="5"/>
     </row>
-    <row r="825">
+    <row r="825" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C825" s="5"/>
       <c r="D825" s="9"/>
       <c r="E825" s="5"/>
       <c r="F825" s="5"/>
     </row>
-    <row r="826">
+    <row r="826" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C826" s="5"/>
       <c r="D826" s="9"/>
       <c r="E826" s="5"/>
       <c r="F826" s="5"/>
     </row>
-    <row r="827">
+    <row r="827" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C827" s="5"/>
       <c r="D827" s="9"/>
       <c r="E827" s="5"/>
       <c r="F827" s="5"/>
     </row>
-    <row r="828">
+    <row r="828" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C828" s="5"/>
       <c r="D828" s="9"/>
       <c r="E828" s="5"/>
       <c r="F828" s="5"/>
     </row>
-    <row r="829">
+    <row r="829" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C829" s="5"/>
       <c r="D829" s="9"/>
       <c r="E829" s="5"/>
       <c r="F829" s="5"/>
     </row>
-    <row r="830">
+    <row r="830" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C830" s="5"/>
       <c r="D830" s="9"/>
       <c r="E830" s="5"/>
       <c r="F830" s="5"/>
     </row>
-    <row r="831">
+    <row r="831" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C831" s="5"/>
       <c r="D831" s="9"/>
       <c r="E831" s="5"/>
       <c r="F831" s="5"/>
     </row>
-    <row r="832">
+    <row r="832" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C832" s="5"/>
       <c r="D832" s="9"/>
       <c r="E832" s="5"/>
       <c r="F832" s="5"/>
     </row>
-    <row r="833">
+    <row r="833" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C833" s="5"/>
       <c r="D833" s="9"/>
       <c r="E833" s="5"/>
       <c r="F833" s="5"/>
     </row>
-    <row r="834">
+    <row r="834" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C834" s="5"/>
       <c r="D834" s="9"/>
       <c r="E834" s="5"/>
       <c r="F834" s="5"/>
     </row>
-    <row r="835">
+    <row r="835" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C835" s="5"/>
       <c r="D835" s="9"/>
       <c r="E835" s="5"/>
       <c r="F835" s="5"/>
     </row>
-    <row r="836">
+    <row r="836" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C836" s="5"/>
       <c r="D836" s="9"/>
       <c r="E836" s="5"/>
       <c r="F836" s="5"/>
     </row>
-    <row r="837">
+    <row r="837" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C837" s="5"/>
       <c r="D837" s="9"/>
       <c r="E837" s="5"/>
       <c r="F837" s="5"/>
     </row>
-    <row r="838">
+    <row r="838" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C838" s="5"/>
       <c r="D838" s="9"/>
       <c r="E838" s="5"/>
       <c r="F838" s="5"/>
     </row>
-    <row r="839">
+    <row r="839" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C839" s="5"/>
       <c r="D839" s="9"/>
       <c r="E839" s="5"/>
       <c r="F839" s="5"/>
     </row>
-    <row r="840">
+    <row r="840" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C840" s="5"/>
       <c r="D840" s="9"/>
       <c r="E840" s="5"/>
       <c r="F840" s="5"/>
     </row>
-    <row r="841">
+    <row r="841" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C841" s="5"/>
       <c r="D841" s="9"/>
       <c r="E841" s="5"/>
       <c r="F841" s="5"/>
     </row>
-    <row r="842">
+    <row r="842" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C842" s="5"/>
       <c r="D842" s="9"/>
       <c r="E842" s="5"/>
       <c r="F842" s="5"/>
     </row>
-    <row r="843">
+    <row r="843" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C843" s="5"/>
       <c r="D843" s="9"/>
       <c r="E843" s="5"/>
       <c r="F843" s="5"/>
     </row>
-    <row r="844">
+    <row r="844" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C844" s="5"/>
       <c r="D844" s="9"/>
       <c r="E844" s="5"/>
       <c r="F844" s="5"/>
     </row>
-    <row r="845">
+    <row r="845" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C845" s="5"/>
       <c r="D845" s="9"/>
       <c r="E845" s="5"/>
       <c r="F845" s="5"/>
     </row>
-    <row r="846">
+    <row r="846" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C846" s="5"/>
       <c r="D846" s="9"/>
       <c r="E846" s="5"/>
       <c r="F846" s="5"/>
     </row>
-    <row r="847">
+    <row r="847" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C847" s="5"/>
       <c r="D847" s="9"/>
       <c r="E847" s="5"/>
       <c r="F847" s="5"/>
     </row>
-    <row r="848">
+    <row r="848" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C848" s="5"/>
       <c r="D848" s="9"/>
       <c r="E848" s="5"/>
       <c r="F848" s="5"/>
     </row>
-    <row r="849">
+    <row r="849" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C849" s="5"/>
       <c r="D849" s="9"/>
       <c r="E849" s="5"/>
       <c r="F849" s="5"/>
     </row>
-    <row r="850">
+    <row r="850" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C850" s="5"/>
       <c r="D850" s="9"/>
       <c r="E850" s="5"/>
       <c r="F850" s="5"/>
     </row>
-    <row r="851">
+    <row r="851" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C851" s="5"/>
       <c r="D851" s="9"/>
       <c r="E851" s="5"/>
       <c r="F851" s="5"/>
     </row>
-    <row r="852">
+    <row r="852" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C852" s="5"/>
       <c r="D852" s="9"/>
       <c r="E852" s="5"/>
       <c r="F852" s="5"/>
     </row>
-    <row r="853">
+    <row r="853" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C853" s="5"/>
       <c r="D853" s="9"/>
       <c r="E853" s="5"/>
       <c r="F853" s="5"/>
     </row>
-    <row r="854">
+    <row r="854" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C854" s="5"/>
       <c r="D854" s="9"/>
       <c r="E854" s="5"/>
       <c r="F854" s="5"/>
     </row>
-    <row r="855">
+    <row r="855" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C855" s="5"/>
       <c r="D855" s="9"/>
       <c r="E855" s="5"/>
       <c r="F855" s="5"/>
     </row>
-    <row r="856">
+    <row r="856" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C856" s="5"/>
       <c r="D856" s="9"/>
       <c r="E856" s="5"/>
       <c r="F856" s="5"/>
     </row>
-    <row r="857">
+    <row r="857" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C857" s="5"/>
       <c r="D857" s="9"/>
       <c r="E857" s="5"/>
       <c r="F857" s="5"/>
     </row>
-    <row r="858">
+    <row r="858" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C858" s="5"/>
       <c r="D858" s="9"/>
       <c r="E858" s="5"/>
       <c r="F858" s="5"/>
     </row>
-    <row r="859">
+    <row r="859" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C859" s="5"/>
       <c r="D859" s="9"/>
       <c r="E859" s="5"/>
       <c r="F859" s="5"/>
     </row>
-    <row r="860">
+    <row r="860" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C860" s="5"/>
       <c r="D860" s="9"/>
       <c r="E860" s="5"/>
       <c r="F860" s="5"/>
     </row>
-    <row r="861">
+    <row r="861" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C861" s="5"/>
       <c r="D861" s="9"/>
       <c r="E861" s="5"/>
       <c r="F861" s="5"/>
     </row>
-    <row r="862">
+    <row r="862" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C862" s="5"/>
       <c r="D862" s="9"/>
       <c r="E862" s="5"/>
       <c r="F862" s="5"/>
     </row>
-    <row r="863">
+    <row r="863" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C863" s="5"/>
       <c r="D863" s="9"/>
       <c r="E863" s="5"/>
       <c r="F863" s="5"/>
     </row>
-    <row r="864">
+    <row r="864" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C864" s="5"/>
       <c r="D864" s="9"/>
       <c r="E864" s="5"/>
       <c r="F864" s="5"/>
     </row>
-    <row r="865">
+    <row r="865" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C865" s="5"/>
       <c r="D865" s="9"/>
       <c r="E865" s="5"/>
       <c r="F865" s="5"/>
     </row>
-    <row r="866">
+    <row r="866" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C866" s="5"/>
       <c r="D866" s="9"/>
       <c r="E866" s="5"/>
       <c r="F866" s="5"/>
     </row>
-    <row r="867">
+    <row r="867" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C867" s="5"/>
       <c r="D867" s="9"/>
       <c r="E867" s="5"/>
       <c r="F867" s="5"/>
     </row>
-    <row r="868">
+    <row r="868" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C868" s="5"/>
       <c r="D868" s="9"/>
       <c r="E868" s="5"/>
       <c r="F868" s="5"/>
     </row>
-    <row r="869">
+    <row r="869" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C869" s="5"/>
       <c r="D869" s="9"/>
       <c r="E869" s="5"/>
       <c r="F869" s="5"/>
     </row>
-    <row r="870">
+    <row r="870" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C870" s="5"/>
       <c r="D870" s="9"/>
       <c r="E870" s="5"/>
       <c r="F870" s="5"/>
     </row>
-    <row r="871">
+    <row r="871" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C871" s="5"/>
       <c r="D871" s="9"/>
       <c r="E871" s="5"/>
       <c r="F871" s="5"/>
     </row>
-    <row r="872">
+    <row r="872" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C872" s="5"/>
       <c r="D872" s="9"/>
       <c r="E872" s="5"/>
       <c r="F872" s="5"/>
     </row>
-    <row r="873">
+    <row r="873" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C873" s="5"/>
       <c r="D873" s="9"/>
       <c r="E873" s="5"/>
       <c r="F873" s="5"/>
     </row>
-    <row r="874">
+    <row r="874" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C874" s="5"/>
       <c r="D874" s="9"/>
       <c r="E874" s="5"/>
       <c r="F874" s="5"/>
     </row>
-    <row r="875">
+    <row r="875" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C875" s="5"/>
       <c r="D875" s="9"/>
       <c r="E875" s="5"/>
       <c r="F875" s="5"/>
     </row>
-    <row r="876">
+    <row r="876" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C876" s="5"/>
       <c r="D876" s="9"/>
       <c r="E876" s="5"/>
       <c r="F876" s="5"/>
     </row>
-    <row r="877">
+    <row r="877" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C877" s="5"/>
       <c r="D877" s="9"/>
       <c r="E877" s="5"/>
       <c r="F877" s="5"/>
     </row>
-    <row r="878">
+    <row r="878" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C878" s="5"/>
       <c r="D878" s="9"/>
       <c r="E878" s="5"/>
       <c r="F878" s="5"/>
     </row>
-    <row r="879">
+    <row r="879" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C879" s="5"/>
       <c r="D879" s="9"/>
       <c r="E879" s="5"/>
       <c r="F879" s="5"/>
     </row>
-    <row r="880">
+    <row r="880" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C880" s="5"/>
       <c r="D880" s="9"/>
       <c r="E880" s="5"/>
       <c r="F880" s="5"/>
     </row>
-    <row r="881">
+    <row r="881" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C881" s="5"/>
       <c r="D881" s="9"/>
       <c r="E881" s="5"/>
       <c r="F881" s="5"/>
     </row>
-    <row r="882">
+    <row r="882" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C882" s="5"/>
       <c r="D882" s="9"/>
       <c r="E882" s="5"/>
       <c r="F882" s="5"/>
     </row>
-    <row r="883">
+    <row r="883" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C883" s="5"/>
       <c r="D883" s="9"/>
       <c r="E883" s="5"/>
       <c r="F883" s="5"/>
     </row>
-    <row r="884">
+    <row r="884" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C884" s="5"/>
       <c r="D884" s="9"/>
       <c r="E884" s="5"/>
       <c r="F884" s="5"/>
     </row>
-    <row r="885">
+    <row r="885" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C885" s="5"/>
       <c r="D885" s="9"/>
       <c r="E885" s="5"/>
       <c r="F885" s="5"/>
     </row>
-    <row r="886">
+    <row r="886" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C886" s="5"/>
       <c r="D886" s="9"/>
       <c r="E886" s="5"/>
       <c r="F886" s="5"/>
     </row>
-    <row r="887">
+    <row r="887" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C887" s="5"/>
       <c r="D887" s="9"/>
       <c r="E887" s="5"/>
       <c r="F887" s="5"/>
     </row>
-    <row r="888">
+    <row r="888" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C888" s="5"/>
       <c r="D888" s="9"/>
       <c r="E888" s="5"/>
       <c r="F888" s="5"/>
     </row>
-    <row r="889">
+    <row r="889" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C889" s="5"/>
       <c r="D889" s="9"/>
       <c r="E889" s="5"/>
       <c r="F889" s="5"/>
     </row>
-    <row r="890">
+    <row r="890" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C890" s="5"/>
       <c r="D890" s="9"/>
       <c r="E890" s="5"/>
       <c r="F890" s="5"/>
     </row>
-    <row r="891">
+    <row r="891" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C891" s="5"/>
       <c r="D891" s="9"/>
       <c r="E891" s="5"/>
       <c r="F891" s="5"/>
     </row>
-    <row r="892">
+    <row r="892" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C892" s="5"/>
       <c r="D892" s="9"/>
       <c r="E892" s="5"/>
       <c r="F892" s="5"/>
     </row>
-    <row r="893">
+    <row r="893" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C893" s="5"/>
       <c r="D893" s="9"/>
       <c r="E893" s="5"/>
       <c r="F893" s="5"/>
     </row>
-    <row r="894">
+    <row r="894" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C894" s="5"/>
       <c r="D894" s="9"/>
       <c r="E894" s="5"/>
       <c r="F894" s="5"/>
     </row>
-    <row r="895">
+    <row r="895" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C895" s="5"/>
       <c r="D895" s="9"/>
       <c r="E895" s="5"/>
       <c r="F895" s="5"/>
     </row>
-    <row r="896">
+    <row r="896" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C896" s="5"/>
       <c r="D896" s="9"/>
       <c r="E896" s="5"/>
       <c r="F896" s="5"/>
     </row>
-    <row r="897">
+    <row r="897" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C897" s="5"/>
       <c r="D897" s="9"/>
       <c r="E897" s="5"/>
       <c r="F897" s="5"/>
     </row>
-    <row r="898">
+    <row r="898" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C898" s="5"/>
       <c r="D898" s="9"/>
       <c r="E898" s="5"/>
       <c r="F898" s="5"/>
     </row>
-    <row r="899">
+    <row r="899" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C899" s="5"/>
       <c r="D899" s="9"/>
       <c r="E899" s="5"/>
       <c r="F899" s="5"/>
     </row>
-    <row r="900">
+    <row r="900" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C900" s="5"/>
       <c r="D900" s="9"/>
       <c r="E900" s="5"/>
       <c r="F900" s="5"/>
     </row>
-    <row r="901">
+    <row r="901" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C901" s="5"/>
       <c r="D901" s="9"/>
       <c r="E901" s="5"/>
       <c r="F901" s="5"/>
     </row>
-    <row r="902">
+    <row r="902" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C902" s="5"/>
       <c r="D902" s="9"/>
       <c r="E902" s="5"/>
       <c r="F902" s="5"/>
     </row>
-    <row r="903">
+    <row r="903" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C903" s="5"/>
       <c r="D903" s="9"/>
       <c r="E903" s="5"/>
       <c r="F903" s="5"/>
     </row>
-    <row r="904">
+    <row r="904" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C904" s="5"/>
       <c r="D904" s="9"/>
       <c r="E904" s="5"/>
       <c r="F904" s="5"/>
     </row>
-    <row r="905">
+    <row r="905" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C905" s="5"/>
       <c r="D905" s="9"/>
       <c r="E905" s="5"/>
       <c r="F905" s="5"/>
     </row>
-    <row r="906">
+    <row r="906" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C906" s="5"/>
       <c r="D906" s="9"/>
       <c r="E906" s="5"/>
       <c r="F906" s="5"/>
     </row>
-    <row r="907">
+    <row r="907" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C907" s="5"/>
       <c r="D907" s="9"/>
       <c r="E907" s="5"/>
       <c r="F907" s="5"/>
     </row>
-    <row r="908">
+    <row r="908" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C908" s="5"/>
       <c r="D908" s="9"/>
       <c r="E908" s="5"/>
       <c r="F908" s="5"/>
     </row>
-    <row r="909">
+    <row r="909" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C909" s="5"/>
       <c r="D909" s="9"/>
       <c r="E909" s="5"/>
       <c r="F909" s="5"/>
     </row>
-    <row r="910">
+    <row r="910" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C910" s="5"/>
       <c r="D910" s="9"/>
       <c r="E910" s="5"/>
       <c r="F910" s="5"/>
     </row>
-    <row r="911">
+    <row r="911" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C911" s="5"/>
       <c r="D911" s="9"/>
       <c r="E911" s="5"/>
       <c r="F911" s="5"/>
     </row>
-    <row r="912">
+    <row r="912" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C912" s="5"/>
       <c r="D912" s="9"/>
       <c r="E912" s="5"/>
       <c r="F912" s="5"/>
     </row>
-    <row r="913">
+    <row r="913" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C913" s="5"/>
       <c r="D913" s="9"/>
       <c r="E913" s="5"/>
       <c r="F913" s="5"/>
     </row>
-    <row r="914">
+    <row r="914" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C914" s="5"/>
       <c r="D914" s="9"/>
       <c r="E914" s="5"/>
       <c r="F914" s="5"/>
     </row>
-    <row r="915">
+    <row r="915" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C915" s="5"/>
       <c r="D915" s="9"/>
       <c r="E915" s="5"/>
       <c r="F915" s="5"/>
     </row>
-    <row r="916">
+    <row r="916" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C916" s="5"/>
       <c r="D916" s="9"/>
       <c r="E916" s="5"/>
       <c r="F916" s="5"/>
     </row>
-    <row r="917">
+    <row r="917" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C917" s="5"/>
       <c r="D917" s="9"/>
       <c r="E917" s="5"/>
       <c r="F917" s="5"/>
     </row>
-    <row r="918">
+    <row r="918" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C918" s="5"/>
       <c r="D918" s="9"/>
       <c r="E918" s="5"/>
       <c r="F918" s="5"/>
     </row>
-    <row r="919">
+    <row r="919" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C919" s="5"/>
       <c r="D919" s="9"/>
       <c r="E919" s="5"/>
       <c r="F919" s="5"/>
     </row>
-    <row r="920">
+    <row r="920" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C920" s="5"/>
       <c r="D920" s="9"/>
       <c r="E920" s="5"/>
       <c r="F920" s="5"/>
     </row>
-    <row r="921">
+    <row r="921" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C921" s="5"/>
       <c r="D921" s="9"/>
       <c r="E921" s="5"/>
       <c r="F921" s="5"/>
     </row>
-    <row r="922">
+    <row r="922" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C922" s="5"/>
       <c r="D922" s="9"/>
       <c r="E922" s="5"/>
       <c r="F922" s="5"/>
     </row>
-    <row r="923">
+    <row r="923" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C923" s="5"/>
       <c r="D923" s="9"/>
       <c r="E923" s="5"/>
       <c r="F923" s="5"/>
     </row>
-    <row r="924">
+    <row r="924" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C924" s="5"/>
       <c r="D924" s="9"/>
       <c r="E924" s="5"/>
       <c r="F924" s="5"/>
     </row>
-    <row r="925">
+    <row r="925" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C925" s="5"/>
       <c r="D925" s="9"/>
       <c r="E925" s="5"/>
       <c r="F925" s="5"/>
     </row>
-    <row r="926">
+    <row r="926" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C926" s="5"/>
       <c r="D926" s="9"/>
       <c r="E926" s="5"/>
       <c r="F926" s="5"/>
     </row>
-    <row r="927">
+    <row r="927" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C927" s="5"/>
       <c r="D927" s="9"/>
       <c r="E927" s="5"/>
       <c r="F927" s="5"/>
     </row>
-    <row r="928">
+    <row r="928" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C928" s="5"/>
       <c r="D928" s="9"/>
       <c r="E928" s="5"/>
       <c r="F928" s="5"/>
     </row>
-    <row r="929">
+    <row r="929" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C929" s="5"/>
       <c r="D929" s="9"/>
       <c r="E929" s="5"/>
       <c r="F929" s="5"/>
     </row>
-    <row r="930">
+    <row r="930" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C930" s="5"/>
       <c r="D930" s="9"/>
       <c r="E930" s="5"/>
       <c r="F930" s="5"/>
     </row>
-    <row r="931">
+    <row r="931" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C931" s="5"/>
       <c r="D931" s="9"/>
       <c r="E931" s="5"/>
       <c r="F931" s="5"/>
     </row>
-    <row r="932">
+    <row r="932" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C932" s="5"/>
       <c r="D932" s="9"/>
       <c r="E932" s="5"/>
       <c r="F932" s="5"/>
     </row>
-    <row r="933">
+    <row r="933" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C933" s="5"/>
       <c r="D933" s="9"/>
       <c r="E933" s="5"/>
       <c r="F933" s="5"/>
     </row>
-    <row r="934">
+    <row r="934" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C934" s="5"/>
       <c r="D934" s="9"/>
       <c r="E934" s="5"/>
       <c r="F934" s="5"/>
     </row>
-    <row r="935">
+    <row r="935" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C935" s="5"/>
       <c r="D935" s="9"/>
       <c r="E935" s="5"/>
       <c r="F935" s="5"/>
     </row>
-    <row r="936">
+    <row r="936" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C936" s="5"/>
       <c r="D936" s="9"/>
       <c r="E936" s="5"/>
       <c r="F936" s="5"/>
     </row>
-    <row r="937">
+    <row r="937" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C937" s="5"/>
       <c r="D937" s="9"/>
       <c r="E937" s="5"/>
       <c r="F937" s="5"/>
     </row>
-    <row r="938">
+    <row r="938" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C938" s="5"/>
       <c r="D938" s="9"/>
       <c r="E938" s="5"/>
       <c r="F938" s="5"/>
     </row>
-    <row r="939">
+    <row r="939" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C939" s="5"/>
       <c r="D939" s="9"/>
       <c r="E939" s="5"/>
       <c r="F939" s="5"/>
     </row>
-    <row r="940">
+    <row r="940" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C940" s="5"/>
       <c r="D940" s="9"/>
       <c r="E940" s="5"/>
       <c r="F940" s="5"/>
     </row>
-    <row r="941">
+    <row r="941" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C941" s="5"/>
       <c r="D941" s="9"/>
       <c r="E941" s="5"/>
       <c r="F941" s="5"/>
     </row>
-    <row r="942">
+    <row r="942" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C942" s="5"/>
       <c r="D942" s="9"/>
       <c r="E942" s="5"/>
       <c r="F942" s="5"/>
     </row>
-    <row r="943">
+    <row r="943" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C943" s="5"/>
       <c r="D943" s="9"/>
       <c r="E943" s="5"/>
       <c r="F943" s="5"/>
     </row>
-    <row r="944">
+    <row r="944" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C944" s="5"/>
       <c r="D944" s="9"/>
       <c r="E944" s="5"/>
       <c r="F944" s="5"/>
     </row>
-    <row r="945">
+    <row r="945" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C945" s="5"/>
       <c r="D945" s="9"/>
       <c r="E945" s="5"/>
       <c r="F945" s="5"/>
     </row>
-    <row r="946">
+    <row r="946" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C946" s="5"/>
       <c r="D946" s="9"/>
       <c r="E946" s="5"/>
       <c r="F946" s="5"/>
     </row>
-    <row r="947">
+    <row r="947" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C947" s="5"/>
       <c r="D947" s="9"/>
       <c r="E947" s="5"/>
       <c r="F947" s="5"/>
     </row>
-    <row r="948">
+    <row r="948" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C948" s="5"/>
       <c r="D948" s="9"/>
       <c r="E948" s="5"/>
       <c r="F948" s="5"/>
     </row>
-    <row r="949">
+    <row r="949" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C949" s="5"/>
       <c r="D949" s="9"/>
       <c r="E949" s="5"/>
       <c r="F949" s="5"/>
     </row>
-    <row r="950">
+    <row r="950" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C950" s="5"/>
       <c r="D950" s="9"/>
       <c r="E950" s="5"/>
       <c r="F950" s="5"/>
     </row>
-    <row r="951">
+    <row r="951" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C951" s="5"/>
       <c r="D951" s="9"/>
       <c r="E951" s="5"/>
       <c r="F951" s="5"/>
     </row>
-    <row r="952">
+    <row r="952" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C952" s="5"/>
       <c r="D952" s="9"/>
       <c r="E952" s="5"/>
       <c r="F952" s="5"/>
     </row>
-    <row r="953">
+    <row r="953" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C953" s="5"/>
       <c r="D953" s="9"/>
       <c r="E953" s="5"/>
       <c r="F953" s="5"/>
     </row>
-    <row r="954">
+    <row r="954" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C954" s="5"/>
       <c r="D954" s="9"/>
       <c r="E954" s="5"/>
       <c r="F954" s="5"/>
     </row>
-    <row r="955">
+    <row r="955" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C955" s="5"/>
       <c r="D955" s="9"/>
       <c r="E955" s="5"/>
       <c r="F955" s="5"/>
     </row>
-    <row r="956">
+    <row r="956" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C956" s="5"/>
       <c r="D956" s="9"/>
       <c r="E956" s="5"/>
       <c r="F956" s="5"/>
     </row>
-    <row r="957">
+    <row r="957" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C957" s="5"/>
       <c r="D957" s="9"/>
       <c r="E957" s="5"/>
       <c r="F957" s="5"/>
     </row>
-    <row r="958">
+    <row r="958" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C958" s="5"/>
       <c r="D958" s="9"/>
       <c r="E958" s="5"/>
       <c r="F958" s="5"/>
     </row>
-    <row r="959">
+    <row r="959" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C959" s="5"/>
       <c r="D959" s="9"/>
       <c r="E959" s="5"/>
       <c r="F959" s="5"/>
     </row>
-    <row r="960">
+    <row r="960" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C960" s="5"/>
       <c r="D960" s="9"/>
       <c r="E960" s="5"/>
       <c r="F960" s="5"/>
     </row>
-    <row r="961">
+    <row r="961" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C961" s="5"/>
       <c r="D961" s="9"/>
       <c r="E961" s="5"/>
       <c r="F961" s="5"/>
     </row>
-    <row r="962">
+    <row r="962" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C962" s="5"/>
       <c r="D962" s="9"/>
       <c r="E962" s="5"/>
       <c r="F962" s="5"/>
     </row>
-    <row r="963">
+    <row r="963" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C963" s="5"/>
       <c r="D963" s="9"/>
       <c r="E963" s="5"/>
       <c r="F963" s="5"/>
     </row>
-    <row r="964">
+    <row r="964" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C964" s="5"/>
       <c r="D964" s="9"/>
       <c r="E964" s="5"/>
       <c r="F964" s="5"/>
     </row>
-    <row r="965">
+    <row r="965" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C965" s="5"/>
       <c r="D965" s="9"/>
       <c r="E965" s="5"/>
       <c r="F965" s="5"/>
     </row>
-    <row r="966">
+    <row r="966" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C966" s="5"/>
       <c r="D966" s="9"/>
       <c r="E966" s="5"/>
       <c r="F966" s="5"/>
     </row>
-    <row r="967">
+    <row r="967" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C967" s="5"/>
       <c r="D967" s="9"/>
       <c r="E967" s="5"/>
       <c r="F967" s="5"/>
     </row>
-    <row r="968">
+    <row r="968" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C968" s="5"/>
       <c r="D968" s="9"/>
       <c r="E968" s="5"/>
       <c r="F968" s="5"/>
     </row>
-    <row r="969">
+    <row r="969" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C969" s="5"/>
       <c r="D969" s="9"/>
       <c r="E969" s="5"/>
       <c r="F969" s="5"/>
     </row>
-    <row r="970">
+    <row r="970" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C970" s="5"/>
       <c r="D970" s="9"/>
       <c r="E970" s="5"/>
       <c r="F970" s="5"/>
     </row>
-    <row r="971">
+    <row r="971" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C971" s="5"/>
       <c r="D971" s="9"/>
       <c r="E971" s="5"/>
       <c r="F971" s="5"/>
     </row>
-    <row r="972">
+    <row r="972" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C972" s="5"/>
       <c r="D972" s="9"/>
       <c r="E972" s="5"/>
       <c r="F972" s="5"/>
     </row>
-    <row r="973">
+    <row r="973" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C973" s="5"/>
       <c r="D973" s="9"/>
       <c r="E973" s="5"/>
       <c r="F973" s="5"/>
     </row>
-    <row r="974">
+    <row r="974" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C974" s="5"/>
       <c r="D974" s="9"/>
       <c r="E974" s="5"/>
       <c r="F974" s="5"/>
     </row>
-    <row r="975">
+    <row r="975" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C975" s="5"/>
       <c r="D975" s="9"/>
       <c r="E975" s="5"/>
       <c r="F975" s="5"/>
     </row>
-    <row r="976">
+    <row r="976" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C976" s="5"/>
       <c r="D976" s="9"/>
       <c r="E976" s="5"/>
       <c r="F976" s="5"/>
     </row>
-    <row r="977">
+    <row r="977" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C977" s="5"/>
       <c r="D977" s="9"/>
       <c r="E977" s="5"/>
       <c r="F977" s="5"/>
     </row>
-    <row r="978">
+    <row r="978" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C978" s="5"/>
       <c r="D978" s="9"/>
       <c r="E978" s="5"/>
       <c r="F978" s="5"/>
     </row>
-    <row r="979">
+    <row r="979" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C979" s="5"/>
       <c r="D979" s="9"/>
       <c r="E979" s="5"/>
       <c r="F979" s="5"/>
     </row>
-    <row r="980">
+    <row r="980" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C980" s="5"/>
       <c r="D980" s="9"/>
       <c r="E980" s="5"/>
       <c r="F980" s="5"/>
     </row>
-    <row r="981">
+    <row r="981" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C981" s="5"/>
       <c r="D981" s="9"/>
       <c r="E981" s="5"/>
       <c r="F981" s="5"/>
     </row>
-    <row r="982">
+    <row r="982" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C982" s="5"/>
       <c r="D982" s="9"/>
       <c r="E982" s="5"/>
       <c r="F982" s="5"/>
     </row>
-    <row r="983">
+    <row r="983" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C983" s="5"/>
       <c r="D983" s="9"/>
       <c r="E983" s="5"/>
       <c r="F983" s="5"/>
     </row>
-    <row r="984">
+    <row r="984" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C984" s="5"/>
       <c r="D984" s="9"/>
       <c r="E984" s="5"/>
       <c r="F984" s="5"/>
     </row>
-    <row r="985">
+    <row r="985" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C985" s="5"/>
       <c r="D985" s="9"/>
       <c r="E985" s="5"/>
       <c r="F985" s="5"/>
     </row>
-    <row r="986">
+    <row r="986" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C986" s="5"/>
       <c r="D986" s="9"/>
       <c r="E986" s="5"/>
       <c r="F986" s="5"/>
     </row>
-    <row r="987">
+    <row r="987" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C987" s="5"/>
       <c r="D987" s="9"/>
       <c r="E987" s="5"/>
       <c r="F987" s="5"/>
     </row>
-    <row r="988">
+    <row r="988" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C988" s="5"/>
       <c r="D988" s="9"/>
       <c r="E988" s="5"/>
       <c r="F988" s="5"/>
     </row>
-    <row r="989">
+    <row r="989" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C989" s="5"/>
       <c r="D989" s="9"/>
       <c r="E989" s="5"/>
       <c r="F989" s="5"/>
     </row>
-    <row r="990">
+    <row r="990" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C990" s="5"/>
       <c r="D990" s="9"/>
       <c r="E990" s="5"/>
       <c r="F990" s="5"/>
     </row>
-    <row r="991">
+    <row r="991" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C991" s="5"/>
       <c r="D991" s="9"/>
       <c r="E991" s="5"/>
       <c r="F991" s="5"/>
     </row>
-    <row r="992">
+    <row r="992" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C992" s="5"/>
       <c r="D992" s="9"/>
       <c r="E992" s="5"/>
       <c r="F992" s="5"/>
     </row>
-    <row r="993">
+    <row r="993" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C993" s="5"/>
       <c r="D993" s="9"/>
       <c r="E993" s="5"/>
       <c r="F993" s="5"/>
     </row>
-    <row r="994">
+    <row r="994" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C994" s="5"/>
       <c r="D994" s="9"/>
       <c r="E994" s="5"/>
       <c r="F994" s="5"/>
     </row>
-    <row r="995">
+    <row r="995" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C995" s="5"/>
       <c r="D995" s="9"/>
       <c r="E995" s="5"/>
       <c r="F995" s="5"/>
     </row>
-    <row r="996">
+    <row r="996" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C996" s="5"/>
       <c r="D996" s="9"/>
       <c r="E996" s="5"/>
       <c r="F996" s="5"/>
     </row>
-    <row r="997">
+    <row r="997" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C997" s="5"/>
       <c r="D997" s="9"/>
       <c r="E997" s="5"/>
       <c r="F997" s="5"/>
     </row>
-    <row r="998">
+    <row r="998" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C998" s="5"/>
       <c r="D998" s="9"/>
       <c r="E998" s="5"/>
       <c r="F998" s="5"/>
     </row>
-    <row r="999">
+    <row r="999" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C999" s="5"/>
       <c r="D999" s="9"/>
       <c r="E999" s="5"/>
       <c r="F999" s="5"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C1000" s="5"/>
       <c r="D1000" s="9"/>
       <c r="E1000" s="5"/>
       <c r="F1000" s="5"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C1001" s="5"/>
       <c r="D1001" s="9"/>
       <c r="E1001" s="5"/>
@@ -7055,32 +7108,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="G3"/>
-    <hyperlink r:id="rId4" ref="F4"/>
-    <hyperlink r:id="rId5" ref="G4"/>
-    <hyperlink r:id="rId6" ref="F5"/>
-    <hyperlink r:id="rId7" ref="F6"/>
-    <hyperlink r:id="rId8" ref="F7"/>
-    <hyperlink r:id="rId9" ref="F8"/>
-    <hyperlink r:id="rId10" ref="F9"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F10" r:id="rId11" xr:uid="{BB1CFF64-C4BA-4A39-B770-C13D4B9BB818}"/>
+    <hyperlink ref="F11" r:id="rId12" xr:uid="{7AB83AF3-BD65-44B1-9D11-90AC52429BE5}"/>
+    <hyperlink ref="F12" r:id="rId13" display="https://www.digikey.com/en/products/detail/adafruit-industries-llc/982/5356850" xr:uid="{AE60CAF4-6D3E-4003-8990-22AAA96DD2DC}"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -7091,253 +7149,254 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B8" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B10" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B11" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B14" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B15" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B17" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B18" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B21" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="57.0"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -7348,579 +7407,580 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B3" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B4" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B6" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B8" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B9" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B15" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B16" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B18" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B19" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B20" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B21" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B25" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B27" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B28" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B29" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B30" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B31" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B32" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B33" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B34" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B35" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B36" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B37" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B38" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B39" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B40" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B41" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B42" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B43" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B44" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B45" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B46" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B47" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B48" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B49" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B50" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B51" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B52" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B53" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B54" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B55" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="77.71"/>
+    <col min="3" max="3" width="77.71875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
@@ -7931,9 +7991,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>168</v>
@@ -7942,9 +8002,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>170</v>
@@ -7953,9 +8013,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>172</v>
@@ -7964,9 +8024,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>174</v>
@@ -7975,9 +8035,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>176</v>
@@ -7986,9 +8046,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>178</v>
@@ -7997,9 +8057,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>180</v>
@@ -8008,9 +8068,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>182</v>
@@ -8019,9 +8079,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>184</v>
@@ -8030,9 +8090,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>186</v>
@@ -8041,9 +8101,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>188</v>
@@ -8052,9 +8112,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>190</v>
@@ -8063,9 +8123,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>192</v>
@@ -8074,9 +8134,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>193</v>
@@ -8086,6 +8146,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hardware/library/Component_Library.xlsx
+++ b/hardware/library/Component_Library.xlsx
@@ -5,25 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajat\OneDrive\Low Power\Project\github\ecen5833_s22_lpedt_project\hardware\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Documents\LPEDT\project\ecen5833_s22_lpedt_project\hardware\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02599EE-11F5-4D81-90DA-1B5641A68538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55286C47-BB2A-4D05-A076-27B45AFAF9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="BQ25570" sheetId="2" r:id="rId2"/>
-    <sheet name="EFR32BG13" sheetId="3" r:id="rId3"/>
-    <sheet name="AS5147P" sheetId="4" r:id="rId4"/>
+    <sheet name="Schematic" sheetId="5" r:id="rId2"/>
+    <sheet name="BQ25570" sheetId="2" r:id="rId3"/>
+    <sheet name="EFR32BG13" sheetId="3" r:id="rId4"/>
+    <sheet name="AS5147P" sheetId="4" r:id="rId5"/>
+    <sheet name="radio_board_BOM" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="356">
   <si>
     <t>Part Description</t>
   </si>
@@ -620,17 +622,495 @@
   </si>
   <si>
     <t>982 Adafruit Industries LLC | Sensors, Transducers | DigiKey</t>
+  </si>
+  <si>
+    <t>EFR32 Radio Interface</t>
+  </si>
+  <si>
+    <t>BLM18AG601SN1</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>10pF</t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>1N9</t>
+  </si>
+  <si>
+    <t>1.5pF</t>
+  </si>
+  <si>
+    <t>0 ohm</t>
+  </si>
+  <si>
+    <t>38.4MHz crystal</t>
+  </si>
+  <si>
+    <t>F_antenna</t>
+  </si>
+  <si>
+    <t>ENFA0003.pdf (murata.com)</t>
+  </si>
+  <si>
+    <t>BLM18AG601SN1D Murata Electronics | Filters | DigiKey</t>
+  </si>
+  <si>
+    <t>600 Ohms @ 100 MHz 1 - Ferrite Bead 0603 (1608 Metric) 500mA 380mOhm</t>
+  </si>
+  <si>
+    <t>CC0805KRX7R9BB101 YAGEO | Capacitors | DigiKey</t>
+  </si>
+  <si>
+    <t>UPY-GPHC_X7R_6.3V-to-50V_20.pdf (yageo.com)</t>
+  </si>
+  <si>
+    <t>100 pF ±10% 50V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>C0805C100K5RAC7800 KEMET | Capacitors | DigiKey</t>
+  </si>
+  <si>
+    <t>KEM_C1002_X7R_SMD.pdf (kemet.com)</t>
+  </si>
+  <si>
+    <t>10 pF ±10% 50V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>CC0805KKX7R9BB224 YAGEO | Capacitors | DigiKey</t>
+  </si>
+  <si>
+    <t>0.22 µF ±10% 50V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>LQG15WZ1N9S02D Murata Electronics | Inductors, Coils, Chokes | DigiKey</t>
+  </si>
+  <si>
+    <t>JELF243B-9117.pdf (murata.co.jp)</t>
+  </si>
+  <si>
+    <t>1.9 nH Unshielded Multilayer Inductor 1 A 50mOhm Max 0402 (1005 Metric) -</t>
+  </si>
+  <si>
+    <t>GCM1555C1H1R5JA16-01.pdf (murata.co.jp)</t>
+  </si>
+  <si>
+    <t>GCM1555C1H1R5JA16D Murata Electronics | Capacitors | DigiKey</t>
+  </si>
+  <si>
+    <t>1.5 pF ±5% 50V Ceramic Capacitor C0G, NP0 0402 (1005 Metric)</t>
+  </si>
+  <si>
+    <t>RC1005J000CS Samsung Electro-Mechanics | Resistors | DigiKey</t>
+  </si>
+  <si>
+    <t>Microsoft PowerPoint - #1 RC_DataSheet_(150508).pptx (digikey.com)</t>
+  </si>
+  <si>
+    <t>0 Ohms Jumper 0.063W, 1/16W Chip Resistor 0402 (1005 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>DST210A 1TJG125DP1A0012</t>
+  </si>
+  <si>
+    <t>KDS</t>
+  </si>
+  <si>
+    <t>32.768 kHz</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>DSX211SH 38.4 MHz 1ZZNAE38400AB0A</t>
+  </si>
+  <si>
+    <t>38.4MHz</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>IC EEPROM 2KBIT SERIAL</t>
+  </si>
+  <si>
+    <t>24AA024T-I/MNY</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>24AA024</t>
+  </si>
+  <si>
+    <t>U200</t>
+  </si>
+  <si>
+    <t>IC SERIAL FLASH 8Mb</t>
+  </si>
+  <si>
+    <t>MX25R8035FBDIL0</t>
+  </si>
+  <si>
+    <t>Macronix</t>
+  </si>
+  <si>
+    <t>MX25R8035F</t>
+  </si>
+  <si>
+    <t>U100</t>
+  </si>
+  <si>
+    <t>EFR32BG13P632F512GM48-BR</t>
+  </si>
+  <si>
+    <t>Silicon Labs</t>
+  </si>
+  <si>
+    <t>EFR32BG13P632F512GM48</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>TPJ_SMD</t>
+  </si>
+  <si>
+    <t>TPJ1,TPJ2,TPJ3,TPJ4,TPJ5,TPJ6,TPJ7,TPJ8,TPJ9,TPJ10,TPJ11,TPJ12,TPJ13,TPJ14,TPJ15,TPJ16,TPJ17,TPJ18,TPJ19,TPJ20</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>BMI-S-203-C</t>
+  </si>
+  <si>
+    <t>Laird Technologies</t>
+  </si>
+  <si>
+    <t>RF_SHIELD_COVER_BMI-S-203-C</t>
+  </si>
+  <si>
+    <t>SH101</t>
+  </si>
+  <si>
+    <t>BMI-S-203-F</t>
+  </si>
+  <si>
+    <t>RF_SHIELD_FRAME_BMI-S-203-F</t>
+  </si>
+  <si>
+    <t>SH100</t>
+  </si>
+  <si>
+    <t>RES 10K 1/16W 1% 100ppm</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>R200</t>
+  </si>
+  <si>
+    <t>RES 330K 1/16W 1% 100ppm</t>
+  </si>
+  <si>
+    <t>330K</t>
+  </si>
+  <si>
+    <t>R103</t>
+  </si>
+  <si>
+    <t>RES 1R 1/16W 1% 200ppm</t>
+  </si>
+  <si>
+    <t>1R</t>
+  </si>
+  <si>
+    <t>R100</t>
+  </si>
+  <si>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>R2,R206,R207,R210</t>
+  </si>
+  <si>
+    <t>RES 0R Imax 2A JUMPER</t>
+  </si>
+  <si>
+    <t>R1,R201,R205,R208,R211</t>
+  </si>
+  <si>
+    <t>RES ARRAY 100R 5% CONVEX</t>
+  </si>
+  <si>
+    <t>MNR04M0APJ101</t>
+  </si>
+  <si>
+    <t>ROHM</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>RP200</t>
+  </si>
+  <si>
+    <t>CONN SOCKET STRIP 1.27mm</t>
+  </si>
+  <si>
+    <t>SFC-120-T2-L-D-A-K-TR</t>
+  </si>
+  <si>
+    <t>Samtec</t>
+  </si>
+  <si>
+    <t>SOCKET_2X20_1.27MM_SMD</t>
+  </si>
+  <si>
+    <t>P200,P201</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1</t>
+  </si>
+  <si>
+    <t>Hirose</t>
+  </si>
+  <si>
+    <t>U.FL</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>PCB4104A Rev. A02</t>
+  </si>
+  <si>
+    <t>PCB4104A</t>
+  </si>
+  <si>
+    <t>PCB1</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>L102,L103</t>
+  </si>
+  <si>
+    <t>INDUCTOR POWER 4.7uH 1.25A 20%</t>
+  </si>
+  <si>
+    <t>LQH3NPN4R7MM0L</t>
+  </si>
+  <si>
+    <t>4U7</t>
+  </si>
+  <si>
+    <t>L101</t>
+  </si>
+  <si>
+    <t>FERRITE BEAD 1000R 200mA</t>
+  </si>
+  <si>
+    <t>Würth Electronics</t>
+  </si>
+  <si>
+    <t>CBF102WB</t>
+  </si>
+  <si>
+    <t>L100</t>
+  </si>
+  <si>
+    <t>±0.05N</t>
+  </si>
+  <si>
+    <t>LQP15MN1N9W02D</t>
+  </si>
+  <si>
+    <t>L1,L2</t>
+  </si>
+  <si>
+    <t>X5R</t>
+  </si>
+  <si>
+    <t>10U</t>
+  </si>
+  <si>
+    <t>C205</t>
+  </si>
+  <si>
+    <t>X7R</t>
+  </si>
+  <si>
+    <t>16V</t>
+  </si>
+  <si>
+    <t>CAP CER X7R 100nF 16V 10%</t>
+  </si>
+  <si>
+    <t>100N</t>
+  </si>
+  <si>
+    <t>C116,C124,C200,C201,C203,C207</t>
+  </si>
+  <si>
+    <t>25V</t>
+  </si>
+  <si>
+    <t>C115</t>
+  </si>
+  <si>
+    <t>CAP CER X7R 10nF 16V 10%</t>
+  </si>
+  <si>
+    <t>10N</t>
+  </si>
+  <si>
+    <t>C113</t>
+  </si>
+  <si>
+    <t>CAP CER X5R 1uF 25V 10%</t>
+  </si>
+  <si>
+    <t>1U</t>
+  </si>
+  <si>
+    <t>C111,C114,C117</t>
+  </si>
+  <si>
+    <t>6.3V</t>
+  </si>
+  <si>
+    <t>CAP CER X5R 10uF 6.3V 20%</t>
+  </si>
+  <si>
+    <t>C110,C112</t>
+  </si>
+  <si>
+    <t>CAP CER X7R 220nF 16V 10%</t>
+  </si>
+  <si>
+    <t>220N</t>
+  </si>
+  <si>
+    <t>C106</t>
+  </si>
+  <si>
+    <t>C0G</t>
+  </si>
+  <si>
+    <t>50V</t>
+  </si>
+  <si>
+    <t>CAP CER NP0 10pF 50V 5%</t>
+  </si>
+  <si>
+    <t>10P</t>
+  </si>
+  <si>
+    <t>C103,C107</t>
+  </si>
+  <si>
+    <t>100P</t>
+  </si>
+  <si>
+    <t>C102</t>
+  </si>
+  <si>
+    <t>±0.05P</t>
+  </si>
+  <si>
+    <t>GRM1555C1H1R05WA01D</t>
+  </si>
+  <si>
+    <t>1P5</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>INVERTED_F</t>
+  </si>
+  <si>
+    <t>AT1</t>
+  </si>
+  <si>
+    <t>Not Mounted</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>Manufacturers Part Number</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wednesday, March 02, 2017</t>
+  </si>
+  <si>
+    <t>Revised:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFR32BG13 2.4 GHz 10 dBm Radio Board  </t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>A00</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>BRD4104A</t>
+  </si>
+  <si>
+    <t>P/N:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -667,13 +1147,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -685,40 +1184,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{CAD2BC6A-9702-49F6-B44F-706F2067C070}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -731,6 +1244,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E343FA7-B22C-4D0B-85AB-C263CB79C0ED}" name="myTable" displayName="myTable" ref="A5:K37" totalsRowShown="0">
+  <autoFilter ref="A5:K37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quantity"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Reference"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Value"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Manufacturer"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Manufacturers Part Number"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tolerance"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Rating"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Technology"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Not Mounted"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -936,22 +1469,22 @@
   </sheetPr>
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28.27734375" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.27734375" customWidth="1"/>
-    <col min="5" max="5" width="21.71875" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="30.26953125" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="26.71875" customWidth="1"/>
+    <col min="7" max="7" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,7 +1507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -994,7 +1527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="73.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +1548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1034,7 +1567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1044,7 +1577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1064,7 +1597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1082,7 +1615,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1102,7 +1635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1120,7 +1653,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -1140,7 +1673,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="73.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -1158,7 +1691,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>197</v>
       </c>
@@ -1172,5935 +1705,5935 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
       <c r="D14" s="9"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
       <c r="D15" s="9"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
       <c r="D16" s="9"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
       <c r="D18" s="9"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
       <c r="D19" s="9"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C20" s="5"/>
       <c r="D20" s="9"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
       <c r="D21" s="9"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C22" s="5"/>
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
       <c r="D23" s="9"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
       <c r="D24" s="9"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
       <c r="D25" s="9"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
       <c r="D26" s="9"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
       <c r="D27" s="9"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
       <c r="D28" s="9"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
       <c r="D29" s="9"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
       <c r="D30" s="9"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
       <c r="D31" s="9"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
       <c r="D32" s="9"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
       <c r="D33" s="9"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
       <c r="D34" s="9"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
       <c r="D35" s="9"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
       <c r="D36" s="9"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
       <c r="D37" s="9"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="D38" s="9"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
       <c r="D39" s="9"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
       <c r="D40" s="9"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
       <c r="D41" s="9"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C42" s="5"/>
       <c r="D42" s="9"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
       <c r="D43" s="9"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C44" s="5"/>
       <c r="D44" s="9"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
       <c r="D45" s="9"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
       <c r="D46" s="9"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
       <c r="D47" s="9"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C48" s="5"/>
       <c r="D48" s="9"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
       <c r="D49" s="9"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C50" s="5"/>
       <c r="D50" s="9"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
       <c r="D51" s="9"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C52" s="5"/>
       <c r="D52" s="9"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
       <c r="D53" s="9"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C54" s="5"/>
       <c r="D54" s="9"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
       <c r="D55" s="9"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C56" s="5"/>
       <c r="D56" s="9"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
       <c r="D57" s="9"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C58" s="5"/>
       <c r="D58" s="9"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C59" s="5"/>
       <c r="D59" s="9"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C60" s="5"/>
       <c r="D60" s="9"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C61" s="5"/>
       <c r="D61" s="9"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C62" s="5"/>
       <c r="D62" s="9"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C63" s="5"/>
       <c r="D63" s="9"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C64" s="5"/>
       <c r="D64" s="9"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C65" s="5"/>
       <c r="D65" s="9"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="66" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C66" s="5"/>
       <c r="D66" s="9"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="67" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C67" s="5"/>
       <c r="D67" s="9"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C68" s="5"/>
       <c r="D68" s="9"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="69" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C69" s="5"/>
       <c r="D69" s="9"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C70" s="5"/>
       <c r="D70" s="9"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="71" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C71" s="5"/>
       <c r="D71" s="9"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="72" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C72" s="5"/>
       <c r="D72" s="9"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="73" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C73" s="5"/>
       <c r="D73" s="9"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="74" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C74" s="5"/>
       <c r="D74" s="9"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="75" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C75" s="5"/>
       <c r="D75" s="9"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="76" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C76" s="5"/>
       <c r="D76" s="9"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="77" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C77" s="5"/>
       <c r="D77" s="9"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="78" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C78" s="5"/>
       <c r="D78" s="9"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="79" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C79" s="5"/>
       <c r="D79" s="9"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="80" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
       <c r="D80" s="9"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="81" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
       <c r="D81" s="9"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="82" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C82" s="5"/>
       <c r="D82" s="9"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="83" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C83" s="5"/>
       <c r="D83" s="9"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="84" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C84" s="5"/>
       <c r="D84" s="9"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="85" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C85" s="5"/>
       <c r="D85" s="9"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="86" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C86" s="5"/>
       <c r="D86" s="9"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="87" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C87" s="5"/>
       <c r="D87" s="9"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="88" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C88" s="5"/>
       <c r="D88" s="9"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="89" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C89" s="5"/>
       <c r="D89" s="9"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="90" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C90" s="5"/>
       <c r="D90" s="9"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="91" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C91" s="5"/>
       <c r="D91" s="9"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="92" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C92" s="5"/>
       <c r="D92" s="9"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="93" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C93" s="5"/>
       <c r="D93" s="9"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="94" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C94" s="5"/>
       <c r="D94" s="9"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="95" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C95" s="5"/>
       <c r="D95" s="9"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="96" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C96" s="5"/>
       <c r="D96" s="9"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="97" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C97" s="5"/>
       <c r="D97" s="9"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="98" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C98" s="5"/>
       <c r="D98" s="9"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="99" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C99" s="5"/>
       <c r="D99" s="9"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="100" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C100" s="5"/>
       <c r="D100" s="9"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="101" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C101" s="5"/>
       <c r="D101" s="9"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="102" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C102" s="5"/>
       <c r="D102" s="9"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="103" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C103" s="5"/>
       <c r="D103" s="9"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="104" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C104" s="5"/>
       <c r="D104" s="9"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="105" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C105" s="5"/>
       <c r="D105" s="9"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="106" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C106" s="5"/>
       <c r="D106" s="9"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="107" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C107" s="5"/>
       <c r="D107" s="9"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="108" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C108" s="5"/>
       <c r="D108" s="9"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="109" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C109" s="5"/>
       <c r="D109" s="9"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
     </row>
-    <row r="110" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="110" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C110" s="5"/>
       <c r="D110" s="9"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="111" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C111" s="5"/>
       <c r="D111" s="9"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="112" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C112" s="5"/>
       <c r="D112" s="9"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="113" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C113" s="5"/>
       <c r="D113" s="9"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="114" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C114" s="5"/>
       <c r="D114" s="9"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="115" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C115" s="5"/>
       <c r="D115" s="9"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="116" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C116" s="5"/>
       <c r="D116" s="9"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="117" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C117" s="5"/>
       <c r="D117" s="9"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
     </row>
-    <row r="118" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="118" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C118" s="5"/>
       <c r="D118" s="9"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
     </row>
-    <row r="119" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="119" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C119" s="5"/>
       <c r="D119" s="9"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="120" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C120" s="5"/>
       <c r="D120" s="9"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="121" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C121" s="5"/>
       <c r="D121" s="9"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
     </row>
-    <row r="122" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="122" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C122" s="5"/>
       <c r="D122" s="9"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
     </row>
-    <row r="123" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="123" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C123" s="5"/>
       <c r="D123" s="9"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
     </row>
-    <row r="124" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="124" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C124" s="5"/>
       <c r="D124" s="9"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
     </row>
-    <row r="125" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="125" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C125" s="5"/>
       <c r="D125" s="9"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
     </row>
-    <row r="126" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="126" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C126" s="5"/>
       <c r="D126" s="9"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
     </row>
-    <row r="127" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="127" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C127" s="5"/>
       <c r="D127" s="9"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="128" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C128" s="5"/>
       <c r="D128" s="9"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
     </row>
-    <row r="129" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="129" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C129" s="5"/>
       <c r="D129" s="9"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="130" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C130" s="5"/>
       <c r="D130" s="9"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="131" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C131" s="5"/>
       <c r="D131" s="9"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
     </row>
-    <row r="132" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="132" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C132" s="5"/>
       <c r="D132" s="9"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="133" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C133" s="5"/>
       <c r="D133" s="9"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="134" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C134" s="5"/>
       <c r="D134" s="9"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="135" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C135" s="5"/>
       <c r="D135" s="9"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="136" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C136" s="5"/>
       <c r="D136" s="9"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="137" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C137" s="5"/>
       <c r="D137" s="9"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="138" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C138" s="5"/>
       <c r="D138" s="9"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
     </row>
-    <row r="139" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="139" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C139" s="5"/>
       <c r="D139" s="9"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
     </row>
-    <row r="140" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="140" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C140" s="5"/>
       <c r="D140" s="9"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
     </row>
-    <row r="141" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="141" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C141" s="5"/>
       <c r="D141" s="9"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="142" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C142" s="5"/>
       <c r="D142" s="9"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
     </row>
-    <row r="143" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="143" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C143" s="5"/>
       <c r="D143" s="9"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
     </row>
-    <row r="144" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="144" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C144" s="5"/>
       <c r="D144" s="9"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="145" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C145" s="5"/>
       <c r="D145" s="9"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="146" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C146" s="5"/>
       <c r="D146" s="9"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
     </row>
-    <row r="147" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="147" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C147" s="5"/>
       <c r="D147" s="9"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="148" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C148" s="5"/>
       <c r="D148" s="9"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="149" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C149" s="5"/>
       <c r="D149" s="9"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
     </row>
-    <row r="150" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="150" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C150" s="5"/>
       <c r="D150" s="9"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
     </row>
-    <row r="151" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="151" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C151" s="5"/>
       <c r="D151" s="9"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
     </row>
-    <row r="152" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="152" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C152" s="5"/>
       <c r="D152" s="9"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
     </row>
-    <row r="153" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="153" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C153" s="5"/>
       <c r="D153" s="9"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
     </row>
-    <row r="154" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="154" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C154" s="5"/>
       <c r="D154" s="9"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
     </row>
-    <row r="155" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="155" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C155" s="5"/>
       <c r="D155" s="9"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="156" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C156" s="5"/>
       <c r="D156" s="9"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
     </row>
-    <row r="157" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="157" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C157" s="5"/>
       <c r="D157" s="9"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="158" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C158" s="5"/>
       <c r="D158" s="9"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
     </row>
-    <row r="159" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="159" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C159" s="5"/>
       <c r="D159" s="9"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="160" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C160" s="5"/>
       <c r="D160" s="9"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="161" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C161" s="5"/>
       <c r="D161" s="9"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="162" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C162" s="5"/>
       <c r="D162" s="9"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="163" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C163" s="5"/>
       <c r="D163" s="9"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="164" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C164" s="5"/>
       <c r="D164" s="9"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="165" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C165" s="5"/>
       <c r="D165" s="9"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
     </row>
-    <row r="166" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="166" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C166" s="5"/>
       <c r="D166" s="9"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
     </row>
-    <row r="167" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="167" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C167" s="5"/>
       <c r="D167" s="9"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
     </row>
-    <row r="168" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="168" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C168" s="5"/>
       <c r="D168" s="9"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
     </row>
-    <row r="169" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="169" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C169" s="5"/>
       <c r="D169" s="9"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
     </row>
-    <row r="170" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="170" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C170" s="5"/>
       <c r="D170" s="9"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
     </row>
-    <row r="171" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="171" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C171" s="5"/>
       <c r="D171" s="9"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
     </row>
-    <row r="172" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="172" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C172" s="5"/>
       <c r="D172" s="9"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
     </row>
-    <row r="173" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="173" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C173" s="5"/>
       <c r="D173" s="9"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
     </row>
-    <row r="174" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="174" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C174" s="5"/>
       <c r="D174" s="9"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
     </row>
-    <row r="175" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="175" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C175" s="5"/>
       <c r="D175" s="9"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
     </row>
-    <row r="176" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="176" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C176" s="5"/>
       <c r="D176" s="9"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
     </row>
-    <row r="177" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="177" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C177" s="5"/>
       <c r="D177" s="9"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
     </row>
-    <row r="178" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="178" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C178" s="5"/>
       <c r="D178" s="9"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
     </row>
-    <row r="179" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="179" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C179" s="5"/>
       <c r="D179" s="9"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
     </row>
-    <row r="180" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="180" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C180" s="5"/>
       <c r="D180" s="9"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
     </row>
-    <row r="181" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="181" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C181" s="5"/>
       <c r="D181" s="9"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
     </row>
-    <row r="182" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="182" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C182" s="5"/>
       <c r="D182" s="9"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
     </row>
-    <row r="183" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="183" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C183" s="5"/>
       <c r="D183" s="9"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
     </row>
-    <row r="184" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="184" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C184" s="5"/>
       <c r="D184" s="9"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
     </row>
-    <row r="185" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="185" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C185" s="5"/>
       <c r="D185" s="9"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
     </row>
-    <row r="186" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="186" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C186" s="5"/>
       <c r="D186" s="9"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
     </row>
-    <row r="187" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="187" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C187" s="5"/>
       <c r="D187" s="9"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
     </row>
-    <row r="188" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="188" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C188" s="5"/>
       <c r="D188" s="9"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
     </row>
-    <row r="189" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="189" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C189" s="5"/>
       <c r="D189" s="9"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
     </row>
-    <row r="190" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="190" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C190" s="5"/>
       <c r="D190" s="9"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
     </row>
-    <row r="191" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="191" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C191" s="5"/>
       <c r="D191" s="9"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
     </row>
-    <row r="192" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="192" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C192" s="5"/>
       <c r="D192" s="9"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
     </row>
-    <row r="193" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="193" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C193" s="5"/>
       <c r="D193" s="9"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
     </row>
-    <row r="194" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="194" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C194" s="5"/>
       <c r="D194" s="9"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
     </row>
-    <row r="195" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="195" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C195" s="5"/>
       <c r="D195" s="9"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
     </row>
-    <row r="196" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="196" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C196" s="5"/>
       <c r="D196" s="9"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
     </row>
-    <row r="197" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="197" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C197" s="5"/>
       <c r="D197" s="9"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
     </row>
-    <row r="198" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="198" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C198" s="5"/>
       <c r="D198" s="9"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
     </row>
-    <row r="199" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="199" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C199" s="5"/>
       <c r="D199" s="9"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
     </row>
-    <row r="200" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="200" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C200" s="5"/>
       <c r="D200" s="9"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
     </row>
-    <row r="201" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="201" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C201" s="5"/>
       <c r="D201" s="9"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
     </row>
-    <row r="202" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="202" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C202" s="5"/>
       <c r="D202" s="9"/>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
     </row>
-    <row r="203" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="203" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C203" s="5"/>
       <c r="D203" s="9"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
     </row>
-    <row r="204" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="204" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C204" s="5"/>
       <c r="D204" s="9"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
     </row>
-    <row r="205" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="205" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C205" s="5"/>
       <c r="D205" s="9"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
     </row>
-    <row r="206" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="206" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C206" s="5"/>
       <c r="D206" s="9"/>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
     </row>
-    <row r="207" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="207" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C207" s="5"/>
       <c r="D207" s="9"/>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
     </row>
-    <row r="208" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="208" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C208" s="5"/>
       <c r="D208" s="9"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
     </row>
-    <row r="209" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="209" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C209" s="5"/>
       <c r="D209" s="9"/>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
     </row>
-    <row r="210" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="210" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C210" s="5"/>
       <c r="D210" s="9"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
     </row>
-    <row r="211" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="211" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C211" s="5"/>
       <c r="D211" s="9"/>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
     </row>
-    <row r="212" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="212" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C212" s="5"/>
       <c r="D212" s="9"/>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
     </row>
-    <row r="213" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="213" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C213" s="5"/>
       <c r="D213" s="9"/>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
     </row>
-    <row r="214" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="214" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C214" s="5"/>
       <c r="D214" s="9"/>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
     </row>
-    <row r="215" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="215" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C215" s="5"/>
       <c r="D215" s="9"/>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
     </row>
-    <row r="216" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="216" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C216" s="5"/>
       <c r="D216" s="9"/>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
     </row>
-    <row r="217" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="217" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C217" s="5"/>
       <c r="D217" s="9"/>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
     </row>
-    <row r="218" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="218" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C218" s="5"/>
       <c r="D218" s="9"/>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
     </row>
-    <row r="219" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="219" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C219" s="5"/>
       <c r="D219" s="9"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
     </row>
-    <row r="220" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="220" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C220" s="5"/>
       <c r="D220" s="9"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
     </row>
-    <row r="221" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="221" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C221" s="5"/>
       <c r="D221" s="9"/>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
     </row>
-    <row r="222" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="222" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C222" s="5"/>
       <c r="D222" s="9"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
     </row>
-    <row r="223" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="223" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C223" s="5"/>
       <c r="D223" s="9"/>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
     </row>
-    <row r="224" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="224" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C224" s="5"/>
       <c r="D224" s="9"/>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
     </row>
-    <row r="225" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="225" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C225" s="5"/>
       <c r="D225" s="9"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
     </row>
-    <row r="226" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="226" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C226" s="5"/>
       <c r="D226" s="9"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
     </row>
-    <row r="227" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="227" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C227" s="5"/>
       <c r="D227" s="9"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
     </row>
-    <row r="228" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="228" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C228" s="5"/>
       <c r="D228" s="9"/>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
     </row>
-    <row r="229" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="229" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C229" s="5"/>
       <c r="D229" s="9"/>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
     </row>
-    <row r="230" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="230" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C230" s="5"/>
       <c r="D230" s="9"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
     </row>
-    <row r="231" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="231" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C231" s="5"/>
       <c r="D231" s="9"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
     </row>
-    <row r="232" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="232" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C232" s="5"/>
       <c r="D232" s="9"/>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
     </row>
-    <row r="233" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="233" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C233" s="5"/>
       <c r="D233" s="9"/>
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
     </row>
-    <row r="234" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="234" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C234" s="5"/>
       <c r="D234" s="9"/>
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
     </row>
-    <row r="235" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="235" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C235" s="5"/>
       <c r="D235" s="9"/>
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
     </row>
-    <row r="236" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="236" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C236" s="5"/>
       <c r="D236" s="9"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
     </row>
-    <row r="237" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="237" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C237" s="5"/>
       <c r="D237" s="9"/>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
     </row>
-    <row r="238" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="238" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C238" s="5"/>
       <c r="D238" s="9"/>
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
     </row>
-    <row r="239" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="239" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C239" s="5"/>
       <c r="D239" s="9"/>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
     </row>
-    <row r="240" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="240" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C240" s="5"/>
       <c r="D240" s="9"/>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
     </row>
-    <row r="241" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="241" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C241" s="5"/>
       <c r="D241" s="9"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
     </row>
-    <row r="242" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="242" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C242" s="5"/>
       <c r="D242" s="9"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
     </row>
-    <row r="243" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="243" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C243" s="5"/>
       <c r="D243" s="9"/>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
     </row>
-    <row r="244" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="244" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C244" s="5"/>
       <c r="D244" s="9"/>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
     </row>
-    <row r="245" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="245" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C245" s="5"/>
       <c r="D245" s="9"/>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
     </row>
-    <row r="246" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="246" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C246" s="5"/>
       <c r="D246" s="9"/>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
     </row>
-    <row r="247" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="247" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C247" s="5"/>
       <c r="D247" s="9"/>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
     </row>
-    <row r="248" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="248" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C248" s="5"/>
       <c r="D248" s="9"/>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
     </row>
-    <row r="249" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="249" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C249" s="5"/>
       <c r="D249" s="9"/>
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
     </row>
-    <row r="250" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="250" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C250" s="5"/>
       <c r="D250" s="9"/>
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
     </row>
-    <row r="251" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="251" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C251" s="5"/>
       <c r="D251" s="9"/>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
     </row>
-    <row r="252" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="252" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C252" s="5"/>
       <c r="D252" s="9"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
     </row>
-    <row r="253" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="253" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C253" s="5"/>
       <c r="D253" s="9"/>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
     </row>
-    <row r="254" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="254" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C254" s="5"/>
       <c r="D254" s="9"/>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
     </row>
-    <row r="255" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="255" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C255" s="5"/>
       <c r="D255" s="9"/>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
     </row>
-    <row r="256" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="256" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C256" s="5"/>
       <c r="D256" s="9"/>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
     </row>
-    <row r="257" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="257" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C257" s="5"/>
       <c r="D257" s="9"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
     </row>
-    <row r="258" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="258" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C258" s="5"/>
       <c r="D258" s="9"/>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
     </row>
-    <row r="259" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="259" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C259" s="5"/>
       <c r="D259" s="9"/>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
     </row>
-    <row r="260" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="260" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C260" s="5"/>
       <c r="D260" s="9"/>
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
     </row>
-    <row r="261" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="261" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C261" s="5"/>
       <c r="D261" s="9"/>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
     </row>
-    <row r="262" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="262" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C262" s="5"/>
       <c r="D262" s="9"/>
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
     </row>
-    <row r="263" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="263" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C263" s="5"/>
       <c r="D263" s="9"/>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
     </row>
-    <row r="264" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="264" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C264" s="5"/>
       <c r="D264" s="9"/>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
     </row>
-    <row r="265" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="265" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C265" s="5"/>
       <c r="D265" s="9"/>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
     </row>
-    <row r="266" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="266" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C266" s="5"/>
       <c r="D266" s="9"/>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
     </row>
-    <row r="267" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="267" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C267" s="5"/>
       <c r="D267" s="9"/>
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
     </row>
-    <row r="268" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="268" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C268" s="5"/>
       <c r="D268" s="9"/>
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
     </row>
-    <row r="269" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="269" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C269" s="5"/>
       <c r="D269" s="9"/>
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
     </row>
-    <row r="270" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="270" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C270" s="5"/>
       <c r="D270" s="9"/>
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
     </row>
-    <row r="271" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="271" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C271" s="5"/>
       <c r="D271" s="9"/>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
     </row>
-    <row r="272" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="272" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C272" s="5"/>
       <c r="D272" s="9"/>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
     </row>
-    <row r="273" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="273" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C273" s="5"/>
       <c r="D273" s="9"/>
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
     </row>
-    <row r="274" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="274" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C274" s="5"/>
       <c r="D274" s="9"/>
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
     </row>
-    <row r="275" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="275" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C275" s="5"/>
       <c r="D275" s="9"/>
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
     </row>
-    <row r="276" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="276" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C276" s="5"/>
       <c r="D276" s="9"/>
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
     </row>
-    <row r="277" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="277" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C277" s="5"/>
       <c r="D277" s="9"/>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
     </row>
-    <row r="278" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="278" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C278" s="5"/>
       <c r="D278" s="9"/>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
     </row>
-    <row r="279" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="279" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C279" s="5"/>
       <c r="D279" s="9"/>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
     </row>
-    <row r="280" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="280" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C280" s="5"/>
       <c r="D280" s="9"/>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
     </row>
-    <row r="281" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="281" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C281" s="5"/>
       <c r="D281" s="9"/>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
     </row>
-    <row r="282" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="282" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C282" s="5"/>
       <c r="D282" s="9"/>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
     </row>
-    <row r="283" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="283" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C283" s="5"/>
       <c r="D283" s="9"/>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
     </row>
-    <row r="284" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="284" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C284" s="5"/>
       <c r="D284" s="9"/>
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
     </row>
-    <row r="285" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="285" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C285" s="5"/>
       <c r="D285" s="9"/>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
     </row>
-    <row r="286" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="286" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C286" s="5"/>
       <c r="D286" s="9"/>
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
     </row>
-    <row r="287" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="287" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C287" s="5"/>
       <c r="D287" s="9"/>
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
     </row>
-    <row r="288" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="288" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C288" s="5"/>
       <c r="D288" s="9"/>
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
     </row>
-    <row r="289" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="289" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C289" s="5"/>
       <c r="D289" s="9"/>
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
     </row>
-    <row r="290" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="290" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C290" s="5"/>
       <c r="D290" s="9"/>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
     </row>
-    <row r="291" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="291" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C291" s="5"/>
       <c r="D291" s="9"/>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
     </row>
-    <row r="292" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="292" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C292" s="5"/>
       <c r="D292" s="9"/>
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
     </row>
-    <row r="293" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="293" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C293" s="5"/>
       <c r="D293" s="9"/>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
     </row>
-    <row r="294" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="294" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C294" s="5"/>
       <c r="D294" s="9"/>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
     </row>
-    <row r="295" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="295" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C295" s="5"/>
       <c r="D295" s="9"/>
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
     </row>
-    <row r="296" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="296" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C296" s="5"/>
       <c r="D296" s="9"/>
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
     </row>
-    <row r="297" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="297" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C297" s="5"/>
       <c r="D297" s="9"/>
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
     </row>
-    <row r="298" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="298" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C298" s="5"/>
       <c r="D298" s="9"/>
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
     </row>
-    <row r="299" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="299" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C299" s="5"/>
       <c r="D299" s="9"/>
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
     </row>
-    <row r="300" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="300" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C300" s="5"/>
       <c r="D300" s="9"/>
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
     </row>
-    <row r="301" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="301" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C301" s="5"/>
       <c r="D301" s="9"/>
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
     </row>
-    <row r="302" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="302" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C302" s="5"/>
       <c r="D302" s="9"/>
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
     </row>
-    <row r="303" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="303" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C303" s="5"/>
       <c r="D303" s="9"/>
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
     </row>
-    <row r="304" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="304" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C304" s="5"/>
       <c r="D304" s="9"/>
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
     </row>
-    <row r="305" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="305" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C305" s="5"/>
       <c r="D305" s="9"/>
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
     </row>
-    <row r="306" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="306" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C306" s="5"/>
       <c r="D306" s="9"/>
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
     </row>
-    <row r="307" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="307" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C307" s="5"/>
       <c r="D307" s="9"/>
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
     </row>
-    <row r="308" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="308" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C308" s="5"/>
       <c r="D308" s="9"/>
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
     </row>
-    <row r="309" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="309" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C309" s="5"/>
       <c r="D309" s="9"/>
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
     </row>
-    <row r="310" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="310" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C310" s="5"/>
       <c r="D310" s="9"/>
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
     </row>
-    <row r="311" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="311" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C311" s="5"/>
       <c r="D311" s="9"/>
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
     </row>
-    <row r="312" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="312" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C312" s="5"/>
       <c r="D312" s="9"/>
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
     </row>
-    <row r="313" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="313" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C313" s="5"/>
       <c r="D313" s="9"/>
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
     </row>
-    <row r="314" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="314" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C314" s="5"/>
       <c r="D314" s="9"/>
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
     </row>
-    <row r="315" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="315" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C315" s="5"/>
       <c r="D315" s="9"/>
       <c r="E315" s="5"/>
       <c r="F315" s="5"/>
     </row>
-    <row r="316" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="316" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C316" s="5"/>
       <c r="D316" s="9"/>
       <c r="E316" s="5"/>
       <c r="F316" s="5"/>
     </row>
-    <row r="317" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="317" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C317" s="5"/>
       <c r="D317" s="9"/>
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
     </row>
-    <row r="318" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="318" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C318" s="5"/>
       <c r="D318" s="9"/>
       <c r="E318" s="5"/>
       <c r="F318" s="5"/>
     </row>
-    <row r="319" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="319" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C319" s="5"/>
       <c r="D319" s="9"/>
       <c r="E319" s="5"/>
       <c r="F319" s="5"/>
     </row>
-    <row r="320" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="320" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C320" s="5"/>
       <c r="D320" s="9"/>
       <c r="E320" s="5"/>
       <c r="F320" s="5"/>
     </row>
-    <row r="321" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="321" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C321" s="5"/>
       <c r="D321" s="9"/>
       <c r="E321" s="5"/>
       <c r="F321" s="5"/>
     </row>
-    <row r="322" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="322" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C322" s="5"/>
       <c r="D322" s="9"/>
       <c r="E322" s="5"/>
       <c r="F322" s="5"/>
     </row>
-    <row r="323" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="323" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C323" s="5"/>
       <c r="D323" s="9"/>
       <c r="E323" s="5"/>
       <c r="F323" s="5"/>
     </row>
-    <row r="324" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="324" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C324" s="5"/>
       <c r="D324" s="9"/>
       <c r="E324" s="5"/>
       <c r="F324" s="5"/>
     </row>
-    <row r="325" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="325" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C325" s="5"/>
       <c r="D325" s="9"/>
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
     </row>
-    <row r="326" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="326" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C326" s="5"/>
       <c r="D326" s="9"/>
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
     </row>
-    <row r="327" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="327" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C327" s="5"/>
       <c r="D327" s="9"/>
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
     </row>
-    <row r="328" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="328" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C328" s="5"/>
       <c r="D328" s="9"/>
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
     </row>
-    <row r="329" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="329" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C329" s="5"/>
       <c r="D329" s="9"/>
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
     </row>
-    <row r="330" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="330" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C330" s="5"/>
       <c r="D330" s="9"/>
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
     </row>
-    <row r="331" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="331" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C331" s="5"/>
       <c r="D331" s="9"/>
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
     </row>
-    <row r="332" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="332" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C332" s="5"/>
       <c r="D332" s="9"/>
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
     </row>
-    <row r="333" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="333" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C333" s="5"/>
       <c r="D333" s="9"/>
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
     </row>
-    <row r="334" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="334" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C334" s="5"/>
       <c r="D334" s="9"/>
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
     </row>
-    <row r="335" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="335" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C335" s="5"/>
       <c r="D335" s="9"/>
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
     </row>
-    <row r="336" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="336" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C336" s="5"/>
       <c r="D336" s="9"/>
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
     </row>
-    <row r="337" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="337" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C337" s="5"/>
       <c r="D337" s="9"/>
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
     </row>
-    <row r="338" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="338" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C338" s="5"/>
       <c r="D338" s="9"/>
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
     </row>
-    <row r="339" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="339" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C339" s="5"/>
       <c r="D339" s="9"/>
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
     </row>
-    <row r="340" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="340" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C340" s="5"/>
       <c r="D340" s="9"/>
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
     </row>
-    <row r="341" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="341" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C341" s="5"/>
       <c r="D341" s="9"/>
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
     </row>
-    <row r="342" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="342" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C342" s="5"/>
       <c r="D342" s="9"/>
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
     </row>
-    <row r="343" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="343" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C343" s="5"/>
       <c r="D343" s="9"/>
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
     </row>
-    <row r="344" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="344" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C344" s="5"/>
       <c r="D344" s="9"/>
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
     </row>
-    <row r="345" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="345" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C345" s="5"/>
       <c r="D345" s="9"/>
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
     </row>
-    <row r="346" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="346" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C346" s="5"/>
       <c r="D346" s="9"/>
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
     </row>
-    <row r="347" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="347" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C347" s="5"/>
       <c r="D347" s="9"/>
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
     </row>
-    <row r="348" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="348" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C348" s="5"/>
       <c r="D348" s="9"/>
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
     </row>
-    <row r="349" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="349" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C349" s="5"/>
       <c r="D349" s="9"/>
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
     </row>
-    <row r="350" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="350" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C350" s="5"/>
       <c r="D350" s="9"/>
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
     </row>
-    <row r="351" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="351" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C351" s="5"/>
       <c r="D351" s="9"/>
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
     </row>
-    <row r="352" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="352" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C352" s="5"/>
       <c r="D352" s="9"/>
       <c r="E352" s="5"/>
       <c r="F352" s="5"/>
     </row>
-    <row r="353" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="353" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C353" s="5"/>
       <c r="D353" s="9"/>
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
     </row>
-    <row r="354" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="354" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C354" s="5"/>
       <c r="D354" s="9"/>
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
     </row>
-    <row r="355" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="355" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C355" s="5"/>
       <c r="D355" s="9"/>
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
     </row>
-    <row r="356" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="356" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C356" s="5"/>
       <c r="D356" s="9"/>
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
     </row>
-    <row r="357" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="357" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C357" s="5"/>
       <c r="D357" s="9"/>
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
     </row>
-    <row r="358" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="358" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C358" s="5"/>
       <c r="D358" s="9"/>
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
     </row>
-    <row r="359" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="359" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C359" s="5"/>
       <c r="D359" s="9"/>
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
     </row>
-    <row r="360" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="360" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C360" s="5"/>
       <c r="D360" s="9"/>
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
     </row>
-    <row r="361" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="361" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C361" s="5"/>
       <c r="D361" s="9"/>
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
     </row>
-    <row r="362" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="362" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C362" s="5"/>
       <c r="D362" s="9"/>
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
     </row>
-    <row r="363" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="363" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C363" s="5"/>
       <c r="D363" s="9"/>
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
     </row>
-    <row r="364" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="364" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C364" s="5"/>
       <c r="D364" s="9"/>
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
     </row>
-    <row r="365" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="365" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C365" s="5"/>
       <c r="D365" s="9"/>
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
     </row>
-    <row r="366" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="366" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C366" s="5"/>
       <c r="D366" s="9"/>
       <c r="E366" s="5"/>
       <c r="F366" s="5"/>
     </row>
-    <row r="367" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="367" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C367" s="5"/>
       <c r="D367" s="9"/>
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
     </row>
-    <row r="368" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="368" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C368" s="5"/>
       <c r="D368" s="9"/>
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
     </row>
-    <row r="369" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="369" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C369" s="5"/>
       <c r="D369" s="9"/>
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
     </row>
-    <row r="370" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="370" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C370" s="5"/>
       <c r="D370" s="9"/>
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
     </row>
-    <row r="371" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="371" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C371" s="5"/>
       <c r="D371" s="9"/>
       <c r="E371" s="5"/>
       <c r="F371" s="5"/>
     </row>
-    <row r="372" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="372" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C372" s="5"/>
       <c r="D372" s="9"/>
       <c r="E372" s="5"/>
       <c r="F372" s="5"/>
     </row>
-    <row r="373" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="373" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C373" s="5"/>
       <c r="D373" s="9"/>
       <c r="E373" s="5"/>
       <c r="F373" s="5"/>
     </row>
-    <row r="374" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="374" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C374" s="5"/>
       <c r="D374" s="9"/>
       <c r="E374" s="5"/>
       <c r="F374" s="5"/>
     </row>
-    <row r="375" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="375" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C375" s="5"/>
       <c r="D375" s="9"/>
       <c r="E375" s="5"/>
       <c r="F375" s="5"/>
     </row>
-    <row r="376" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="376" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C376" s="5"/>
       <c r="D376" s="9"/>
       <c r="E376" s="5"/>
       <c r="F376" s="5"/>
     </row>
-    <row r="377" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="377" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C377" s="5"/>
       <c r="D377" s="9"/>
       <c r="E377" s="5"/>
       <c r="F377" s="5"/>
     </row>
-    <row r="378" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="378" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C378" s="5"/>
       <c r="D378" s="9"/>
       <c r="E378" s="5"/>
       <c r="F378" s="5"/>
     </row>
-    <row r="379" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="379" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C379" s="5"/>
       <c r="D379" s="9"/>
       <c r="E379" s="5"/>
       <c r="F379" s="5"/>
     </row>
-    <row r="380" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="380" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C380" s="5"/>
       <c r="D380" s="9"/>
       <c r="E380" s="5"/>
       <c r="F380" s="5"/>
     </row>
-    <row r="381" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="381" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C381" s="5"/>
       <c r="D381" s="9"/>
       <c r="E381" s="5"/>
       <c r="F381" s="5"/>
     </row>
-    <row r="382" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="382" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C382" s="5"/>
       <c r="D382" s="9"/>
       <c r="E382" s="5"/>
       <c r="F382" s="5"/>
     </row>
-    <row r="383" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="383" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C383" s="5"/>
       <c r="D383" s="9"/>
       <c r="E383" s="5"/>
       <c r="F383" s="5"/>
     </row>
-    <row r="384" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="384" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C384" s="5"/>
       <c r="D384" s="9"/>
       <c r="E384" s="5"/>
       <c r="F384" s="5"/>
     </row>
-    <row r="385" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="385" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C385" s="5"/>
       <c r="D385" s="9"/>
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
     </row>
-    <row r="386" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="386" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C386" s="5"/>
       <c r="D386" s="9"/>
       <c r="E386" s="5"/>
       <c r="F386" s="5"/>
     </row>
-    <row r="387" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="387" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C387" s="5"/>
       <c r="D387" s="9"/>
       <c r="E387" s="5"/>
       <c r="F387" s="5"/>
     </row>
-    <row r="388" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="388" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C388" s="5"/>
       <c r="D388" s="9"/>
       <c r="E388" s="5"/>
       <c r="F388" s="5"/>
     </row>
-    <row r="389" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="389" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C389" s="5"/>
       <c r="D389" s="9"/>
       <c r="E389" s="5"/>
       <c r="F389" s="5"/>
     </row>
-    <row r="390" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="390" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C390" s="5"/>
       <c r="D390" s="9"/>
       <c r="E390" s="5"/>
       <c r="F390" s="5"/>
     </row>
-    <row r="391" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="391" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C391" s="5"/>
       <c r="D391" s="9"/>
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
     </row>
-    <row r="392" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="392" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C392" s="5"/>
       <c r="D392" s="9"/>
       <c r="E392" s="5"/>
       <c r="F392" s="5"/>
     </row>
-    <row r="393" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="393" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C393" s="5"/>
       <c r="D393" s="9"/>
       <c r="E393" s="5"/>
       <c r="F393" s="5"/>
     </row>
-    <row r="394" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="394" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C394" s="5"/>
       <c r="D394" s="9"/>
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
     </row>
-    <row r="395" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="395" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C395" s="5"/>
       <c r="D395" s="9"/>
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
     </row>
-    <row r="396" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="396" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C396" s="5"/>
       <c r="D396" s="9"/>
       <c r="E396" s="5"/>
       <c r="F396" s="5"/>
     </row>
-    <row r="397" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="397" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C397" s="5"/>
       <c r="D397" s="9"/>
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
     </row>
-    <row r="398" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="398" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C398" s="5"/>
       <c r="D398" s="9"/>
       <c r="E398" s="5"/>
       <c r="F398" s="5"/>
     </row>
-    <row r="399" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="399" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C399" s="5"/>
       <c r="D399" s="9"/>
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
     </row>
-    <row r="400" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="400" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C400" s="5"/>
       <c r="D400" s="9"/>
       <c r="E400" s="5"/>
       <c r="F400" s="5"/>
     </row>
-    <row r="401" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="401" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C401" s="5"/>
       <c r="D401" s="9"/>
       <c r="E401" s="5"/>
       <c r="F401" s="5"/>
     </row>
-    <row r="402" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="402" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C402" s="5"/>
       <c r="D402" s="9"/>
       <c r="E402" s="5"/>
       <c r="F402" s="5"/>
     </row>
-    <row r="403" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="403" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C403" s="5"/>
       <c r="D403" s="9"/>
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
     </row>
-    <row r="404" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="404" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C404" s="5"/>
       <c r="D404" s="9"/>
       <c r="E404" s="5"/>
       <c r="F404" s="5"/>
     </row>
-    <row r="405" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="405" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C405" s="5"/>
       <c r="D405" s="9"/>
       <c r="E405" s="5"/>
       <c r="F405" s="5"/>
     </row>
-    <row r="406" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="406" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C406" s="5"/>
       <c r="D406" s="9"/>
       <c r="E406" s="5"/>
       <c r="F406" s="5"/>
     </row>
-    <row r="407" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="407" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C407" s="5"/>
       <c r="D407" s="9"/>
       <c r="E407" s="5"/>
       <c r="F407" s="5"/>
     </row>
-    <row r="408" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="408" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C408" s="5"/>
       <c r="D408" s="9"/>
       <c r="E408" s="5"/>
       <c r="F408" s="5"/>
     </row>
-    <row r="409" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="409" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C409" s="5"/>
       <c r="D409" s="9"/>
       <c r="E409" s="5"/>
       <c r="F409" s="5"/>
     </row>
-    <row r="410" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="410" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C410" s="5"/>
       <c r="D410" s="9"/>
       <c r="E410" s="5"/>
       <c r="F410" s="5"/>
     </row>
-    <row r="411" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="411" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C411" s="5"/>
       <c r="D411" s="9"/>
       <c r="E411" s="5"/>
       <c r="F411" s="5"/>
     </row>
-    <row r="412" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="412" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C412" s="5"/>
       <c r="D412" s="9"/>
       <c r="E412" s="5"/>
       <c r="F412" s="5"/>
     </row>
-    <row r="413" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="413" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C413" s="5"/>
       <c r="D413" s="9"/>
       <c r="E413" s="5"/>
       <c r="F413" s="5"/>
     </row>
-    <row r="414" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="414" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C414" s="5"/>
       <c r="D414" s="9"/>
       <c r="E414" s="5"/>
       <c r="F414" s="5"/>
     </row>
-    <row r="415" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="415" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C415" s="5"/>
       <c r="D415" s="9"/>
       <c r="E415" s="5"/>
       <c r="F415" s="5"/>
     </row>
-    <row r="416" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="416" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C416" s="5"/>
       <c r="D416" s="9"/>
       <c r="E416" s="5"/>
       <c r="F416" s="5"/>
     </row>
-    <row r="417" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="417" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C417" s="5"/>
       <c r="D417" s="9"/>
       <c r="E417" s="5"/>
       <c r="F417" s="5"/>
     </row>
-    <row r="418" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="418" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C418" s="5"/>
       <c r="D418" s="9"/>
       <c r="E418" s="5"/>
       <c r="F418" s="5"/>
     </row>
-    <row r="419" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="419" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C419" s="5"/>
       <c r="D419" s="9"/>
       <c r="E419" s="5"/>
       <c r="F419" s="5"/>
     </row>
-    <row r="420" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="420" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C420" s="5"/>
       <c r="D420" s="9"/>
       <c r="E420" s="5"/>
       <c r="F420" s="5"/>
     </row>
-    <row r="421" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="421" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C421" s="5"/>
       <c r="D421" s="9"/>
       <c r="E421" s="5"/>
       <c r="F421" s="5"/>
     </row>
-    <row r="422" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="422" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C422" s="5"/>
       <c r="D422" s="9"/>
       <c r="E422" s="5"/>
       <c r="F422" s="5"/>
     </row>
-    <row r="423" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="423" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C423" s="5"/>
       <c r="D423" s="9"/>
       <c r="E423" s="5"/>
       <c r="F423" s="5"/>
     </row>
-    <row r="424" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="424" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C424" s="5"/>
       <c r="D424" s="9"/>
       <c r="E424" s="5"/>
       <c r="F424" s="5"/>
     </row>
-    <row r="425" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="425" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C425" s="5"/>
       <c r="D425" s="9"/>
       <c r="E425" s="5"/>
       <c r="F425" s="5"/>
     </row>
-    <row r="426" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="426" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C426" s="5"/>
       <c r="D426" s="9"/>
       <c r="E426" s="5"/>
       <c r="F426" s="5"/>
     </row>
-    <row r="427" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="427" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C427" s="5"/>
       <c r="D427" s="9"/>
       <c r="E427" s="5"/>
       <c r="F427" s="5"/>
     </row>
-    <row r="428" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="428" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C428" s="5"/>
       <c r="D428" s="9"/>
       <c r="E428" s="5"/>
       <c r="F428" s="5"/>
     </row>
-    <row r="429" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="429" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C429" s="5"/>
       <c r="D429" s="9"/>
       <c r="E429" s="5"/>
       <c r="F429" s="5"/>
     </row>
-    <row r="430" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="430" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C430" s="5"/>
       <c r="D430" s="9"/>
       <c r="E430" s="5"/>
       <c r="F430" s="5"/>
     </row>
-    <row r="431" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="431" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C431" s="5"/>
       <c r="D431" s="9"/>
       <c r="E431" s="5"/>
       <c r="F431" s="5"/>
     </row>
-    <row r="432" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="432" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C432" s="5"/>
       <c r="D432" s="9"/>
       <c r="E432" s="5"/>
       <c r="F432" s="5"/>
     </row>
-    <row r="433" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="433" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C433" s="5"/>
       <c r="D433" s="9"/>
       <c r="E433" s="5"/>
       <c r="F433" s="5"/>
     </row>
-    <row r="434" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="434" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C434" s="5"/>
       <c r="D434" s="9"/>
       <c r="E434" s="5"/>
       <c r="F434" s="5"/>
     </row>
-    <row r="435" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="435" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C435" s="5"/>
       <c r="D435" s="9"/>
       <c r="E435" s="5"/>
       <c r="F435" s="5"/>
     </row>
-    <row r="436" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="436" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C436" s="5"/>
       <c r="D436" s="9"/>
       <c r="E436" s="5"/>
       <c r="F436" s="5"/>
     </row>
-    <row r="437" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="437" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C437" s="5"/>
       <c r="D437" s="9"/>
       <c r="E437" s="5"/>
       <c r="F437" s="5"/>
     </row>
-    <row r="438" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="438" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C438" s="5"/>
       <c r="D438" s="9"/>
       <c r="E438" s="5"/>
       <c r="F438" s="5"/>
     </row>
-    <row r="439" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="439" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C439" s="5"/>
       <c r="D439" s="9"/>
       <c r="E439" s="5"/>
       <c r="F439" s="5"/>
     </row>
-    <row r="440" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="440" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C440" s="5"/>
       <c r="D440" s="9"/>
       <c r="E440" s="5"/>
       <c r="F440" s="5"/>
     </row>
-    <row r="441" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="441" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C441" s="5"/>
       <c r="D441" s="9"/>
       <c r="E441" s="5"/>
       <c r="F441" s="5"/>
     </row>
-    <row r="442" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="442" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C442" s="5"/>
       <c r="D442" s="9"/>
       <c r="E442" s="5"/>
       <c r="F442" s="5"/>
     </row>
-    <row r="443" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="443" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C443" s="5"/>
       <c r="D443" s="9"/>
       <c r="E443" s="5"/>
       <c r="F443" s="5"/>
     </row>
-    <row r="444" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="444" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C444" s="5"/>
       <c r="D444" s="9"/>
       <c r="E444" s="5"/>
       <c r="F444" s="5"/>
     </row>
-    <row r="445" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="445" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C445" s="5"/>
       <c r="D445" s="9"/>
       <c r="E445" s="5"/>
       <c r="F445" s="5"/>
     </row>
-    <row r="446" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="446" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C446" s="5"/>
       <c r="D446" s="9"/>
       <c r="E446" s="5"/>
       <c r="F446" s="5"/>
     </row>
-    <row r="447" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="447" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C447" s="5"/>
       <c r="D447" s="9"/>
       <c r="E447" s="5"/>
       <c r="F447" s="5"/>
     </row>
-    <row r="448" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="448" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C448" s="5"/>
       <c r="D448" s="9"/>
       <c r="E448" s="5"/>
       <c r="F448" s="5"/>
     </row>
-    <row r="449" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="449" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C449" s="5"/>
       <c r="D449" s="9"/>
       <c r="E449" s="5"/>
       <c r="F449" s="5"/>
     </row>
-    <row r="450" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="450" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C450" s="5"/>
       <c r="D450" s="9"/>
       <c r="E450" s="5"/>
       <c r="F450" s="5"/>
     </row>
-    <row r="451" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="451" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C451" s="5"/>
       <c r="D451" s="9"/>
       <c r="E451" s="5"/>
       <c r="F451" s="5"/>
     </row>
-    <row r="452" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="452" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C452" s="5"/>
       <c r="D452" s="9"/>
       <c r="E452" s="5"/>
       <c r="F452" s="5"/>
     </row>
-    <row r="453" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="453" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C453" s="5"/>
       <c r="D453" s="9"/>
       <c r="E453" s="5"/>
       <c r="F453" s="5"/>
     </row>
-    <row r="454" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="454" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C454" s="5"/>
       <c r="D454" s="9"/>
       <c r="E454" s="5"/>
       <c r="F454" s="5"/>
     </row>
-    <row r="455" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="455" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C455" s="5"/>
       <c r="D455" s="9"/>
       <c r="E455" s="5"/>
       <c r="F455" s="5"/>
     </row>
-    <row r="456" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="456" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C456" s="5"/>
       <c r="D456" s="9"/>
       <c r="E456" s="5"/>
       <c r="F456" s="5"/>
     </row>
-    <row r="457" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="457" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C457" s="5"/>
       <c r="D457" s="9"/>
       <c r="E457" s="5"/>
       <c r="F457" s="5"/>
     </row>
-    <row r="458" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="458" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C458" s="5"/>
       <c r="D458" s="9"/>
       <c r="E458" s="5"/>
       <c r="F458" s="5"/>
     </row>
-    <row r="459" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="459" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C459" s="5"/>
       <c r="D459" s="9"/>
       <c r="E459" s="5"/>
       <c r="F459" s="5"/>
     </row>
-    <row r="460" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="460" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C460" s="5"/>
       <c r="D460" s="9"/>
       <c r="E460" s="5"/>
       <c r="F460" s="5"/>
     </row>
-    <row r="461" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="461" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C461" s="5"/>
       <c r="D461" s="9"/>
       <c r="E461" s="5"/>
       <c r="F461" s="5"/>
     </row>
-    <row r="462" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="462" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C462" s="5"/>
       <c r="D462" s="9"/>
       <c r="E462" s="5"/>
       <c r="F462" s="5"/>
     </row>
-    <row r="463" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="463" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C463" s="5"/>
       <c r="D463" s="9"/>
       <c r="E463" s="5"/>
       <c r="F463" s="5"/>
     </row>
-    <row r="464" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="464" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C464" s="5"/>
       <c r="D464" s="9"/>
       <c r="E464" s="5"/>
       <c r="F464" s="5"/>
     </row>
-    <row r="465" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="465" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C465" s="5"/>
       <c r="D465" s="9"/>
       <c r="E465" s="5"/>
       <c r="F465" s="5"/>
     </row>
-    <row r="466" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="466" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C466" s="5"/>
       <c r="D466" s="9"/>
       <c r="E466" s="5"/>
       <c r="F466" s="5"/>
     </row>
-    <row r="467" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="467" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C467" s="5"/>
       <c r="D467" s="9"/>
       <c r="E467" s="5"/>
       <c r="F467" s="5"/>
     </row>
-    <row r="468" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="468" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C468" s="5"/>
       <c r="D468" s="9"/>
       <c r="E468" s="5"/>
       <c r="F468" s="5"/>
     </row>
-    <row r="469" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="469" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C469" s="5"/>
       <c r="D469" s="9"/>
       <c r="E469" s="5"/>
       <c r="F469" s="5"/>
     </row>
-    <row r="470" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="470" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C470" s="5"/>
       <c r="D470" s="9"/>
       <c r="E470" s="5"/>
       <c r="F470" s="5"/>
     </row>
-    <row r="471" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="471" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C471" s="5"/>
       <c r="D471" s="9"/>
       <c r="E471" s="5"/>
       <c r="F471" s="5"/>
     </row>
-    <row r="472" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="472" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C472" s="5"/>
       <c r="D472" s="9"/>
       <c r="E472" s="5"/>
       <c r="F472" s="5"/>
     </row>
-    <row r="473" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="473" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C473" s="5"/>
       <c r="D473" s="9"/>
       <c r="E473" s="5"/>
       <c r="F473" s="5"/>
     </row>
-    <row r="474" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="474" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C474" s="5"/>
       <c r="D474" s="9"/>
       <c r="E474" s="5"/>
       <c r="F474" s="5"/>
     </row>
-    <row r="475" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="475" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C475" s="5"/>
       <c r="D475" s="9"/>
       <c r="E475" s="5"/>
       <c r="F475" s="5"/>
     </row>
-    <row r="476" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="476" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C476" s="5"/>
       <c r="D476" s="9"/>
       <c r="E476" s="5"/>
       <c r="F476" s="5"/>
     </row>
-    <row r="477" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="477" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C477" s="5"/>
       <c r="D477" s="9"/>
       <c r="E477" s="5"/>
       <c r="F477" s="5"/>
     </row>
-    <row r="478" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="478" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C478" s="5"/>
       <c r="D478" s="9"/>
       <c r="E478" s="5"/>
       <c r="F478" s="5"/>
     </row>
-    <row r="479" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="479" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C479" s="5"/>
       <c r="D479" s="9"/>
       <c r="E479" s="5"/>
       <c r="F479" s="5"/>
     </row>
-    <row r="480" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="480" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C480" s="5"/>
       <c r="D480" s="9"/>
       <c r="E480" s="5"/>
       <c r="F480" s="5"/>
     </row>
-    <row r="481" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="481" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C481" s="5"/>
       <c r="D481" s="9"/>
       <c r="E481" s="5"/>
       <c r="F481" s="5"/>
     </row>
-    <row r="482" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="482" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C482" s="5"/>
       <c r="D482" s="9"/>
       <c r="E482" s="5"/>
       <c r="F482" s="5"/>
     </row>
-    <row r="483" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="483" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C483" s="5"/>
       <c r="D483" s="9"/>
       <c r="E483" s="5"/>
       <c r="F483" s="5"/>
     </row>
-    <row r="484" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="484" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C484" s="5"/>
       <c r="D484" s="9"/>
       <c r="E484" s="5"/>
       <c r="F484" s="5"/>
     </row>
-    <row r="485" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="485" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C485" s="5"/>
       <c r="D485" s="9"/>
       <c r="E485" s="5"/>
       <c r="F485" s="5"/>
     </row>
-    <row r="486" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="486" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C486" s="5"/>
       <c r="D486" s="9"/>
       <c r="E486" s="5"/>
       <c r="F486" s="5"/>
     </row>
-    <row r="487" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="487" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C487" s="5"/>
       <c r="D487" s="9"/>
       <c r="E487" s="5"/>
       <c r="F487" s="5"/>
     </row>
-    <row r="488" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="488" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C488" s="5"/>
       <c r="D488" s="9"/>
       <c r="E488" s="5"/>
       <c r="F488" s="5"/>
     </row>
-    <row r="489" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="489" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C489" s="5"/>
       <c r="D489" s="9"/>
       <c r="E489" s="5"/>
       <c r="F489" s="5"/>
     </row>
-    <row r="490" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="490" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C490" s="5"/>
       <c r="D490" s="9"/>
       <c r="E490" s="5"/>
       <c r="F490" s="5"/>
     </row>
-    <row r="491" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="491" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C491" s="5"/>
       <c r="D491" s="9"/>
       <c r="E491" s="5"/>
       <c r="F491" s="5"/>
     </row>
-    <row r="492" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="492" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C492" s="5"/>
       <c r="D492" s="9"/>
       <c r="E492" s="5"/>
       <c r="F492" s="5"/>
     </row>
-    <row r="493" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="493" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C493" s="5"/>
       <c r="D493" s="9"/>
       <c r="E493" s="5"/>
       <c r="F493" s="5"/>
     </row>
-    <row r="494" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="494" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C494" s="5"/>
       <c r="D494" s="9"/>
       <c r="E494" s="5"/>
       <c r="F494" s="5"/>
     </row>
-    <row r="495" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="495" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C495" s="5"/>
       <c r="D495" s="9"/>
       <c r="E495" s="5"/>
       <c r="F495" s="5"/>
     </row>
-    <row r="496" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="496" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C496" s="5"/>
       <c r="D496" s="9"/>
       <c r="E496" s="5"/>
       <c r="F496" s="5"/>
     </row>
-    <row r="497" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="497" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C497" s="5"/>
       <c r="D497" s="9"/>
       <c r="E497" s="5"/>
       <c r="F497" s="5"/>
     </row>
-    <row r="498" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="498" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C498" s="5"/>
       <c r="D498" s="9"/>
       <c r="E498" s="5"/>
       <c r="F498" s="5"/>
     </row>
-    <row r="499" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="499" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C499" s="5"/>
       <c r="D499" s="9"/>
       <c r="E499" s="5"/>
       <c r="F499" s="5"/>
     </row>
-    <row r="500" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="500" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C500" s="5"/>
       <c r="D500" s="9"/>
       <c r="E500" s="5"/>
       <c r="F500" s="5"/>
     </row>
-    <row r="501" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="501" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C501" s="5"/>
       <c r="D501" s="9"/>
       <c r="E501" s="5"/>
       <c r="F501" s="5"/>
     </row>
-    <row r="502" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="502" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C502" s="5"/>
       <c r="D502" s="9"/>
       <c r="E502" s="5"/>
       <c r="F502" s="5"/>
     </row>
-    <row r="503" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="503" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C503" s="5"/>
       <c r="D503" s="9"/>
       <c r="E503" s="5"/>
       <c r="F503" s="5"/>
     </row>
-    <row r="504" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="504" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C504" s="5"/>
       <c r="D504" s="9"/>
       <c r="E504" s="5"/>
       <c r="F504" s="5"/>
     </row>
-    <row r="505" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="505" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C505" s="5"/>
       <c r="D505" s="9"/>
       <c r="E505" s="5"/>
       <c r="F505" s="5"/>
     </row>
-    <row r="506" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="506" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C506" s="5"/>
       <c r="D506" s="9"/>
       <c r="E506" s="5"/>
       <c r="F506" s="5"/>
     </row>
-    <row r="507" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="507" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C507" s="5"/>
       <c r="D507" s="9"/>
       <c r="E507" s="5"/>
       <c r="F507" s="5"/>
     </row>
-    <row r="508" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="508" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C508" s="5"/>
       <c r="D508" s="9"/>
       <c r="E508" s="5"/>
       <c r="F508" s="5"/>
     </row>
-    <row r="509" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="509" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C509" s="5"/>
       <c r="D509" s="9"/>
       <c r="E509" s="5"/>
       <c r="F509" s="5"/>
     </row>
-    <row r="510" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="510" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C510" s="5"/>
       <c r="D510" s="9"/>
       <c r="E510" s="5"/>
       <c r="F510" s="5"/>
     </row>
-    <row r="511" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="511" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C511" s="5"/>
       <c r="D511" s="9"/>
       <c r="E511" s="5"/>
       <c r="F511" s="5"/>
     </row>
-    <row r="512" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="512" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C512" s="5"/>
       <c r="D512" s="9"/>
       <c r="E512" s="5"/>
       <c r="F512" s="5"/>
     </row>
-    <row r="513" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="513" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C513" s="5"/>
       <c r="D513" s="9"/>
       <c r="E513" s="5"/>
       <c r="F513" s="5"/>
     </row>
-    <row r="514" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="514" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C514" s="5"/>
       <c r="D514" s="9"/>
       <c r="E514" s="5"/>
       <c r="F514" s="5"/>
     </row>
-    <row r="515" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="515" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C515" s="5"/>
       <c r="D515" s="9"/>
       <c r="E515" s="5"/>
       <c r="F515" s="5"/>
     </row>
-    <row r="516" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="516" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C516" s="5"/>
       <c r="D516" s="9"/>
       <c r="E516" s="5"/>
       <c r="F516" s="5"/>
     </row>
-    <row r="517" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="517" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C517" s="5"/>
       <c r="D517" s="9"/>
       <c r="E517" s="5"/>
       <c r="F517" s="5"/>
     </row>
-    <row r="518" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="518" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C518" s="5"/>
       <c r="D518" s="9"/>
       <c r="E518" s="5"/>
       <c r="F518" s="5"/>
     </row>
-    <row r="519" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="519" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C519" s="5"/>
       <c r="D519" s="9"/>
       <c r="E519" s="5"/>
       <c r="F519" s="5"/>
     </row>
-    <row r="520" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="520" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C520" s="5"/>
       <c r="D520" s="9"/>
       <c r="E520" s="5"/>
       <c r="F520" s="5"/>
     </row>
-    <row r="521" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="521" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C521" s="5"/>
       <c r="D521" s="9"/>
       <c r="E521" s="5"/>
       <c r="F521" s="5"/>
     </row>
-    <row r="522" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="522" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C522" s="5"/>
       <c r="D522" s="9"/>
       <c r="E522" s="5"/>
       <c r="F522" s="5"/>
     </row>
-    <row r="523" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="523" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C523" s="5"/>
       <c r="D523" s="9"/>
       <c r="E523" s="5"/>
       <c r="F523" s="5"/>
     </row>
-    <row r="524" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="524" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C524" s="5"/>
       <c r="D524" s="9"/>
       <c r="E524" s="5"/>
       <c r="F524" s="5"/>
     </row>
-    <row r="525" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="525" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C525" s="5"/>
       <c r="D525" s="9"/>
       <c r="E525" s="5"/>
       <c r="F525" s="5"/>
     </row>
-    <row r="526" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="526" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C526" s="5"/>
       <c r="D526" s="9"/>
       <c r="E526" s="5"/>
       <c r="F526" s="5"/>
     </row>
-    <row r="527" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="527" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C527" s="5"/>
       <c r="D527" s="9"/>
       <c r="E527" s="5"/>
       <c r="F527" s="5"/>
     </row>
-    <row r="528" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="528" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C528" s="5"/>
       <c r="D528" s="9"/>
       <c r="E528" s="5"/>
       <c r="F528" s="5"/>
     </row>
-    <row r="529" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="529" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C529" s="5"/>
       <c r="D529" s="9"/>
       <c r="E529" s="5"/>
       <c r="F529" s="5"/>
     </row>
-    <row r="530" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="530" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C530" s="5"/>
       <c r="D530" s="9"/>
       <c r="E530" s="5"/>
       <c r="F530" s="5"/>
     </row>
-    <row r="531" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="531" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C531" s="5"/>
       <c r="D531" s="9"/>
       <c r="E531" s="5"/>
       <c r="F531" s="5"/>
     </row>
-    <row r="532" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="532" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C532" s="5"/>
       <c r="D532" s="9"/>
       <c r="E532" s="5"/>
       <c r="F532" s="5"/>
     </row>
-    <row r="533" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="533" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C533" s="5"/>
       <c r="D533" s="9"/>
       <c r="E533" s="5"/>
       <c r="F533" s="5"/>
     </row>
-    <row r="534" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="534" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C534" s="5"/>
       <c r="D534" s="9"/>
       <c r="E534" s="5"/>
       <c r="F534" s="5"/>
     </row>
-    <row r="535" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="535" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C535" s="5"/>
       <c r="D535" s="9"/>
       <c r="E535" s="5"/>
       <c r="F535" s="5"/>
     </row>
-    <row r="536" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="536" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C536" s="5"/>
       <c r="D536" s="9"/>
       <c r="E536" s="5"/>
       <c r="F536" s="5"/>
     </row>
-    <row r="537" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="537" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C537" s="5"/>
       <c r="D537" s="9"/>
       <c r="E537" s="5"/>
       <c r="F537" s="5"/>
     </row>
-    <row r="538" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="538" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C538" s="5"/>
       <c r="D538" s="9"/>
       <c r="E538" s="5"/>
       <c r="F538" s="5"/>
     </row>
-    <row r="539" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="539" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C539" s="5"/>
       <c r="D539" s="9"/>
       <c r="E539" s="5"/>
       <c r="F539" s="5"/>
     </row>
-    <row r="540" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="540" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C540" s="5"/>
       <c r="D540" s="9"/>
       <c r="E540" s="5"/>
       <c r="F540" s="5"/>
     </row>
-    <row r="541" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="541" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C541" s="5"/>
       <c r="D541" s="9"/>
       <c r="E541" s="5"/>
       <c r="F541" s="5"/>
     </row>
-    <row r="542" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="542" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C542" s="5"/>
       <c r="D542" s="9"/>
       <c r="E542" s="5"/>
       <c r="F542" s="5"/>
     </row>
-    <row r="543" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="543" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C543" s="5"/>
       <c r="D543" s="9"/>
       <c r="E543" s="5"/>
       <c r="F543" s="5"/>
     </row>
-    <row r="544" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="544" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C544" s="5"/>
       <c r="D544" s="9"/>
       <c r="E544" s="5"/>
       <c r="F544" s="5"/>
     </row>
-    <row r="545" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="545" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C545" s="5"/>
       <c r="D545" s="9"/>
       <c r="E545" s="5"/>
       <c r="F545" s="5"/>
     </row>
-    <row r="546" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="546" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C546" s="5"/>
       <c r="D546" s="9"/>
       <c r="E546" s="5"/>
       <c r="F546" s="5"/>
     </row>
-    <row r="547" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="547" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C547" s="5"/>
       <c r="D547" s="9"/>
       <c r="E547" s="5"/>
       <c r="F547" s="5"/>
     </row>
-    <row r="548" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="548" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C548" s="5"/>
       <c r="D548" s="9"/>
       <c r="E548" s="5"/>
       <c r="F548" s="5"/>
     </row>
-    <row r="549" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="549" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C549" s="5"/>
       <c r="D549" s="9"/>
       <c r="E549" s="5"/>
       <c r="F549" s="5"/>
     </row>
-    <row r="550" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="550" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C550" s="5"/>
       <c r="D550" s="9"/>
       <c r="E550" s="5"/>
       <c r="F550" s="5"/>
     </row>
-    <row r="551" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="551" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C551" s="5"/>
       <c r="D551" s="9"/>
       <c r="E551" s="5"/>
       <c r="F551" s="5"/>
     </row>
-    <row r="552" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="552" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C552" s="5"/>
       <c r="D552" s="9"/>
       <c r="E552" s="5"/>
       <c r="F552" s="5"/>
     </row>
-    <row r="553" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="553" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C553" s="5"/>
       <c r="D553" s="9"/>
       <c r="E553" s="5"/>
       <c r="F553" s="5"/>
     </row>
-    <row r="554" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="554" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C554" s="5"/>
       <c r="D554" s="9"/>
       <c r="E554" s="5"/>
       <c r="F554" s="5"/>
     </row>
-    <row r="555" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="555" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C555" s="5"/>
       <c r="D555" s="9"/>
       <c r="E555" s="5"/>
       <c r="F555" s="5"/>
     </row>
-    <row r="556" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="556" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C556" s="5"/>
       <c r="D556" s="9"/>
       <c r="E556" s="5"/>
       <c r="F556" s="5"/>
     </row>
-    <row r="557" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="557" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C557" s="5"/>
       <c r="D557" s="9"/>
       <c r="E557" s="5"/>
       <c r="F557" s="5"/>
     </row>
-    <row r="558" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="558" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C558" s="5"/>
       <c r="D558" s="9"/>
       <c r="E558" s="5"/>
       <c r="F558" s="5"/>
     </row>
-    <row r="559" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="559" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C559" s="5"/>
       <c r="D559" s="9"/>
       <c r="E559" s="5"/>
       <c r="F559" s="5"/>
     </row>
-    <row r="560" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="560" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C560" s="5"/>
       <c r="D560" s="9"/>
       <c r="E560" s="5"/>
       <c r="F560" s="5"/>
     </row>
-    <row r="561" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="561" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C561" s="5"/>
       <c r="D561" s="9"/>
       <c r="E561" s="5"/>
       <c r="F561" s="5"/>
     </row>
-    <row r="562" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="562" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C562" s="5"/>
       <c r="D562" s="9"/>
       <c r="E562" s="5"/>
       <c r="F562" s="5"/>
     </row>
-    <row r="563" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="563" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C563" s="5"/>
       <c r="D563" s="9"/>
       <c r="E563" s="5"/>
       <c r="F563" s="5"/>
     </row>
-    <row r="564" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="564" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C564" s="5"/>
       <c r="D564" s="9"/>
       <c r="E564" s="5"/>
       <c r="F564" s="5"/>
     </row>
-    <row r="565" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="565" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C565" s="5"/>
       <c r="D565" s="9"/>
       <c r="E565" s="5"/>
       <c r="F565" s="5"/>
     </row>
-    <row r="566" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="566" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C566" s="5"/>
       <c r="D566" s="9"/>
       <c r="E566" s="5"/>
       <c r="F566" s="5"/>
     </row>
-    <row r="567" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="567" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C567" s="5"/>
       <c r="D567" s="9"/>
       <c r="E567" s="5"/>
       <c r="F567" s="5"/>
     </row>
-    <row r="568" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="568" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C568" s="5"/>
       <c r="D568" s="9"/>
       <c r="E568" s="5"/>
       <c r="F568" s="5"/>
     </row>
-    <row r="569" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="569" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C569" s="5"/>
       <c r="D569" s="9"/>
       <c r="E569" s="5"/>
       <c r="F569" s="5"/>
     </row>
-    <row r="570" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="570" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C570" s="5"/>
       <c r="D570" s="9"/>
       <c r="E570" s="5"/>
       <c r="F570" s="5"/>
     </row>
-    <row r="571" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="571" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C571" s="5"/>
       <c r="D571" s="9"/>
       <c r="E571" s="5"/>
       <c r="F571" s="5"/>
     </row>
-    <row r="572" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="572" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C572" s="5"/>
       <c r="D572" s="9"/>
       <c r="E572" s="5"/>
       <c r="F572" s="5"/>
     </row>
-    <row r="573" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="573" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C573" s="5"/>
       <c r="D573" s="9"/>
       <c r="E573" s="5"/>
       <c r="F573" s="5"/>
     </row>
-    <row r="574" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="574" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C574" s="5"/>
       <c r="D574" s="9"/>
       <c r="E574" s="5"/>
       <c r="F574" s="5"/>
     </row>
-    <row r="575" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="575" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C575" s="5"/>
       <c r="D575" s="9"/>
       <c r="E575" s="5"/>
       <c r="F575" s="5"/>
     </row>
-    <row r="576" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="576" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C576" s="5"/>
       <c r="D576" s="9"/>
       <c r="E576" s="5"/>
       <c r="F576" s="5"/>
     </row>
-    <row r="577" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="577" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C577" s="5"/>
       <c r="D577" s="9"/>
       <c r="E577" s="5"/>
       <c r="F577" s="5"/>
     </row>
-    <row r="578" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="578" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C578" s="5"/>
       <c r="D578" s="9"/>
       <c r="E578" s="5"/>
       <c r="F578" s="5"/>
     </row>
-    <row r="579" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="579" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C579" s="5"/>
       <c r="D579" s="9"/>
       <c r="E579" s="5"/>
       <c r="F579" s="5"/>
     </row>
-    <row r="580" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="580" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C580" s="5"/>
       <c r="D580" s="9"/>
       <c r="E580" s="5"/>
       <c r="F580" s="5"/>
     </row>
-    <row r="581" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="581" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C581" s="5"/>
       <c r="D581" s="9"/>
       <c r="E581" s="5"/>
       <c r="F581" s="5"/>
     </row>
-    <row r="582" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="582" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C582" s="5"/>
       <c r="D582" s="9"/>
       <c r="E582" s="5"/>
       <c r="F582" s="5"/>
     </row>
-    <row r="583" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="583" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C583" s="5"/>
       <c r="D583" s="9"/>
       <c r="E583" s="5"/>
       <c r="F583" s="5"/>
     </row>
-    <row r="584" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="584" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C584" s="5"/>
       <c r="D584" s="9"/>
       <c r="E584" s="5"/>
       <c r="F584" s="5"/>
     </row>
-    <row r="585" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="585" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C585" s="5"/>
       <c r="D585" s="9"/>
       <c r="E585" s="5"/>
       <c r="F585" s="5"/>
     </row>
-    <row r="586" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="586" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C586" s="5"/>
       <c r="D586" s="9"/>
       <c r="E586" s="5"/>
       <c r="F586" s="5"/>
     </row>
-    <row r="587" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="587" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C587" s="5"/>
       <c r="D587" s="9"/>
       <c r="E587" s="5"/>
       <c r="F587" s="5"/>
     </row>
-    <row r="588" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="588" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C588" s="5"/>
       <c r="D588" s="9"/>
       <c r="E588" s="5"/>
       <c r="F588" s="5"/>
     </row>
-    <row r="589" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="589" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C589" s="5"/>
       <c r="D589" s="9"/>
       <c r="E589" s="5"/>
       <c r="F589" s="5"/>
     </row>
-    <row r="590" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="590" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C590" s="5"/>
       <c r="D590" s="9"/>
       <c r="E590" s="5"/>
       <c r="F590" s="5"/>
     </row>
-    <row r="591" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="591" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C591" s="5"/>
       <c r="D591" s="9"/>
       <c r="E591" s="5"/>
       <c r="F591" s="5"/>
     </row>
-    <row r="592" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="592" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C592" s="5"/>
       <c r="D592" s="9"/>
       <c r="E592" s="5"/>
       <c r="F592" s="5"/>
     </row>
-    <row r="593" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="593" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C593" s="5"/>
       <c r="D593" s="9"/>
       <c r="E593" s="5"/>
       <c r="F593" s="5"/>
     </row>
-    <row r="594" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="594" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C594" s="5"/>
       <c r="D594" s="9"/>
       <c r="E594" s="5"/>
       <c r="F594" s="5"/>
     </row>
-    <row r="595" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="595" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C595" s="5"/>
       <c r="D595" s="9"/>
       <c r="E595" s="5"/>
       <c r="F595" s="5"/>
     </row>
-    <row r="596" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="596" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C596" s="5"/>
       <c r="D596" s="9"/>
       <c r="E596" s="5"/>
       <c r="F596" s="5"/>
     </row>
-    <row r="597" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="597" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C597" s="5"/>
       <c r="D597" s="9"/>
       <c r="E597" s="5"/>
       <c r="F597" s="5"/>
     </row>
-    <row r="598" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="598" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C598" s="5"/>
       <c r="D598" s="9"/>
       <c r="E598" s="5"/>
       <c r="F598" s="5"/>
     </row>
-    <row r="599" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="599" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C599" s="5"/>
       <c r="D599" s="9"/>
       <c r="E599" s="5"/>
       <c r="F599" s="5"/>
     </row>
-    <row r="600" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="600" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C600" s="5"/>
       <c r="D600" s="9"/>
       <c r="E600" s="5"/>
       <c r="F600" s="5"/>
     </row>
-    <row r="601" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="601" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C601" s="5"/>
       <c r="D601" s="9"/>
       <c r="E601" s="5"/>
       <c r="F601" s="5"/>
     </row>
-    <row r="602" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="602" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C602" s="5"/>
       <c r="D602" s="9"/>
       <c r="E602" s="5"/>
       <c r="F602" s="5"/>
     </row>
-    <row r="603" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="603" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C603" s="5"/>
       <c r="D603" s="9"/>
       <c r="E603" s="5"/>
       <c r="F603" s="5"/>
     </row>
-    <row r="604" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="604" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C604" s="5"/>
       <c r="D604" s="9"/>
       <c r="E604" s="5"/>
       <c r="F604" s="5"/>
     </row>
-    <row r="605" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="605" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C605" s="5"/>
       <c r="D605" s="9"/>
       <c r="E605" s="5"/>
       <c r="F605" s="5"/>
     </row>
-    <row r="606" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="606" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C606" s="5"/>
       <c r="D606" s="9"/>
       <c r="E606" s="5"/>
       <c r="F606" s="5"/>
     </row>
-    <row r="607" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="607" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C607" s="5"/>
       <c r="D607" s="9"/>
       <c r="E607" s="5"/>
       <c r="F607" s="5"/>
     </row>
-    <row r="608" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="608" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C608" s="5"/>
       <c r="D608" s="9"/>
       <c r="E608" s="5"/>
       <c r="F608" s="5"/>
     </row>
-    <row r="609" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="609" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C609" s="5"/>
       <c r="D609" s="9"/>
       <c r="E609" s="5"/>
       <c r="F609" s="5"/>
     </row>
-    <row r="610" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="610" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C610" s="5"/>
       <c r="D610" s="9"/>
       <c r="E610" s="5"/>
       <c r="F610" s="5"/>
     </row>
-    <row r="611" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="611" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C611" s="5"/>
       <c r="D611" s="9"/>
       <c r="E611" s="5"/>
       <c r="F611" s="5"/>
     </row>
-    <row r="612" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="612" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C612" s="5"/>
       <c r="D612" s="9"/>
       <c r="E612" s="5"/>
       <c r="F612" s="5"/>
     </row>
-    <row r="613" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="613" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C613" s="5"/>
       <c r="D613" s="9"/>
       <c r="E613" s="5"/>
       <c r="F613" s="5"/>
     </row>
-    <row r="614" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="614" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C614" s="5"/>
       <c r="D614" s="9"/>
       <c r="E614" s="5"/>
       <c r="F614" s="5"/>
     </row>
-    <row r="615" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="615" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C615" s="5"/>
       <c r="D615" s="9"/>
       <c r="E615" s="5"/>
       <c r="F615" s="5"/>
     </row>
-    <row r="616" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="616" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C616" s="5"/>
       <c r="D616" s="9"/>
       <c r="E616" s="5"/>
       <c r="F616" s="5"/>
     </row>
-    <row r="617" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="617" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C617" s="5"/>
       <c r="D617" s="9"/>
       <c r="E617" s="5"/>
       <c r="F617" s="5"/>
     </row>
-    <row r="618" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="618" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C618" s="5"/>
       <c r="D618" s="9"/>
       <c r="E618" s="5"/>
       <c r="F618" s="5"/>
     </row>
-    <row r="619" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="619" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C619" s="5"/>
       <c r="D619" s="9"/>
       <c r="E619" s="5"/>
       <c r="F619" s="5"/>
     </row>
-    <row r="620" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="620" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C620" s="5"/>
       <c r="D620" s="9"/>
       <c r="E620" s="5"/>
       <c r="F620" s="5"/>
     </row>
-    <row r="621" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="621" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C621" s="5"/>
       <c r="D621" s="9"/>
       <c r="E621" s="5"/>
       <c r="F621" s="5"/>
     </row>
-    <row r="622" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="622" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C622" s="5"/>
       <c r="D622" s="9"/>
       <c r="E622" s="5"/>
       <c r="F622" s="5"/>
     </row>
-    <row r="623" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="623" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C623" s="5"/>
       <c r="D623" s="9"/>
       <c r="E623" s="5"/>
       <c r="F623" s="5"/>
     </row>
-    <row r="624" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="624" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C624" s="5"/>
       <c r="D624" s="9"/>
       <c r="E624" s="5"/>
       <c r="F624" s="5"/>
     </row>
-    <row r="625" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="625" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C625" s="5"/>
       <c r="D625" s="9"/>
       <c r="E625" s="5"/>
       <c r="F625" s="5"/>
     </row>
-    <row r="626" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="626" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C626" s="5"/>
       <c r="D626" s="9"/>
       <c r="E626" s="5"/>
       <c r="F626" s="5"/>
     </row>
-    <row r="627" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="627" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C627" s="5"/>
       <c r="D627" s="9"/>
       <c r="E627" s="5"/>
       <c r="F627" s="5"/>
     </row>
-    <row r="628" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="628" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C628" s="5"/>
       <c r="D628" s="9"/>
       <c r="E628" s="5"/>
       <c r="F628" s="5"/>
     </row>
-    <row r="629" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="629" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C629" s="5"/>
       <c r="D629" s="9"/>
       <c r="E629" s="5"/>
       <c r="F629" s="5"/>
     </row>
-    <row r="630" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="630" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C630" s="5"/>
       <c r="D630" s="9"/>
       <c r="E630" s="5"/>
       <c r="F630" s="5"/>
     </row>
-    <row r="631" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="631" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C631" s="5"/>
       <c r="D631" s="9"/>
       <c r="E631" s="5"/>
       <c r="F631" s="5"/>
     </row>
-    <row r="632" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="632" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C632" s="5"/>
       <c r="D632" s="9"/>
       <c r="E632" s="5"/>
       <c r="F632" s="5"/>
     </row>
-    <row r="633" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="633" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C633" s="5"/>
       <c r="D633" s="9"/>
       <c r="E633" s="5"/>
       <c r="F633" s="5"/>
     </row>
-    <row r="634" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="634" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C634" s="5"/>
       <c r="D634" s="9"/>
       <c r="E634" s="5"/>
       <c r="F634" s="5"/>
     </row>
-    <row r="635" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="635" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C635" s="5"/>
       <c r="D635" s="9"/>
       <c r="E635" s="5"/>
       <c r="F635" s="5"/>
     </row>
-    <row r="636" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="636" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C636" s="5"/>
       <c r="D636" s="9"/>
       <c r="E636" s="5"/>
       <c r="F636" s="5"/>
     </row>
-    <row r="637" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="637" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C637" s="5"/>
       <c r="D637" s="9"/>
       <c r="E637" s="5"/>
       <c r="F637" s="5"/>
     </row>
-    <row r="638" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="638" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C638" s="5"/>
       <c r="D638" s="9"/>
       <c r="E638" s="5"/>
       <c r="F638" s="5"/>
     </row>
-    <row r="639" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="639" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C639" s="5"/>
       <c r="D639" s="9"/>
       <c r="E639" s="5"/>
       <c r="F639" s="5"/>
     </row>
-    <row r="640" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="640" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C640" s="5"/>
       <c r="D640" s="9"/>
       <c r="E640" s="5"/>
       <c r="F640" s="5"/>
     </row>
-    <row r="641" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="641" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C641" s="5"/>
       <c r="D641" s="9"/>
       <c r="E641" s="5"/>
       <c r="F641" s="5"/>
     </row>
-    <row r="642" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="642" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C642" s="5"/>
       <c r="D642" s="9"/>
       <c r="E642" s="5"/>
       <c r="F642" s="5"/>
     </row>
-    <row r="643" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="643" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C643" s="5"/>
       <c r="D643" s="9"/>
       <c r="E643" s="5"/>
       <c r="F643" s="5"/>
     </row>
-    <row r="644" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="644" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C644" s="5"/>
       <c r="D644" s="9"/>
       <c r="E644" s="5"/>
       <c r="F644" s="5"/>
     </row>
-    <row r="645" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="645" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C645" s="5"/>
       <c r="D645" s="9"/>
       <c r="E645" s="5"/>
       <c r="F645" s="5"/>
     </row>
-    <row r="646" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="646" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C646" s="5"/>
       <c r="D646" s="9"/>
       <c r="E646" s="5"/>
       <c r="F646" s="5"/>
     </row>
-    <row r="647" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="647" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C647" s="5"/>
       <c r="D647" s="9"/>
       <c r="E647" s="5"/>
       <c r="F647" s="5"/>
     </row>
-    <row r="648" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="648" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C648" s="5"/>
       <c r="D648" s="9"/>
       <c r="E648" s="5"/>
       <c r="F648" s="5"/>
     </row>
-    <row r="649" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="649" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C649" s="5"/>
       <c r="D649" s="9"/>
       <c r="E649" s="5"/>
       <c r="F649" s="5"/>
     </row>
-    <row r="650" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="650" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C650" s="5"/>
       <c r="D650" s="9"/>
       <c r="E650" s="5"/>
       <c r="F650" s="5"/>
     </row>
-    <row r="651" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="651" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C651" s="5"/>
       <c r="D651" s="9"/>
       <c r="E651" s="5"/>
       <c r="F651" s="5"/>
     </row>
-    <row r="652" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="652" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C652" s="5"/>
       <c r="D652" s="9"/>
       <c r="E652" s="5"/>
       <c r="F652" s="5"/>
     </row>
-    <row r="653" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="653" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C653" s="5"/>
       <c r="D653" s="9"/>
       <c r="E653" s="5"/>
       <c r="F653" s="5"/>
     </row>
-    <row r="654" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="654" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C654" s="5"/>
       <c r="D654" s="9"/>
       <c r="E654" s="5"/>
       <c r="F654" s="5"/>
     </row>
-    <row r="655" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="655" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C655" s="5"/>
       <c r="D655" s="9"/>
       <c r="E655" s="5"/>
       <c r="F655" s="5"/>
     </row>
-    <row r="656" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="656" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C656" s="5"/>
       <c r="D656" s="9"/>
       <c r="E656" s="5"/>
       <c r="F656" s="5"/>
     </row>
-    <row r="657" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="657" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C657" s="5"/>
       <c r="D657" s="9"/>
       <c r="E657" s="5"/>
       <c r="F657" s="5"/>
     </row>
-    <row r="658" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="658" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C658" s="5"/>
       <c r="D658" s="9"/>
       <c r="E658" s="5"/>
       <c r="F658" s="5"/>
     </row>
-    <row r="659" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="659" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C659" s="5"/>
       <c r="D659" s="9"/>
       <c r="E659" s="5"/>
       <c r="F659" s="5"/>
     </row>
-    <row r="660" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="660" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C660" s="5"/>
       <c r="D660" s="9"/>
       <c r="E660" s="5"/>
       <c r="F660" s="5"/>
     </row>
-    <row r="661" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="661" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C661" s="5"/>
       <c r="D661" s="9"/>
       <c r="E661" s="5"/>
       <c r="F661" s="5"/>
     </row>
-    <row r="662" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="662" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C662" s="5"/>
       <c r="D662" s="9"/>
       <c r="E662" s="5"/>
       <c r="F662" s="5"/>
     </row>
-    <row r="663" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="663" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C663" s="5"/>
       <c r="D663" s="9"/>
       <c r="E663" s="5"/>
       <c r="F663" s="5"/>
     </row>
-    <row r="664" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="664" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C664" s="5"/>
       <c r="D664" s="9"/>
       <c r="E664" s="5"/>
       <c r="F664" s="5"/>
     </row>
-    <row r="665" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="665" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C665" s="5"/>
       <c r="D665" s="9"/>
       <c r="E665" s="5"/>
       <c r="F665" s="5"/>
     </row>
-    <row r="666" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="666" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C666" s="5"/>
       <c r="D666" s="9"/>
       <c r="E666" s="5"/>
       <c r="F666" s="5"/>
     </row>
-    <row r="667" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="667" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C667" s="5"/>
       <c r="D667" s="9"/>
       <c r="E667" s="5"/>
       <c r="F667" s="5"/>
     </row>
-    <row r="668" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="668" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C668" s="5"/>
       <c r="D668" s="9"/>
       <c r="E668" s="5"/>
       <c r="F668" s="5"/>
     </row>
-    <row r="669" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="669" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C669" s="5"/>
       <c r="D669" s="9"/>
       <c r="E669" s="5"/>
       <c r="F669" s="5"/>
     </row>
-    <row r="670" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="670" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C670" s="5"/>
       <c r="D670" s="9"/>
       <c r="E670" s="5"/>
       <c r="F670" s="5"/>
     </row>
-    <row r="671" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="671" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C671" s="5"/>
       <c r="D671" s="9"/>
       <c r="E671" s="5"/>
       <c r="F671" s="5"/>
     </row>
-    <row r="672" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="672" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C672" s="5"/>
       <c r="D672" s="9"/>
       <c r="E672" s="5"/>
       <c r="F672" s="5"/>
     </row>
-    <row r="673" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="673" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C673" s="5"/>
       <c r="D673" s="9"/>
       <c r="E673" s="5"/>
       <c r="F673" s="5"/>
     </row>
-    <row r="674" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="674" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C674" s="5"/>
       <c r="D674" s="9"/>
       <c r="E674" s="5"/>
       <c r="F674" s="5"/>
     </row>
-    <row r="675" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="675" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C675" s="5"/>
       <c r="D675" s="9"/>
       <c r="E675" s="5"/>
       <c r="F675" s="5"/>
     </row>
-    <row r="676" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="676" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C676" s="5"/>
       <c r="D676" s="9"/>
       <c r="E676" s="5"/>
       <c r="F676" s="5"/>
     </row>
-    <row r="677" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="677" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C677" s="5"/>
       <c r="D677" s="9"/>
       <c r="E677" s="5"/>
       <c r="F677" s="5"/>
     </row>
-    <row r="678" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="678" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C678" s="5"/>
       <c r="D678" s="9"/>
       <c r="E678" s="5"/>
       <c r="F678" s="5"/>
     </row>
-    <row r="679" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="679" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C679" s="5"/>
       <c r="D679" s="9"/>
       <c r="E679" s="5"/>
       <c r="F679" s="5"/>
     </row>
-    <row r="680" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="680" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C680" s="5"/>
       <c r="D680" s="9"/>
       <c r="E680" s="5"/>
       <c r="F680" s="5"/>
     </row>
-    <row r="681" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="681" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C681" s="5"/>
       <c r="D681" s="9"/>
       <c r="E681" s="5"/>
       <c r="F681" s="5"/>
     </row>
-    <row r="682" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="682" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C682" s="5"/>
       <c r="D682" s="9"/>
       <c r="E682" s="5"/>
       <c r="F682" s="5"/>
     </row>
-    <row r="683" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="683" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C683" s="5"/>
       <c r="D683" s="9"/>
       <c r="E683" s="5"/>
       <c r="F683" s="5"/>
     </row>
-    <row r="684" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="684" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C684" s="5"/>
       <c r="D684" s="9"/>
       <c r="E684" s="5"/>
       <c r="F684" s="5"/>
     </row>
-    <row r="685" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="685" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C685" s="5"/>
       <c r="D685" s="9"/>
       <c r="E685" s="5"/>
       <c r="F685" s="5"/>
     </row>
-    <row r="686" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="686" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C686" s="5"/>
       <c r="D686" s="9"/>
       <c r="E686" s="5"/>
       <c r="F686" s="5"/>
     </row>
-    <row r="687" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="687" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C687" s="5"/>
       <c r="D687" s="9"/>
       <c r="E687" s="5"/>
       <c r="F687" s="5"/>
     </row>
-    <row r="688" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="688" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C688" s="5"/>
       <c r="D688" s="9"/>
       <c r="E688" s="5"/>
       <c r="F688" s="5"/>
     </row>
-    <row r="689" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="689" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C689" s="5"/>
       <c r="D689" s="9"/>
       <c r="E689" s="5"/>
       <c r="F689" s="5"/>
     </row>
-    <row r="690" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="690" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C690" s="5"/>
       <c r="D690" s="9"/>
       <c r="E690" s="5"/>
       <c r="F690" s="5"/>
     </row>
-    <row r="691" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="691" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C691" s="5"/>
       <c r="D691" s="9"/>
       <c r="E691" s="5"/>
       <c r="F691" s="5"/>
     </row>
-    <row r="692" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="692" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C692" s="5"/>
       <c r="D692" s="9"/>
       <c r="E692" s="5"/>
       <c r="F692" s="5"/>
     </row>
-    <row r="693" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="693" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C693" s="5"/>
       <c r="D693" s="9"/>
       <c r="E693" s="5"/>
       <c r="F693" s="5"/>
     </row>
-    <row r="694" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="694" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C694" s="5"/>
       <c r="D694" s="9"/>
       <c r="E694" s="5"/>
       <c r="F694" s="5"/>
     </row>
-    <row r="695" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="695" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C695" s="5"/>
       <c r="D695" s="9"/>
       <c r="E695" s="5"/>
       <c r="F695" s="5"/>
     </row>
-    <row r="696" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="696" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C696" s="5"/>
       <c r="D696" s="9"/>
       <c r="E696" s="5"/>
       <c r="F696" s="5"/>
     </row>
-    <row r="697" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="697" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C697" s="5"/>
       <c r="D697" s="9"/>
       <c r="E697" s="5"/>
       <c r="F697" s="5"/>
     </row>
-    <row r="698" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="698" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C698" s="5"/>
       <c r="D698" s="9"/>
       <c r="E698" s="5"/>
       <c r="F698" s="5"/>
     </row>
-    <row r="699" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="699" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C699" s="5"/>
       <c r="D699" s="9"/>
       <c r="E699" s="5"/>
       <c r="F699" s="5"/>
     </row>
-    <row r="700" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="700" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C700" s="5"/>
       <c r="D700" s="9"/>
       <c r="E700" s="5"/>
       <c r="F700" s="5"/>
     </row>
-    <row r="701" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="701" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C701" s="5"/>
       <c r="D701" s="9"/>
       <c r="E701" s="5"/>
       <c r="F701" s="5"/>
     </row>
-    <row r="702" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="702" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C702" s="5"/>
       <c r="D702" s="9"/>
       <c r="E702" s="5"/>
       <c r="F702" s="5"/>
     </row>
-    <row r="703" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="703" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C703" s="5"/>
       <c r="D703" s="9"/>
       <c r="E703" s="5"/>
       <c r="F703" s="5"/>
     </row>
-    <row r="704" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="704" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C704" s="5"/>
       <c r="D704" s="9"/>
       <c r="E704" s="5"/>
       <c r="F704" s="5"/>
     </row>
-    <row r="705" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="705" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C705" s="5"/>
       <c r="D705" s="9"/>
       <c r="E705" s="5"/>
       <c r="F705" s="5"/>
     </row>
-    <row r="706" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="706" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C706" s="5"/>
       <c r="D706" s="9"/>
       <c r="E706" s="5"/>
       <c r="F706" s="5"/>
     </row>
-    <row r="707" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="707" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C707" s="5"/>
       <c r="D707" s="9"/>
       <c r="E707" s="5"/>
       <c r="F707" s="5"/>
     </row>
-    <row r="708" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="708" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C708" s="5"/>
       <c r="D708" s="9"/>
       <c r="E708" s="5"/>
       <c r="F708" s="5"/>
     </row>
-    <row r="709" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="709" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C709" s="5"/>
       <c r="D709" s="9"/>
       <c r="E709" s="5"/>
       <c r="F709" s="5"/>
     </row>
-    <row r="710" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="710" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C710" s="5"/>
       <c r="D710" s="9"/>
       <c r="E710" s="5"/>
       <c r="F710" s="5"/>
     </row>
-    <row r="711" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="711" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C711" s="5"/>
       <c r="D711" s="9"/>
       <c r="E711" s="5"/>
       <c r="F711" s="5"/>
     </row>
-    <row r="712" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="712" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C712" s="5"/>
       <c r="D712" s="9"/>
       <c r="E712" s="5"/>
       <c r="F712" s="5"/>
     </row>
-    <row r="713" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="713" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C713" s="5"/>
       <c r="D713" s="9"/>
       <c r="E713" s="5"/>
       <c r="F713" s="5"/>
     </row>
-    <row r="714" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="714" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C714" s="5"/>
       <c r="D714" s="9"/>
       <c r="E714" s="5"/>
       <c r="F714" s="5"/>
     </row>
-    <row r="715" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="715" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C715" s="5"/>
       <c r="D715" s="9"/>
       <c r="E715" s="5"/>
       <c r="F715" s="5"/>
     </row>
-    <row r="716" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="716" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C716" s="5"/>
       <c r="D716" s="9"/>
       <c r="E716" s="5"/>
       <c r="F716" s="5"/>
     </row>
-    <row r="717" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="717" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C717" s="5"/>
       <c r="D717" s="9"/>
       <c r="E717" s="5"/>
       <c r="F717" s="5"/>
     </row>
-    <row r="718" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="718" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C718" s="5"/>
       <c r="D718" s="9"/>
       <c r="E718" s="5"/>
       <c r="F718" s="5"/>
     </row>
-    <row r="719" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="719" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C719" s="5"/>
       <c r="D719" s="9"/>
       <c r="E719" s="5"/>
       <c r="F719" s="5"/>
     </row>
-    <row r="720" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="720" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C720" s="5"/>
       <c r="D720" s="9"/>
       <c r="E720" s="5"/>
       <c r="F720" s="5"/>
     </row>
-    <row r="721" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="721" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C721" s="5"/>
       <c r="D721" s="9"/>
       <c r="E721" s="5"/>
       <c r="F721" s="5"/>
     </row>
-    <row r="722" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="722" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C722" s="5"/>
       <c r="D722" s="9"/>
       <c r="E722" s="5"/>
       <c r="F722" s="5"/>
     </row>
-    <row r="723" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="723" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C723" s="5"/>
       <c r="D723" s="9"/>
       <c r="E723" s="5"/>
       <c r="F723" s="5"/>
     </row>
-    <row r="724" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="724" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C724" s="5"/>
       <c r="D724" s="9"/>
       <c r="E724" s="5"/>
       <c r="F724" s="5"/>
     </row>
-    <row r="725" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="725" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C725" s="5"/>
       <c r="D725" s="9"/>
       <c r="E725" s="5"/>
       <c r="F725" s="5"/>
     </row>
-    <row r="726" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="726" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C726" s="5"/>
       <c r="D726" s="9"/>
       <c r="E726" s="5"/>
       <c r="F726" s="5"/>
     </row>
-    <row r="727" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="727" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C727" s="5"/>
       <c r="D727" s="9"/>
       <c r="E727" s="5"/>
       <c r="F727" s="5"/>
     </row>
-    <row r="728" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="728" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C728" s="5"/>
       <c r="D728" s="9"/>
       <c r="E728" s="5"/>
       <c r="F728" s="5"/>
     </row>
-    <row r="729" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="729" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C729" s="5"/>
       <c r="D729" s="9"/>
       <c r="E729" s="5"/>
       <c r="F729" s="5"/>
     </row>
-    <row r="730" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="730" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C730" s="5"/>
       <c r="D730" s="9"/>
       <c r="E730" s="5"/>
       <c r="F730" s="5"/>
     </row>
-    <row r="731" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="731" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C731" s="5"/>
       <c r="D731" s="9"/>
       <c r="E731" s="5"/>
       <c r="F731" s="5"/>
     </row>
-    <row r="732" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="732" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C732" s="5"/>
       <c r="D732" s="9"/>
       <c r="E732" s="5"/>
       <c r="F732" s="5"/>
     </row>
-    <row r="733" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="733" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C733" s="5"/>
       <c r="D733" s="9"/>
       <c r="E733" s="5"/>
       <c r="F733" s="5"/>
     </row>
-    <row r="734" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="734" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C734" s="5"/>
       <c r="D734" s="9"/>
       <c r="E734" s="5"/>
       <c r="F734" s="5"/>
     </row>
-    <row r="735" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="735" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C735" s="5"/>
       <c r="D735" s="9"/>
       <c r="E735" s="5"/>
       <c r="F735" s="5"/>
     </row>
-    <row r="736" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="736" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C736" s="5"/>
       <c r="D736" s="9"/>
       <c r="E736" s="5"/>
       <c r="F736" s="5"/>
     </row>
-    <row r="737" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="737" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C737" s="5"/>
       <c r="D737" s="9"/>
       <c r="E737" s="5"/>
       <c r="F737" s="5"/>
     </row>
-    <row r="738" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="738" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C738" s="5"/>
       <c r="D738" s="9"/>
       <c r="E738" s="5"/>
       <c r="F738" s="5"/>
     </row>
-    <row r="739" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="739" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C739" s="5"/>
       <c r="D739" s="9"/>
       <c r="E739" s="5"/>
       <c r="F739" s="5"/>
     </row>
-    <row r="740" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="740" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C740" s="5"/>
       <c r="D740" s="9"/>
       <c r="E740" s="5"/>
       <c r="F740" s="5"/>
     </row>
-    <row r="741" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="741" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C741" s="5"/>
       <c r="D741" s="9"/>
       <c r="E741" s="5"/>
       <c r="F741" s="5"/>
     </row>
-    <row r="742" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="742" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C742" s="5"/>
       <c r="D742" s="9"/>
       <c r="E742" s="5"/>
       <c r="F742" s="5"/>
     </row>
-    <row r="743" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="743" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C743" s="5"/>
       <c r="D743" s="9"/>
       <c r="E743" s="5"/>
       <c r="F743" s="5"/>
     </row>
-    <row r="744" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="744" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C744" s="5"/>
       <c r="D744" s="9"/>
       <c r="E744" s="5"/>
       <c r="F744" s="5"/>
     </row>
-    <row r="745" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="745" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C745" s="5"/>
       <c r="D745" s="9"/>
       <c r="E745" s="5"/>
       <c r="F745" s="5"/>
     </row>
-    <row r="746" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="746" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C746" s="5"/>
       <c r="D746" s="9"/>
       <c r="E746" s="5"/>
       <c r="F746" s="5"/>
     </row>
-    <row r="747" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="747" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C747" s="5"/>
       <c r="D747" s="9"/>
       <c r="E747" s="5"/>
       <c r="F747" s="5"/>
     </row>
-    <row r="748" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="748" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C748" s="5"/>
       <c r="D748" s="9"/>
       <c r="E748" s="5"/>
       <c r="F748" s="5"/>
     </row>
-    <row r="749" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="749" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C749" s="5"/>
       <c r="D749" s="9"/>
       <c r="E749" s="5"/>
       <c r="F749" s="5"/>
     </row>
-    <row r="750" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="750" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C750" s="5"/>
       <c r="D750" s="9"/>
       <c r="E750" s="5"/>
       <c r="F750" s="5"/>
     </row>
-    <row r="751" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="751" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C751" s="5"/>
       <c r="D751" s="9"/>
       <c r="E751" s="5"/>
       <c r="F751" s="5"/>
     </row>
-    <row r="752" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="752" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C752" s="5"/>
       <c r="D752" s="9"/>
       <c r="E752" s="5"/>
       <c r="F752" s="5"/>
     </row>
-    <row r="753" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="753" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C753" s="5"/>
       <c r="D753" s="9"/>
       <c r="E753" s="5"/>
       <c r="F753" s="5"/>
     </row>
-    <row r="754" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="754" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C754" s="5"/>
       <c r="D754" s="9"/>
       <c r="E754" s="5"/>
       <c r="F754" s="5"/>
     </row>
-    <row r="755" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="755" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C755" s="5"/>
       <c r="D755" s="9"/>
       <c r="E755" s="5"/>
       <c r="F755" s="5"/>
     </row>
-    <row r="756" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="756" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C756" s="5"/>
       <c r="D756" s="9"/>
       <c r="E756" s="5"/>
       <c r="F756" s="5"/>
     </row>
-    <row r="757" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="757" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C757" s="5"/>
       <c r="D757" s="9"/>
       <c r="E757" s="5"/>
       <c r="F757" s="5"/>
     </row>
-    <row r="758" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="758" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C758" s="5"/>
       <c r="D758" s="9"/>
       <c r="E758" s="5"/>
       <c r="F758" s="5"/>
     </row>
-    <row r="759" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="759" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C759" s="5"/>
       <c r="D759" s="9"/>
       <c r="E759" s="5"/>
       <c r="F759" s="5"/>
     </row>
-    <row r="760" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="760" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C760" s="5"/>
       <c r="D760" s="9"/>
       <c r="E760" s="5"/>
       <c r="F760" s="5"/>
     </row>
-    <row r="761" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="761" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C761" s="5"/>
       <c r="D761" s="9"/>
       <c r="E761" s="5"/>
       <c r="F761" s="5"/>
     </row>
-    <row r="762" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="762" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C762" s="5"/>
       <c r="D762" s="9"/>
       <c r="E762" s="5"/>
       <c r="F762" s="5"/>
     </row>
-    <row r="763" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="763" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C763" s="5"/>
       <c r="D763" s="9"/>
       <c r="E763" s="5"/>
       <c r="F763" s="5"/>
     </row>
-    <row r="764" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="764" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C764" s="5"/>
       <c r="D764" s="9"/>
       <c r="E764" s="5"/>
       <c r="F764" s="5"/>
     </row>
-    <row r="765" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="765" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C765" s="5"/>
       <c r="D765" s="9"/>
       <c r="E765" s="5"/>
       <c r="F765" s="5"/>
     </row>
-    <row r="766" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="766" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C766" s="5"/>
       <c r="D766" s="9"/>
       <c r="E766" s="5"/>
       <c r="F766" s="5"/>
     </row>
-    <row r="767" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="767" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C767" s="5"/>
       <c r="D767" s="9"/>
       <c r="E767" s="5"/>
       <c r="F767" s="5"/>
     </row>
-    <row r="768" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="768" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C768" s="5"/>
       <c r="D768" s="9"/>
       <c r="E768" s="5"/>
       <c r="F768" s="5"/>
     </row>
-    <row r="769" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="769" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C769" s="5"/>
       <c r="D769" s="9"/>
       <c r="E769" s="5"/>
       <c r="F769" s="5"/>
     </row>
-    <row r="770" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="770" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C770" s="5"/>
       <c r="D770" s="9"/>
       <c r="E770" s="5"/>
       <c r="F770" s="5"/>
     </row>
-    <row r="771" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="771" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C771" s="5"/>
       <c r="D771" s="9"/>
       <c r="E771" s="5"/>
       <c r="F771" s="5"/>
     </row>
-    <row r="772" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="772" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C772" s="5"/>
       <c r="D772" s="9"/>
       <c r="E772" s="5"/>
       <c r="F772" s="5"/>
     </row>
-    <row r="773" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="773" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C773" s="5"/>
       <c r="D773" s="9"/>
       <c r="E773" s="5"/>
       <c r="F773" s="5"/>
     </row>
-    <row r="774" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="774" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C774" s="5"/>
       <c r="D774" s="9"/>
       <c r="E774" s="5"/>
       <c r="F774" s="5"/>
     </row>
-    <row r="775" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="775" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C775" s="5"/>
       <c r="D775" s="9"/>
       <c r="E775" s="5"/>
       <c r="F775" s="5"/>
     </row>
-    <row r="776" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="776" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C776" s="5"/>
       <c r="D776" s="9"/>
       <c r="E776" s="5"/>
       <c r="F776" s="5"/>
     </row>
-    <row r="777" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="777" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C777" s="5"/>
       <c r="D777" s="9"/>
       <c r="E777" s="5"/>
       <c r="F777" s="5"/>
     </row>
-    <row r="778" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="778" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C778" s="5"/>
       <c r="D778" s="9"/>
       <c r="E778" s="5"/>
       <c r="F778" s="5"/>
     </row>
-    <row r="779" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="779" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C779" s="5"/>
       <c r="D779" s="9"/>
       <c r="E779" s="5"/>
       <c r="F779" s="5"/>
     </row>
-    <row r="780" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="780" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C780" s="5"/>
       <c r="D780" s="9"/>
       <c r="E780" s="5"/>
       <c r="F780" s="5"/>
     </row>
-    <row r="781" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="781" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C781" s="5"/>
       <c r="D781" s="9"/>
       <c r="E781" s="5"/>
       <c r="F781" s="5"/>
     </row>
-    <row r="782" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="782" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C782" s="5"/>
       <c r="D782" s="9"/>
       <c r="E782" s="5"/>
       <c r="F782" s="5"/>
     </row>
-    <row r="783" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="783" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C783" s="5"/>
       <c r="D783" s="9"/>
       <c r="E783" s="5"/>
       <c r="F783" s="5"/>
     </row>
-    <row r="784" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="784" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C784" s="5"/>
       <c r="D784" s="9"/>
       <c r="E784" s="5"/>
       <c r="F784" s="5"/>
     </row>
-    <row r="785" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="785" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C785" s="5"/>
       <c r="D785" s="9"/>
       <c r="E785" s="5"/>
       <c r="F785" s="5"/>
     </row>
-    <row r="786" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="786" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C786" s="5"/>
       <c r="D786" s="9"/>
       <c r="E786" s="5"/>
       <c r="F786" s="5"/>
     </row>
-    <row r="787" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="787" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C787" s="5"/>
       <c r="D787" s="9"/>
       <c r="E787" s="5"/>
       <c r="F787" s="5"/>
     </row>
-    <row r="788" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="788" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C788" s="5"/>
       <c r="D788" s="9"/>
       <c r="E788" s="5"/>
       <c r="F788" s="5"/>
     </row>
-    <row r="789" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="789" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C789" s="5"/>
       <c r="D789" s="9"/>
       <c r="E789" s="5"/>
       <c r="F789" s="5"/>
     </row>
-    <row r="790" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="790" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C790" s="5"/>
       <c r="D790" s="9"/>
       <c r="E790" s="5"/>
       <c r="F790" s="5"/>
     </row>
-    <row r="791" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="791" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C791" s="5"/>
       <c r="D791" s="9"/>
       <c r="E791" s="5"/>
       <c r="F791" s="5"/>
     </row>
-    <row r="792" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="792" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C792" s="5"/>
       <c r="D792" s="9"/>
       <c r="E792" s="5"/>
       <c r="F792" s="5"/>
     </row>
-    <row r="793" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="793" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C793" s="5"/>
       <c r="D793" s="9"/>
       <c r="E793" s="5"/>
       <c r="F793" s="5"/>
     </row>
-    <row r="794" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="794" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C794" s="5"/>
       <c r="D794" s="9"/>
       <c r="E794" s="5"/>
       <c r="F794" s="5"/>
     </row>
-    <row r="795" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="795" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C795" s="5"/>
       <c r="D795" s="9"/>
       <c r="E795" s="5"/>
       <c r="F795" s="5"/>
     </row>
-    <row r="796" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="796" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C796" s="5"/>
       <c r="D796" s="9"/>
       <c r="E796" s="5"/>
       <c r="F796" s="5"/>
     </row>
-    <row r="797" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="797" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C797" s="5"/>
       <c r="D797" s="9"/>
       <c r="E797" s="5"/>
       <c r="F797" s="5"/>
     </row>
-    <row r="798" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="798" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C798" s="5"/>
       <c r="D798" s="9"/>
       <c r="E798" s="5"/>
       <c r="F798" s="5"/>
     </row>
-    <row r="799" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="799" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C799" s="5"/>
       <c r="D799" s="9"/>
       <c r="E799" s="5"/>
       <c r="F799" s="5"/>
     </row>
-    <row r="800" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="800" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C800" s="5"/>
       <c r="D800" s="9"/>
       <c r="E800" s="5"/>
       <c r="F800" s="5"/>
     </row>
-    <row r="801" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="801" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C801" s="5"/>
       <c r="D801" s="9"/>
       <c r="E801" s="5"/>
       <c r="F801" s="5"/>
     </row>
-    <row r="802" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="802" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C802" s="5"/>
       <c r="D802" s="9"/>
       <c r="E802" s="5"/>
       <c r="F802" s="5"/>
     </row>
-    <row r="803" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="803" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C803" s="5"/>
       <c r="D803" s="9"/>
       <c r="E803" s="5"/>
       <c r="F803" s="5"/>
     </row>
-    <row r="804" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="804" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C804" s="5"/>
       <c r="D804" s="9"/>
       <c r="E804" s="5"/>
       <c r="F804" s="5"/>
     </row>
-    <row r="805" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="805" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C805" s="5"/>
       <c r="D805" s="9"/>
       <c r="E805" s="5"/>
       <c r="F805" s="5"/>
     </row>
-    <row r="806" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="806" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C806" s="5"/>
       <c r="D806" s="9"/>
       <c r="E806" s="5"/>
       <c r="F806" s="5"/>
     </row>
-    <row r="807" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="807" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C807" s="5"/>
       <c r="D807" s="9"/>
       <c r="E807" s="5"/>
       <c r="F807" s="5"/>
     </row>
-    <row r="808" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="808" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C808" s="5"/>
       <c r="D808" s="9"/>
       <c r="E808" s="5"/>
       <c r="F808" s="5"/>
     </row>
-    <row r="809" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="809" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C809" s="5"/>
       <c r="D809" s="9"/>
       <c r="E809" s="5"/>
       <c r="F809" s="5"/>
     </row>
-    <row r="810" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="810" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C810" s="5"/>
       <c r="D810" s="9"/>
       <c r="E810" s="5"/>
       <c r="F810" s="5"/>
     </row>
-    <row r="811" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="811" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C811" s="5"/>
       <c r="D811" s="9"/>
       <c r="E811" s="5"/>
       <c r="F811" s="5"/>
     </row>
-    <row r="812" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="812" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C812" s="5"/>
       <c r="D812" s="9"/>
       <c r="E812" s="5"/>
       <c r="F812" s="5"/>
     </row>
-    <row r="813" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="813" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C813" s="5"/>
       <c r="D813" s="9"/>
       <c r="E813" s="5"/>
       <c r="F813" s="5"/>
     </row>
-    <row r="814" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="814" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C814" s="5"/>
       <c r="D814" s="9"/>
       <c r="E814" s="5"/>
       <c r="F814" s="5"/>
     </row>
-    <row r="815" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="815" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C815" s="5"/>
       <c r="D815" s="9"/>
       <c r="E815" s="5"/>
       <c r="F815" s="5"/>
     </row>
-    <row r="816" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="816" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C816" s="5"/>
       <c r="D816" s="9"/>
       <c r="E816" s="5"/>
       <c r="F816" s="5"/>
     </row>
-    <row r="817" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="817" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C817" s="5"/>
       <c r="D817" s="9"/>
       <c r="E817" s="5"/>
       <c r="F817" s="5"/>
     </row>
-    <row r="818" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="818" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C818" s="5"/>
       <c r="D818" s="9"/>
       <c r="E818" s="5"/>
       <c r="F818" s="5"/>
     </row>
-    <row r="819" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="819" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C819" s="5"/>
       <c r="D819" s="9"/>
       <c r="E819" s="5"/>
       <c r="F819" s="5"/>
     </row>
-    <row r="820" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="820" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C820" s="5"/>
       <c r="D820" s="9"/>
       <c r="E820" s="5"/>
       <c r="F820" s="5"/>
     </row>
-    <row r="821" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="821" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C821" s="5"/>
       <c r="D821" s="9"/>
       <c r="E821" s="5"/>
       <c r="F821" s="5"/>
     </row>
-    <row r="822" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="822" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C822" s="5"/>
       <c r="D822" s="9"/>
       <c r="E822" s="5"/>
       <c r="F822" s="5"/>
     </row>
-    <row r="823" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="823" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C823" s="5"/>
       <c r="D823" s="9"/>
       <c r="E823" s="5"/>
       <c r="F823" s="5"/>
     </row>
-    <row r="824" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="824" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C824" s="5"/>
       <c r="D824" s="9"/>
       <c r="E824" s="5"/>
       <c r="F824" s="5"/>
     </row>
-    <row r="825" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="825" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C825" s="5"/>
       <c r="D825" s="9"/>
       <c r="E825" s="5"/>
       <c r="F825" s="5"/>
     </row>
-    <row r="826" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="826" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C826" s="5"/>
       <c r="D826" s="9"/>
       <c r="E826" s="5"/>
       <c r="F826" s="5"/>
     </row>
-    <row r="827" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="827" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C827" s="5"/>
       <c r="D827" s="9"/>
       <c r="E827" s="5"/>
       <c r="F827" s="5"/>
     </row>
-    <row r="828" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="828" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C828" s="5"/>
       <c r="D828" s="9"/>
       <c r="E828" s="5"/>
       <c r="F828" s="5"/>
     </row>
-    <row r="829" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="829" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C829" s="5"/>
       <c r="D829" s="9"/>
       <c r="E829" s="5"/>
       <c r="F829" s="5"/>
     </row>
-    <row r="830" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="830" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C830" s="5"/>
       <c r="D830" s="9"/>
       <c r="E830" s="5"/>
       <c r="F830" s="5"/>
     </row>
-    <row r="831" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="831" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C831" s="5"/>
       <c r="D831" s="9"/>
       <c r="E831" s="5"/>
       <c r="F831" s="5"/>
     </row>
-    <row r="832" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="832" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C832" s="5"/>
       <c r="D832" s="9"/>
       <c r="E832" s="5"/>
       <c r="F832" s="5"/>
     </row>
-    <row r="833" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="833" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C833" s="5"/>
       <c r="D833" s="9"/>
       <c r="E833" s="5"/>
       <c r="F833" s="5"/>
     </row>
-    <row r="834" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="834" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C834" s="5"/>
       <c r="D834" s="9"/>
       <c r="E834" s="5"/>
       <c r="F834" s="5"/>
     </row>
-    <row r="835" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="835" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C835" s="5"/>
       <c r="D835" s="9"/>
       <c r="E835" s="5"/>
       <c r="F835" s="5"/>
     </row>
-    <row r="836" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="836" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C836" s="5"/>
       <c r="D836" s="9"/>
       <c r="E836" s="5"/>
       <c r="F836" s="5"/>
     </row>
-    <row r="837" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="837" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C837" s="5"/>
       <c r="D837" s="9"/>
       <c r="E837" s="5"/>
       <c r="F837" s="5"/>
     </row>
-    <row r="838" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="838" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C838" s="5"/>
       <c r="D838" s="9"/>
       <c r="E838" s="5"/>
       <c r="F838" s="5"/>
     </row>
-    <row r="839" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="839" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C839" s="5"/>
       <c r="D839" s="9"/>
       <c r="E839" s="5"/>
       <c r="F839" s="5"/>
     </row>
-    <row r="840" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="840" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C840" s="5"/>
       <c r="D840" s="9"/>
       <c r="E840" s="5"/>
       <c r="F840" s="5"/>
     </row>
-    <row r="841" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="841" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C841" s="5"/>
       <c r="D841" s="9"/>
       <c r="E841" s="5"/>
       <c r="F841" s="5"/>
     </row>
-    <row r="842" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="842" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C842" s="5"/>
       <c r="D842" s="9"/>
       <c r="E842" s="5"/>
       <c r="F842" s="5"/>
     </row>
-    <row r="843" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="843" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C843" s="5"/>
       <c r="D843" s="9"/>
       <c r="E843" s="5"/>
       <c r="F843" s="5"/>
     </row>
-    <row r="844" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="844" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C844" s="5"/>
       <c r="D844" s="9"/>
       <c r="E844" s="5"/>
       <c r="F844" s="5"/>
     </row>
-    <row r="845" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="845" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C845" s="5"/>
       <c r="D845" s="9"/>
       <c r="E845" s="5"/>
       <c r="F845" s="5"/>
     </row>
-    <row r="846" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="846" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C846" s="5"/>
       <c r="D846" s="9"/>
       <c r="E846" s="5"/>
       <c r="F846" s="5"/>
     </row>
-    <row r="847" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="847" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C847" s="5"/>
       <c r="D847" s="9"/>
       <c r="E847" s="5"/>
       <c r="F847" s="5"/>
     </row>
-    <row r="848" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="848" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C848" s="5"/>
       <c r="D848" s="9"/>
       <c r="E848" s="5"/>
       <c r="F848" s="5"/>
     </row>
-    <row r="849" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="849" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C849" s="5"/>
       <c r="D849" s="9"/>
       <c r="E849" s="5"/>
       <c r="F849" s="5"/>
     </row>
-    <row r="850" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="850" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C850" s="5"/>
       <c r="D850" s="9"/>
       <c r="E850" s="5"/>
       <c r="F850" s="5"/>
     </row>
-    <row r="851" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="851" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C851" s="5"/>
       <c r="D851" s="9"/>
       <c r="E851" s="5"/>
       <c r="F851" s="5"/>
     </row>
-    <row r="852" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="852" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C852" s="5"/>
       <c r="D852" s="9"/>
       <c r="E852" s="5"/>
       <c r="F852" s="5"/>
     </row>
-    <row r="853" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="853" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C853" s="5"/>
       <c r="D853" s="9"/>
       <c r="E853" s="5"/>
       <c r="F853" s="5"/>
     </row>
-    <row r="854" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="854" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C854" s="5"/>
       <c r="D854" s="9"/>
       <c r="E854" s="5"/>
       <c r="F854" s="5"/>
     </row>
-    <row r="855" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="855" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C855" s="5"/>
       <c r="D855" s="9"/>
       <c r="E855" s="5"/>
       <c r="F855" s="5"/>
     </row>
-    <row r="856" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="856" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C856" s="5"/>
       <c r="D856" s="9"/>
       <c r="E856" s="5"/>
       <c r="F856" s="5"/>
     </row>
-    <row r="857" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="857" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C857" s="5"/>
       <c r="D857" s="9"/>
       <c r="E857" s="5"/>
       <c r="F857" s="5"/>
     </row>
-    <row r="858" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="858" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C858" s="5"/>
       <c r="D858" s="9"/>
       <c r="E858" s="5"/>
       <c r="F858" s="5"/>
     </row>
-    <row r="859" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="859" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C859" s="5"/>
       <c r="D859" s="9"/>
       <c r="E859" s="5"/>
       <c r="F859" s="5"/>
     </row>
-    <row r="860" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="860" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C860" s="5"/>
       <c r="D860" s="9"/>
       <c r="E860" s="5"/>
       <c r="F860" s="5"/>
     </row>
-    <row r="861" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="861" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C861" s="5"/>
       <c r="D861" s="9"/>
       <c r="E861" s="5"/>
       <c r="F861" s="5"/>
     </row>
-    <row r="862" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="862" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C862" s="5"/>
       <c r="D862" s="9"/>
       <c r="E862" s="5"/>
       <c r="F862" s="5"/>
     </row>
-    <row r="863" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="863" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C863" s="5"/>
       <c r="D863" s="9"/>
       <c r="E863" s="5"/>
       <c r="F863" s="5"/>
     </row>
-    <row r="864" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="864" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C864" s="5"/>
       <c r="D864" s="9"/>
       <c r="E864" s="5"/>
       <c r="F864" s="5"/>
     </row>
-    <row r="865" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="865" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C865" s="5"/>
       <c r="D865" s="9"/>
       <c r="E865" s="5"/>
       <c r="F865" s="5"/>
     </row>
-    <row r="866" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="866" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C866" s="5"/>
       <c r="D866" s="9"/>
       <c r="E866" s="5"/>
       <c r="F866" s="5"/>
     </row>
-    <row r="867" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="867" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C867" s="5"/>
       <c r="D867" s="9"/>
       <c r="E867" s="5"/>
       <c r="F867" s="5"/>
     </row>
-    <row r="868" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="868" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C868" s="5"/>
       <c r="D868" s="9"/>
       <c r="E868" s="5"/>
       <c r="F868" s="5"/>
     </row>
-    <row r="869" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="869" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C869" s="5"/>
       <c r="D869" s="9"/>
       <c r="E869" s="5"/>
       <c r="F869" s="5"/>
     </row>
-    <row r="870" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="870" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C870" s="5"/>
       <c r="D870" s="9"/>
       <c r="E870" s="5"/>
       <c r="F870" s="5"/>
     </row>
-    <row r="871" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="871" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C871" s="5"/>
       <c r="D871" s="9"/>
       <c r="E871" s="5"/>
       <c r="F871" s="5"/>
     </row>
-    <row r="872" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="872" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C872" s="5"/>
       <c r="D872" s="9"/>
       <c r="E872" s="5"/>
       <c r="F872" s="5"/>
     </row>
-    <row r="873" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="873" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C873" s="5"/>
       <c r="D873" s="9"/>
       <c r="E873" s="5"/>
       <c r="F873" s="5"/>
     </row>
-    <row r="874" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="874" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C874" s="5"/>
       <c r="D874" s="9"/>
       <c r="E874" s="5"/>
       <c r="F874" s="5"/>
     </row>
-    <row r="875" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="875" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C875" s="5"/>
       <c r="D875" s="9"/>
       <c r="E875" s="5"/>
       <c r="F875" s="5"/>
     </row>
-    <row r="876" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="876" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C876" s="5"/>
       <c r="D876" s="9"/>
       <c r="E876" s="5"/>
       <c r="F876" s="5"/>
     </row>
-    <row r="877" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="877" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C877" s="5"/>
       <c r="D877" s="9"/>
       <c r="E877" s="5"/>
       <c r="F877" s="5"/>
     </row>
-    <row r="878" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="878" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C878" s="5"/>
       <c r="D878" s="9"/>
       <c r="E878" s="5"/>
       <c r="F878" s="5"/>
     </row>
-    <row r="879" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="879" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C879" s="5"/>
       <c r="D879" s="9"/>
       <c r="E879" s="5"/>
       <c r="F879" s="5"/>
     </row>
-    <row r="880" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="880" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C880" s="5"/>
       <c r="D880" s="9"/>
       <c r="E880" s="5"/>
       <c r="F880" s="5"/>
     </row>
-    <row r="881" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="881" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C881" s="5"/>
       <c r="D881" s="9"/>
       <c r="E881" s="5"/>
       <c r="F881" s="5"/>
     </row>
-    <row r="882" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="882" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C882" s="5"/>
       <c r="D882" s="9"/>
       <c r="E882" s="5"/>
       <c r="F882" s="5"/>
     </row>
-    <row r="883" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="883" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C883" s="5"/>
       <c r="D883" s="9"/>
       <c r="E883" s="5"/>
       <c r="F883" s="5"/>
     </row>
-    <row r="884" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="884" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C884" s="5"/>
       <c r="D884" s="9"/>
       <c r="E884" s="5"/>
       <c r="F884" s="5"/>
     </row>
-    <row r="885" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="885" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C885" s="5"/>
       <c r="D885" s="9"/>
       <c r="E885" s="5"/>
       <c r="F885" s="5"/>
     </row>
-    <row r="886" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="886" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C886" s="5"/>
       <c r="D886" s="9"/>
       <c r="E886" s="5"/>
       <c r="F886" s="5"/>
     </row>
-    <row r="887" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="887" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C887" s="5"/>
       <c r="D887" s="9"/>
       <c r="E887" s="5"/>
       <c r="F887" s="5"/>
     </row>
-    <row r="888" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="888" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C888" s="5"/>
       <c r="D888" s="9"/>
       <c r="E888" s="5"/>
       <c r="F888" s="5"/>
     </row>
-    <row r="889" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="889" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C889" s="5"/>
       <c r="D889" s="9"/>
       <c r="E889" s="5"/>
       <c r="F889" s="5"/>
     </row>
-    <row r="890" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="890" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C890" s="5"/>
       <c r="D890" s="9"/>
       <c r="E890" s="5"/>
       <c r="F890" s="5"/>
     </row>
-    <row r="891" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="891" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C891" s="5"/>
       <c r="D891" s="9"/>
       <c r="E891" s="5"/>
       <c r="F891" s="5"/>
     </row>
-    <row r="892" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="892" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C892" s="5"/>
       <c r="D892" s="9"/>
       <c r="E892" s="5"/>
       <c r="F892" s="5"/>
     </row>
-    <row r="893" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="893" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C893" s="5"/>
       <c r="D893" s="9"/>
       <c r="E893" s="5"/>
       <c r="F893" s="5"/>
     </row>
-    <row r="894" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="894" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C894" s="5"/>
       <c r="D894" s="9"/>
       <c r="E894" s="5"/>
       <c r="F894" s="5"/>
     </row>
-    <row r="895" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="895" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C895" s="5"/>
       <c r="D895" s="9"/>
       <c r="E895" s="5"/>
       <c r="F895" s="5"/>
     </row>
-    <row r="896" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="896" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C896" s="5"/>
       <c r="D896" s="9"/>
       <c r="E896" s="5"/>
       <c r="F896" s="5"/>
     </row>
-    <row r="897" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="897" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C897" s="5"/>
       <c r="D897" s="9"/>
       <c r="E897" s="5"/>
       <c r="F897" s="5"/>
     </row>
-    <row r="898" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="898" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C898" s="5"/>
       <c r="D898" s="9"/>
       <c r="E898" s="5"/>
       <c r="F898" s="5"/>
     </row>
-    <row r="899" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="899" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C899" s="5"/>
       <c r="D899" s="9"/>
       <c r="E899" s="5"/>
       <c r="F899" s="5"/>
     </row>
-    <row r="900" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="900" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C900" s="5"/>
       <c r="D900" s="9"/>
       <c r="E900" s="5"/>
       <c r="F900" s="5"/>
     </row>
-    <row r="901" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="901" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C901" s="5"/>
       <c r="D901" s="9"/>
       <c r="E901" s="5"/>
       <c r="F901" s="5"/>
     </row>
-    <row r="902" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="902" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C902" s="5"/>
       <c r="D902" s="9"/>
       <c r="E902" s="5"/>
       <c r="F902" s="5"/>
     </row>
-    <row r="903" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="903" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C903" s="5"/>
       <c r="D903" s="9"/>
       <c r="E903" s="5"/>
       <c r="F903" s="5"/>
     </row>
-    <row r="904" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="904" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C904" s="5"/>
       <c r="D904" s="9"/>
       <c r="E904" s="5"/>
       <c r="F904" s="5"/>
     </row>
-    <row r="905" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="905" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C905" s="5"/>
       <c r="D905" s="9"/>
       <c r="E905" s="5"/>
       <c r="F905" s="5"/>
     </row>
-    <row r="906" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="906" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C906" s="5"/>
       <c r="D906" s="9"/>
       <c r="E906" s="5"/>
       <c r="F906" s="5"/>
     </row>
-    <row r="907" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="907" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C907" s="5"/>
       <c r="D907" s="9"/>
       <c r="E907" s="5"/>
       <c r="F907" s="5"/>
     </row>
-    <row r="908" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="908" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C908" s="5"/>
       <c r="D908" s="9"/>
       <c r="E908" s="5"/>
       <c r="F908" s="5"/>
     </row>
-    <row r="909" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="909" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C909" s="5"/>
       <c r="D909" s="9"/>
       <c r="E909" s="5"/>
       <c r="F909" s="5"/>
     </row>
-    <row r="910" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="910" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C910" s="5"/>
       <c r="D910" s="9"/>
       <c r="E910" s="5"/>
       <c r="F910" s="5"/>
     </row>
-    <row r="911" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="911" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C911" s="5"/>
       <c r="D911" s="9"/>
       <c r="E911" s="5"/>
       <c r="F911" s="5"/>
     </row>
-    <row r="912" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="912" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C912" s="5"/>
       <c r="D912" s="9"/>
       <c r="E912" s="5"/>
       <c r="F912" s="5"/>
     </row>
-    <row r="913" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="913" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C913" s="5"/>
       <c r="D913" s="9"/>
       <c r="E913" s="5"/>
       <c r="F913" s="5"/>
     </row>
-    <row r="914" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="914" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C914" s="5"/>
       <c r="D914" s="9"/>
       <c r="E914" s="5"/>
       <c r="F914" s="5"/>
     </row>
-    <row r="915" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="915" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C915" s="5"/>
       <c r="D915" s="9"/>
       <c r="E915" s="5"/>
       <c r="F915" s="5"/>
     </row>
-    <row r="916" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="916" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C916" s="5"/>
       <c r="D916" s="9"/>
       <c r="E916" s="5"/>
       <c r="F916" s="5"/>
     </row>
-    <row r="917" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="917" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C917" s="5"/>
       <c r="D917" s="9"/>
       <c r="E917" s="5"/>
       <c r="F917" s="5"/>
     </row>
-    <row r="918" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="918" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C918" s="5"/>
       <c r="D918" s="9"/>
       <c r="E918" s="5"/>
       <c r="F918" s="5"/>
     </row>
-    <row r="919" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="919" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C919" s="5"/>
       <c r="D919" s="9"/>
       <c r="E919" s="5"/>
       <c r="F919" s="5"/>
     </row>
-    <row r="920" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="920" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C920" s="5"/>
       <c r="D920" s="9"/>
       <c r="E920" s="5"/>
       <c r="F920" s="5"/>
     </row>
-    <row r="921" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="921" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C921" s="5"/>
       <c r="D921" s="9"/>
       <c r="E921" s="5"/>
       <c r="F921" s="5"/>
     </row>
-    <row r="922" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="922" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C922" s="5"/>
       <c r="D922" s="9"/>
       <c r="E922" s="5"/>
       <c r="F922" s="5"/>
     </row>
-    <row r="923" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="923" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C923" s="5"/>
       <c r="D923" s="9"/>
       <c r="E923" s="5"/>
       <c r="F923" s="5"/>
     </row>
-    <row r="924" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="924" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C924" s="5"/>
       <c r="D924" s="9"/>
       <c r="E924" s="5"/>
       <c r="F924" s="5"/>
     </row>
-    <row r="925" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="925" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C925" s="5"/>
       <c r="D925" s="9"/>
       <c r="E925" s="5"/>
       <c r="F925" s="5"/>
     </row>
-    <row r="926" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="926" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C926" s="5"/>
       <c r="D926" s="9"/>
       <c r="E926" s="5"/>
       <c r="F926" s="5"/>
     </row>
-    <row r="927" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="927" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C927" s="5"/>
       <c r="D927" s="9"/>
       <c r="E927" s="5"/>
       <c r="F927" s="5"/>
     </row>
-    <row r="928" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="928" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C928" s="5"/>
       <c r="D928" s="9"/>
       <c r="E928" s="5"/>
       <c r="F928" s="5"/>
     </row>
-    <row r="929" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="929" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C929" s="5"/>
       <c r="D929" s="9"/>
       <c r="E929" s="5"/>
       <c r="F929" s="5"/>
     </row>
-    <row r="930" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="930" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C930" s="5"/>
       <c r="D930" s="9"/>
       <c r="E930" s="5"/>
       <c r="F930" s="5"/>
     </row>
-    <row r="931" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="931" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C931" s="5"/>
       <c r="D931" s="9"/>
       <c r="E931" s="5"/>
       <c r="F931" s="5"/>
     </row>
-    <row r="932" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="932" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C932" s="5"/>
       <c r="D932" s="9"/>
       <c r="E932" s="5"/>
       <c r="F932" s="5"/>
     </row>
-    <row r="933" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="933" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C933" s="5"/>
       <c r="D933" s="9"/>
       <c r="E933" s="5"/>
       <c r="F933" s="5"/>
     </row>
-    <row r="934" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="934" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C934" s="5"/>
       <c r="D934" s="9"/>
       <c r="E934" s="5"/>
       <c r="F934" s="5"/>
     </row>
-    <row r="935" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="935" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C935" s="5"/>
       <c r="D935" s="9"/>
       <c r="E935" s="5"/>
       <c r="F935" s="5"/>
     </row>
-    <row r="936" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="936" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C936" s="5"/>
       <c r="D936" s="9"/>
       <c r="E936" s="5"/>
       <c r="F936" s="5"/>
     </row>
-    <row r="937" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="937" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C937" s="5"/>
       <c r="D937" s="9"/>
       <c r="E937" s="5"/>
       <c r="F937" s="5"/>
     </row>
-    <row r="938" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="938" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C938" s="5"/>
       <c r="D938" s="9"/>
       <c r="E938" s="5"/>
       <c r="F938" s="5"/>
     </row>
-    <row r="939" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="939" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C939" s="5"/>
       <c r="D939" s="9"/>
       <c r="E939" s="5"/>
       <c r="F939" s="5"/>
     </row>
-    <row r="940" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="940" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C940" s="5"/>
       <c r="D940" s="9"/>
       <c r="E940" s="5"/>
       <c r="F940" s="5"/>
     </row>
-    <row r="941" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="941" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C941" s="5"/>
       <c r="D941" s="9"/>
       <c r="E941" s="5"/>
       <c r="F941" s="5"/>
     </row>
-    <row r="942" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="942" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C942" s="5"/>
       <c r="D942" s="9"/>
       <c r="E942" s="5"/>
       <c r="F942" s="5"/>
     </row>
-    <row r="943" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="943" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C943" s="5"/>
       <c r="D943" s="9"/>
       <c r="E943" s="5"/>
       <c r="F943" s="5"/>
     </row>
-    <row r="944" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="944" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C944" s="5"/>
       <c r="D944" s="9"/>
       <c r="E944" s="5"/>
       <c r="F944" s="5"/>
     </row>
-    <row r="945" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="945" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C945" s="5"/>
       <c r="D945" s="9"/>
       <c r="E945" s="5"/>
       <c r="F945" s="5"/>
     </row>
-    <row r="946" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="946" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C946" s="5"/>
       <c r="D946" s="9"/>
       <c r="E946" s="5"/>
       <c r="F946" s="5"/>
     </row>
-    <row r="947" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="947" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C947" s="5"/>
       <c r="D947" s="9"/>
       <c r="E947" s="5"/>
       <c r="F947" s="5"/>
     </row>
-    <row r="948" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="948" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C948" s="5"/>
       <c r="D948" s="9"/>
       <c r="E948" s="5"/>
       <c r="F948" s="5"/>
     </row>
-    <row r="949" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="949" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C949" s="5"/>
       <c r="D949" s="9"/>
       <c r="E949" s="5"/>
       <c r="F949" s="5"/>
     </row>
-    <row r="950" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="950" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C950" s="5"/>
       <c r="D950" s="9"/>
       <c r="E950" s="5"/>
       <c r="F950" s="5"/>
     </row>
-    <row r="951" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="951" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C951" s="5"/>
       <c r="D951" s="9"/>
       <c r="E951" s="5"/>
       <c r="F951" s="5"/>
     </row>
-    <row r="952" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="952" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C952" s="5"/>
       <c r="D952" s="9"/>
       <c r="E952" s="5"/>
       <c r="F952" s="5"/>
     </row>
-    <row r="953" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="953" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C953" s="5"/>
       <c r="D953" s="9"/>
       <c r="E953" s="5"/>
       <c r="F953" s="5"/>
     </row>
-    <row r="954" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="954" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C954" s="5"/>
       <c r="D954" s="9"/>
       <c r="E954" s="5"/>
       <c r="F954" s="5"/>
     </row>
-    <row r="955" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="955" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C955" s="5"/>
       <c r="D955" s="9"/>
       <c r="E955" s="5"/>
       <c r="F955" s="5"/>
     </row>
-    <row r="956" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="956" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C956" s="5"/>
       <c r="D956" s="9"/>
       <c r="E956" s="5"/>
       <c r="F956" s="5"/>
     </row>
-    <row r="957" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="957" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C957" s="5"/>
       <c r="D957" s="9"/>
       <c r="E957" s="5"/>
       <c r="F957" s="5"/>
     </row>
-    <row r="958" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="958" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C958" s="5"/>
       <c r="D958" s="9"/>
       <c r="E958" s="5"/>
       <c r="F958" s="5"/>
     </row>
-    <row r="959" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="959" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C959" s="5"/>
       <c r="D959" s="9"/>
       <c r="E959" s="5"/>
       <c r="F959" s="5"/>
     </row>
-    <row r="960" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="960" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C960" s="5"/>
       <c r="D960" s="9"/>
       <c r="E960" s="5"/>
       <c r="F960" s="5"/>
     </row>
-    <row r="961" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="961" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C961" s="5"/>
       <c r="D961" s="9"/>
       <c r="E961" s="5"/>
       <c r="F961" s="5"/>
     </row>
-    <row r="962" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="962" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C962" s="5"/>
       <c r="D962" s="9"/>
       <c r="E962" s="5"/>
       <c r="F962" s="5"/>
     </row>
-    <row r="963" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="963" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C963" s="5"/>
       <c r="D963" s="9"/>
       <c r="E963" s="5"/>
       <c r="F963" s="5"/>
     </row>
-    <row r="964" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="964" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C964" s="5"/>
       <c r="D964" s="9"/>
       <c r="E964" s="5"/>
       <c r="F964" s="5"/>
     </row>
-    <row r="965" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="965" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C965" s="5"/>
       <c r="D965" s="9"/>
       <c r="E965" s="5"/>
       <c r="F965" s="5"/>
     </row>
-    <row r="966" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="966" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C966" s="5"/>
       <c r="D966" s="9"/>
       <c r="E966" s="5"/>
       <c r="F966" s="5"/>
     </row>
-    <row r="967" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="967" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C967" s="5"/>
       <c r="D967" s="9"/>
       <c r="E967" s="5"/>
       <c r="F967" s="5"/>
     </row>
-    <row r="968" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="968" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C968" s="5"/>
       <c r="D968" s="9"/>
       <c r="E968" s="5"/>
       <c r="F968" s="5"/>
     </row>
-    <row r="969" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="969" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C969" s="5"/>
       <c r="D969" s="9"/>
       <c r="E969" s="5"/>
       <c r="F969" s="5"/>
     </row>
-    <row r="970" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="970" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C970" s="5"/>
       <c r="D970" s="9"/>
       <c r="E970" s="5"/>
       <c r="F970" s="5"/>
     </row>
-    <row r="971" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="971" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C971" s="5"/>
       <c r="D971" s="9"/>
       <c r="E971" s="5"/>
       <c r="F971" s="5"/>
     </row>
-    <row r="972" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="972" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C972" s="5"/>
       <c r="D972" s="9"/>
       <c r="E972" s="5"/>
       <c r="F972" s="5"/>
     </row>
-    <row r="973" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="973" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C973" s="5"/>
       <c r="D973" s="9"/>
       <c r="E973" s="5"/>
       <c r="F973" s="5"/>
     </row>
-    <row r="974" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="974" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C974" s="5"/>
       <c r="D974" s="9"/>
       <c r="E974" s="5"/>
       <c r="F974" s="5"/>
     </row>
-    <row r="975" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="975" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C975" s="5"/>
       <c r="D975" s="9"/>
       <c r="E975" s="5"/>
       <c r="F975" s="5"/>
     </row>
-    <row r="976" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="976" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C976" s="5"/>
       <c r="D976" s="9"/>
       <c r="E976" s="5"/>
       <c r="F976" s="5"/>
     </row>
-    <row r="977" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="977" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C977" s="5"/>
       <c r="D977" s="9"/>
       <c r="E977" s="5"/>
       <c r="F977" s="5"/>
     </row>
-    <row r="978" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="978" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C978" s="5"/>
       <c r="D978" s="9"/>
       <c r="E978" s="5"/>
       <c r="F978" s="5"/>
     </row>
-    <row r="979" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="979" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C979" s="5"/>
       <c r="D979" s="9"/>
       <c r="E979" s="5"/>
       <c r="F979" s="5"/>
     </row>
-    <row r="980" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="980" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C980" s="5"/>
       <c r="D980" s="9"/>
       <c r="E980" s="5"/>
       <c r="F980" s="5"/>
     </row>
-    <row r="981" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="981" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C981" s="5"/>
       <c r="D981" s="9"/>
       <c r="E981" s="5"/>
       <c r="F981" s="5"/>
     </row>
-    <row r="982" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="982" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C982" s="5"/>
       <c r="D982" s="9"/>
       <c r="E982" s="5"/>
       <c r="F982" s="5"/>
     </row>
-    <row r="983" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="983" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C983" s="5"/>
       <c r="D983" s="9"/>
       <c r="E983" s="5"/>
       <c r="F983" s="5"/>
     </row>
-    <row r="984" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="984" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C984" s="5"/>
       <c r="D984" s="9"/>
       <c r="E984" s="5"/>
       <c r="F984" s="5"/>
     </row>
-    <row r="985" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="985" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C985" s="5"/>
       <c r="D985" s="9"/>
       <c r="E985" s="5"/>
       <c r="F985" s="5"/>
     </row>
-    <row r="986" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="986" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C986" s="5"/>
       <c r="D986" s="9"/>
       <c r="E986" s="5"/>
       <c r="F986" s="5"/>
     </row>
-    <row r="987" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="987" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C987" s="5"/>
       <c r="D987" s="9"/>
       <c r="E987" s="5"/>
       <c r="F987" s="5"/>
     </row>
-    <row r="988" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="988" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C988" s="5"/>
       <c r="D988" s="9"/>
       <c r="E988" s="5"/>
       <c r="F988" s="5"/>
     </row>
-    <row r="989" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="989" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C989" s="5"/>
       <c r="D989" s="9"/>
       <c r="E989" s="5"/>
       <c r="F989" s="5"/>
     </row>
-    <row r="990" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="990" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C990" s="5"/>
       <c r="D990" s="9"/>
       <c r="E990" s="5"/>
       <c r="F990" s="5"/>
     </row>
-    <row r="991" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="991" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C991" s="5"/>
       <c r="D991" s="9"/>
       <c r="E991" s="5"/>
       <c r="F991" s="5"/>
     </row>
-    <row r="992" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="992" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C992" s="5"/>
       <c r="D992" s="9"/>
       <c r="E992" s="5"/>
       <c r="F992" s="5"/>
     </row>
-    <row r="993" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="993" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C993" s="5"/>
       <c r="D993" s="9"/>
       <c r="E993" s="5"/>
       <c r="F993" s="5"/>
     </row>
-    <row r="994" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="994" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C994" s="5"/>
       <c r="D994" s="9"/>
       <c r="E994" s="5"/>
       <c r="F994" s="5"/>
     </row>
-    <row r="995" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="995" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C995" s="5"/>
       <c r="D995" s="9"/>
       <c r="E995" s="5"/>
       <c r="F995" s="5"/>
     </row>
-    <row r="996" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="996" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C996" s="5"/>
       <c r="D996" s="9"/>
       <c r="E996" s="5"/>
       <c r="F996" s="5"/>
     </row>
-    <row r="997" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="997" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C997" s="5"/>
       <c r="D997" s="9"/>
       <c r="E997" s="5"/>
       <c r="F997" s="5"/>
     </row>
-    <row r="998" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="998" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C998" s="5"/>
       <c r="D998" s="9"/>
       <c r="E998" s="5"/>
       <c r="F998" s="5"/>
     </row>
-    <row r="999" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="999" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C999" s="5"/>
       <c r="D999" s="9"/>
       <c r="E999" s="5"/>
       <c r="F999" s="5"/>
     </row>
-    <row r="1000" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="1000" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C1000" s="5"/>
       <c r="D1000" s="9"/>
       <c r="E1000" s="5"/>
       <c r="F1000" s="5"/>
     </row>
-    <row r="1001" spans="3:6" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="1001" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C1001" s="5"/>
       <c r="D1001" s="9"/>
       <c r="E1001" s="5"/>
@@ -7128,6 +7661,157 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6443C32-F7E7-4F64-9FFE-AA3B76D48EBB}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.murata.com/en-us/products/productdata/8796738650142/ENFA0003.pdf" xr:uid="{BA27D828-DAAB-4C83-B1BA-C8E645EDF142}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.digikey.com/en/products/detail/murata-electronics/BLM18AG601SN1D/584225?s=N4IgTCBcDaIEIBkCyBGAHAQQOIDYAMKAygHIogC6AvkA" xr:uid="{43F63D71-C856-419E-8F91-E68AAA529EBC}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://www.digikey.com/en/products/detail/yageo/CC0805KRX7R9BB101/5884228" xr:uid="{79CF6E8B-75E2-43F3-8016-F6EDEAF45040}"/>
+    <hyperlink ref="D4" r:id="rId4" display="https://www.yageo.com/upload/media/product/productsearch/datasheet/mlcc/UPY-GPHC_X7R_6.3V-to-50V_20.pdf" xr:uid="{BE4A95A2-2DC5-4925-AB27-291DF5663E96}"/>
+    <hyperlink ref="C5" r:id="rId5" display="https://www.digikey.com/en/products/detail/kemet/C0805C100K5RAC7800/8572447" xr:uid="{387ED307-CC95-4D3E-BEA0-18D25F2BE960}"/>
+    <hyperlink ref="D5" r:id="rId6" display="https://content.kemet.com/datasheets/KEM_C1002_X7R_SMD.pdf" xr:uid="{DD841DE7-AEA2-4384-A57A-91948D9E9282}"/>
+    <hyperlink ref="C6" r:id="rId7" display="https://www.digikey.com/en/products/detail/yageo/CC0805KKX7R9BB224/5195293" xr:uid="{0AC2EBF1-886D-478F-A9A0-C4E1A8689D3B}"/>
+    <hyperlink ref="D6" r:id="rId8" display="https://www.yageo.com/upload/media/product/productsearch/datasheet/mlcc/UPY-GPHC_X7R_6.3V-to-50V_20.pdf" xr:uid="{CF21DDB3-ED3D-4FD4-BD16-EBC5F09E1CAB}"/>
+    <hyperlink ref="C7" r:id="rId9" display="https://www.digikey.com/en/products/detail/murata-electronics/LQG15WZ1N9S02D/11690275" xr:uid="{94328609-80FF-4A57-832F-FFF974F941F1}"/>
+    <hyperlink ref="D7" r:id="rId10" display="https://search.murata.co.jp/Ceramy/image/img/P02/JELF243B-9117.pdf" xr:uid="{1A77EA5F-9EC2-4D40-BFEF-BC5B19A3F9D4}"/>
+    <hyperlink ref="D8" r:id="rId11" display="https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GCM1555C1H1R5JA16-01.pdf" xr:uid="{72439412-852A-4FE2-A85F-B61FE7B2956A}"/>
+    <hyperlink ref="C8" r:id="rId12" display="https://www.digikey.com/en/products/detail/murata-electronics/GCM1555C1H1R5JA16D/7363196?s=N4IgjCBcoMxaBjKAzAhgGwM4FMA0IB7KAbRACYBWABjgF18AHAFyhAGUmAnASwDsBzEAF98YAGzwQSSGix5CJEDACcYCgA4Q9EM1YceA4fjHLJ02TnxFIpACxVlt8VsYtI7Ln0Ejwy9aegpFAxLBRsQKhcdNw8Db3wyKlsAxGC5K0UwADoKAAIGADEo3XcAVV5uJgB5ZABZbFRMAFdObCMQAFoKMzTQ61IyLR8OwcDpLib5fpBu2iEfUdIEVAZUBEqCTiGgA" xr:uid="{2FD02EB6-154B-4F2F-BBBB-A62C6BF9EA4B}"/>
+    <hyperlink ref="C9" r:id="rId13" display="https://www.digikey.com/en/products/detail/samsung-electro-mechanics/RC1005J000CS/3903488" xr:uid="{7C870805-05E3-4AD9-B4DD-72C1547EE639}"/>
+    <hyperlink ref="D9" r:id="rId14" display="https://media.digikey.com/pdf/Data Sheets/Samsung PDFs/RC_Series_ds.pdf" xr:uid="{9F258215-1BFD-414D-B1BA-8CB4BBA9AE67}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7136,9 +7820,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -7149,7 +7833,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -7160,7 +7844,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -7171,7 +7855,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -7182,7 +7866,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -7193,7 +7877,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -7204,7 +7888,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
@@ -7215,7 +7899,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
@@ -7226,7 +7910,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -7237,7 +7921,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
@@ -7248,7 +7932,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -7259,7 +7943,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -7270,7 +7954,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>79</v>
       </c>
@@ -7281,7 +7965,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -7292,7 +7976,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
@@ -7303,7 +7987,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -7314,7 +7998,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>87</v>
       </c>
@@ -7325,7 +8009,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -7336,7 +8020,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>91</v>
       </c>
@@ -7347,7 +8031,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
@@ -7358,7 +8042,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -7369,7 +8053,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
@@ -7382,7 +8066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7391,12 +8075,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -7407,12 +8091,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
@@ -7423,7 +8107,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
@@ -7434,7 +8118,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -7445,7 +8129,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
@@ -7456,7 +8140,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>106</v>
       </c>
@@ -7467,7 +8151,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
@@ -7478,7 +8162,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>110</v>
       </c>
@@ -7489,7 +8173,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>112</v>
       </c>
@@ -7500,12 +8184,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>115</v>
       </c>
@@ -7516,7 +8200,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>117</v>
       </c>
@@ -7527,7 +8211,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>119</v>
       </c>
@@ -7538,7 +8222,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
@@ -7549,7 +8233,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -7560,7 +8244,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>124</v>
       </c>
@@ -7571,7 +8255,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>126</v>
       </c>
@@ -7582,7 +8266,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>128</v>
       </c>
@@ -7593,7 +8277,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>130</v>
       </c>
@@ -7604,7 +8288,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -7615,12 +8299,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>134</v>
       </c>
@@ -7631,7 +8315,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>136</v>
       </c>
@@ -7642,7 +8326,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>137</v>
       </c>
@@ -7653,7 +8337,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>138</v>
       </c>
@@ -7664,7 +8348,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>139</v>
       </c>
@@ -7675,7 +8359,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>140</v>
       </c>
@@ -7686,7 +8370,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>142</v>
       </c>
@@ -7697,7 +8381,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>143</v>
       </c>
@@ -7708,7 +8392,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>144</v>
       </c>
@@ -7719,7 +8403,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>145</v>
       </c>
@@ -7730,7 +8414,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>146</v>
       </c>
@@ -7741,7 +8425,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>147</v>
       </c>
@@ -7752,7 +8436,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>148</v>
       </c>
@@ -7763,7 +8447,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>149</v>
       </c>
@@ -7774,7 +8458,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>150</v>
       </c>
@@ -7785,7 +8469,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>151</v>
       </c>
@@ -7796,7 +8480,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>152</v>
       </c>
@@ -7807,7 +8491,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>153</v>
       </c>
@@ -7818,7 +8502,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>154</v>
       </c>
@@ -7829,7 +8513,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>155</v>
       </c>
@@ -7840,7 +8524,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>156</v>
       </c>
@@ -7851,7 +8535,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>157</v>
       </c>
@@ -7862,7 +8546,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>158</v>
       </c>
@@ -7873,7 +8557,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>159</v>
       </c>
@@ -7884,7 +8568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>160</v>
       </c>
@@ -7895,7 +8579,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>161</v>
       </c>
@@ -7906,7 +8590,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>162</v>
       </c>
@@ -7917,7 +8601,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>163</v>
       </c>
@@ -7928,7 +8612,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>164</v>
       </c>
@@ -7939,7 +8623,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>165</v>
       </c>
@@ -7950,7 +8634,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -7966,7 +8650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7975,12 +8659,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="77.71875" customWidth="1"/>
+    <col min="3" max="3" width="77.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
@@ -7991,7 +8675,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8002,7 +8686,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8013,7 +8697,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8024,7 +8708,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8035,7 +8719,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8046,7 +8730,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8057,7 +8741,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8068,7 +8752,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8079,7 +8763,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8090,7 +8774,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8101,7 +8785,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8112,7 +8796,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8123,7 +8807,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8134,7 +8818,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8148,4 +8832,826 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CEEC94-12F5-4B70-B3B0-4D2A22D8E1CB}">
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="50.7265625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="25.7265625" style="16" customWidth="1"/>
+    <col min="6" max="7" width="30.7265625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" style="16" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>2</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>3</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>4</v>
+      </c>
+      <c r="B9" s="16">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>5</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>6</v>
+      </c>
+      <c r="B11" s="16">
+        <v>2</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>7</v>
+      </c>
+      <c r="B12" s="16">
+        <v>3</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>8</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>9</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>10</v>
+      </c>
+      <c r="B15" s="16">
+        <v>6</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>12</v>
+      </c>
+      <c r="B17" s="16">
+        <v>2</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>13</v>
+      </c>
+      <c r="B18" s="16">
+        <v>1</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" s="16">
+        <v>74279266</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>14</v>
+      </c>
+      <c r="B19" s="16">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>15</v>
+      </c>
+      <c r="B20" s="16">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>16</v>
+      </c>
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>17</v>
+      </c>
+      <c r="B22" s="16">
+        <v>1</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>18</v>
+      </c>
+      <c r="B23" s="16">
+        <v>2</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>19</v>
+      </c>
+      <c r="B24" s="16">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>20</v>
+      </c>
+      <c r="B25" s="16">
+        <v>5</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>21</v>
+      </c>
+      <c r="B26" s="16">
+        <v>4</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>22</v>
+      </c>
+      <c r="B27" s="16">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>23</v>
+      </c>
+      <c r="B28" s="16">
+        <v>1</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>24</v>
+      </c>
+      <c r="B29" s="16">
+        <v>1</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>25</v>
+      </c>
+      <c r="B30" s="16">
+        <v>1</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>26</v>
+      </c>
+      <c r="B31" s="16">
+        <v>1</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>27</v>
+      </c>
+      <c r="B32" s="16">
+        <v>20</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>28</v>
+      </c>
+      <c r="B33" s="16">
+        <v>1</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
+        <v>29</v>
+      </c>
+      <c r="B34" s="16">
+        <v>1</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
+        <v>30</v>
+      </c>
+      <c r="B35" s="16">
+        <v>1</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
+        <v>31</v>
+      </c>
+      <c r="B36" s="16">
+        <v>1</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
+        <v>32</v>
+      </c>
+      <c r="B37" s="16">
+        <v>1</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/hardware/library/Component_Library.xlsx
+++ b/hardware/library/Component_Library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Documents\LPEDT\project\ecen5833_s22_lpedt_project\hardware\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55286C47-BB2A-4D05-A076-27B45AFAF9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570BFD93-50C1-4259-BD9B-985D0C9E2B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="369">
   <si>
     <t>Part Description</t>
   </si>
@@ -1093,6 +1093,45 @@
   </si>
   <si>
     <t>P/N:</t>
+  </si>
+  <si>
+    <t>EFR32 Decoupling</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>885012207078 Würth Elektronik | Capacitors | DigiKey</t>
+  </si>
+  <si>
+    <t>885012207078 Datasheet WCAP-CSGP Ceramic Capacitors 0805 (we-online.com)</t>
+  </si>
+  <si>
+    <t>1 µF ±10% 25V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>Ferrite bead</t>
+  </si>
+  <si>
+    <t>74279266 Würth Elektronik | Filters | DigiKey</t>
+  </si>
+  <si>
+    <t>74279266 Datasheet WE-CBF SMT EMI Suppression Ferrite Bead (we-online.com)</t>
+  </si>
+  <si>
+    <t>1 kOhms @ 100 MHz 1 Signal Line Ferrite Bead 0603 (1608 Metric) 200mA 600mOhm</t>
+  </si>
+  <si>
+    <t>1 ohm</t>
+  </si>
+  <si>
+    <t>RC0603FR-101RL YAGEO | Resistors | DigiKey</t>
+  </si>
+  <si>
+    <t>PYu-RC_Group_51_RoHS_L_11.pdf (yageo.com)</t>
+  </si>
+  <si>
+    <t>1 Ohms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Thick Film</t>
   </si>
 </sst>
 </file>
@@ -7662,10 +7701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6443C32-F7E7-4F64-9FFE-AA3B76D48EBB}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7681,7 +7720,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -7723,7 +7762,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -7737,7 +7776,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -7751,7 +7790,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -7765,7 +7804,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -7787,6 +7826,53 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="50" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -7805,9 +7891,15 @@
     <hyperlink ref="C8" r:id="rId12" display="https://www.digikey.com/en/products/detail/murata-electronics/GCM1555C1H1R5JA16D/7363196?s=N4IgjCBcoMxaBjKAzAhgGwM4FMA0IB7KAbRACYBWABjgF18AHAFyhAGUmAnASwDsBzEAF98YAGzwQSSGix5CJEDACcYCgA4Q9EM1YceA4fjHLJ02TnxFIpACxVlt8VsYtI7Ln0Ejwy9aegpFAxLBRsQKhcdNw8Db3wyKlsAxGC5K0UwADoKAAIGADEo3XcAVV5uJgB5ZABZbFRMAFdObCMQAFoKMzTQ61IyLR8OwcDpLib5fpBu2iEfUdIEVAZUBEqCTiGgA" xr:uid="{2FD02EB6-154B-4F2F-BBBB-A62C6BF9EA4B}"/>
     <hyperlink ref="C9" r:id="rId13" display="https://www.digikey.com/en/products/detail/samsung-electro-mechanics/RC1005J000CS/3903488" xr:uid="{7C870805-05E3-4AD9-B4DD-72C1547EE639}"/>
     <hyperlink ref="D9" r:id="rId14" display="https://media.digikey.com/pdf/Data Sheets/Samsung PDFs/RC_Series_ds.pdf" xr:uid="{9F258215-1BFD-414D-B1BA-8CB4BBA9AE67}"/>
+    <hyperlink ref="C14" r:id="rId15" display="https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/885012207078/5453527" xr:uid="{5B026AA1-D07A-428E-A0DB-AFF5D0AB10F1}"/>
+    <hyperlink ref="D14" r:id="rId16" display="https://www.we-online.com/katalog/datasheet/885012207078.pdf" xr:uid="{6B0C4B17-22AB-41AA-912A-58454578DB1D}"/>
+    <hyperlink ref="C15" r:id="rId17" display="https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/74279266/3907315" xr:uid="{34D81E4F-8D35-4700-B752-C6882DC94BC6}"/>
+    <hyperlink ref="D15" r:id="rId18" display="https://www.we-online.com/katalog/datasheet/74279266.pdf" xr:uid="{ADEF27F3-78D7-406E-9F3F-B583592D8660}"/>
+    <hyperlink ref="C16" r:id="rId19" display="https://www.digikey.com/en/products/detail/yageo/RC0603FR-101RL/14286393" xr:uid="{442CE07C-6DF4-4C3B-81AC-1465A64153D0}"/>
+    <hyperlink ref="D16" r:id="rId20" display="https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-RC_Group_51_RoHS_L_11.pdf" xr:uid="{6AB09086-52C3-4A0B-A004-D0EA04C3CA9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId15"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -8838,8 +8930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CEEC94-12F5-4B70-B3B0-4D2A22D8E1CB}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/hardware/library/Component_Library.xlsx
+++ b/hardware/library/Component_Library.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Documents\LPEDT\project\ecen5833_s22_lpedt_project\hardware\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajat\OneDrive\Low Power\Project\github\ecen5833_s22_lpedt_project\hardware\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570BFD93-50C1-4259-BD9B-985D0C9E2B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB6C6CE-5207-4A9A-9B32-38A5DC1150A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="394">
   <si>
     <t>Part Description</t>
   </si>
@@ -1101,15 +1101,6 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>885012207078 Würth Elektronik | Capacitors | DigiKey</t>
-  </si>
-  <si>
-    <t>885012207078 Datasheet WCAP-CSGP Ceramic Capacitors 0805 (we-online.com)</t>
-  </si>
-  <si>
-    <t>1 µF ±10% 25V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
-  </si>
-  <si>
     <t>Ferrite bead</t>
   </si>
   <si>
@@ -1132,17 +1123,108 @@
   </si>
   <si>
     <t>1 Ohms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Thick Film</t>
+  </si>
+  <si>
+    <t>Added by</t>
+  </si>
+  <si>
+    <t>Saloni</t>
+  </si>
+  <si>
+    <t>4.7uH</t>
+  </si>
+  <si>
+    <t>Rajat</t>
+  </si>
+  <si>
+    <t>LQH32PH4R7NNCL Murata Electronics | Inductors, Coils, Chokes | DigiKey</t>
+  </si>
+  <si>
+    <t>FIXED IND 4.7UH 1.2A 186MOHM SMD</t>
+  </si>
+  <si>
+    <t>JELF243A-9135.pdf (murata.co.jp)</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>CL10A475KP8NNNC Samsung Electro-Mechanics | Capacitors | DigiKey</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 16V X7R 0805</t>
+  </si>
+  <si>
+    <t>C0805C104K4RACAUTO KEMET | Capacitors | DigiKey</t>
+  </si>
+  <si>
+    <t>https://api.kemet.com/component-edge/download/datasheet/C0805C104K4RACAUTO.pdf</t>
+  </si>
+  <si>
+    <t>GRM216R61E105KA12D Murata Electronics | Capacitors | DigiKey</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/-/media/webrenewal/support/library/catalog/products/capacitor/ceramiccapacitor/c02e.ashx?la=en-us&amp;cvid=20210120024548000000</t>
+  </si>
+  <si>
+    <t>1 µF ±10% 25V Ceramic Capacitor X5R 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>C0805C220K5RACAUTO KEMET | Capacitors | DigiKey</t>
+  </si>
+  <si>
+    <t>https://api.kemet.com/component-edge/download/datasheet/C0805C220K5RACAUTO.pdf</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>CAP CER SMD 0805 22PF 10% 50V X7</t>
+  </si>
+  <si>
+    <t>RMCF0603FT10K0 Stackpole Electronics Inc | Resistors | DigiKey</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>RES 10K OHM 1% 1/10W 0603</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1200,8 +1282,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1211,6 +1304,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1225,46 +1324,52 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1286,9 +1391,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E343FA7-B22C-4D0B-85AB-C263CB79C0ED}" name="myTable" displayName="myTable" ref="A5:K37" totalsRowShown="0">
-  <autoFilter ref="A5:K37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E343FA7-B22C-4D0B-85AB-C263CB79C0ED}" name="myTable" displayName="myTable" ref="A5:P37" totalsRowShown="0">
+  <autoFilter ref="A5:P37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quantity"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Reference"/>
@@ -1300,6 +1405,11 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Rating"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Technology"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Not Mounted"/>
+    <tableColumn id="12" xr3:uid="{258145C7-8CFC-44D1-B94D-36048E887283}" name="Column1" dataCellStyle="Normal 2"/>
+    <tableColumn id="13" xr3:uid="{D47E4F0F-B28A-4F2A-BC52-A5C56317E912}" name="Column2" dataCellStyle="Normal 2"/>
+    <tableColumn id="14" xr3:uid="{3D00CC93-CE8F-4BE3-ADEE-11FE83968D95}" name="Column3" dataCellStyle="Normal 2"/>
+    <tableColumn id="15" xr3:uid="{FC214DF7-C48D-40A5-AE74-3DD3E4FD14C6}" name="Column4" dataCellStyle="Normal 2"/>
+    <tableColumn id="16" xr3:uid="{7DDDDB85-748F-4219-87BF-0A1F438F0528}" name="Column5" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1508,22 +1618,22 @@
   </sheetPr>
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="30.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="26.7265625" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1566,7 +1676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1587,7 +1697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1606,7 +1716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1616,7 +1726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1636,7 +1746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1654,7 +1764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1674,7 +1784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1692,7 +1802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -1712,7 +1822,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -1730,7 +1840,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>197</v>
       </c>
@@ -1744,5935 +1854,5935 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C13" s="5"/>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
       <c r="D14" s="9"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
       <c r="D15" s="9"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C16" s="5"/>
       <c r="D16" s="9"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C17" s="5"/>
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C18" s="5"/>
       <c r="D18" s="9"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C19" s="5"/>
       <c r="D19" s="9"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C20" s="5"/>
       <c r="D20" s="9"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
       <c r="D21" s="9"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C22" s="5"/>
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
       <c r="D23" s="9"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
       <c r="D24" s="9"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C25" s="5"/>
       <c r="D25" s="9"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
       <c r="D26" s="9"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
       <c r="D27" s="9"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
       <c r="D28" s="9"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C29" s="5"/>
       <c r="D29" s="9"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C30" s="5"/>
       <c r="D30" s="9"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C31" s="5"/>
       <c r="D31" s="9"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C32" s="5"/>
       <c r="D32" s="9"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C33" s="5"/>
       <c r="D33" s="9"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
       <c r="D34" s="9"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
       <c r="D35" s="9"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
       <c r="D36" s="9"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
       <c r="D37" s="9"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
       <c r="D38" s="9"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="9"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
       <c r="D40" s="9"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="9"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
       <c r="D42" s="9"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="9"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
       <c r="D44" s="9"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
       <c r="D45" s="9"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
       <c r="D46" s="9"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
       <c r="D47" s="9"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
       <c r="D48" s="9"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
       <c r="D49" s="9"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C50" s="5"/>
       <c r="D50" s="9"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C51" s="5"/>
       <c r="D51" s="9"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C52" s="5"/>
       <c r="D52" s="9"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
       <c r="D53" s="9"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
       <c r="D54" s="9"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
       <c r="D55" s="9"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="5"/>
       <c r="D56" s="9"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C57" s="5"/>
       <c r="D57" s="9"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="9"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C59" s="5"/>
       <c r="D59" s="9"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C60" s="5"/>
       <c r="D60" s="9"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C61" s="5"/>
       <c r="D61" s="9"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C62" s="5"/>
       <c r="D62" s="9"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C63" s="5"/>
       <c r="D63" s="9"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C64" s="5"/>
       <c r="D64" s="9"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C65" s="5"/>
       <c r="D65" s="9"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C66" s="5"/>
       <c r="D66" s="9"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C67" s="5"/>
       <c r="D67" s="9"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C68" s="5"/>
       <c r="D68" s="9"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C69" s="5"/>
       <c r="D69" s="9"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C70" s="5"/>
       <c r="D70" s="9"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C71" s="5"/>
       <c r="D71" s="9"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C72" s="5"/>
       <c r="D72" s="9"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C73" s="5"/>
       <c r="D73" s="9"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C74" s="5"/>
       <c r="D74" s="9"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C75" s="5"/>
       <c r="D75" s="9"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C76" s="5"/>
       <c r="D76" s="9"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C77" s="5"/>
       <c r="D77" s="9"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C78" s="5"/>
       <c r="D78" s="9"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C79" s="5"/>
       <c r="D79" s="9"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C80" s="5"/>
       <c r="D80" s="9"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C81" s="5"/>
       <c r="D81" s="9"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C82" s="5"/>
       <c r="D82" s="9"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C83" s="5"/>
       <c r="D83" s="9"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C84" s="5"/>
       <c r="D84" s="9"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C85" s="5"/>
       <c r="D85" s="9"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C86" s="5"/>
       <c r="D86" s="9"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C87" s="5"/>
       <c r="D87" s="9"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C88" s="5"/>
       <c r="D88" s="9"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C89" s="5"/>
       <c r="D89" s="9"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C90" s="5"/>
       <c r="D90" s="9"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C91" s="5"/>
       <c r="D91" s="9"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C92" s="5"/>
       <c r="D92" s="9"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C93" s="5"/>
       <c r="D93" s="9"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C94" s="5"/>
       <c r="D94" s="9"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C95" s="5"/>
       <c r="D95" s="9"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C96" s="5"/>
       <c r="D96" s="9"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C97" s="5"/>
       <c r="D97" s="9"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C98" s="5"/>
       <c r="D98" s="9"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C99" s="5"/>
       <c r="D99" s="9"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C100" s="5"/>
       <c r="D100" s="9"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C101" s="5"/>
       <c r="D101" s="9"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C102" s="5"/>
       <c r="D102" s="9"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C103" s="5"/>
       <c r="D103" s="9"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C104" s="5"/>
       <c r="D104" s="9"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C105" s="5"/>
       <c r="D105" s="9"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C106" s="5"/>
       <c r="D106" s="9"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C107" s="5"/>
       <c r="D107" s="9"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C108" s="5"/>
       <c r="D108" s="9"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C109" s="5"/>
       <c r="D109" s="9"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
     </row>
-    <row r="110" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C110" s="5"/>
       <c r="D110" s="9"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C111" s="5"/>
       <c r="D111" s="9"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C112" s="5"/>
       <c r="D112" s="9"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C113" s="5"/>
       <c r="D113" s="9"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C114" s="5"/>
       <c r="D114" s="9"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C115" s="5"/>
       <c r="D115" s="9"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C116" s="5"/>
       <c r="D116" s="9"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C117" s="5"/>
       <c r="D117" s="9"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
     </row>
-    <row r="118" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C118" s="5"/>
       <c r="D118" s="9"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
     </row>
-    <row r="119" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C119" s="5"/>
       <c r="D119" s="9"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C120" s="5"/>
       <c r="D120" s="9"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C121" s="5"/>
       <c r="D121" s="9"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
     </row>
-    <row r="122" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C122" s="5"/>
       <c r="D122" s="9"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
     </row>
-    <row r="123" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C123" s="5"/>
       <c r="D123" s="9"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
     </row>
-    <row r="124" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C124" s="5"/>
       <c r="D124" s="9"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
     </row>
-    <row r="125" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C125" s="5"/>
       <c r="D125" s="9"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
     </row>
-    <row r="126" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C126" s="5"/>
       <c r="D126" s="9"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
     </row>
-    <row r="127" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C127" s="5"/>
       <c r="D127" s="9"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C128" s="5"/>
       <c r="D128" s="9"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
     </row>
-    <row r="129" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C129" s="5"/>
       <c r="D129" s="9"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C130" s="5"/>
       <c r="D130" s="9"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C131" s="5"/>
       <c r="D131" s="9"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
     </row>
-    <row r="132" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C132" s="5"/>
       <c r="D132" s="9"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C133" s="5"/>
       <c r="D133" s="9"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C134" s="5"/>
       <c r="D134" s="9"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C135" s="5"/>
       <c r="D135" s="9"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C136" s="5"/>
       <c r="D136" s="9"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C137" s="5"/>
       <c r="D137" s="9"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C138" s="5"/>
       <c r="D138" s="9"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
     </row>
-    <row r="139" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C139" s="5"/>
       <c r="D139" s="9"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
     </row>
-    <row r="140" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C140" s="5"/>
       <c r="D140" s="9"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
     </row>
-    <row r="141" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C141" s="5"/>
       <c r="D141" s="9"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C142" s="5"/>
       <c r="D142" s="9"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
     </row>
-    <row r="143" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C143" s="5"/>
       <c r="D143" s="9"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
     </row>
-    <row r="144" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C144" s="5"/>
       <c r="D144" s="9"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C145" s="5"/>
       <c r="D145" s="9"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C146" s="5"/>
       <c r="D146" s="9"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
     </row>
-    <row r="147" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C147" s="5"/>
       <c r="D147" s="9"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C148" s="5"/>
       <c r="D148" s="9"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C149" s="5"/>
       <c r="D149" s="9"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
     </row>
-    <row r="150" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C150" s="5"/>
       <c r="D150" s="9"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
     </row>
-    <row r="151" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C151" s="5"/>
       <c r="D151" s="9"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
     </row>
-    <row r="152" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C152" s="5"/>
       <c r="D152" s="9"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
     </row>
-    <row r="153" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C153" s="5"/>
       <c r="D153" s="9"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
     </row>
-    <row r="154" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C154" s="5"/>
       <c r="D154" s="9"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
     </row>
-    <row r="155" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C155" s="5"/>
       <c r="D155" s="9"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C156" s="5"/>
       <c r="D156" s="9"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
     </row>
-    <row r="157" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C157" s="5"/>
       <c r="D157" s="9"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C158" s="5"/>
       <c r="D158" s="9"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
     </row>
-    <row r="159" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C159" s="5"/>
       <c r="D159" s="9"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C160" s="5"/>
       <c r="D160" s="9"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C161" s="5"/>
       <c r="D161" s="9"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C162" s="5"/>
       <c r="D162" s="9"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C163" s="5"/>
       <c r="D163" s="9"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C164" s="5"/>
       <c r="D164" s="9"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C165" s="5"/>
       <c r="D165" s="9"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
     </row>
-    <row r="166" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C166" s="5"/>
       <c r="D166" s="9"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
     </row>
-    <row r="167" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C167" s="5"/>
       <c r="D167" s="9"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
     </row>
-    <row r="168" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C168" s="5"/>
       <c r="D168" s="9"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
     </row>
-    <row r="169" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C169" s="5"/>
       <c r="D169" s="9"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
     </row>
-    <row r="170" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C170" s="5"/>
       <c r="D170" s="9"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
     </row>
-    <row r="171" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C171" s="5"/>
       <c r="D171" s="9"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
     </row>
-    <row r="172" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C172" s="5"/>
       <c r="D172" s="9"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
     </row>
-    <row r="173" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C173" s="5"/>
       <c r="D173" s="9"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
     </row>
-    <row r="174" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C174" s="5"/>
       <c r="D174" s="9"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
     </row>
-    <row r="175" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C175" s="5"/>
       <c r="D175" s="9"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
     </row>
-    <row r="176" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C176" s="5"/>
       <c r="D176" s="9"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
     </row>
-    <row r="177" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C177" s="5"/>
       <c r="D177" s="9"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
     </row>
-    <row r="178" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C178" s="5"/>
       <c r="D178" s="9"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
     </row>
-    <row r="179" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C179" s="5"/>
       <c r="D179" s="9"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
     </row>
-    <row r="180" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C180" s="5"/>
       <c r="D180" s="9"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
     </row>
-    <row r="181" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C181" s="5"/>
       <c r="D181" s="9"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
     </row>
-    <row r="182" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C182" s="5"/>
       <c r="D182" s="9"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
     </row>
-    <row r="183" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C183" s="5"/>
       <c r="D183" s="9"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
     </row>
-    <row r="184" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C184" s="5"/>
       <c r="D184" s="9"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
     </row>
-    <row r="185" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C185" s="5"/>
       <c r="D185" s="9"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
     </row>
-    <row r="186" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C186" s="5"/>
       <c r="D186" s="9"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
     </row>
-    <row r="187" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C187" s="5"/>
       <c r="D187" s="9"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
     </row>
-    <row r="188" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C188" s="5"/>
       <c r="D188" s="9"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
     </row>
-    <row r="189" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C189" s="5"/>
       <c r="D189" s="9"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
     </row>
-    <row r="190" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C190" s="5"/>
       <c r="D190" s="9"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
     </row>
-    <row r="191" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C191" s="5"/>
       <c r="D191" s="9"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
     </row>
-    <row r="192" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C192" s="5"/>
       <c r="D192" s="9"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
     </row>
-    <row r="193" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C193" s="5"/>
       <c r="D193" s="9"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
     </row>
-    <row r="194" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C194" s="5"/>
       <c r="D194" s="9"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
     </row>
-    <row r="195" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C195" s="5"/>
       <c r="D195" s="9"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
     </row>
-    <row r="196" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C196" s="5"/>
       <c r="D196" s="9"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
     </row>
-    <row r="197" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C197" s="5"/>
       <c r="D197" s="9"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
     </row>
-    <row r="198" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C198" s="5"/>
       <c r="D198" s="9"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
     </row>
-    <row r="199" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C199" s="5"/>
       <c r="D199" s="9"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
     </row>
-    <row r="200" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C200" s="5"/>
       <c r="D200" s="9"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
     </row>
-    <row r="201" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C201" s="5"/>
       <c r="D201" s="9"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
     </row>
-    <row r="202" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C202" s="5"/>
       <c r="D202" s="9"/>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
     </row>
-    <row r="203" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C203" s="5"/>
       <c r="D203" s="9"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
     </row>
-    <row r="204" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C204" s="5"/>
       <c r="D204" s="9"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
     </row>
-    <row r="205" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C205" s="5"/>
       <c r="D205" s="9"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
     </row>
-    <row r="206" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C206" s="5"/>
       <c r="D206" s="9"/>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
     </row>
-    <row r="207" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C207" s="5"/>
       <c r="D207" s="9"/>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
     </row>
-    <row r="208" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C208" s="5"/>
       <c r="D208" s="9"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
     </row>
-    <row r="209" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C209" s="5"/>
       <c r="D209" s="9"/>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
     </row>
-    <row r="210" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C210" s="5"/>
       <c r="D210" s="9"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
     </row>
-    <row r="211" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C211" s="5"/>
       <c r="D211" s="9"/>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
     </row>
-    <row r="212" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C212" s="5"/>
       <c r="D212" s="9"/>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
     </row>
-    <row r="213" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C213" s="5"/>
       <c r="D213" s="9"/>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
     </row>
-    <row r="214" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C214" s="5"/>
       <c r="D214" s="9"/>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
     </row>
-    <row r="215" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C215" s="5"/>
       <c r="D215" s="9"/>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
     </row>
-    <row r="216" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C216" s="5"/>
       <c r="D216" s="9"/>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
     </row>
-    <row r="217" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C217" s="5"/>
       <c r="D217" s="9"/>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
     </row>
-    <row r="218" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C218" s="5"/>
       <c r="D218" s="9"/>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
     </row>
-    <row r="219" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C219" s="5"/>
       <c r="D219" s="9"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
     </row>
-    <row r="220" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C220" s="5"/>
       <c r="D220" s="9"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
     </row>
-    <row r="221" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C221" s="5"/>
       <c r="D221" s="9"/>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
     </row>
-    <row r="222" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C222" s="5"/>
       <c r="D222" s="9"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
     </row>
-    <row r="223" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C223" s="5"/>
       <c r="D223" s="9"/>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
     </row>
-    <row r="224" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C224" s="5"/>
       <c r="D224" s="9"/>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
     </row>
-    <row r="225" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C225" s="5"/>
       <c r="D225" s="9"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
     </row>
-    <row r="226" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C226" s="5"/>
       <c r="D226" s="9"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
     </row>
-    <row r="227" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C227" s="5"/>
       <c r="D227" s="9"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
     </row>
-    <row r="228" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C228" s="5"/>
       <c r="D228" s="9"/>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
     </row>
-    <row r="229" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C229" s="5"/>
       <c r="D229" s="9"/>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
     </row>
-    <row r="230" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C230" s="5"/>
       <c r="D230" s="9"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
     </row>
-    <row r="231" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C231" s="5"/>
       <c r="D231" s="9"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
     </row>
-    <row r="232" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C232" s="5"/>
       <c r="D232" s="9"/>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
     </row>
-    <row r="233" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C233" s="5"/>
       <c r="D233" s="9"/>
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
     </row>
-    <row r="234" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C234" s="5"/>
       <c r="D234" s="9"/>
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
     </row>
-    <row r="235" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C235" s="5"/>
       <c r="D235" s="9"/>
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
     </row>
-    <row r="236" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C236" s="5"/>
       <c r="D236" s="9"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
     </row>
-    <row r="237" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C237" s="5"/>
       <c r="D237" s="9"/>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
     </row>
-    <row r="238" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C238" s="5"/>
       <c r="D238" s="9"/>
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
     </row>
-    <row r="239" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C239" s="5"/>
       <c r="D239" s="9"/>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
     </row>
-    <row r="240" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C240" s="5"/>
       <c r="D240" s="9"/>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
     </row>
-    <row r="241" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C241" s="5"/>
       <c r="D241" s="9"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
     </row>
-    <row r="242" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C242" s="5"/>
       <c r="D242" s="9"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
     </row>
-    <row r="243" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C243" s="5"/>
       <c r="D243" s="9"/>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
     </row>
-    <row r="244" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C244" s="5"/>
       <c r="D244" s="9"/>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
     </row>
-    <row r="245" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C245" s="5"/>
       <c r="D245" s="9"/>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
     </row>
-    <row r="246" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C246" s="5"/>
       <c r="D246" s="9"/>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
     </row>
-    <row r="247" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C247" s="5"/>
       <c r="D247" s="9"/>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
     </row>
-    <row r="248" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C248" s="5"/>
       <c r="D248" s="9"/>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
     </row>
-    <row r="249" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C249" s="5"/>
       <c r="D249" s="9"/>
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
     </row>
-    <row r="250" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C250" s="5"/>
       <c r="D250" s="9"/>
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
     </row>
-    <row r="251" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C251" s="5"/>
       <c r="D251" s="9"/>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
     </row>
-    <row r="252" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C252" s="5"/>
       <c r="D252" s="9"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
     </row>
-    <row r="253" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C253" s="5"/>
       <c r="D253" s="9"/>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
     </row>
-    <row r="254" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C254" s="5"/>
       <c r="D254" s="9"/>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
     </row>
-    <row r="255" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C255" s="5"/>
       <c r="D255" s="9"/>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
     </row>
-    <row r="256" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C256" s="5"/>
       <c r="D256" s="9"/>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
     </row>
-    <row r="257" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C257" s="5"/>
       <c r="D257" s="9"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
     </row>
-    <row r="258" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C258" s="5"/>
       <c r="D258" s="9"/>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
     </row>
-    <row r="259" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C259" s="5"/>
       <c r="D259" s="9"/>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
     </row>
-    <row r="260" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C260" s="5"/>
       <c r="D260" s="9"/>
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
     </row>
-    <row r="261" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C261" s="5"/>
       <c r="D261" s="9"/>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
     </row>
-    <row r="262" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C262" s="5"/>
       <c r="D262" s="9"/>
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
     </row>
-    <row r="263" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C263" s="5"/>
       <c r="D263" s="9"/>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
     </row>
-    <row r="264" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C264" s="5"/>
       <c r="D264" s="9"/>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
     </row>
-    <row r="265" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C265" s="5"/>
       <c r="D265" s="9"/>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
     </row>
-    <row r="266" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C266" s="5"/>
       <c r="D266" s="9"/>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
     </row>
-    <row r="267" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C267" s="5"/>
       <c r="D267" s="9"/>
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
     </row>
-    <row r="268" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C268" s="5"/>
       <c r="D268" s="9"/>
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
     </row>
-    <row r="269" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C269" s="5"/>
       <c r="D269" s="9"/>
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
     </row>
-    <row r="270" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C270" s="5"/>
       <c r="D270" s="9"/>
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
     </row>
-    <row r="271" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C271" s="5"/>
       <c r="D271" s="9"/>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
     </row>
-    <row r="272" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C272" s="5"/>
       <c r="D272" s="9"/>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
     </row>
-    <row r="273" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C273" s="5"/>
       <c r="D273" s="9"/>
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
     </row>
-    <row r="274" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C274" s="5"/>
       <c r="D274" s="9"/>
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
     </row>
-    <row r="275" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C275" s="5"/>
       <c r="D275" s="9"/>
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
     </row>
-    <row r="276" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C276" s="5"/>
       <c r="D276" s="9"/>
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
     </row>
-    <row r="277" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C277" s="5"/>
       <c r="D277" s="9"/>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
     </row>
-    <row r="278" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C278" s="5"/>
       <c r="D278" s="9"/>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
     </row>
-    <row r="279" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C279" s="5"/>
       <c r="D279" s="9"/>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
     </row>
-    <row r="280" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C280" s="5"/>
       <c r="D280" s="9"/>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
     </row>
-    <row r="281" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C281" s="5"/>
       <c r="D281" s="9"/>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
     </row>
-    <row r="282" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C282" s="5"/>
       <c r="D282" s="9"/>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
     </row>
-    <row r="283" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C283" s="5"/>
       <c r="D283" s="9"/>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
     </row>
-    <row r="284" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C284" s="5"/>
       <c r="D284" s="9"/>
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
     </row>
-    <row r="285" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C285" s="5"/>
       <c r="D285" s="9"/>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
     </row>
-    <row r="286" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C286" s="5"/>
       <c r="D286" s="9"/>
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
     </row>
-    <row r="287" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C287" s="5"/>
       <c r="D287" s="9"/>
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
     </row>
-    <row r="288" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C288" s="5"/>
       <c r="D288" s="9"/>
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
     </row>
-    <row r="289" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C289" s="5"/>
       <c r="D289" s="9"/>
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
     </row>
-    <row r="290" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C290" s="5"/>
       <c r="D290" s="9"/>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
     </row>
-    <row r="291" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C291" s="5"/>
       <c r="D291" s="9"/>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
     </row>
-    <row r="292" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C292" s="5"/>
       <c r="D292" s="9"/>
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
     </row>
-    <row r="293" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C293" s="5"/>
       <c r="D293" s="9"/>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
     </row>
-    <row r="294" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C294" s="5"/>
       <c r="D294" s="9"/>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
     </row>
-    <row r="295" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C295" s="5"/>
       <c r="D295" s="9"/>
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
     </row>
-    <row r="296" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C296" s="5"/>
       <c r="D296" s="9"/>
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
     </row>
-    <row r="297" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C297" s="5"/>
       <c r="D297" s="9"/>
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
     </row>
-    <row r="298" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C298" s="5"/>
       <c r="D298" s="9"/>
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
     </row>
-    <row r="299" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C299" s="5"/>
       <c r="D299" s="9"/>
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
     </row>
-    <row r="300" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C300" s="5"/>
       <c r="D300" s="9"/>
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
     </row>
-    <row r="301" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C301" s="5"/>
       <c r="D301" s="9"/>
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
     </row>
-    <row r="302" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C302" s="5"/>
       <c r="D302" s="9"/>
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
     </row>
-    <row r="303" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C303" s="5"/>
       <c r="D303" s="9"/>
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
     </row>
-    <row r="304" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C304" s="5"/>
       <c r="D304" s="9"/>
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
     </row>
-    <row r="305" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C305" s="5"/>
       <c r="D305" s="9"/>
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
     </row>
-    <row r="306" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C306" s="5"/>
       <c r="D306" s="9"/>
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
     </row>
-    <row r="307" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C307" s="5"/>
       <c r="D307" s="9"/>
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
     </row>
-    <row r="308" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C308" s="5"/>
       <c r="D308" s="9"/>
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
     </row>
-    <row r="309" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C309" s="5"/>
       <c r="D309" s="9"/>
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
     </row>
-    <row r="310" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C310" s="5"/>
       <c r="D310" s="9"/>
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
     </row>
-    <row r="311" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C311" s="5"/>
       <c r="D311" s="9"/>
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
     </row>
-    <row r="312" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C312" s="5"/>
       <c r="D312" s="9"/>
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
     </row>
-    <row r="313" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C313" s="5"/>
       <c r="D313" s="9"/>
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
     </row>
-    <row r="314" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C314" s="5"/>
       <c r="D314" s="9"/>
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
     </row>
-    <row r="315" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C315" s="5"/>
       <c r="D315" s="9"/>
       <c r="E315" s="5"/>
       <c r="F315" s="5"/>
     </row>
-    <row r="316" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C316" s="5"/>
       <c r="D316" s="9"/>
       <c r="E316" s="5"/>
       <c r="F316" s="5"/>
     </row>
-    <row r="317" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C317" s="5"/>
       <c r="D317" s="9"/>
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
     </row>
-    <row r="318" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C318" s="5"/>
       <c r="D318" s="9"/>
       <c r="E318" s="5"/>
       <c r="F318" s="5"/>
     </row>
-    <row r="319" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C319" s="5"/>
       <c r="D319" s="9"/>
       <c r="E319" s="5"/>
       <c r="F319" s="5"/>
     </row>
-    <row r="320" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C320" s="5"/>
       <c r="D320" s="9"/>
       <c r="E320" s="5"/>
       <c r="F320" s="5"/>
     </row>
-    <row r="321" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C321" s="5"/>
       <c r="D321" s="9"/>
       <c r="E321" s="5"/>
       <c r="F321" s="5"/>
     </row>
-    <row r="322" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C322" s="5"/>
       <c r="D322" s="9"/>
       <c r="E322" s="5"/>
       <c r="F322" s="5"/>
     </row>
-    <row r="323" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C323" s="5"/>
       <c r="D323" s="9"/>
       <c r="E323" s="5"/>
       <c r="F323" s="5"/>
     </row>
-    <row r="324" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C324" s="5"/>
       <c r="D324" s="9"/>
       <c r="E324" s="5"/>
       <c r="F324" s="5"/>
     </row>
-    <row r="325" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C325" s="5"/>
       <c r="D325" s="9"/>
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
     </row>
-    <row r="326" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C326" s="5"/>
       <c r="D326" s="9"/>
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
     </row>
-    <row r="327" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C327" s="5"/>
       <c r="D327" s="9"/>
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
     </row>
-    <row r="328" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C328" s="5"/>
       <c r="D328" s="9"/>
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
     </row>
-    <row r="329" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C329" s="5"/>
       <c r="D329" s="9"/>
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
     </row>
-    <row r="330" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C330" s="5"/>
       <c r="D330" s="9"/>
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
     </row>
-    <row r="331" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C331" s="5"/>
       <c r="D331" s="9"/>
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
     </row>
-    <row r="332" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C332" s="5"/>
       <c r="D332" s="9"/>
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
     </row>
-    <row r="333" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C333" s="5"/>
       <c r="D333" s="9"/>
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
     </row>
-    <row r="334" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C334" s="5"/>
       <c r="D334" s="9"/>
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
     </row>
-    <row r="335" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C335" s="5"/>
       <c r="D335" s="9"/>
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
     </row>
-    <row r="336" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C336" s="5"/>
       <c r="D336" s="9"/>
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
     </row>
-    <row r="337" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C337" s="5"/>
       <c r="D337" s="9"/>
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
     </row>
-    <row r="338" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C338" s="5"/>
       <c r="D338" s="9"/>
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
     </row>
-    <row r="339" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C339" s="5"/>
       <c r="D339" s="9"/>
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
     </row>
-    <row r="340" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C340" s="5"/>
       <c r="D340" s="9"/>
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
     </row>
-    <row r="341" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C341" s="5"/>
       <c r="D341" s="9"/>
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
     </row>
-    <row r="342" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C342" s="5"/>
       <c r="D342" s="9"/>
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
     </row>
-    <row r="343" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C343" s="5"/>
       <c r="D343" s="9"/>
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
     </row>
-    <row r="344" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C344" s="5"/>
       <c r="D344" s="9"/>
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
     </row>
-    <row r="345" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C345" s="5"/>
       <c r="D345" s="9"/>
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
     </row>
-    <row r="346" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C346" s="5"/>
       <c r="D346" s="9"/>
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
     </row>
-    <row r="347" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C347" s="5"/>
       <c r="D347" s="9"/>
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
     </row>
-    <row r="348" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C348" s="5"/>
       <c r="D348" s="9"/>
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
     </row>
-    <row r="349" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C349" s="5"/>
       <c r="D349" s="9"/>
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
     </row>
-    <row r="350" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C350" s="5"/>
       <c r="D350" s="9"/>
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
     </row>
-    <row r="351" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C351" s="5"/>
       <c r="D351" s="9"/>
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
     </row>
-    <row r="352" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C352" s="5"/>
       <c r="D352" s="9"/>
       <c r="E352" s="5"/>
       <c r="F352" s="5"/>
     </row>
-    <row r="353" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C353" s="5"/>
       <c r="D353" s="9"/>
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
     </row>
-    <row r="354" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C354" s="5"/>
       <c r="D354" s="9"/>
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
     </row>
-    <row r="355" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C355" s="5"/>
       <c r="D355" s="9"/>
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
     </row>
-    <row r="356" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C356" s="5"/>
       <c r="D356" s="9"/>
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
     </row>
-    <row r="357" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C357" s="5"/>
       <c r="D357" s="9"/>
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
     </row>
-    <row r="358" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C358" s="5"/>
       <c r="D358" s="9"/>
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
     </row>
-    <row r="359" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C359" s="5"/>
       <c r="D359" s="9"/>
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
     </row>
-    <row r="360" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C360" s="5"/>
       <c r="D360" s="9"/>
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
     </row>
-    <row r="361" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C361" s="5"/>
       <c r="D361" s="9"/>
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
     </row>
-    <row r="362" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C362" s="5"/>
       <c r="D362" s="9"/>
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
     </row>
-    <row r="363" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C363" s="5"/>
       <c r="D363" s="9"/>
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
     </row>
-    <row r="364" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C364" s="5"/>
       <c r="D364" s="9"/>
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
     </row>
-    <row r="365" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C365" s="5"/>
       <c r="D365" s="9"/>
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
     </row>
-    <row r="366" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C366" s="5"/>
       <c r="D366" s="9"/>
       <c r="E366" s="5"/>
       <c r="F366" s="5"/>
     </row>
-    <row r="367" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C367" s="5"/>
       <c r="D367" s="9"/>
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
     </row>
-    <row r="368" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C368" s="5"/>
       <c r="D368" s="9"/>
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
     </row>
-    <row r="369" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C369" s="5"/>
       <c r="D369" s="9"/>
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
     </row>
-    <row r="370" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C370" s="5"/>
       <c r="D370" s="9"/>
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
     </row>
-    <row r="371" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C371" s="5"/>
       <c r="D371" s="9"/>
       <c r="E371" s="5"/>
       <c r="F371" s="5"/>
     </row>
-    <row r="372" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C372" s="5"/>
       <c r="D372" s="9"/>
       <c r="E372" s="5"/>
       <c r="F372" s="5"/>
     </row>
-    <row r="373" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C373" s="5"/>
       <c r="D373" s="9"/>
       <c r="E373" s="5"/>
       <c r="F373" s="5"/>
     </row>
-    <row r="374" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C374" s="5"/>
       <c r="D374" s="9"/>
       <c r="E374" s="5"/>
       <c r="F374" s="5"/>
     </row>
-    <row r="375" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C375" s="5"/>
       <c r="D375" s="9"/>
       <c r="E375" s="5"/>
       <c r="F375" s="5"/>
     </row>
-    <row r="376" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C376" s="5"/>
       <c r="D376" s="9"/>
       <c r="E376" s="5"/>
       <c r="F376" s="5"/>
     </row>
-    <row r="377" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C377" s="5"/>
       <c r="D377" s="9"/>
       <c r="E377" s="5"/>
       <c r="F377" s="5"/>
     </row>
-    <row r="378" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C378" s="5"/>
       <c r="D378" s="9"/>
       <c r="E378" s="5"/>
       <c r="F378" s="5"/>
     </row>
-    <row r="379" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C379" s="5"/>
       <c r="D379" s="9"/>
       <c r="E379" s="5"/>
       <c r="F379" s="5"/>
     </row>
-    <row r="380" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C380" s="5"/>
       <c r="D380" s="9"/>
       <c r="E380" s="5"/>
       <c r="F380" s="5"/>
     </row>
-    <row r="381" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C381" s="5"/>
       <c r="D381" s="9"/>
       <c r="E381" s="5"/>
       <c r="F381" s="5"/>
     </row>
-    <row r="382" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C382" s="5"/>
       <c r="D382" s="9"/>
       <c r="E382" s="5"/>
       <c r="F382" s="5"/>
     </row>
-    <row r="383" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C383" s="5"/>
       <c r="D383" s="9"/>
       <c r="E383" s="5"/>
       <c r="F383" s="5"/>
     </row>
-    <row r="384" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C384" s="5"/>
       <c r="D384" s="9"/>
       <c r="E384" s="5"/>
       <c r="F384" s="5"/>
     </row>
-    <row r="385" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C385" s="5"/>
       <c r="D385" s="9"/>
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
     </row>
-    <row r="386" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C386" s="5"/>
       <c r="D386" s="9"/>
       <c r="E386" s="5"/>
       <c r="F386" s="5"/>
     </row>
-    <row r="387" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C387" s="5"/>
       <c r="D387" s="9"/>
       <c r="E387" s="5"/>
       <c r="F387" s="5"/>
     </row>
-    <row r="388" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C388" s="5"/>
       <c r="D388" s="9"/>
       <c r="E388" s="5"/>
       <c r="F388" s="5"/>
     </row>
-    <row r="389" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C389" s="5"/>
       <c r="D389" s="9"/>
       <c r="E389" s="5"/>
       <c r="F389" s="5"/>
     </row>
-    <row r="390" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C390" s="5"/>
       <c r="D390" s="9"/>
       <c r="E390" s="5"/>
       <c r="F390" s="5"/>
     </row>
-    <row r="391" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C391" s="5"/>
       <c r="D391" s="9"/>
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
     </row>
-    <row r="392" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C392" s="5"/>
       <c r="D392" s="9"/>
       <c r="E392" s="5"/>
       <c r="F392" s="5"/>
     </row>
-    <row r="393" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C393" s="5"/>
       <c r="D393" s="9"/>
       <c r="E393" s="5"/>
       <c r="F393" s="5"/>
     </row>
-    <row r="394" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C394" s="5"/>
       <c r="D394" s="9"/>
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
     </row>
-    <row r="395" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C395" s="5"/>
       <c r="D395" s="9"/>
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
     </row>
-    <row r="396" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C396" s="5"/>
       <c r="D396" s="9"/>
       <c r="E396" s="5"/>
       <c r="F396" s="5"/>
     </row>
-    <row r="397" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C397" s="5"/>
       <c r="D397" s="9"/>
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
     </row>
-    <row r="398" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C398" s="5"/>
       <c r="D398" s="9"/>
       <c r="E398" s="5"/>
       <c r="F398" s="5"/>
     </row>
-    <row r="399" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C399" s="5"/>
       <c r="D399" s="9"/>
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
     </row>
-    <row r="400" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C400" s="5"/>
       <c r="D400" s="9"/>
       <c r="E400" s="5"/>
       <c r="F400" s="5"/>
     </row>
-    <row r="401" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C401" s="5"/>
       <c r="D401" s="9"/>
       <c r="E401" s="5"/>
       <c r="F401" s="5"/>
     </row>
-    <row r="402" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C402" s="5"/>
       <c r="D402" s="9"/>
       <c r="E402" s="5"/>
       <c r="F402" s="5"/>
     </row>
-    <row r="403" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C403" s="5"/>
       <c r="D403" s="9"/>
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
     </row>
-    <row r="404" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C404" s="5"/>
       <c r="D404" s="9"/>
       <c r="E404" s="5"/>
       <c r="F404" s="5"/>
     </row>
-    <row r="405" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C405" s="5"/>
       <c r="D405" s="9"/>
       <c r="E405" s="5"/>
       <c r="F405" s="5"/>
     </row>
-    <row r="406" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C406" s="5"/>
       <c r="D406" s="9"/>
       <c r="E406" s="5"/>
       <c r="F406" s="5"/>
     </row>
-    <row r="407" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C407" s="5"/>
       <c r="D407" s="9"/>
       <c r="E407" s="5"/>
       <c r="F407" s="5"/>
     </row>
-    <row r="408" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C408" s="5"/>
       <c r="D408" s="9"/>
       <c r="E408" s="5"/>
       <c r="F408" s="5"/>
     </row>
-    <row r="409" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C409" s="5"/>
       <c r="D409" s="9"/>
       <c r="E409" s="5"/>
       <c r="F409" s="5"/>
     </row>
-    <row r="410" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C410" s="5"/>
       <c r="D410" s="9"/>
       <c r="E410" s="5"/>
       <c r="F410" s="5"/>
     </row>
-    <row r="411" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C411" s="5"/>
       <c r="D411" s="9"/>
       <c r="E411" s="5"/>
       <c r="F411" s="5"/>
     </row>
-    <row r="412" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C412" s="5"/>
       <c r="D412" s="9"/>
       <c r="E412" s="5"/>
       <c r="F412" s="5"/>
     </row>
-    <row r="413" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C413" s="5"/>
       <c r="D413" s="9"/>
       <c r="E413" s="5"/>
       <c r="F413" s="5"/>
     </row>
-    <row r="414" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C414" s="5"/>
       <c r="D414" s="9"/>
       <c r="E414" s="5"/>
       <c r="F414" s="5"/>
     </row>
-    <row r="415" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C415" s="5"/>
       <c r="D415" s="9"/>
       <c r="E415" s="5"/>
       <c r="F415" s="5"/>
     </row>
-    <row r="416" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C416" s="5"/>
       <c r="D416" s="9"/>
       <c r="E416" s="5"/>
       <c r="F416" s="5"/>
     </row>
-    <row r="417" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C417" s="5"/>
       <c r="D417" s="9"/>
       <c r="E417" s="5"/>
       <c r="F417" s="5"/>
     </row>
-    <row r="418" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C418" s="5"/>
       <c r="D418" s="9"/>
       <c r="E418" s="5"/>
       <c r="F418" s="5"/>
     </row>
-    <row r="419" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C419" s="5"/>
       <c r="D419" s="9"/>
       <c r="E419" s="5"/>
       <c r="F419" s="5"/>
     </row>
-    <row r="420" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C420" s="5"/>
       <c r="D420" s="9"/>
       <c r="E420" s="5"/>
       <c r="F420" s="5"/>
     </row>
-    <row r="421" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C421" s="5"/>
       <c r="D421" s="9"/>
       <c r="E421" s="5"/>
       <c r="F421" s="5"/>
     </row>
-    <row r="422" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C422" s="5"/>
       <c r="D422" s="9"/>
       <c r="E422" s="5"/>
       <c r="F422" s="5"/>
     </row>
-    <row r="423" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C423" s="5"/>
       <c r="D423" s="9"/>
       <c r="E423" s="5"/>
       <c r="F423" s="5"/>
     </row>
-    <row r="424" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C424" s="5"/>
       <c r="D424" s="9"/>
       <c r="E424" s="5"/>
       <c r="F424" s="5"/>
     </row>
-    <row r="425" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C425" s="5"/>
       <c r="D425" s="9"/>
       <c r="E425" s="5"/>
       <c r="F425" s="5"/>
     </row>
-    <row r="426" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C426" s="5"/>
       <c r="D426" s="9"/>
       <c r="E426" s="5"/>
       <c r="F426" s="5"/>
     </row>
-    <row r="427" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C427" s="5"/>
       <c r="D427" s="9"/>
       <c r="E427" s="5"/>
       <c r="F427" s="5"/>
     </row>
-    <row r="428" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C428" s="5"/>
       <c r="D428" s="9"/>
       <c r="E428" s="5"/>
       <c r="F428" s="5"/>
     </row>
-    <row r="429" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C429" s="5"/>
       <c r="D429" s="9"/>
       <c r="E429" s="5"/>
       <c r="F429" s="5"/>
     </row>
-    <row r="430" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C430" s="5"/>
       <c r="D430" s="9"/>
       <c r="E430" s="5"/>
       <c r="F430" s="5"/>
     </row>
-    <row r="431" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C431" s="5"/>
       <c r="D431" s="9"/>
       <c r="E431" s="5"/>
       <c r="F431" s="5"/>
     </row>
-    <row r="432" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C432" s="5"/>
       <c r="D432" s="9"/>
       <c r="E432" s="5"/>
       <c r="F432" s="5"/>
     </row>
-    <row r="433" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C433" s="5"/>
       <c r="D433" s="9"/>
       <c r="E433" s="5"/>
       <c r="F433" s="5"/>
     </row>
-    <row r="434" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C434" s="5"/>
       <c r="D434" s="9"/>
       <c r="E434" s="5"/>
       <c r="F434" s="5"/>
     </row>
-    <row r="435" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C435" s="5"/>
       <c r="D435" s="9"/>
       <c r="E435" s="5"/>
       <c r="F435" s="5"/>
     </row>
-    <row r="436" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C436" s="5"/>
       <c r="D436" s="9"/>
       <c r="E436" s="5"/>
       <c r="F436" s="5"/>
     </row>
-    <row r="437" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C437" s="5"/>
       <c r="D437" s="9"/>
       <c r="E437" s="5"/>
       <c r="F437" s="5"/>
     </row>
-    <row r="438" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C438" s="5"/>
       <c r="D438" s="9"/>
       <c r="E438" s="5"/>
       <c r="F438" s="5"/>
     </row>
-    <row r="439" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C439" s="5"/>
       <c r="D439" s="9"/>
       <c r="E439" s="5"/>
       <c r="F439" s="5"/>
     </row>
-    <row r="440" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C440" s="5"/>
       <c r="D440" s="9"/>
       <c r="E440" s="5"/>
       <c r="F440" s="5"/>
     </row>
-    <row r="441" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C441" s="5"/>
       <c r="D441" s="9"/>
       <c r="E441" s="5"/>
       <c r="F441" s="5"/>
     </row>
-    <row r="442" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C442" s="5"/>
       <c r="D442" s="9"/>
       <c r="E442" s="5"/>
       <c r="F442" s="5"/>
     </row>
-    <row r="443" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C443" s="5"/>
       <c r="D443" s="9"/>
       <c r="E443" s="5"/>
       <c r="F443" s="5"/>
     </row>
-    <row r="444" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C444" s="5"/>
       <c r="D444" s="9"/>
       <c r="E444" s="5"/>
       <c r="F444" s="5"/>
     </row>
-    <row r="445" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C445" s="5"/>
       <c r="D445" s="9"/>
       <c r="E445" s="5"/>
       <c r="F445" s="5"/>
     </row>
-    <row r="446" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C446" s="5"/>
       <c r="D446" s="9"/>
       <c r="E446" s="5"/>
       <c r="F446" s="5"/>
     </row>
-    <row r="447" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C447" s="5"/>
       <c r="D447" s="9"/>
       <c r="E447" s="5"/>
       <c r="F447" s="5"/>
     </row>
-    <row r="448" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C448" s="5"/>
       <c r="D448" s="9"/>
       <c r="E448" s="5"/>
       <c r="F448" s="5"/>
     </row>
-    <row r="449" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C449" s="5"/>
       <c r="D449" s="9"/>
       <c r="E449" s="5"/>
       <c r="F449" s="5"/>
     </row>
-    <row r="450" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C450" s="5"/>
       <c r="D450" s="9"/>
       <c r="E450" s="5"/>
       <c r="F450" s="5"/>
     </row>
-    <row r="451" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C451" s="5"/>
       <c r="D451" s="9"/>
       <c r="E451" s="5"/>
       <c r="F451" s="5"/>
     </row>
-    <row r="452" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C452" s="5"/>
       <c r="D452" s="9"/>
       <c r="E452" s="5"/>
       <c r="F452" s="5"/>
     </row>
-    <row r="453" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C453" s="5"/>
       <c r="D453" s="9"/>
       <c r="E453" s="5"/>
       <c r="F453" s="5"/>
     </row>
-    <row r="454" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C454" s="5"/>
       <c r="D454" s="9"/>
       <c r="E454" s="5"/>
       <c r="F454" s="5"/>
     </row>
-    <row r="455" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C455" s="5"/>
       <c r="D455" s="9"/>
       <c r="E455" s="5"/>
       <c r="F455" s="5"/>
     </row>
-    <row r="456" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C456" s="5"/>
       <c r="D456" s="9"/>
       <c r="E456" s="5"/>
       <c r="F456" s="5"/>
     </row>
-    <row r="457" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C457" s="5"/>
       <c r="D457" s="9"/>
       <c r="E457" s="5"/>
       <c r="F457" s="5"/>
     </row>
-    <row r="458" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C458" s="5"/>
       <c r="D458" s="9"/>
       <c r="E458" s="5"/>
       <c r="F458" s="5"/>
     </row>
-    <row r="459" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C459" s="5"/>
       <c r="D459" s="9"/>
       <c r="E459" s="5"/>
       <c r="F459" s="5"/>
     </row>
-    <row r="460" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C460" s="5"/>
       <c r="D460" s="9"/>
       <c r="E460" s="5"/>
       <c r="F460" s="5"/>
     </row>
-    <row r="461" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C461" s="5"/>
       <c r="D461" s="9"/>
       <c r="E461" s="5"/>
       <c r="F461" s="5"/>
     </row>
-    <row r="462" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C462" s="5"/>
       <c r="D462" s="9"/>
       <c r="E462" s="5"/>
       <c r="F462" s="5"/>
     </row>
-    <row r="463" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C463" s="5"/>
       <c r="D463" s="9"/>
       <c r="E463" s="5"/>
       <c r="F463" s="5"/>
     </row>
-    <row r="464" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C464" s="5"/>
       <c r="D464" s="9"/>
       <c r="E464" s="5"/>
       <c r="F464" s="5"/>
     </row>
-    <row r="465" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C465" s="5"/>
       <c r="D465" s="9"/>
       <c r="E465" s="5"/>
       <c r="F465" s="5"/>
     </row>
-    <row r="466" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C466" s="5"/>
       <c r="D466" s="9"/>
       <c r="E466" s="5"/>
       <c r="F466" s="5"/>
     </row>
-    <row r="467" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C467" s="5"/>
       <c r="D467" s="9"/>
       <c r="E467" s="5"/>
       <c r="F467" s="5"/>
     </row>
-    <row r="468" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C468" s="5"/>
       <c r="D468" s="9"/>
       <c r="E468" s="5"/>
       <c r="F468" s="5"/>
     </row>
-    <row r="469" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C469" s="5"/>
       <c r="D469" s="9"/>
       <c r="E469" s="5"/>
       <c r="F469" s="5"/>
     </row>
-    <row r="470" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C470" s="5"/>
       <c r="D470" s="9"/>
       <c r="E470" s="5"/>
       <c r="F470" s="5"/>
     </row>
-    <row r="471" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C471" s="5"/>
       <c r="D471" s="9"/>
       <c r="E471" s="5"/>
       <c r="F471" s="5"/>
     </row>
-    <row r="472" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C472" s="5"/>
       <c r="D472" s="9"/>
       <c r="E472" s="5"/>
       <c r="F472" s="5"/>
     </row>
-    <row r="473" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C473" s="5"/>
       <c r="D473" s="9"/>
       <c r="E473" s="5"/>
       <c r="F473" s="5"/>
     </row>
-    <row r="474" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C474" s="5"/>
       <c r="D474" s="9"/>
       <c r="E474" s="5"/>
       <c r="F474" s="5"/>
     </row>
-    <row r="475" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C475" s="5"/>
       <c r="D475" s="9"/>
       <c r="E475" s="5"/>
       <c r="F475" s="5"/>
     </row>
-    <row r="476" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C476" s="5"/>
       <c r="D476" s="9"/>
       <c r="E476" s="5"/>
       <c r="F476" s="5"/>
     </row>
-    <row r="477" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C477" s="5"/>
       <c r="D477" s="9"/>
       <c r="E477" s="5"/>
       <c r="F477" s="5"/>
     </row>
-    <row r="478" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C478" s="5"/>
       <c r="D478" s="9"/>
       <c r="E478" s="5"/>
       <c r="F478" s="5"/>
     </row>
-    <row r="479" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C479" s="5"/>
       <c r="D479" s="9"/>
       <c r="E479" s="5"/>
       <c r="F479" s="5"/>
     </row>
-    <row r="480" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C480" s="5"/>
       <c r="D480" s="9"/>
       <c r="E480" s="5"/>
       <c r="F480" s="5"/>
     </row>
-    <row r="481" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C481" s="5"/>
       <c r="D481" s="9"/>
       <c r="E481" s="5"/>
       <c r="F481" s="5"/>
     </row>
-    <row r="482" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C482" s="5"/>
       <c r="D482" s="9"/>
       <c r="E482" s="5"/>
       <c r="F482" s="5"/>
     </row>
-    <row r="483" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C483" s="5"/>
       <c r="D483" s="9"/>
       <c r="E483" s="5"/>
       <c r="F483" s="5"/>
     </row>
-    <row r="484" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C484" s="5"/>
       <c r="D484" s="9"/>
       <c r="E484" s="5"/>
       <c r="F484" s="5"/>
     </row>
-    <row r="485" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C485" s="5"/>
       <c r="D485" s="9"/>
       <c r="E485" s="5"/>
       <c r="F485" s="5"/>
     </row>
-    <row r="486" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C486" s="5"/>
       <c r="D486" s="9"/>
       <c r="E486" s="5"/>
       <c r="F486" s="5"/>
     </row>
-    <row r="487" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C487" s="5"/>
       <c r="D487" s="9"/>
       <c r="E487" s="5"/>
       <c r="F487" s="5"/>
     </row>
-    <row r="488" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C488" s="5"/>
       <c r="D488" s="9"/>
       <c r="E488" s="5"/>
       <c r="F488" s="5"/>
     </row>
-    <row r="489" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C489" s="5"/>
       <c r="D489" s="9"/>
       <c r="E489" s="5"/>
       <c r="F489" s="5"/>
     </row>
-    <row r="490" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C490" s="5"/>
       <c r="D490" s="9"/>
       <c r="E490" s="5"/>
       <c r="F490" s="5"/>
     </row>
-    <row r="491" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C491" s="5"/>
       <c r="D491" s="9"/>
       <c r="E491" s="5"/>
       <c r="F491" s="5"/>
     </row>
-    <row r="492" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C492" s="5"/>
       <c r="D492" s="9"/>
       <c r="E492" s="5"/>
       <c r="F492" s="5"/>
     </row>
-    <row r="493" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C493" s="5"/>
       <c r="D493" s="9"/>
       <c r="E493" s="5"/>
       <c r="F493" s="5"/>
     </row>
-    <row r="494" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C494" s="5"/>
       <c r="D494" s="9"/>
       <c r="E494" s="5"/>
       <c r="F494" s="5"/>
     </row>
-    <row r="495" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C495" s="5"/>
       <c r="D495" s="9"/>
       <c r="E495" s="5"/>
       <c r="F495" s="5"/>
     </row>
-    <row r="496" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C496" s="5"/>
       <c r="D496" s="9"/>
       <c r="E496" s="5"/>
       <c r="F496" s="5"/>
     </row>
-    <row r="497" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C497" s="5"/>
       <c r="D497" s="9"/>
       <c r="E497" s="5"/>
       <c r="F497" s="5"/>
     </row>
-    <row r="498" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C498" s="5"/>
       <c r="D498" s="9"/>
       <c r="E498" s="5"/>
       <c r="F498" s="5"/>
     </row>
-    <row r="499" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C499" s="5"/>
       <c r="D499" s="9"/>
       <c r="E499" s="5"/>
       <c r="F499" s="5"/>
     </row>
-    <row r="500" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C500" s="5"/>
       <c r="D500" s="9"/>
       <c r="E500" s="5"/>
       <c r="F500" s="5"/>
     </row>
-    <row r="501" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C501" s="5"/>
       <c r="D501" s="9"/>
       <c r="E501" s="5"/>
       <c r="F501" s="5"/>
     </row>
-    <row r="502" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C502" s="5"/>
       <c r="D502" s="9"/>
       <c r="E502" s="5"/>
       <c r="F502" s="5"/>
     </row>
-    <row r="503" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C503" s="5"/>
       <c r="D503" s="9"/>
       <c r="E503" s="5"/>
       <c r="F503" s="5"/>
     </row>
-    <row r="504" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C504" s="5"/>
       <c r="D504" s="9"/>
       <c r="E504" s="5"/>
       <c r="F504" s="5"/>
     </row>
-    <row r="505" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C505" s="5"/>
       <c r="D505" s="9"/>
       <c r="E505" s="5"/>
       <c r="F505" s="5"/>
     </row>
-    <row r="506" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C506" s="5"/>
       <c r="D506" s="9"/>
       <c r="E506" s="5"/>
       <c r="F506" s="5"/>
     </row>
-    <row r="507" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C507" s="5"/>
       <c r="D507" s="9"/>
       <c r="E507" s="5"/>
       <c r="F507" s="5"/>
     </row>
-    <row r="508" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C508" s="5"/>
       <c r="D508" s="9"/>
       <c r="E508" s="5"/>
       <c r="F508" s="5"/>
     </row>
-    <row r="509" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C509" s="5"/>
       <c r="D509" s="9"/>
       <c r="E509" s="5"/>
       <c r="F509" s="5"/>
     </row>
-    <row r="510" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C510" s="5"/>
       <c r="D510" s="9"/>
       <c r="E510" s="5"/>
       <c r="F510" s="5"/>
     </row>
-    <row r="511" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C511" s="5"/>
       <c r="D511" s="9"/>
       <c r="E511" s="5"/>
       <c r="F511" s="5"/>
     </row>
-    <row r="512" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C512" s="5"/>
       <c r="D512" s="9"/>
       <c r="E512" s="5"/>
       <c r="F512" s="5"/>
     </row>
-    <row r="513" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C513" s="5"/>
       <c r="D513" s="9"/>
       <c r="E513" s="5"/>
       <c r="F513" s="5"/>
     </row>
-    <row r="514" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C514" s="5"/>
       <c r="D514" s="9"/>
       <c r="E514" s="5"/>
       <c r="F514" s="5"/>
     </row>
-    <row r="515" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C515" s="5"/>
       <c r="D515" s="9"/>
       <c r="E515" s="5"/>
       <c r="F515" s="5"/>
     </row>
-    <row r="516" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C516" s="5"/>
       <c r="D516" s="9"/>
       <c r="E516" s="5"/>
       <c r="F516" s="5"/>
     </row>
-    <row r="517" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C517" s="5"/>
       <c r="D517" s="9"/>
       <c r="E517" s="5"/>
       <c r="F517" s="5"/>
     </row>
-    <row r="518" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C518" s="5"/>
       <c r="D518" s="9"/>
       <c r="E518" s="5"/>
       <c r="F518" s="5"/>
     </row>
-    <row r="519" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C519" s="5"/>
       <c r="D519" s="9"/>
       <c r="E519" s="5"/>
       <c r="F519" s="5"/>
     </row>
-    <row r="520" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C520" s="5"/>
       <c r="D520" s="9"/>
       <c r="E520" s="5"/>
       <c r="F520" s="5"/>
     </row>
-    <row r="521" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C521" s="5"/>
       <c r="D521" s="9"/>
       <c r="E521" s="5"/>
       <c r="F521" s="5"/>
     </row>
-    <row r="522" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C522" s="5"/>
       <c r="D522" s="9"/>
       <c r="E522" s="5"/>
       <c r="F522" s="5"/>
     </row>
-    <row r="523" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C523" s="5"/>
       <c r="D523" s="9"/>
       <c r="E523" s="5"/>
       <c r="F523" s="5"/>
     </row>
-    <row r="524" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C524" s="5"/>
       <c r="D524" s="9"/>
       <c r="E524" s="5"/>
       <c r="F524" s="5"/>
     </row>
-    <row r="525" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C525" s="5"/>
       <c r="D525" s="9"/>
       <c r="E525" s="5"/>
       <c r="F525" s="5"/>
     </row>
-    <row r="526" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C526" s="5"/>
       <c r="D526" s="9"/>
       <c r="E526" s="5"/>
       <c r="F526" s="5"/>
     </row>
-    <row r="527" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C527" s="5"/>
       <c r="D527" s="9"/>
       <c r="E527" s="5"/>
       <c r="F527" s="5"/>
     </row>
-    <row r="528" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C528" s="5"/>
       <c r="D528" s="9"/>
       <c r="E528" s="5"/>
       <c r="F528" s="5"/>
     </row>
-    <row r="529" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C529" s="5"/>
       <c r="D529" s="9"/>
       <c r="E529" s="5"/>
       <c r="F529" s="5"/>
     </row>
-    <row r="530" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C530" s="5"/>
       <c r="D530" s="9"/>
       <c r="E530" s="5"/>
       <c r="F530" s="5"/>
     </row>
-    <row r="531" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C531" s="5"/>
       <c r="D531" s="9"/>
       <c r="E531" s="5"/>
       <c r="F531" s="5"/>
     </row>
-    <row r="532" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C532" s="5"/>
       <c r="D532" s="9"/>
       <c r="E532" s="5"/>
       <c r="F532" s="5"/>
     </row>
-    <row r="533" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C533" s="5"/>
       <c r="D533" s="9"/>
       <c r="E533" s="5"/>
       <c r="F533" s="5"/>
     </row>
-    <row r="534" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C534" s="5"/>
       <c r="D534" s="9"/>
       <c r="E534" s="5"/>
       <c r="F534" s="5"/>
     </row>
-    <row r="535" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C535" s="5"/>
       <c r="D535" s="9"/>
       <c r="E535" s="5"/>
       <c r="F535" s="5"/>
     </row>
-    <row r="536" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C536" s="5"/>
       <c r="D536" s="9"/>
       <c r="E536" s="5"/>
       <c r="F536" s="5"/>
     </row>
-    <row r="537" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C537" s="5"/>
       <c r="D537" s="9"/>
       <c r="E537" s="5"/>
       <c r="F537" s="5"/>
     </row>
-    <row r="538" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C538" s="5"/>
       <c r="D538" s="9"/>
       <c r="E538" s="5"/>
       <c r="F538" s="5"/>
     </row>
-    <row r="539" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C539" s="5"/>
       <c r="D539" s="9"/>
       <c r="E539" s="5"/>
       <c r="F539" s="5"/>
     </row>
-    <row r="540" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C540" s="5"/>
       <c r="D540" s="9"/>
       <c r="E540" s="5"/>
       <c r="F540" s="5"/>
     </row>
-    <row r="541" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C541" s="5"/>
       <c r="D541" s="9"/>
       <c r="E541" s="5"/>
       <c r="F541" s="5"/>
     </row>
-    <row r="542" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C542" s="5"/>
       <c r="D542" s="9"/>
       <c r="E542" s="5"/>
       <c r="F542" s="5"/>
     </row>
-    <row r="543" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C543" s="5"/>
       <c r="D543" s="9"/>
       <c r="E543" s="5"/>
       <c r="F543" s="5"/>
     </row>
-    <row r="544" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C544" s="5"/>
       <c r="D544" s="9"/>
       <c r="E544" s="5"/>
       <c r="F544" s="5"/>
     </row>
-    <row r="545" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C545" s="5"/>
       <c r="D545" s="9"/>
       <c r="E545" s="5"/>
       <c r="F545" s="5"/>
     </row>
-    <row r="546" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C546" s="5"/>
       <c r="D546" s="9"/>
       <c r="E546" s="5"/>
       <c r="F546" s="5"/>
     </row>
-    <row r="547" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C547" s="5"/>
       <c r="D547" s="9"/>
       <c r="E547" s="5"/>
       <c r="F547" s="5"/>
     </row>
-    <row r="548" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C548" s="5"/>
       <c r="D548" s="9"/>
       <c r="E548" s="5"/>
       <c r="F548" s="5"/>
     </row>
-    <row r="549" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C549" s="5"/>
       <c r="D549" s="9"/>
       <c r="E549" s="5"/>
       <c r="F549" s="5"/>
     </row>
-    <row r="550" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C550" s="5"/>
       <c r="D550" s="9"/>
       <c r="E550" s="5"/>
       <c r="F550" s="5"/>
     </row>
-    <row r="551" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C551" s="5"/>
       <c r="D551" s="9"/>
       <c r="E551" s="5"/>
       <c r="F551" s="5"/>
     </row>
-    <row r="552" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C552" s="5"/>
       <c r="D552" s="9"/>
       <c r="E552" s="5"/>
       <c r="F552" s="5"/>
     </row>
-    <row r="553" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C553" s="5"/>
       <c r="D553" s="9"/>
       <c r="E553" s="5"/>
       <c r="F553" s="5"/>
     </row>
-    <row r="554" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C554" s="5"/>
       <c r="D554" s="9"/>
       <c r="E554" s="5"/>
       <c r="F554" s="5"/>
     </row>
-    <row r="555" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C555" s="5"/>
       <c r="D555" s="9"/>
       <c r="E555" s="5"/>
       <c r="F555" s="5"/>
     </row>
-    <row r="556" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C556" s="5"/>
       <c r="D556" s="9"/>
       <c r="E556" s="5"/>
       <c r="F556" s="5"/>
     </row>
-    <row r="557" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C557" s="5"/>
       <c r="D557" s="9"/>
       <c r="E557" s="5"/>
       <c r="F557" s="5"/>
     </row>
-    <row r="558" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C558" s="5"/>
       <c r="D558" s="9"/>
       <c r="E558" s="5"/>
       <c r="F558" s="5"/>
     </row>
-    <row r="559" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C559" s="5"/>
       <c r="D559" s="9"/>
       <c r="E559" s="5"/>
       <c r="F559" s="5"/>
     </row>
-    <row r="560" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C560" s="5"/>
       <c r="D560" s="9"/>
       <c r="E560" s="5"/>
       <c r="F560" s="5"/>
     </row>
-    <row r="561" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C561" s="5"/>
       <c r="D561" s="9"/>
       <c r="E561" s="5"/>
       <c r="F561" s="5"/>
     </row>
-    <row r="562" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C562" s="5"/>
       <c r="D562" s="9"/>
       <c r="E562" s="5"/>
       <c r="F562" s="5"/>
     </row>
-    <row r="563" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C563" s="5"/>
       <c r="D563" s="9"/>
       <c r="E563" s="5"/>
       <c r="F563" s="5"/>
     </row>
-    <row r="564" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C564" s="5"/>
       <c r="D564" s="9"/>
       <c r="E564" s="5"/>
       <c r="F564" s="5"/>
     </row>
-    <row r="565" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C565" s="5"/>
       <c r="D565" s="9"/>
       <c r="E565" s="5"/>
       <c r="F565" s="5"/>
     </row>
-    <row r="566" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C566" s="5"/>
       <c r="D566" s="9"/>
       <c r="E566" s="5"/>
       <c r="F566" s="5"/>
     </row>
-    <row r="567" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C567" s="5"/>
       <c r="D567" s="9"/>
       <c r="E567" s="5"/>
       <c r="F567" s="5"/>
     </row>
-    <row r="568" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C568" s="5"/>
       <c r="D568" s="9"/>
       <c r="E568" s="5"/>
       <c r="F568" s="5"/>
     </row>
-    <row r="569" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C569" s="5"/>
       <c r="D569" s="9"/>
       <c r="E569" s="5"/>
       <c r="F569" s="5"/>
     </row>
-    <row r="570" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C570" s="5"/>
       <c r="D570" s="9"/>
       <c r="E570" s="5"/>
       <c r="F570" s="5"/>
     </row>
-    <row r="571" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C571" s="5"/>
       <c r="D571" s="9"/>
       <c r="E571" s="5"/>
       <c r="F571" s="5"/>
     </row>
-    <row r="572" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C572" s="5"/>
       <c r="D572" s="9"/>
       <c r="E572" s="5"/>
       <c r="F572" s="5"/>
     </row>
-    <row r="573" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C573" s="5"/>
       <c r="D573" s="9"/>
       <c r="E573" s="5"/>
       <c r="F573" s="5"/>
     </row>
-    <row r="574" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C574" s="5"/>
       <c r="D574" s="9"/>
       <c r="E574" s="5"/>
       <c r="F574" s="5"/>
     </row>
-    <row r="575" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C575" s="5"/>
       <c r="D575" s="9"/>
       <c r="E575" s="5"/>
       <c r="F575" s="5"/>
     </row>
-    <row r="576" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C576" s="5"/>
       <c r="D576" s="9"/>
       <c r="E576" s="5"/>
       <c r="F576" s="5"/>
     </row>
-    <row r="577" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C577" s="5"/>
       <c r="D577" s="9"/>
       <c r="E577" s="5"/>
       <c r="F577" s="5"/>
     </row>
-    <row r="578" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C578" s="5"/>
       <c r="D578" s="9"/>
       <c r="E578" s="5"/>
       <c r="F578" s="5"/>
     </row>
-    <row r="579" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C579" s="5"/>
       <c r="D579" s="9"/>
       <c r="E579" s="5"/>
       <c r="F579" s="5"/>
     </row>
-    <row r="580" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C580" s="5"/>
       <c r="D580" s="9"/>
       <c r="E580" s="5"/>
       <c r="F580" s="5"/>
     </row>
-    <row r="581" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C581" s="5"/>
       <c r="D581" s="9"/>
       <c r="E581" s="5"/>
       <c r="F581" s="5"/>
     </row>
-    <row r="582" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C582" s="5"/>
       <c r="D582" s="9"/>
       <c r="E582" s="5"/>
       <c r="F582" s="5"/>
     </row>
-    <row r="583" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C583" s="5"/>
       <c r="D583" s="9"/>
       <c r="E583" s="5"/>
       <c r="F583" s="5"/>
     </row>
-    <row r="584" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C584" s="5"/>
       <c r="D584" s="9"/>
       <c r="E584" s="5"/>
       <c r="F584" s="5"/>
     </row>
-    <row r="585" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C585" s="5"/>
       <c r="D585" s="9"/>
       <c r="E585" s="5"/>
       <c r="F585" s="5"/>
     </row>
-    <row r="586" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C586" s="5"/>
       <c r="D586" s="9"/>
       <c r="E586" s="5"/>
       <c r="F586" s="5"/>
     </row>
-    <row r="587" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C587" s="5"/>
       <c r="D587" s="9"/>
       <c r="E587" s="5"/>
       <c r="F587" s="5"/>
     </row>
-    <row r="588" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C588" s="5"/>
       <c r="D588" s="9"/>
       <c r="E588" s="5"/>
       <c r="F588" s="5"/>
     </row>
-    <row r="589" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C589" s="5"/>
       <c r="D589" s="9"/>
       <c r="E589" s="5"/>
       <c r="F589" s="5"/>
     </row>
-    <row r="590" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C590" s="5"/>
       <c r="D590" s="9"/>
       <c r="E590" s="5"/>
       <c r="F590" s="5"/>
     </row>
-    <row r="591" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C591" s="5"/>
       <c r="D591" s="9"/>
       <c r="E591" s="5"/>
       <c r="F591" s="5"/>
     </row>
-    <row r="592" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C592" s="5"/>
       <c r="D592" s="9"/>
       <c r="E592" s="5"/>
       <c r="F592" s="5"/>
     </row>
-    <row r="593" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C593" s="5"/>
       <c r="D593" s="9"/>
       <c r="E593" s="5"/>
       <c r="F593" s="5"/>
     </row>
-    <row r="594" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C594" s="5"/>
       <c r="D594" s="9"/>
       <c r="E594" s="5"/>
       <c r="F594" s="5"/>
     </row>
-    <row r="595" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C595" s="5"/>
       <c r="D595" s="9"/>
       <c r="E595" s="5"/>
       <c r="F595" s="5"/>
     </row>
-    <row r="596" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C596" s="5"/>
       <c r="D596" s="9"/>
       <c r="E596" s="5"/>
       <c r="F596" s="5"/>
     </row>
-    <row r="597" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C597" s="5"/>
       <c r="D597" s="9"/>
       <c r="E597" s="5"/>
       <c r="F597" s="5"/>
     </row>
-    <row r="598" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C598" s="5"/>
       <c r="D598" s="9"/>
       <c r="E598" s="5"/>
       <c r="F598" s="5"/>
     </row>
-    <row r="599" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C599" s="5"/>
       <c r="D599" s="9"/>
       <c r="E599" s="5"/>
       <c r="F599" s="5"/>
     </row>
-    <row r="600" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C600" s="5"/>
       <c r="D600" s="9"/>
       <c r="E600" s="5"/>
       <c r="F600" s="5"/>
     </row>
-    <row r="601" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C601" s="5"/>
       <c r="D601" s="9"/>
       <c r="E601" s="5"/>
       <c r="F601" s="5"/>
     </row>
-    <row r="602" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C602" s="5"/>
       <c r="D602" s="9"/>
       <c r="E602" s="5"/>
       <c r="F602" s="5"/>
     </row>
-    <row r="603" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C603" s="5"/>
       <c r="D603" s="9"/>
       <c r="E603" s="5"/>
       <c r="F603" s="5"/>
     </row>
-    <row r="604" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C604" s="5"/>
       <c r="D604" s="9"/>
       <c r="E604" s="5"/>
       <c r="F604" s="5"/>
     </row>
-    <row r="605" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C605" s="5"/>
       <c r="D605" s="9"/>
       <c r="E605" s="5"/>
       <c r="F605" s="5"/>
     </row>
-    <row r="606" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C606" s="5"/>
       <c r="D606" s="9"/>
       <c r="E606" s="5"/>
       <c r="F606" s="5"/>
     </row>
-    <row r="607" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C607" s="5"/>
       <c r="D607" s="9"/>
       <c r="E607" s="5"/>
       <c r="F607" s="5"/>
     </row>
-    <row r="608" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C608" s="5"/>
       <c r="D608" s="9"/>
       <c r="E608" s="5"/>
       <c r="F608" s="5"/>
     </row>
-    <row r="609" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C609" s="5"/>
       <c r="D609" s="9"/>
       <c r="E609" s="5"/>
       <c r="F609" s="5"/>
     </row>
-    <row r="610" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C610" s="5"/>
       <c r="D610" s="9"/>
       <c r="E610" s="5"/>
       <c r="F610" s="5"/>
     </row>
-    <row r="611" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C611" s="5"/>
       <c r="D611" s="9"/>
       <c r="E611" s="5"/>
       <c r="F611" s="5"/>
     </row>
-    <row r="612" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C612" s="5"/>
       <c r="D612" s="9"/>
       <c r="E612" s="5"/>
       <c r="F612" s="5"/>
     </row>
-    <row r="613" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C613" s="5"/>
       <c r="D613" s="9"/>
       <c r="E613" s="5"/>
       <c r="F613" s="5"/>
     </row>
-    <row r="614" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C614" s="5"/>
       <c r="D614" s="9"/>
       <c r="E614" s="5"/>
       <c r="F614" s="5"/>
     </row>
-    <row r="615" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C615" s="5"/>
       <c r="D615" s="9"/>
       <c r="E615" s="5"/>
       <c r="F615" s="5"/>
     </row>
-    <row r="616" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C616" s="5"/>
       <c r="D616" s="9"/>
       <c r="E616" s="5"/>
       <c r="F616" s="5"/>
     </row>
-    <row r="617" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C617" s="5"/>
       <c r="D617" s="9"/>
       <c r="E617" s="5"/>
       <c r="F617" s="5"/>
     </row>
-    <row r="618" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C618" s="5"/>
       <c r="D618" s="9"/>
       <c r="E618" s="5"/>
       <c r="F618" s="5"/>
     </row>
-    <row r="619" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C619" s="5"/>
       <c r="D619" s="9"/>
       <c r="E619" s="5"/>
       <c r="F619" s="5"/>
     </row>
-    <row r="620" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C620" s="5"/>
       <c r="D620" s="9"/>
       <c r="E620" s="5"/>
       <c r="F620" s="5"/>
     </row>
-    <row r="621" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C621" s="5"/>
       <c r="D621" s="9"/>
       <c r="E621" s="5"/>
       <c r="F621" s="5"/>
     </row>
-    <row r="622" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C622" s="5"/>
       <c r="D622" s="9"/>
       <c r="E622" s="5"/>
       <c r="F622" s="5"/>
     </row>
-    <row r="623" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C623" s="5"/>
       <c r="D623" s="9"/>
       <c r="E623" s="5"/>
       <c r="F623" s="5"/>
     </row>
-    <row r="624" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C624" s="5"/>
       <c r="D624" s="9"/>
       <c r="E624" s="5"/>
       <c r="F624" s="5"/>
     </row>
-    <row r="625" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C625" s="5"/>
       <c r="D625" s="9"/>
       <c r="E625" s="5"/>
       <c r="F625" s="5"/>
     </row>
-    <row r="626" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C626" s="5"/>
       <c r="D626" s="9"/>
       <c r="E626" s="5"/>
       <c r="F626" s="5"/>
     </row>
-    <row r="627" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C627" s="5"/>
       <c r="D627" s="9"/>
       <c r="E627" s="5"/>
       <c r="F627" s="5"/>
     </row>
-    <row r="628" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C628" s="5"/>
       <c r="D628" s="9"/>
       <c r="E628" s="5"/>
       <c r="F628" s="5"/>
     </row>
-    <row r="629" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C629" s="5"/>
       <c r="D629" s="9"/>
       <c r="E629" s="5"/>
       <c r="F629" s="5"/>
     </row>
-    <row r="630" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C630" s="5"/>
       <c r="D630" s="9"/>
       <c r="E630" s="5"/>
       <c r="F630" s="5"/>
     </row>
-    <row r="631" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C631" s="5"/>
       <c r="D631" s="9"/>
       <c r="E631" s="5"/>
       <c r="F631" s="5"/>
     </row>
-    <row r="632" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C632" s="5"/>
       <c r="D632" s="9"/>
       <c r="E632" s="5"/>
       <c r="F632" s="5"/>
     </row>
-    <row r="633" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C633" s="5"/>
       <c r="D633" s="9"/>
       <c r="E633" s="5"/>
       <c r="F633" s="5"/>
     </row>
-    <row r="634" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C634" s="5"/>
       <c r="D634" s="9"/>
       <c r="E634" s="5"/>
       <c r="F634" s="5"/>
     </row>
-    <row r="635" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C635" s="5"/>
       <c r="D635" s="9"/>
       <c r="E635" s="5"/>
       <c r="F635" s="5"/>
     </row>
-    <row r="636" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C636" s="5"/>
       <c r="D636" s="9"/>
       <c r="E636" s="5"/>
       <c r="F636" s="5"/>
     </row>
-    <row r="637" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C637" s="5"/>
       <c r="D637" s="9"/>
       <c r="E637" s="5"/>
       <c r="F637" s="5"/>
     </row>
-    <row r="638" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C638" s="5"/>
       <c r="D638" s="9"/>
       <c r="E638" s="5"/>
       <c r="F638" s="5"/>
     </row>
-    <row r="639" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C639" s="5"/>
       <c r="D639" s="9"/>
       <c r="E639" s="5"/>
       <c r="F639" s="5"/>
     </row>
-    <row r="640" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C640" s="5"/>
       <c r="D640" s="9"/>
       <c r="E640" s="5"/>
       <c r="F640" s="5"/>
     </row>
-    <row r="641" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C641" s="5"/>
       <c r="D641" s="9"/>
       <c r="E641" s="5"/>
       <c r="F641" s="5"/>
     </row>
-    <row r="642" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C642" s="5"/>
       <c r="D642" s="9"/>
       <c r="E642" s="5"/>
       <c r="F642" s="5"/>
     </row>
-    <row r="643" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C643" s="5"/>
       <c r="D643" s="9"/>
       <c r="E643" s="5"/>
       <c r="F643" s="5"/>
     </row>
-    <row r="644" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C644" s="5"/>
       <c r="D644" s="9"/>
       <c r="E644" s="5"/>
       <c r="F644" s="5"/>
     </row>
-    <row r="645" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C645" s="5"/>
       <c r="D645" s="9"/>
       <c r="E645" s="5"/>
       <c r="F645" s="5"/>
     </row>
-    <row r="646" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C646" s="5"/>
       <c r="D646" s="9"/>
       <c r="E646" s="5"/>
       <c r="F646" s="5"/>
     </row>
-    <row r="647" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C647" s="5"/>
       <c r="D647" s="9"/>
       <c r="E647" s="5"/>
       <c r="F647" s="5"/>
     </row>
-    <row r="648" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C648" s="5"/>
       <c r="D648" s="9"/>
       <c r="E648" s="5"/>
       <c r="F648" s="5"/>
     </row>
-    <row r="649" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C649" s="5"/>
       <c r="D649" s="9"/>
       <c r="E649" s="5"/>
       <c r="F649" s="5"/>
     </row>
-    <row r="650" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C650" s="5"/>
       <c r="D650" s="9"/>
       <c r="E650" s="5"/>
       <c r="F650" s="5"/>
     </row>
-    <row r="651" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C651" s="5"/>
       <c r="D651" s="9"/>
       <c r="E651" s="5"/>
       <c r="F651" s="5"/>
     </row>
-    <row r="652" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C652" s="5"/>
       <c r="D652" s="9"/>
       <c r="E652" s="5"/>
       <c r="F652" s="5"/>
     </row>
-    <row r="653" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C653" s="5"/>
       <c r="D653" s="9"/>
       <c r="E653" s="5"/>
       <c r="F653" s="5"/>
     </row>
-    <row r="654" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C654" s="5"/>
       <c r="D654" s="9"/>
       <c r="E654" s="5"/>
       <c r="F654" s="5"/>
     </row>
-    <row r="655" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C655" s="5"/>
       <c r="D655" s="9"/>
       <c r="E655" s="5"/>
       <c r="F655" s="5"/>
     </row>
-    <row r="656" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C656" s="5"/>
       <c r="D656" s="9"/>
       <c r="E656" s="5"/>
       <c r="F656" s="5"/>
     </row>
-    <row r="657" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C657" s="5"/>
       <c r="D657" s="9"/>
       <c r="E657" s="5"/>
       <c r="F657" s="5"/>
     </row>
-    <row r="658" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C658" s="5"/>
       <c r="D658" s="9"/>
       <c r="E658" s="5"/>
       <c r="F658" s="5"/>
     </row>
-    <row r="659" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C659" s="5"/>
       <c r="D659" s="9"/>
       <c r="E659" s="5"/>
       <c r="F659" s="5"/>
     </row>
-    <row r="660" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C660" s="5"/>
       <c r="D660" s="9"/>
       <c r="E660" s="5"/>
       <c r="F660" s="5"/>
     </row>
-    <row r="661" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C661" s="5"/>
       <c r="D661" s="9"/>
       <c r="E661" s="5"/>
       <c r="F661" s="5"/>
     </row>
-    <row r="662" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C662" s="5"/>
       <c r="D662" s="9"/>
       <c r="E662" s="5"/>
       <c r="F662" s="5"/>
     </row>
-    <row r="663" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C663" s="5"/>
       <c r="D663" s="9"/>
       <c r="E663" s="5"/>
       <c r="F663" s="5"/>
     </row>
-    <row r="664" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C664" s="5"/>
       <c r="D664" s="9"/>
       <c r="E664" s="5"/>
       <c r="F664" s="5"/>
     </row>
-    <row r="665" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C665" s="5"/>
       <c r="D665" s="9"/>
       <c r="E665" s="5"/>
       <c r="F665" s="5"/>
     </row>
-    <row r="666" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C666" s="5"/>
       <c r="D666" s="9"/>
       <c r="E666" s="5"/>
       <c r="F666" s="5"/>
     </row>
-    <row r="667" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C667" s="5"/>
       <c r="D667" s="9"/>
       <c r="E667" s="5"/>
       <c r="F667" s="5"/>
     </row>
-    <row r="668" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C668" s="5"/>
       <c r="D668" s="9"/>
       <c r="E668" s="5"/>
       <c r="F668" s="5"/>
     </row>
-    <row r="669" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C669" s="5"/>
       <c r="D669" s="9"/>
       <c r="E669" s="5"/>
       <c r="F669" s="5"/>
     </row>
-    <row r="670" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C670" s="5"/>
       <c r="D670" s="9"/>
       <c r="E670" s="5"/>
       <c r="F670" s="5"/>
     </row>
-    <row r="671" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C671" s="5"/>
       <c r="D671" s="9"/>
       <c r="E671" s="5"/>
       <c r="F671" s="5"/>
     </row>
-    <row r="672" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C672" s="5"/>
       <c r="D672" s="9"/>
       <c r="E672" s="5"/>
       <c r="F672" s="5"/>
     </row>
-    <row r="673" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C673" s="5"/>
       <c r="D673" s="9"/>
       <c r="E673" s="5"/>
       <c r="F673" s="5"/>
     </row>
-    <row r="674" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C674" s="5"/>
       <c r="D674" s="9"/>
       <c r="E674" s="5"/>
       <c r="F674" s="5"/>
     </row>
-    <row r="675" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C675" s="5"/>
       <c r="D675" s="9"/>
       <c r="E675" s="5"/>
       <c r="F675" s="5"/>
     </row>
-    <row r="676" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C676" s="5"/>
       <c r="D676" s="9"/>
       <c r="E676" s="5"/>
       <c r="F676" s="5"/>
     </row>
-    <row r="677" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C677" s="5"/>
       <c r="D677" s="9"/>
       <c r="E677" s="5"/>
       <c r="F677" s="5"/>
     </row>
-    <row r="678" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C678" s="5"/>
       <c r="D678" s="9"/>
       <c r="E678" s="5"/>
       <c r="F678" s="5"/>
     </row>
-    <row r="679" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C679" s="5"/>
       <c r="D679" s="9"/>
       <c r="E679" s="5"/>
       <c r="F679" s="5"/>
     </row>
-    <row r="680" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C680" s="5"/>
       <c r="D680" s="9"/>
       <c r="E680" s="5"/>
       <c r="F680" s="5"/>
     </row>
-    <row r="681" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C681" s="5"/>
       <c r="D681" s="9"/>
       <c r="E681" s="5"/>
       <c r="F681" s="5"/>
     </row>
-    <row r="682" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C682" s="5"/>
       <c r="D682" s="9"/>
       <c r="E682" s="5"/>
       <c r="F682" s="5"/>
     </row>
-    <row r="683" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C683" s="5"/>
       <c r="D683" s="9"/>
       <c r="E683" s="5"/>
       <c r="F683" s="5"/>
     </row>
-    <row r="684" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C684" s="5"/>
       <c r="D684" s="9"/>
       <c r="E684" s="5"/>
       <c r="F684" s="5"/>
     </row>
-    <row r="685" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C685" s="5"/>
       <c r="D685" s="9"/>
       <c r="E685" s="5"/>
       <c r="F685" s="5"/>
     </row>
-    <row r="686" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C686" s="5"/>
       <c r="D686" s="9"/>
       <c r="E686" s="5"/>
       <c r="F686" s="5"/>
     </row>
-    <row r="687" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C687" s="5"/>
       <c r="D687" s="9"/>
       <c r="E687" s="5"/>
       <c r="F687" s="5"/>
     </row>
-    <row r="688" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C688" s="5"/>
       <c r="D688" s="9"/>
       <c r="E688" s="5"/>
       <c r="F688" s="5"/>
     </row>
-    <row r="689" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C689" s="5"/>
       <c r="D689" s="9"/>
       <c r="E689" s="5"/>
       <c r="F689" s="5"/>
     </row>
-    <row r="690" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C690" s="5"/>
       <c r="D690" s="9"/>
       <c r="E690" s="5"/>
       <c r="F690" s="5"/>
     </row>
-    <row r="691" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C691" s="5"/>
       <c r="D691" s="9"/>
       <c r="E691" s="5"/>
       <c r="F691" s="5"/>
     </row>
-    <row r="692" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C692" s="5"/>
       <c r="D692" s="9"/>
       <c r="E692" s="5"/>
       <c r="F692" s="5"/>
     </row>
-    <row r="693" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C693" s="5"/>
       <c r="D693" s="9"/>
       <c r="E693" s="5"/>
       <c r="F693" s="5"/>
     </row>
-    <row r="694" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C694" s="5"/>
       <c r="D694" s="9"/>
       <c r="E694" s="5"/>
       <c r="F694" s="5"/>
     </row>
-    <row r="695" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C695" s="5"/>
       <c r="D695" s="9"/>
       <c r="E695" s="5"/>
       <c r="F695" s="5"/>
     </row>
-    <row r="696" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C696" s="5"/>
       <c r="D696" s="9"/>
       <c r="E696" s="5"/>
       <c r="F696" s="5"/>
     </row>
-    <row r="697" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C697" s="5"/>
       <c r="D697" s="9"/>
       <c r="E697" s="5"/>
       <c r="F697" s="5"/>
     </row>
-    <row r="698" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C698" s="5"/>
       <c r="D698" s="9"/>
       <c r="E698" s="5"/>
       <c r="F698" s="5"/>
     </row>
-    <row r="699" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C699" s="5"/>
       <c r="D699" s="9"/>
       <c r="E699" s="5"/>
       <c r="F699" s="5"/>
     </row>
-    <row r="700" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C700" s="5"/>
       <c r="D700" s="9"/>
       <c r="E700" s="5"/>
       <c r="F700" s="5"/>
     </row>
-    <row r="701" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C701" s="5"/>
       <c r="D701" s="9"/>
       <c r="E701" s="5"/>
       <c r="F701" s="5"/>
     </row>
-    <row r="702" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C702" s="5"/>
       <c r="D702" s="9"/>
       <c r="E702" s="5"/>
       <c r="F702" s="5"/>
     </row>
-    <row r="703" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C703" s="5"/>
       <c r="D703" s="9"/>
       <c r="E703" s="5"/>
       <c r="F703" s="5"/>
     </row>
-    <row r="704" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C704" s="5"/>
       <c r="D704" s="9"/>
       <c r="E704" s="5"/>
       <c r="F704" s="5"/>
     </row>
-    <row r="705" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C705" s="5"/>
       <c r="D705" s="9"/>
       <c r="E705" s="5"/>
       <c r="F705" s="5"/>
     </row>
-    <row r="706" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C706" s="5"/>
       <c r="D706" s="9"/>
       <c r="E706" s="5"/>
       <c r="F706" s="5"/>
     </row>
-    <row r="707" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C707" s="5"/>
       <c r="D707" s="9"/>
       <c r="E707" s="5"/>
       <c r="F707" s="5"/>
     </row>
-    <row r="708" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C708" s="5"/>
       <c r="D708" s="9"/>
       <c r="E708" s="5"/>
       <c r="F708" s="5"/>
     </row>
-    <row r="709" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C709" s="5"/>
       <c r="D709" s="9"/>
       <c r="E709" s="5"/>
       <c r="F709" s="5"/>
     </row>
-    <row r="710" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C710" s="5"/>
       <c r="D710" s="9"/>
       <c r="E710" s="5"/>
       <c r="F710" s="5"/>
     </row>
-    <row r="711" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C711" s="5"/>
       <c r="D711" s="9"/>
       <c r="E711" s="5"/>
       <c r="F711" s="5"/>
     </row>
-    <row r="712" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C712" s="5"/>
       <c r="D712" s="9"/>
       <c r="E712" s="5"/>
       <c r="F712" s="5"/>
     </row>
-    <row r="713" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C713" s="5"/>
       <c r="D713" s="9"/>
       <c r="E713" s="5"/>
       <c r="F713" s="5"/>
     </row>
-    <row r="714" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C714" s="5"/>
       <c r="D714" s="9"/>
       <c r="E714" s="5"/>
       <c r="F714" s="5"/>
     </row>
-    <row r="715" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C715" s="5"/>
       <c r="D715" s="9"/>
       <c r="E715" s="5"/>
       <c r="F715" s="5"/>
     </row>
-    <row r="716" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C716" s="5"/>
       <c r="D716" s="9"/>
       <c r="E716" s="5"/>
       <c r="F716" s="5"/>
     </row>
-    <row r="717" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C717" s="5"/>
       <c r="D717" s="9"/>
       <c r="E717" s="5"/>
       <c r="F717" s="5"/>
     </row>
-    <row r="718" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C718" s="5"/>
       <c r="D718" s="9"/>
       <c r="E718" s="5"/>
       <c r="F718" s="5"/>
     </row>
-    <row r="719" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C719" s="5"/>
       <c r="D719" s="9"/>
       <c r="E719" s="5"/>
       <c r="F719" s="5"/>
     </row>
-    <row r="720" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C720" s="5"/>
       <c r="D720" s="9"/>
       <c r="E720" s="5"/>
       <c r="F720" s="5"/>
     </row>
-    <row r="721" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C721" s="5"/>
       <c r="D721" s="9"/>
       <c r="E721" s="5"/>
       <c r="F721" s="5"/>
     </row>
-    <row r="722" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C722" s="5"/>
       <c r="D722" s="9"/>
       <c r="E722" s="5"/>
       <c r="F722" s="5"/>
     </row>
-    <row r="723" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C723" s="5"/>
       <c r="D723" s="9"/>
       <c r="E723" s="5"/>
       <c r="F723" s="5"/>
     </row>
-    <row r="724" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C724" s="5"/>
       <c r="D724" s="9"/>
       <c r="E724" s="5"/>
       <c r="F724" s="5"/>
     </row>
-    <row r="725" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C725" s="5"/>
       <c r="D725" s="9"/>
       <c r="E725" s="5"/>
       <c r="F725" s="5"/>
     </row>
-    <row r="726" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C726" s="5"/>
       <c r="D726" s="9"/>
       <c r="E726" s="5"/>
       <c r="F726" s="5"/>
     </row>
-    <row r="727" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C727" s="5"/>
       <c r="D727" s="9"/>
       <c r="E727" s="5"/>
       <c r="F727" s="5"/>
     </row>
-    <row r="728" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C728" s="5"/>
       <c r="D728" s="9"/>
       <c r="E728" s="5"/>
       <c r="F728" s="5"/>
     </row>
-    <row r="729" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C729" s="5"/>
       <c r="D729" s="9"/>
       <c r="E729" s="5"/>
       <c r="F729" s="5"/>
     </row>
-    <row r="730" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C730" s="5"/>
       <c r="D730" s="9"/>
       <c r="E730" s="5"/>
       <c r="F730" s="5"/>
     </row>
-    <row r="731" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C731" s="5"/>
       <c r="D731" s="9"/>
       <c r="E731" s="5"/>
       <c r="F731" s="5"/>
     </row>
-    <row r="732" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C732" s="5"/>
       <c r="D732" s="9"/>
       <c r="E732" s="5"/>
       <c r="F732" s="5"/>
     </row>
-    <row r="733" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C733" s="5"/>
       <c r="D733" s="9"/>
       <c r="E733" s="5"/>
       <c r="F733" s="5"/>
     </row>
-    <row r="734" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C734" s="5"/>
       <c r="D734" s="9"/>
       <c r="E734" s="5"/>
       <c r="F734" s="5"/>
     </row>
-    <row r="735" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C735" s="5"/>
       <c r="D735" s="9"/>
       <c r="E735" s="5"/>
       <c r="F735" s="5"/>
     </row>
-    <row r="736" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C736" s="5"/>
       <c r="D736" s="9"/>
       <c r="E736" s="5"/>
       <c r="F736" s="5"/>
     </row>
-    <row r="737" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C737" s="5"/>
       <c r="D737" s="9"/>
       <c r="E737" s="5"/>
       <c r="F737" s="5"/>
     </row>
-    <row r="738" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C738" s="5"/>
       <c r="D738" s="9"/>
       <c r="E738" s="5"/>
       <c r="F738" s="5"/>
     </row>
-    <row r="739" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C739" s="5"/>
       <c r="D739" s="9"/>
       <c r="E739" s="5"/>
       <c r="F739" s="5"/>
     </row>
-    <row r="740" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C740" s="5"/>
       <c r="D740" s="9"/>
       <c r="E740" s="5"/>
       <c r="F740" s="5"/>
     </row>
-    <row r="741" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C741" s="5"/>
       <c r="D741" s="9"/>
       <c r="E741" s="5"/>
       <c r="F741" s="5"/>
     </row>
-    <row r="742" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C742" s="5"/>
       <c r="D742" s="9"/>
       <c r="E742" s="5"/>
       <c r="F742" s="5"/>
     </row>
-    <row r="743" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C743" s="5"/>
       <c r="D743" s="9"/>
       <c r="E743" s="5"/>
       <c r="F743" s="5"/>
     </row>
-    <row r="744" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C744" s="5"/>
       <c r="D744" s="9"/>
       <c r="E744" s="5"/>
       <c r="F744" s="5"/>
     </row>
-    <row r="745" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C745" s="5"/>
       <c r="D745" s="9"/>
       <c r="E745" s="5"/>
       <c r="F745" s="5"/>
     </row>
-    <row r="746" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C746" s="5"/>
       <c r="D746" s="9"/>
       <c r="E746" s="5"/>
       <c r="F746" s="5"/>
     </row>
-    <row r="747" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C747" s="5"/>
       <c r="D747" s="9"/>
       <c r="E747" s="5"/>
       <c r="F747" s="5"/>
     </row>
-    <row r="748" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C748" s="5"/>
       <c r="D748" s="9"/>
       <c r="E748" s="5"/>
       <c r="F748" s="5"/>
     </row>
-    <row r="749" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C749" s="5"/>
       <c r="D749" s="9"/>
       <c r="E749" s="5"/>
       <c r="F749" s="5"/>
     </row>
-    <row r="750" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C750" s="5"/>
       <c r="D750" s="9"/>
       <c r="E750" s="5"/>
       <c r="F750" s="5"/>
     </row>
-    <row r="751" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C751" s="5"/>
       <c r="D751" s="9"/>
       <c r="E751" s="5"/>
       <c r="F751" s="5"/>
     </row>
-    <row r="752" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C752" s="5"/>
       <c r="D752" s="9"/>
       <c r="E752" s="5"/>
       <c r="F752" s="5"/>
     </row>
-    <row r="753" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C753" s="5"/>
       <c r="D753" s="9"/>
       <c r="E753" s="5"/>
       <c r="F753" s="5"/>
     </row>
-    <row r="754" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C754" s="5"/>
       <c r="D754" s="9"/>
       <c r="E754" s="5"/>
       <c r="F754" s="5"/>
     </row>
-    <row r="755" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C755" s="5"/>
       <c r="D755" s="9"/>
       <c r="E755" s="5"/>
       <c r="F755" s="5"/>
     </row>
-    <row r="756" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C756" s="5"/>
       <c r="D756" s="9"/>
       <c r="E756" s="5"/>
       <c r="F756" s="5"/>
     </row>
-    <row r="757" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C757" s="5"/>
       <c r="D757" s="9"/>
       <c r="E757" s="5"/>
       <c r="F757" s="5"/>
     </row>
-    <row r="758" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C758" s="5"/>
       <c r="D758" s="9"/>
       <c r="E758" s="5"/>
       <c r="F758" s="5"/>
     </row>
-    <row r="759" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C759" s="5"/>
       <c r="D759" s="9"/>
       <c r="E759" s="5"/>
       <c r="F759" s="5"/>
     </row>
-    <row r="760" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C760" s="5"/>
       <c r="D760" s="9"/>
       <c r="E760" s="5"/>
       <c r="F760" s="5"/>
     </row>
-    <row r="761" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C761" s="5"/>
       <c r="D761" s="9"/>
       <c r="E761" s="5"/>
       <c r="F761" s="5"/>
     </row>
-    <row r="762" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C762" s="5"/>
       <c r="D762" s="9"/>
       <c r="E762" s="5"/>
       <c r="F762" s="5"/>
     </row>
-    <row r="763" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C763" s="5"/>
       <c r="D763" s="9"/>
       <c r="E763" s="5"/>
       <c r="F763" s="5"/>
     </row>
-    <row r="764" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C764" s="5"/>
       <c r="D764" s="9"/>
       <c r="E764" s="5"/>
       <c r="F764" s="5"/>
     </row>
-    <row r="765" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C765" s="5"/>
       <c r="D765" s="9"/>
       <c r="E765" s="5"/>
       <c r="F765" s="5"/>
     </row>
-    <row r="766" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C766" s="5"/>
       <c r="D766" s="9"/>
       <c r="E766" s="5"/>
       <c r="F766" s="5"/>
     </row>
-    <row r="767" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C767" s="5"/>
       <c r="D767" s="9"/>
       <c r="E767" s="5"/>
       <c r="F767" s="5"/>
     </row>
-    <row r="768" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C768" s="5"/>
       <c r="D768" s="9"/>
       <c r="E768" s="5"/>
       <c r="F768" s="5"/>
     </row>
-    <row r="769" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C769" s="5"/>
       <c r="D769" s="9"/>
       <c r="E769" s="5"/>
       <c r="F769" s="5"/>
     </row>
-    <row r="770" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C770" s="5"/>
       <c r="D770" s="9"/>
       <c r="E770" s="5"/>
       <c r="F770" s="5"/>
     </row>
-    <row r="771" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C771" s="5"/>
       <c r="D771" s="9"/>
       <c r="E771" s="5"/>
       <c r="F771" s="5"/>
     </row>
-    <row r="772" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C772" s="5"/>
       <c r="D772" s="9"/>
       <c r="E772" s="5"/>
       <c r="F772" s="5"/>
     </row>
-    <row r="773" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C773" s="5"/>
       <c r="D773" s="9"/>
       <c r="E773" s="5"/>
       <c r="F773" s="5"/>
     </row>
-    <row r="774" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C774" s="5"/>
       <c r="D774" s="9"/>
       <c r="E774" s="5"/>
       <c r="F774" s="5"/>
     </row>
-    <row r="775" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C775" s="5"/>
       <c r="D775" s="9"/>
       <c r="E775" s="5"/>
       <c r="F775" s="5"/>
     </row>
-    <row r="776" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C776" s="5"/>
       <c r="D776" s="9"/>
       <c r="E776" s="5"/>
       <c r="F776" s="5"/>
     </row>
-    <row r="777" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C777" s="5"/>
       <c r="D777" s="9"/>
       <c r="E777" s="5"/>
       <c r="F777" s="5"/>
     </row>
-    <row r="778" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C778" s="5"/>
       <c r="D778" s="9"/>
       <c r="E778" s="5"/>
       <c r="F778" s="5"/>
     </row>
-    <row r="779" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C779" s="5"/>
       <c r="D779" s="9"/>
       <c r="E779" s="5"/>
       <c r="F779" s="5"/>
     </row>
-    <row r="780" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C780" s="5"/>
       <c r="D780" s="9"/>
       <c r="E780" s="5"/>
       <c r="F780" s="5"/>
     </row>
-    <row r="781" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C781" s="5"/>
       <c r="D781" s="9"/>
       <c r="E781" s="5"/>
       <c r="F781" s="5"/>
     </row>
-    <row r="782" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C782" s="5"/>
       <c r="D782" s="9"/>
       <c r="E782" s="5"/>
       <c r="F782" s="5"/>
     </row>
-    <row r="783" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C783" s="5"/>
       <c r="D783" s="9"/>
       <c r="E783" s="5"/>
       <c r="F783" s="5"/>
     </row>
-    <row r="784" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C784" s="5"/>
       <c r="D784" s="9"/>
       <c r="E784" s="5"/>
       <c r="F784" s="5"/>
     </row>
-    <row r="785" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C785" s="5"/>
       <c r="D785" s="9"/>
       <c r="E785" s="5"/>
       <c r="F785" s="5"/>
     </row>
-    <row r="786" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C786" s="5"/>
       <c r="D786" s="9"/>
       <c r="E786" s="5"/>
       <c r="F786" s="5"/>
     </row>
-    <row r="787" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C787" s="5"/>
       <c r="D787" s="9"/>
       <c r="E787" s="5"/>
       <c r="F787" s="5"/>
     </row>
-    <row r="788" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C788" s="5"/>
       <c r="D788" s="9"/>
       <c r="E788" s="5"/>
       <c r="F788" s="5"/>
     </row>
-    <row r="789" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C789" s="5"/>
       <c r="D789" s="9"/>
       <c r="E789" s="5"/>
       <c r="F789" s="5"/>
     </row>
-    <row r="790" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C790" s="5"/>
       <c r="D790" s="9"/>
       <c r="E790" s="5"/>
       <c r="F790" s="5"/>
     </row>
-    <row r="791" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C791" s="5"/>
       <c r="D791" s="9"/>
       <c r="E791" s="5"/>
       <c r="F791" s="5"/>
     </row>
-    <row r="792" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C792" s="5"/>
       <c r="D792" s="9"/>
       <c r="E792" s="5"/>
       <c r="F792" s="5"/>
     </row>
-    <row r="793" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C793" s="5"/>
       <c r="D793" s="9"/>
       <c r="E793" s="5"/>
       <c r="F793" s="5"/>
     </row>
-    <row r="794" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C794" s="5"/>
       <c r="D794" s="9"/>
       <c r="E794" s="5"/>
       <c r="F794" s="5"/>
     </row>
-    <row r="795" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C795" s="5"/>
       <c r="D795" s="9"/>
       <c r="E795" s="5"/>
       <c r="F795" s="5"/>
     </row>
-    <row r="796" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C796" s="5"/>
       <c r="D796" s="9"/>
       <c r="E796" s="5"/>
       <c r="F796" s="5"/>
     </row>
-    <row r="797" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C797" s="5"/>
       <c r="D797" s="9"/>
       <c r="E797" s="5"/>
       <c r="F797" s="5"/>
     </row>
-    <row r="798" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C798" s="5"/>
       <c r="D798" s="9"/>
       <c r="E798" s="5"/>
       <c r="F798" s="5"/>
     </row>
-    <row r="799" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C799" s="5"/>
       <c r="D799" s="9"/>
       <c r="E799" s="5"/>
       <c r="F799" s="5"/>
     </row>
-    <row r="800" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C800" s="5"/>
       <c r="D800" s="9"/>
       <c r="E800" s="5"/>
       <c r="F800" s="5"/>
     </row>
-    <row r="801" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C801" s="5"/>
       <c r="D801" s="9"/>
       <c r="E801" s="5"/>
       <c r="F801" s="5"/>
     </row>
-    <row r="802" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C802" s="5"/>
       <c r="D802" s="9"/>
       <c r="E802" s="5"/>
       <c r="F802" s="5"/>
     </row>
-    <row r="803" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C803" s="5"/>
       <c r="D803" s="9"/>
       <c r="E803" s="5"/>
       <c r="F803" s="5"/>
     </row>
-    <row r="804" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C804" s="5"/>
       <c r="D804" s="9"/>
       <c r="E804" s="5"/>
       <c r="F804" s="5"/>
     </row>
-    <row r="805" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C805" s="5"/>
       <c r="D805" s="9"/>
       <c r="E805" s="5"/>
       <c r="F805" s="5"/>
     </row>
-    <row r="806" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C806" s="5"/>
       <c r="D806" s="9"/>
       <c r="E806" s="5"/>
       <c r="F806" s="5"/>
     </row>
-    <row r="807" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C807" s="5"/>
       <c r="D807" s="9"/>
       <c r="E807" s="5"/>
       <c r="F807" s="5"/>
     </row>
-    <row r="808" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C808" s="5"/>
       <c r="D808" s="9"/>
       <c r="E808" s="5"/>
       <c r="F808" s="5"/>
     </row>
-    <row r="809" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C809" s="5"/>
       <c r="D809" s="9"/>
       <c r="E809" s="5"/>
       <c r="F809" s="5"/>
     </row>
-    <row r="810" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C810" s="5"/>
       <c r="D810" s="9"/>
       <c r="E810" s="5"/>
       <c r="F810" s="5"/>
     </row>
-    <row r="811" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C811" s="5"/>
       <c r="D811" s="9"/>
       <c r="E811" s="5"/>
       <c r="F811" s="5"/>
     </row>
-    <row r="812" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C812" s="5"/>
       <c r="D812" s="9"/>
       <c r="E812" s="5"/>
       <c r="F812" s="5"/>
     </row>
-    <row r="813" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C813" s="5"/>
       <c r="D813" s="9"/>
       <c r="E813" s="5"/>
       <c r="F813" s="5"/>
     </row>
-    <row r="814" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C814" s="5"/>
       <c r="D814" s="9"/>
       <c r="E814" s="5"/>
       <c r="F814" s="5"/>
     </row>
-    <row r="815" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C815" s="5"/>
       <c r="D815" s="9"/>
       <c r="E815" s="5"/>
       <c r="F815" s="5"/>
     </row>
-    <row r="816" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C816" s="5"/>
       <c r="D816" s="9"/>
       <c r="E816" s="5"/>
       <c r="F816" s="5"/>
     </row>
-    <row r="817" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C817" s="5"/>
       <c r="D817" s="9"/>
       <c r="E817" s="5"/>
       <c r="F817" s="5"/>
     </row>
-    <row r="818" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C818" s="5"/>
       <c r="D818" s="9"/>
       <c r="E818" s="5"/>
       <c r="F818" s="5"/>
     </row>
-    <row r="819" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C819" s="5"/>
       <c r="D819" s="9"/>
       <c r="E819" s="5"/>
       <c r="F819" s="5"/>
     </row>
-    <row r="820" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C820" s="5"/>
       <c r="D820" s="9"/>
       <c r="E820" s="5"/>
       <c r="F820" s="5"/>
     </row>
-    <row r="821" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C821" s="5"/>
       <c r="D821" s="9"/>
       <c r="E821" s="5"/>
       <c r="F821" s="5"/>
     </row>
-    <row r="822" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C822" s="5"/>
       <c r="D822" s="9"/>
       <c r="E822" s="5"/>
       <c r="F822" s="5"/>
     </row>
-    <row r="823" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C823" s="5"/>
       <c r="D823" s="9"/>
       <c r="E823" s="5"/>
       <c r="F823" s="5"/>
     </row>
-    <row r="824" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C824" s="5"/>
       <c r="D824" s="9"/>
       <c r="E824" s="5"/>
       <c r="F824" s="5"/>
     </row>
-    <row r="825" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C825" s="5"/>
       <c r="D825" s="9"/>
       <c r="E825" s="5"/>
       <c r="F825" s="5"/>
     </row>
-    <row r="826" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C826" s="5"/>
       <c r="D826" s="9"/>
       <c r="E826" s="5"/>
       <c r="F826" s="5"/>
     </row>
-    <row r="827" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C827" s="5"/>
       <c r="D827" s="9"/>
       <c r="E827" s="5"/>
       <c r="F827" s="5"/>
     </row>
-    <row r="828" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C828" s="5"/>
       <c r="D828" s="9"/>
       <c r="E828" s="5"/>
       <c r="F828" s="5"/>
     </row>
-    <row r="829" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C829" s="5"/>
       <c r="D829" s="9"/>
       <c r="E829" s="5"/>
       <c r="F829" s="5"/>
     </row>
-    <row r="830" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C830" s="5"/>
       <c r="D830" s="9"/>
       <c r="E830" s="5"/>
       <c r="F830" s="5"/>
     </row>
-    <row r="831" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C831" s="5"/>
       <c r="D831" s="9"/>
       <c r="E831" s="5"/>
       <c r="F831" s="5"/>
     </row>
-    <row r="832" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C832" s="5"/>
       <c r="D832" s="9"/>
       <c r="E832" s="5"/>
       <c r="F832" s="5"/>
     </row>
-    <row r="833" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C833" s="5"/>
       <c r="D833" s="9"/>
       <c r="E833" s="5"/>
       <c r="F833" s="5"/>
     </row>
-    <row r="834" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C834" s="5"/>
       <c r="D834" s="9"/>
       <c r="E834" s="5"/>
       <c r="F834" s="5"/>
     </row>
-    <row r="835" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C835" s="5"/>
       <c r="D835" s="9"/>
       <c r="E835" s="5"/>
       <c r="F835" s="5"/>
     </row>
-    <row r="836" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C836" s="5"/>
       <c r="D836" s="9"/>
       <c r="E836" s="5"/>
       <c r="F836" s="5"/>
     </row>
-    <row r="837" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C837" s="5"/>
       <c r="D837" s="9"/>
       <c r="E837" s="5"/>
       <c r="F837" s="5"/>
     </row>
-    <row r="838" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C838" s="5"/>
       <c r="D838" s="9"/>
       <c r="E838" s="5"/>
       <c r="F838" s="5"/>
     </row>
-    <row r="839" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C839" s="5"/>
       <c r="D839" s="9"/>
       <c r="E839" s="5"/>
       <c r="F839" s="5"/>
     </row>
-    <row r="840" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C840" s="5"/>
       <c r="D840" s="9"/>
       <c r="E840" s="5"/>
       <c r="F840" s="5"/>
     </row>
-    <row r="841" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C841" s="5"/>
       <c r="D841" s="9"/>
       <c r="E841" s="5"/>
       <c r="F841" s="5"/>
     </row>
-    <row r="842" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C842" s="5"/>
       <c r="D842" s="9"/>
       <c r="E842" s="5"/>
       <c r="F842" s="5"/>
     </row>
-    <row r="843" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C843" s="5"/>
       <c r="D843" s="9"/>
       <c r="E843" s="5"/>
       <c r="F843" s="5"/>
     </row>
-    <row r="844" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C844" s="5"/>
       <c r="D844" s="9"/>
       <c r="E844" s="5"/>
       <c r="F844" s="5"/>
     </row>
-    <row r="845" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C845" s="5"/>
       <c r="D845" s="9"/>
       <c r="E845" s="5"/>
       <c r="F845" s="5"/>
     </row>
-    <row r="846" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C846" s="5"/>
       <c r="D846" s="9"/>
       <c r="E846" s="5"/>
       <c r="F846" s="5"/>
     </row>
-    <row r="847" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C847" s="5"/>
       <c r="D847" s="9"/>
       <c r="E847" s="5"/>
       <c r="F847" s="5"/>
     </row>
-    <row r="848" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C848" s="5"/>
       <c r="D848" s="9"/>
       <c r="E848" s="5"/>
       <c r="F848" s="5"/>
     </row>
-    <row r="849" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C849" s="5"/>
       <c r="D849" s="9"/>
       <c r="E849" s="5"/>
       <c r="F849" s="5"/>
     </row>
-    <row r="850" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C850" s="5"/>
       <c r="D850" s="9"/>
       <c r="E850" s="5"/>
       <c r="F850" s="5"/>
     </row>
-    <row r="851" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C851" s="5"/>
       <c r="D851" s="9"/>
       <c r="E851" s="5"/>
       <c r="F851" s="5"/>
     </row>
-    <row r="852" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C852" s="5"/>
       <c r="D852" s="9"/>
       <c r="E852" s="5"/>
       <c r="F852" s="5"/>
     </row>
-    <row r="853" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C853" s="5"/>
       <c r="D853" s="9"/>
       <c r="E853" s="5"/>
       <c r="F853" s="5"/>
     </row>
-    <row r="854" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C854" s="5"/>
       <c r="D854" s="9"/>
       <c r="E854" s="5"/>
       <c r="F854" s="5"/>
     </row>
-    <row r="855" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C855" s="5"/>
       <c r="D855" s="9"/>
       <c r="E855" s="5"/>
       <c r="F855" s="5"/>
     </row>
-    <row r="856" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C856" s="5"/>
       <c r="D856" s="9"/>
       <c r="E856" s="5"/>
       <c r="F856" s="5"/>
     </row>
-    <row r="857" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C857" s="5"/>
       <c r="D857" s="9"/>
       <c r="E857" s="5"/>
       <c r="F857" s="5"/>
     </row>
-    <row r="858" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C858" s="5"/>
       <c r="D858" s="9"/>
       <c r="E858" s="5"/>
       <c r="F858" s="5"/>
     </row>
-    <row r="859" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C859" s="5"/>
       <c r="D859" s="9"/>
       <c r="E859" s="5"/>
       <c r="F859" s="5"/>
     </row>
-    <row r="860" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C860" s="5"/>
       <c r="D860" s="9"/>
       <c r="E860" s="5"/>
       <c r="F860" s="5"/>
     </row>
-    <row r="861" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C861" s="5"/>
       <c r="D861" s="9"/>
       <c r="E861" s="5"/>
       <c r="F861" s="5"/>
     </row>
-    <row r="862" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C862" s="5"/>
       <c r="D862" s="9"/>
       <c r="E862" s="5"/>
       <c r="F862" s="5"/>
     </row>
-    <row r="863" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C863" s="5"/>
       <c r="D863" s="9"/>
       <c r="E863" s="5"/>
       <c r="F863" s="5"/>
     </row>
-    <row r="864" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C864" s="5"/>
       <c r="D864" s="9"/>
       <c r="E864" s="5"/>
       <c r="F864" s="5"/>
     </row>
-    <row r="865" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C865" s="5"/>
       <c r="D865" s="9"/>
       <c r="E865" s="5"/>
       <c r="F865" s="5"/>
     </row>
-    <row r="866" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C866" s="5"/>
       <c r="D866" s="9"/>
       <c r="E866" s="5"/>
       <c r="F866" s="5"/>
     </row>
-    <row r="867" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C867" s="5"/>
       <c r="D867" s="9"/>
       <c r="E867" s="5"/>
       <c r="F867" s="5"/>
     </row>
-    <row r="868" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C868" s="5"/>
       <c r="D868" s="9"/>
       <c r="E868" s="5"/>
       <c r="F868" s="5"/>
     </row>
-    <row r="869" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C869" s="5"/>
       <c r="D869" s="9"/>
       <c r="E869" s="5"/>
       <c r="F869" s="5"/>
     </row>
-    <row r="870" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C870" s="5"/>
       <c r="D870" s="9"/>
       <c r="E870" s="5"/>
       <c r="F870" s="5"/>
     </row>
-    <row r="871" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C871" s="5"/>
       <c r="D871" s="9"/>
       <c r="E871" s="5"/>
       <c r="F871" s="5"/>
     </row>
-    <row r="872" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C872" s="5"/>
       <c r="D872" s="9"/>
       <c r="E872" s="5"/>
       <c r="F872" s="5"/>
     </row>
-    <row r="873" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C873" s="5"/>
       <c r="D873" s="9"/>
       <c r="E873" s="5"/>
       <c r="F873" s="5"/>
     </row>
-    <row r="874" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C874" s="5"/>
       <c r="D874" s="9"/>
       <c r="E874" s="5"/>
       <c r="F874" s="5"/>
     </row>
-    <row r="875" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C875" s="5"/>
       <c r="D875" s="9"/>
       <c r="E875" s="5"/>
       <c r="F875" s="5"/>
     </row>
-    <row r="876" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C876" s="5"/>
       <c r="D876" s="9"/>
       <c r="E876" s="5"/>
       <c r="F876" s="5"/>
     </row>
-    <row r="877" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C877" s="5"/>
       <c r="D877" s="9"/>
       <c r="E877" s="5"/>
       <c r="F877" s="5"/>
     </row>
-    <row r="878" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C878" s="5"/>
       <c r="D878" s="9"/>
       <c r="E878" s="5"/>
       <c r="F878" s="5"/>
     </row>
-    <row r="879" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C879" s="5"/>
       <c r="D879" s="9"/>
       <c r="E879" s="5"/>
       <c r="F879" s="5"/>
     </row>
-    <row r="880" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C880" s="5"/>
       <c r="D880" s="9"/>
       <c r="E880" s="5"/>
       <c r="F880" s="5"/>
     </row>
-    <row r="881" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C881" s="5"/>
       <c r="D881" s="9"/>
       <c r="E881" s="5"/>
       <c r="F881" s="5"/>
     </row>
-    <row r="882" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C882" s="5"/>
       <c r="D882" s="9"/>
       <c r="E882" s="5"/>
       <c r="F882" s="5"/>
     </row>
-    <row r="883" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C883" s="5"/>
       <c r="D883" s="9"/>
       <c r="E883" s="5"/>
       <c r="F883" s="5"/>
     </row>
-    <row r="884" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C884" s="5"/>
       <c r="D884" s="9"/>
       <c r="E884" s="5"/>
       <c r="F884" s="5"/>
     </row>
-    <row r="885" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C885" s="5"/>
       <c r="D885" s="9"/>
       <c r="E885" s="5"/>
       <c r="F885" s="5"/>
     </row>
-    <row r="886" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C886" s="5"/>
       <c r="D886" s="9"/>
       <c r="E886" s="5"/>
       <c r="F886" s="5"/>
     </row>
-    <row r="887" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C887" s="5"/>
       <c r="D887" s="9"/>
       <c r="E887" s="5"/>
       <c r="F887" s="5"/>
     </row>
-    <row r="888" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C888" s="5"/>
       <c r="D888" s="9"/>
       <c r="E888" s="5"/>
       <c r="F888" s="5"/>
     </row>
-    <row r="889" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C889" s="5"/>
       <c r="D889" s="9"/>
       <c r="E889" s="5"/>
       <c r="F889" s="5"/>
     </row>
-    <row r="890" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C890" s="5"/>
       <c r="D890" s="9"/>
       <c r="E890" s="5"/>
       <c r="F890" s="5"/>
     </row>
-    <row r="891" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C891" s="5"/>
       <c r="D891" s="9"/>
       <c r="E891" s="5"/>
       <c r="F891" s="5"/>
     </row>
-    <row r="892" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C892" s="5"/>
       <c r="D892" s="9"/>
       <c r="E892" s="5"/>
       <c r="F892" s="5"/>
     </row>
-    <row r="893" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C893" s="5"/>
       <c r="D893" s="9"/>
       <c r="E893" s="5"/>
       <c r="F893" s="5"/>
     </row>
-    <row r="894" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C894" s="5"/>
       <c r="D894" s="9"/>
       <c r="E894" s="5"/>
       <c r="F894" s="5"/>
     </row>
-    <row r="895" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C895" s="5"/>
       <c r="D895" s="9"/>
       <c r="E895" s="5"/>
       <c r="F895" s="5"/>
     </row>
-    <row r="896" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C896" s="5"/>
       <c r="D896" s="9"/>
       <c r="E896" s="5"/>
       <c r="F896" s="5"/>
     </row>
-    <row r="897" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C897" s="5"/>
       <c r="D897" s="9"/>
       <c r="E897" s="5"/>
       <c r="F897" s="5"/>
     </row>
-    <row r="898" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C898" s="5"/>
       <c r="D898" s="9"/>
       <c r="E898" s="5"/>
       <c r="F898" s="5"/>
     </row>
-    <row r="899" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C899" s="5"/>
       <c r="D899" s="9"/>
       <c r="E899" s="5"/>
       <c r="F899" s="5"/>
     </row>
-    <row r="900" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C900" s="5"/>
       <c r="D900" s="9"/>
       <c r="E900" s="5"/>
       <c r="F900" s="5"/>
     </row>
-    <row r="901" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C901" s="5"/>
       <c r="D901" s="9"/>
       <c r="E901" s="5"/>
       <c r="F901" s="5"/>
     </row>
-    <row r="902" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C902" s="5"/>
       <c r="D902" s="9"/>
       <c r="E902" s="5"/>
       <c r="F902" s="5"/>
     </row>
-    <row r="903" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C903" s="5"/>
       <c r="D903" s="9"/>
       <c r="E903" s="5"/>
       <c r="F903" s="5"/>
     </row>
-    <row r="904" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C904" s="5"/>
       <c r="D904" s="9"/>
       <c r="E904" s="5"/>
       <c r="F904" s="5"/>
     </row>
-    <row r="905" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C905" s="5"/>
       <c r="D905" s="9"/>
       <c r="E905" s="5"/>
       <c r="F905" s="5"/>
     </row>
-    <row r="906" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C906" s="5"/>
       <c r="D906" s="9"/>
       <c r="E906" s="5"/>
       <c r="F906" s="5"/>
     </row>
-    <row r="907" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C907" s="5"/>
       <c r="D907" s="9"/>
       <c r="E907" s="5"/>
       <c r="F907" s="5"/>
     </row>
-    <row r="908" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C908" s="5"/>
       <c r="D908" s="9"/>
       <c r="E908" s="5"/>
       <c r="F908" s="5"/>
     </row>
-    <row r="909" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C909" s="5"/>
       <c r="D909" s="9"/>
       <c r="E909" s="5"/>
       <c r="F909" s="5"/>
     </row>
-    <row r="910" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C910" s="5"/>
       <c r="D910" s="9"/>
       <c r="E910" s="5"/>
       <c r="F910" s="5"/>
     </row>
-    <row r="911" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C911" s="5"/>
       <c r="D911" s="9"/>
       <c r="E911" s="5"/>
       <c r="F911" s="5"/>
     </row>
-    <row r="912" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C912" s="5"/>
       <c r="D912" s="9"/>
       <c r="E912" s="5"/>
       <c r="F912" s="5"/>
     </row>
-    <row r="913" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C913" s="5"/>
       <c r="D913" s="9"/>
       <c r="E913" s="5"/>
       <c r="F913" s="5"/>
     </row>
-    <row r="914" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C914" s="5"/>
       <c r="D914" s="9"/>
       <c r="E914" s="5"/>
       <c r="F914" s="5"/>
     </row>
-    <row r="915" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C915" s="5"/>
       <c r="D915" s="9"/>
       <c r="E915" s="5"/>
       <c r="F915" s="5"/>
     </row>
-    <row r="916" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C916" s="5"/>
       <c r="D916" s="9"/>
       <c r="E916" s="5"/>
       <c r="F916" s="5"/>
     </row>
-    <row r="917" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C917" s="5"/>
       <c r="D917" s="9"/>
       <c r="E917" s="5"/>
       <c r="F917" s="5"/>
     </row>
-    <row r="918" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C918" s="5"/>
       <c r="D918" s="9"/>
       <c r="E918" s="5"/>
       <c r="F918" s="5"/>
     </row>
-    <row r="919" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C919" s="5"/>
       <c r="D919" s="9"/>
       <c r="E919" s="5"/>
       <c r="F919" s="5"/>
     </row>
-    <row r="920" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C920" s="5"/>
       <c r="D920" s="9"/>
       <c r="E920" s="5"/>
       <c r="F920" s="5"/>
     </row>
-    <row r="921" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C921" s="5"/>
       <c r="D921" s="9"/>
       <c r="E921" s="5"/>
       <c r="F921" s="5"/>
     </row>
-    <row r="922" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C922" s="5"/>
       <c r="D922" s="9"/>
       <c r="E922" s="5"/>
       <c r="F922" s="5"/>
     </row>
-    <row r="923" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C923" s="5"/>
       <c r="D923" s="9"/>
       <c r="E923" s="5"/>
       <c r="F923" s="5"/>
     </row>
-    <row r="924" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C924" s="5"/>
       <c r="D924" s="9"/>
       <c r="E924" s="5"/>
       <c r="F924" s="5"/>
     </row>
-    <row r="925" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C925" s="5"/>
       <c r="D925" s="9"/>
       <c r="E925" s="5"/>
       <c r="F925" s="5"/>
     </row>
-    <row r="926" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C926" s="5"/>
       <c r="D926" s="9"/>
       <c r="E926" s="5"/>
       <c r="F926" s="5"/>
     </row>
-    <row r="927" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C927" s="5"/>
       <c r="D927" s="9"/>
       <c r="E927" s="5"/>
       <c r="F927" s="5"/>
     </row>
-    <row r="928" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C928" s="5"/>
       <c r="D928" s="9"/>
       <c r="E928" s="5"/>
       <c r="F928" s="5"/>
     </row>
-    <row r="929" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C929" s="5"/>
       <c r="D929" s="9"/>
       <c r="E929" s="5"/>
       <c r="F929" s="5"/>
     </row>
-    <row r="930" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C930" s="5"/>
       <c r="D930" s="9"/>
       <c r="E930" s="5"/>
       <c r="F930" s="5"/>
     </row>
-    <row r="931" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C931" s="5"/>
       <c r="D931" s="9"/>
       <c r="E931" s="5"/>
       <c r="F931" s="5"/>
     </row>
-    <row r="932" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C932" s="5"/>
       <c r="D932" s="9"/>
       <c r="E932" s="5"/>
       <c r="F932" s="5"/>
     </row>
-    <row r="933" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C933" s="5"/>
       <c r="D933" s="9"/>
       <c r="E933" s="5"/>
       <c r="F933" s="5"/>
     </row>
-    <row r="934" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C934" s="5"/>
       <c r="D934" s="9"/>
       <c r="E934" s="5"/>
       <c r="F934" s="5"/>
     </row>
-    <row r="935" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C935" s="5"/>
       <c r="D935" s="9"/>
       <c r="E935" s="5"/>
       <c r="F935" s="5"/>
     </row>
-    <row r="936" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C936" s="5"/>
       <c r="D936" s="9"/>
       <c r="E936" s="5"/>
       <c r="F936" s="5"/>
     </row>
-    <row r="937" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C937" s="5"/>
       <c r="D937" s="9"/>
       <c r="E937" s="5"/>
       <c r="F937" s="5"/>
     </row>
-    <row r="938" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C938" s="5"/>
       <c r="D938" s="9"/>
       <c r="E938" s="5"/>
       <c r="F938" s="5"/>
     </row>
-    <row r="939" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C939" s="5"/>
       <c r="D939" s="9"/>
       <c r="E939" s="5"/>
       <c r="F939" s="5"/>
     </row>
-    <row r="940" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C940" s="5"/>
       <c r="D940" s="9"/>
       <c r="E940" s="5"/>
       <c r="F940" s="5"/>
     </row>
-    <row r="941" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C941" s="5"/>
       <c r="D941" s="9"/>
       <c r="E941" s="5"/>
       <c r="F941" s="5"/>
     </row>
-    <row r="942" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C942" s="5"/>
       <c r="D942" s="9"/>
       <c r="E942" s="5"/>
       <c r="F942" s="5"/>
     </row>
-    <row r="943" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C943" s="5"/>
       <c r="D943" s="9"/>
       <c r="E943" s="5"/>
       <c r="F943" s="5"/>
     </row>
-    <row r="944" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C944" s="5"/>
       <c r="D944" s="9"/>
       <c r="E944" s="5"/>
       <c r="F944" s="5"/>
     </row>
-    <row r="945" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C945" s="5"/>
       <c r="D945" s="9"/>
       <c r="E945" s="5"/>
       <c r="F945" s="5"/>
     </row>
-    <row r="946" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C946" s="5"/>
       <c r="D946" s="9"/>
       <c r="E946" s="5"/>
       <c r="F946" s="5"/>
     </row>
-    <row r="947" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C947" s="5"/>
       <c r="D947" s="9"/>
       <c r="E947" s="5"/>
       <c r="F947" s="5"/>
     </row>
-    <row r="948" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C948" s="5"/>
       <c r="D948" s="9"/>
       <c r="E948" s="5"/>
       <c r="F948" s="5"/>
     </row>
-    <row r="949" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C949" s="5"/>
       <c r="D949" s="9"/>
       <c r="E949" s="5"/>
       <c r="F949" s="5"/>
     </row>
-    <row r="950" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C950" s="5"/>
       <c r="D950" s="9"/>
       <c r="E950" s="5"/>
       <c r="F950" s="5"/>
     </row>
-    <row r="951" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C951" s="5"/>
       <c r="D951" s="9"/>
       <c r="E951" s="5"/>
       <c r="F951" s="5"/>
     </row>
-    <row r="952" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C952" s="5"/>
       <c r="D952" s="9"/>
       <c r="E952" s="5"/>
       <c r="F952" s="5"/>
     </row>
-    <row r="953" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C953" s="5"/>
       <c r="D953" s="9"/>
       <c r="E953" s="5"/>
       <c r="F953" s="5"/>
     </row>
-    <row r="954" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C954" s="5"/>
       <c r="D954" s="9"/>
       <c r="E954" s="5"/>
       <c r="F954" s="5"/>
     </row>
-    <row r="955" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C955" s="5"/>
       <c r="D955" s="9"/>
       <c r="E955" s="5"/>
       <c r="F955" s="5"/>
     </row>
-    <row r="956" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C956" s="5"/>
       <c r="D956" s="9"/>
       <c r="E956" s="5"/>
       <c r="F956" s="5"/>
     </row>
-    <row r="957" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C957" s="5"/>
       <c r="D957" s="9"/>
       <c r="E957" s="5"/>
       <c r="F957" s="5"/>
     </row>
-    <row r="958" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C958" s="5"/>
       <c r="D958" s="9"/>
       <c r="E958" s="5"/>
       <c r="F958" s="5"/>
     </row>
-    <row r="959" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C959" s="5"/>
       <c r="D959" s="9"/>
       <c r="E959" s="5"/>
       <c r="F959" s="5"/>
     </row>
-    <row r="960" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C960" s="5"/>
       <c r="D960" s="9"/>
       <c r="E960" s="5"/>
       <c r="F960" s="5"/>
     </row>
-    <row r="961" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C961" s="5"/>
       <c r="D961" s="9"/>
       <c r="E961" s="5"/>
       <c r="F961" s="5"/>
     </row>
-    <row r="962" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C962" s="5"/>
       <c r="D962" s="9"/>
       <c r="E962" s="5"/>
       <c r="F962" s="5"/>
     </row>
-    <row r="963" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C963" s="5"/>
       <c r="D963" s="9"/>
       <c r="E963" s="5"/>
       <c r="F963" s="5"/>
     </row>
-    <row r="964" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C964" s="5"/>
       <c r="D964" s="9"/>
       <c r="E964" s="5"/>
       <c r="F964" s="5"/>
     </row>
-    <row r="965" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C965" s="5"/>
       <c r="D965" s="9"/>
       <c r="E965" s="5"/>
       <c r="F965" s="5"/>
     </row>
-    <row r="966" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C966" s="5"/>
       <c r="D966" s="9"/>
       <c r="E966" s="5"/>
       <c r="F966" s="5"/>
     </row>
-    <row r="967" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C967" s="5"/>
       <c r="D967" s="9"/>
       <c r="E967" s="5"/>
       <c r="F967" s="5"/>
     </row>
-    <row r="968" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C968" s="5"/>
       <c r="D968" s="9"/>
       <c r="E968" s="5"/>
       <c r="F968" s="5"/>
     </row>
-    <row r="969" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C969" s="5"/>
       <c r="D969" s="9"/>
       <c r="E969" s="5"/>
       <c r="F969" s="5"/>
     </row>
-    <row r="970" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C970" s="5"/>
       <c r="D970" s="9"/>
       <c r="E970" s="5"/>
       <c r="F970" s="5"/>
     </row>
-    <row r="971" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C971" s="5"/>
       <c r="D971" s="9"/>
       <c r="E971" s="5"/>
       <c r="F971" s="5"/>
     </row>
-    <row r="972" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C972" s="5"/>
       <c r="D972" s="9"/>
       <c r="E972" s="5"/>
       <c r="F972" s="5"/>
     </row>
-    <row r="973" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C973" s="5"/>
       <c r="D973" s="9"/>
       <c r="E973" s="5"/>
       <c r="F973" s="5"/>
     </row>
-    <row r="974" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C974" s="5"/>
       <c r="D974" s="9"/>
       <c r="E974" s="5"/>
       <c r="F974" s="5"/>
     </row>
-    <row r="975" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C975" s="5"/>
       <c r="D975" s="9"/>
       <c r="E975" s="5"/>
       <c r="F975" s="5"/>
     </row>
-    <row r="976" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C976" s="5"/>
       <c r="D976" s="9"/>
       <c r="E976" s="5"/>
       <c r="F976" s="5"/>
     </row>
-    <row r="977" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C977" s="5"/>
       <c r="D977" s="9"/>
       <c r="E977" s="5"/>
       <c r="F977" s="5"/>
     </row>
-    <row r="978" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C978" s="5"/>
       <c r="D978" s="9"/>
       <c r="E978" s="5"/>
       <c r="F978" s="5"/>
     </row>
-    <row r="979" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C979" s="5"/>
       <c r="D979" s="9"/>
       <c r="E979" s="5"/>
       <c r="F979" s="5"/>
     </row>
-    <row r="980" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C980" s="5"/>
       <c r="D980" s="9"/>
       <c r="E980" s="5"/>
       <c r="F980" s="5"/>
     </row>
-    <row r="981" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C981" s="5"/>
       <c r="D981" s="9"/>
       <c r="E981" s="5"/>
       <c r="F981" s="5"/>
     </row>
-    <row r="982" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C982" s="5"/>
       <c r="D982" s="9"/>
       <c r="E982" s="5"/>
       <c r="F982" s="5"/>
     </row>
-    <row r="983" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C983" s="5"/>
       <c r="D983" s="9"/>
       <c r="E983" s="5"/>
       <c r="F983" s="5"/>
     </row>
-    <row r="984" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C984" s="5"/>
       <c r="D984" s="9"/>
       <c r="E984" s="5"/>
       <c r="F984" s="5"/>
     </row>
-    <row r="985" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C985" s="5"/>
       <c r="D985" s="9"/>
       <c r="E985" s="5"/>
       <c r="F985" s="5"/>
     </row>
-    <row r="986" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C986" s="5"/>
       <c r="D986" s="9"/>
       <c r="E986" s="5"/>
       <c r="F986" s="5"/>
     </row>
-    <row r="987" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C987" s="5"/>
       <c r="D987" s="9"/>
       <c r="E987" s="5"/>
       <c r="F987" s="5"/>
     </row>
-    <row r="988" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C988" s="5"/>
       <c r="D988" s="9"/>
       <c r="E988" s="5"/>
       <c r="F988" s="5"/>
     </row>
-    <row r="989" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C989" s="5"/>
       <c r="D989" s="9"/>
       <c r="E989" s="5"/>
       <c r="F989" s="5"/>
     </row>
-    <row r="990" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C990" s="5"/>
       <c r="D990" s="9"/>
       <c r="E990" s="5"/>
       <c r="F990" s="5"/>
     </row>
-    <row r="991" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C991" s="5"/>
       <c r="D991" s="9"/>
       <c r="E991" s="5"/>
       <c r="F991" s="5"/>
     </row>
-    <row r="992" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C992" s="5"/>
       <c r="D992" s="9"/>
       <c r="E992" s="5"/>
       <c r="F992" s="5"/>
     </row>
-    <row r="993" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C993" s="5"/>
       <c r="D993" s="9"/>
       <c r="E993" s="5"/>
       <c r="F993" s="5"/>
     </row>
-    <row r="994" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C994" s="5"/>
       <c r="D994" s="9"/>
       <c r="E994" s="5"/>
       <c r="F994" s="5"/>
     </row>
-    <row r="995" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C995" s="5"/>
       <c r="D995" s="9"/>
       <c r="E995" s="5"/>
       <c r="F995" s="5"/>
     </row>
-    <row r="996" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C996" s="5"/>
       <c r="D996" s="9"/>
       <c r="E996" s="5"/>
       <c r="F996" s="5"/>
     </row>
-    <row r="997" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C997" s="5"/>
       <c r="D997" s="9"/>
       <c r="E997" s="5"/>
       <c r="F997" s="5"/>
     </row>
-    <row r="998" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C998" s="5"/>
       <c r="D998" s="9"/>
       <c r="E998" s="5"/>
       <c r="F998" s="5"/>
     </row>
-    <row r="999" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C999" s="5"/>
       <c r="D999" s="9"/>
       <c r="E999" s="5"/>
       <c r="F999" s="5"/>
     </row>
-    <row r="1000" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C1000" s="5"/>
       <c r="D1000" s="9"/>
       <c r="E1000" s="5"/>
       <c r="F1000" s="5"/>
     </row>
-    <row r="1001" spans="3:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1001" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C1001" s="5"/>
       <c r="D1001" s="9"/>
       <c r="E1001" s="5"/>
@@ -7701,26 +7811,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6443C32-F7E7-4F64-9FFE-AA3B76D48EBB}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="50" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -7733,8 +7846,11 @@
       <c r="D3" s="10" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -7747,8 +7863,11 @@
       <c r="D4" s="12" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -7761,8 +7880,11 @@
       <c r="D5" s="12" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -7775,8 +7897,11 @@
       <c r="D6" s="12" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="50" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -7789,8 +7914,11 @@
       <c r="D7" s="12" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -7803,8 +7931,11 @@
       <c r="D8" s="12" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -7817,62 +7948,164 @@
       <c r="D9" s="12" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>357</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="50" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>361</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="E15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>365</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="E16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>368</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>367</v>
+      <c r="B17" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="E17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>389</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="E24" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>392</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -7891,15 +8124,25 @@
     <hyperlink ref="C8" r:id="rId12" display="https://www.digikey.com/en/products/detail/murata-electronics/GCM1555C1H1R5JA16D/7363196?s=N4IgjCBcoMxaBjKAzAhgGwM4FMA0IB7KAbRACYBWABjgF18AHAFyhAGUmAnASwDsBzEAF98YAGzwQSSGix5CJEDACcYCgA4Q9EM1YceA4fjHLJ02TnxFIpACxVlt8VsYtI7Ln0Ejwy9aegpFAxLBRsQKhcdNw8Db3wyKlsAxGC5K0UwADoKAAIGADEo3XcAVV5uJgB5ZABZbFRMAFdObCMQAFoKMzTQ61IyLR8OwcDpLib5fpBu2iEfUdIEVAZUBEqCTiGgA" xr:uid="{2FD02EB6-154B-4F2F-BBBB-A62C6BF9EA4B}"/>
     <hyperlink ref="C9" r:id="rId13" display="https://www.digikey.com/en/products/detail/samsung-electro-mechanics/RC1005J000CS/3903488" xr:uid="{7C870805-05E3-4AD9-B4DD-72C1547EE639}"/>
     <hyperlink ref="D9" r:id="rId14" display="https://media.digikey.com/pdf/Data Sheets/Samsung PDFs/RC_Series_ds.pdf" xr:uid="{9F258215-1BFD-414D-B1BA-8CB4BBA9AE67}"/>
-    <hyperlink ref="C14" r:id="rId15" display="https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/885012207078/5453527" xr:uid="{5B026AA1-D07A-428E-A0DB-AFF5D0AB10F1}"/>
-    <hyperlink ref="D14" r:id="rId16" display="https://www.we-online.com/katalog/datasheet/885012207078.pdf" xr:uid="{6B0C4B17-22AB-41AA-912A-58454578DB1D}"/>
-    <hyperlink ref="C15" r:id="rId17" display="https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/74279266/3907315" xr:uid="{34D81E4F-8D35-4700-B752-C6882DC94BC6}"/>
-    <hyperlink ref="D15" r:id="rId18" display="https://www.we-online.com/katalog/datasheet/74279266.pdf" xr:uid="{ADEF27F3-78D7-406E-9F3F-B583592D8660}"/>
-    <hyperlink ref="C16" r:id="rId19" display="https://www.digikey.com/en/products/detail/yageo/RC0603FR-101RL/14286393" xr:uid="{442CE07C-6DF4-4C3B-81AC-1465A64153D0}"/>
-    <hyperlink ref="D16" r:id="rId20" display="https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-RC_Group_51_RoHS_L_11.pdf" xr:uid="{6AB09086-52C3-4A0B-A004-D0EA04C3CA9B}"/>
+    <hyperlink ref="D14" r:id="rId15" xr:uid="{6B0C4B17-22AB-41AA-912A-58454578DB1D}"/>
+    <hyperlink ref="C15" r:id="rId16" display="https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/74279266/3907315" xr:uid="{34D81E4F-8D35-4700-B752-C6882DC94BC6}"/>
+    <hyperlink ref="D15" r:id="rId17" display="https://www.we-online.com/katalog/datasheet/74279266.pdf" xr:uid="{ADEF27F3-78D7-406E-9F3F-B583592D8660}"/>
+    <hyperlink ref="C16" r:id="rId18" display="https://www.digikey.com/en/products/detail/yageo/RC0603FR-101RL/14286393" xr:uid="{442CE07C-6DF4-4C3B-81AC-1465A64153D0}"/>
+    <hyperlink ref="D16" r:id="rId19" display="https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-RC_Group_51_RoHS_L_11.pdf" xr:uid="{6AB09086-52C3-4A0B-A004-D0EA04C3CA9B}"/>
+    <hyperlink ref="C17" r:id="rId20" display="https://www.digikey.com/en/products/detail/murata-electronics/LQH32PH4R7NNCL/6799435" xr:uid="{C8F40647-D875-49B2-81B4-34AE1C0EA13B}"/>
+    <hyperlink ref="D17" r:id="rId21" display="https://search.murata.co.jp/Ceramy/image/img/P02/JELF243A-9135.pdf" xr:uid="{93ACCBA3-0D02-4A07-8968-557BE10721FC}"/>
+    <hyperlink ref="C18" r:id="rId22" display="https://www.digikey.com/en/products/detail/kemet/C0805C104K4RACAUTO/10642389" xr:uid="{D041C7CE-9C02-4927-9F2C-E0B3C0BEDFD0}"/>
+    <hyperlink ref="D18" r:id="rId23" xr:uid="{9715EBAA-1552-4A24-8D7A-FFE870CD43C5}"/>
+    <hyperlink ref="D19" r:id="rId24" display="https://media.digikey.com/pdf/Data Sheets/Samsung PDFs/CL10A475KP8NNNC_Spec.pdf" xr:uid="{0F745D96-D00D-4EEC-8D6D-9EA83721722A}"/>
+    <hyperlink ref="C19" r:id="rId25" display="https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10A475KP8NNNC/3886702" xr:uid="{08CD00B4-E11D-49A7-B9C3-9D12524F2DBE}"/>
+    <hyperlink ref="C14" r:id="rId26" display="https://www.digikey.com/en/products/detail/murata-electronics/GRM216R61E105KA12D/586873" xr:uid="{4B4B25E7-7288-41FC-89CD-15BF590E7395}"/>
+    <hyperlink ref="C24" r:id="rId27" display="https://www.digikey.com/en/products/detail/kemet/C0805C220K5RACAUTO/8572462" xr:uid="{22269970-89A9-43F4-A988-F62D8990F83B}"/>
+    <hyperlink ref="D24" r:id="rId28" xr:uid="{8FBB2762-6892-4687-A594-D1BA601F3ADE}"/>
+    <hyperlink ref="C25" r:id="rId29" display="https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0603FT10K0/1761235" xr:uid="{655EDAA1-36A5-4217-BF9A-83EFE723B814}"/>
+    <hyperlink ref="D25" r:id="rId30" display="https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf" xr:uid="{0D749589-05BD-4865-B7DF-C80EB4E2652C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId21"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -7912,9 +8155,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -7925,7 +8168,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -7936,7 +8179,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -7947,7 +8190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -7958,7 +8201,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -7969,7 +8212,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -7980,7 +8223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
@@ -7991,7 +8234,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
@@ -8002,7 +8245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -8013,7 +8256,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
@@ -8024,7 +8267,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -8035,7 +8278,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -8046,7 +8289,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>79</v>
       </c>
@@ -8057,7 +8300,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -8068,7 +8311,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
@@ -8079,7 +8322,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -8090,7 +8333,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>87</v>
       </c>
@@ -8101,7 +8344,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -8112,7 +8355,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>91</v>
       </c>
@@ -8123,7 +8366,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
@@ -8134,7 +8377,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -8145,7 +8388,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
@@ -8167,12 +8410,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -8183,12 +8426,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
@@ -8199,7 +8442,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
@@ -8210,7 +8453,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -8221,7 +8464,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
@@ -8232,7 +8475,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>106</v>
       </c>
@@ -8243,7 +8486,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
@@ -8254,7 +8497,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>110</v>
       </c>
@@ -8265,7 +8508,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>112</v>
       </c>
@@ -8276,12 +8519,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>115</v>
       </c>
@@ -8292,7 +8535,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>117</v>
       </c>
@@ -8303,7 +8546,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>119</v>
       </c>
@@ -8314,7 +8557,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
@@ -8325,7 +8568,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -8336,7 +8579,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>124</v>
       </c>
@@ -8347,7 +8590,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>126</v>
       </c>
@@ -8358,7 +8601,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>128</v>
       </c>
@@ -8369,7 +8612,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>130</v>
       </c>
@@ -8380,7 +8623,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -8391,12 +8634,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>134</v>
       </c>
@@ -8407,7 +8650,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>136</v>
       </c>
@@ -8418,7 +8661,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>137</v>
       </c>
@@ -8429,7 +8672,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>138</v>
       </c>
@@ -8440,7 +8683,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>139</v>
       </c>
@@ -8451,7 +8694,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>140</v>
       </c>
@@ -8462,7 +8705,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>142</v>
       </c>
@@ -8473,7 +8716,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>143</v>
       </c>
@@ -8484,7 +8727,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>144</v>
       </c>
@@ -8495,7 +8738,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>145</v>
       </c>
@@ -8506,7 +8749,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>146</v>
       </c>
@@ -8517,7 +8760,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>147</v>
       </c>
@@ -8528,7 +8771,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>148</v>
       </c>
@@ -8539,7 +8782,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>149</v>
       </c>
@@ -8550,7 +8793,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>150</v>
       </c>
@@ -8561,7 +8804,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>151</v>
       </c>
@@ -8572,7 +8815,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>152</v>
       </c>
@@ -8583,7 +8826,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>153</v>
       </c>
@@ -8594,7 +8837,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>154</v>
       </c>
@@ -8605,7 +8848,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>155</v>
       </c>
@@ -8616,7 +8859,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>156</v>
       </c>
@@ -8627,7 +8870,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>157</v>
       </c>
@@ -8638,7 +8881,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>158</v>
       </c>
@@ -8649,7 +8892,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>159</v>
       </c>
@@ -8660,7 +8903,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>160</v>
       </c>
@@ -8671,7 +8914,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>161</v>
       </c>
@@ -8682,7 +8925,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>162</v>
       </c>
@@ -8693,7 +8936,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>163</v>
       </c>
@@ -8704,7 +8947,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>164</v>
       </c>
@@ -8715,7 +8958,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>165</v>
       </c>
@@ -8726,7 +8969,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -8751,12 +8994,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="77.7265625" customWidth="1"/>
+    <col min="3" max="3" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
@@ -8767,7 +9010,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8778,7 +9021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8789,7 +9032,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8800,7 +9043,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8811,7 +9054,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8822,7 +9065,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8833,7 +9076,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8844,7 +9087,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8855,7 +9098,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8866,7 +9109,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8877,7 +9120,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8888,7 +9131,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8899,7 +9142,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8910,7 +9153,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8928,28 +9171,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CEEC94-12F5-4B70-B3B0-4D2A22D8E1CB}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="50.7265625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="25.7265625" style="16" customWidth="1"/>
-    <col min="6" max="7" width="30.7265625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" style="16" customWidth="1"/>
-    <col min="11" max="11" width="15.1796875" style="16" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="16"/>
+    <col min="1" max="1" width="12.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="16" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>355</v>
       </c>
@@ -8965,8 +9211,13 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>353</v>
       </c>
@@ -8982,8 +9233,13 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>351</v>
       </c>
@@ -8999,8 +9255,13 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>349</v>
       </c>
@@ -9016,8 +9277,13 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>347</v>
       </c>
@@ -9051,8 +9317,23 @@
       <c r="K5" s="16" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -9066,7 +9347,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>2</v>
       </c>
@@ -9095,7 +9376,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>3</v>
       </c>
@@ -9118,7 +9399,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>4</v>
       </c>
@@ -9144,7 +9425,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>5</v>
       </c>
@@ -9170,7 +9451,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>6</v>
       </c>
@@ -9196,7 +9477,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>7</v>
       </c>
@@ -9221,8 +9502,23 @@
       <c r="J12" s="16" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>357</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>8</v>
       </c>
@@ -9248,7 +9544,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>9</v>
       </c>
@@ -9270,8 +9566,23 @@
       <c r="J14" s="16" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>10</v>
       </c>
@@ -9296,8 +9607,23 @@
       <c r="J15" s="16" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>11</v>
       </c>
@@ -9317,7 +9643,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>12</v>
       </c>
@@ -9340,7 +9666,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>13</v>
       </c>
@@ -9363,7 +9689,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>14</v>
       </c>
@@ -9379,14 +9705,29 @@
       <c r="E19" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="19" t="s">
         <v>293</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>368</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="P19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>15</v>
       </c>
@@ -9406,7 +9747,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>16</v>
       </c>
@@ -9423,7 +9764,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>17</v>
       </c>
@@ -9443,7 +9784,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>18</v>
       </c>
@@ -9466,7 +9807,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>19</v>
       </c>
@@ -9489,7 +9830,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>20</v>
       </c>
@@ -9506,7 +9847,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>21</v>
       </c>
@@ -9523,7 +9864,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>22</v>
       </c>
@@ -9540,7 +9881,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>23</v>
       </c>
@@ -9557,7 +9898,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>24</v>
       </c>
@@ -9574,7 +9915,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>25</v>
       </c>
@@ -9597,7 +9938,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>26</v>
       </c>
@@ -9620,7 +9961,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>27</v>
       </c>
@@ -9634,7 +9975,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>28</v>
       </c>
@@ -9654,7 +9995,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>29</v>
       </c>
@@ -9677,7 +10018,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>30</v>
       </c>
@@ -9700,7 +10041,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>31</v>
       </c>
@@ -9720,7 +10061,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>32</v>
       </c>
@@ -9741,9 +10082,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N19" r:id="rId1" display="https://www.digikey.com/en/products/detail/murata-electronics/LQH32PH4R7NNCL/6799435" xr:uid="{C98B8168-2EAE-42AF-ADB3-0A45EBF0C9B2}"/>
+    <hyperlink ref="O19" r:id="rId2" display="https://search.murata.co.jp/Ceramy/image/img/P02/JELF243A-9135.pdf" xr:uid="{2BD377F1-83F3-491A-BC30-FBACB309FEF2}"/>
+    <hyperlink ref="O14" r:id="rId3" display="https://media.digikey.com/pdf/Data Sheets/Samsung PDFs/CL10A475KP8NNNC_Spec.pdf" xr:uid="{D9C547DD-57DF-451C-8B3B-151991ABD022}"/>
+    <hyperlink ref="N14" r:id="rId4" display="https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10A475KP8NNNC/3886702" xr:uid="{F3FE619E-B7CE-4AEF-925C-D8DE8A7EB1C0}"/>
+    <hyperlink ref="N15" r:id="rId5" display="https://www.digikey.com/en/products/detail/kemet/C0805C104K4RACAUTO/10642389" xr:uid="{ECB30D16-6CC8-4041-A050-57A20FA54F1D}"/>
+    <hyperlink ref="O15" r:id="rId6" xr:uid="{15AED319-876B-4C27-8D62-9BDF5B2CDB9D}"/>
+    <hyperlink ref="O12" r:id="rId7" xr:uid="{5EECB989-4E3C-471D-BECD-27F6A71617C7}"/>
+    <hyperlink ref="N12" r:id="rId8" display="https://www.digikey.com/en/products/detail/murata-electronics/GRM216R61E105KA12D/586873" xr:uid="{51D8D712-8483-4D37-A30E-40E02F863F17}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>